--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06017091759892984</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06017091759892984</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09627346815828774</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.08476774775171105</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01624614775171106</v>
+        <v>0.0174216733554011</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01691037827176799</v>
+        <v>0.01813396572956723</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0004078797205767787</v>
+        <v>0.001405244801586866</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007348018461950177</v>
+        <v>0.0008070333826028144</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00170539067914538</v>
+        <v>0.004730854254512862</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000769196445131248</v>
+        <v>0.0007869213301596226</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003326789357557702</v>
+        <v>0.004803751905972375</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007963416243844139</v>
+        <v>0.0007886855334229295</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004443037406879735</v>
+        <v>0.001405244801586866</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007466791296522663</v>
+        <v>0.0008070333826028144</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0007917670434067492</v>
+        <v>0.002886923950992118</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001469603692390035</v>
+        <v>0.001614066765205629</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003168875389372619</v>
+        <v>0.008946780570986662</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001538392890262496</v>
+        <v>0.001573842660319245</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.006566725895781722</v>
+        <v>0.0114784</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001592683248768828</v>
+        <v>0.00196698410185844</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.009842762277564365</v>
+        <v>0.002886923950992118</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001493358259304533</v>
+        <v>0.001614066765205629</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003127669570743077</v>
+        <v>0.00421014723291252</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002204405538585053</v>
+        <v>0.002421100147808443</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00497624975733893</v>
+        <v>0.01336383330071675</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002307589335393744</v>
+        <v>0.002360763990478868</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.008478399999999997</v>
+        <v>0.01318943381083948</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002031113219097113</v>
+        <v>0.002366056600268788</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01647839999999995</v>
+        <v>0.00421014723291252</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002574644743338855</v>
+        <v>0.002421100147808443</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003391594904838952</v>
+        <v>0.005740024432044952</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002939207384780071</v>
+        <v>0.003228133530411258</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006413309409701529</v>
+        <v>0.01729806679499846</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003076785780524992</v>
+        <v>0.00314768532063849</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01172712976846907</v>
+        <v>0.01574094503264439</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003185366497537655</v>
+        <v>0.003154742133691718</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01788110147116462</v>
+        <v>0.005740024432044952</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002986716518609065</v>
+        <v>0.003228133530411258</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005636792757255998</v>
+        <v>0.005295025750000007</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009025637639839476</v>
+        <v>0.008478400000000011</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006559550647947568</v>
+        <v>0.006941665333086142</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003674009230975089</v>
+        <v>0.004035166913014072</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007965849973117625</v>
+        <v>0.02066553540512714</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00384598222565624</v>
+        <v>0.003934606650798113</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01381690629178331</v>
+        <v>0.01932594840735552</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003981708121922069</v>
+        <v>0.003943427667114648</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0205258654846262</v>
+        <v>0.006941665333086142</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003733395648261332</v>
+        <v>0.004035166913014072</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005607544402322112</v>
+        <v>0.00788017972073296</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004408811077170106</v>
+        <v>0.004842200295616887</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009019667074244384</v>
+        <v>0.02398229348239811</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004615178670787488</v>
+        <v>0.004721527980957736</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01545301241499938</v>
+        <v>0.0221517865670664</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004778049746306484</v>
+        <v>0.004732113200537577</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02401491849120552</v>
+        <v>0.00788017972073296</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004480074777913598</v>
+        <v>0.004842200295616887</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007511583770215727</v>
+        <v>0.008478400000000011</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005143612923365124</v>
+        <v>0.005295025750000007</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01026055633973907</v>
+        <v>0.02636439537810661</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005384375115918737</v>
+        <v>0.005508449311117359</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01765843714737197</v>
+        <v>0.02512580214387067</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005574391370690897</v>
+        <v>0.005520798733960506</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02598361915739672</v>
+        <v>0.008478400000000011</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005226753907565864</v>
+        <v>0.005295025750000007</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009025637639839476</v>
+        <v>0.009304921063750707</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005636792757255998</v>
+        <v>0.006456267060822515</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01157431339625885</v>
+        <v>0.02792789544354807</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006153571561049984</v>
+        <v>0.006295370641276981</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.01875616949815564</v>
+        <v>0.02755533776986163</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006370732995075311</v>
+        <v>0.006309484267383436</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.02846732614969433</v>
+        <v>0.009304921063750707</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005973433037218131</v>
+        <v>0.006456267060822515</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008891153778584779</v>
+        <v>0.01031636595633779</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006613216615755159</v>
+        <v>0.007263300443425331</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01254673387046093</v>
+        <v>0.02847840000000001</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006922768006181233</v>
+        <v>0.006758618049590051</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02086919847660507</v>
+        <v>0.02944773607713286</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007167074619459725</v>
+        <v>0.007098169800806364</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03040139813459247</v>
+        <v>0.01031636595633779</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006720112166870398</v>
+        <v>0.007263300443425331</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008456769499447514</v>
+        <v>0.01067638267775579</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007348018461950177</v>
+        <v>0.008070333826028144</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01346361338900255</v>
+        <v>0.02868207968778308</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00769196445131248</v>
+        <v>0.007869213301596225</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02212051309197477</v>
+        <v>0.03221033969777792</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007963416243844139</v>
+        <v>0.007886855334229295</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03262119377858558</v>
+        <v>0.01067638267775579</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007466791296522664</v>
+        <v>0.008070333826028144</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.007961000278415051</v>
+        <v>0.0112912270055974</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008082820308145194</v>
+        <v>0.008877367208630959</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01411074757854089</v>
+        <v>0.02939119305700155</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008461160896443729</v>
+        <v>0.008656134631755848</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02403310235351944</v>
+        <v>0.0345504912638902</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008759757868228553</v>
+        <v>0.008675540867652223</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03536207174816791</v>
+        <v>0.0112912270055974</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008213470426174929</v>
+        <v>0.008877367208630959</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01041487188567164</v>
+        <v>0.01196715471745527</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008817622154340211</v>
+        <v>0.009684400591233773</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01447840000000002</v>
+        <v>0.02941929348807731</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009042213250000009</v>
+        <v>0.009443055961915471</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02492995527049369</v>
+        <v>0.03617553340756324</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009556099492612968</v>
+        <v>0.009464226401075153</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03715939070983371</v>
+        <v>0.01196715471745527</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008960149555827196</v>
+        <v>0.009684400591233773</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009829410091401425</v>
+        <v>0.01271042159092217</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009552424000535228</v>
+        <v>0.01049143397383659</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01483262776535843</v>
+        <v>0.02981209089674672</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009999553786706226</v>
+        <v>0.01022997729207509</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02703406085215201</v>
+        <v>0.03899280876089062</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01035244111699738</v>
+        <v>0.01025291193449808</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0388485093300775</v>
+        <v>0.01271042159092217</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009706828685479464</v>
+        <v>0.01049143397383659</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01221564066578869</v>
+        <v>0.01322728340359078</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01028722584673025</v>
+        <v>0.0112984673564394</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0149205088555032</v>
+        <v>0.03001529519874616</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01076875023183747</v>
+        <v>0.01101689862223472</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02806840810774913</v>
+        <v>0.04100965995596567</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01114878274138179</v>
+        <v>0.01104159746792101</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04116478627539327</v>
+        <v>0.01322728340359078</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01045350781513173</v>
+        <v>0.0112984673564394</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01158458937901759</v>
+        <v>0.01362399593305379</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01102202769292527</v>
+        <v>0.01210550073904222</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01535555273297</v>
+        <v>0.03097461630981196</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01153794667696872</v>
+        <v>0.01180381995239434</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0300559860465397</v>
+        <v>0.04203342962488199</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01194512436576621</v>
+        <v>0.01183028300134394</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04304358021227572</v>
+        <v>0.01362399593305379</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01120018694478399</v>
+        <v>0.01210550073904222</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01194728200127237</v>
+        <v>0.0140068149569039</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01175682953912028</v>
+        <v>0.01291253412164503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01565240683368059</v>
+        <v>0.03129994334744568</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01230714312209997</v>
+        <v>0.01238039836385894</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03129994334744568</v>
+        <v>0.04517821333949024</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01249719457483874</v>
+        <v>0.01290319605943136</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04517821333949024</v>
+        <v>0.0140068149569039</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01176467876006977</v>
+        <v>0.01291253412164503</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01331474430273721</v>
+        <v>0.01468199625273384</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0124916313853153</v>
+        <v>0.01371956750424785</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01562571859355667</v>
+        <v>0.03147594089471212</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01307633956723122</v>
+        <v>0.01337766261271358</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03313305699708133</v>
+        <v>0.04614788619822097</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01353780761453503</v>
+        <v>0.0134076540681898</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04755803160004329</v>
+        <v>0.01468199625273384</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01269354520408853</v>
+        <v>0.01371956750424785</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01269800205359639</v>
+        <v>0.0149557955981363</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01322643323151032</v>
+        <v>0.01452660088685066</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01579013544852005</v>
+        <v>0.03248430766254576</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01384553601236247</v>
+        <v>0.01416458394287321</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03537626220490386</v>
+        <v>0.0478255283453381</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01433414923891945</v>
+        <v>0.01419633960161273</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04994335110128595</v>
+        <v>0.0149557955981363</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0134402243337408</v>
+        <v>0.01452660088685066</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01110808102403404</v>
+        <v>0.01533446877070398</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01396123507770534</v>
+        <v>0.01533363426945347</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01596030483449239</v>
+        <v>0.03295417595524475</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01461473245749371</v>
+        <v>0.01495150527303283</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03732147018976012</v>
+        <v>0.04940726452113875</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01513049086330386</v>
+        <v>0.01498502513503566</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05244656176654033</v>
+        <v>0.01533446877070398</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01418690346339306</v>
+        <v>0.01533363426945347</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01455600698423441</v>
+        <v>0.01592427154802957</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01469603692390035</v>
+        <v>0.01614066765205629</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01605087418739548</v>
+        <v>0.03378131024279152</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01538392890262496</v>
+        <v>0.01573842660319245</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03963712669728056</v>
+        <v>0.05049042520664149</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01592683248768828</v>
+        <v>0.01577371066845859</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05493628235050918</v>
+        <v>0.01592427154802957</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01493358259304533</v>
+        <v>0.01614066765205629</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01505280570438172</v>
+        <v>0.01653145970770581</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01543083877009537</v>
+        <v>0.0169477010346591</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01637649094315105</v>
+        <v>0.03416147499516853</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01615312534775621</v>
+        <v>0.01652534793335208</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04169167747309563</v>
+        <v>0.05287234088286508</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01672317411207269</v>
+        <v>0.01656239620188152</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05788113160789565</v>
+        <v>0.01653145970770581</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01568026172269759</v>
+        <v>0.0169477010346591</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01260950295466019</v>
+        <v>0.0174216733554011</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01616564061629039</v>
+        <v>0.01813396572956723</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01655180253768083</v>
+        <v>0.03509043468235806</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01692232179288746</v>
+        <v>0.0173122692635117</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04345356826283572</v>
+        <v>0.053850342030828</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01751951573645711</v>
+        <v>0.01735108173530445</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06044972829340245</v>
+        <v>0.0174216733554011</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01642694085234986</v>
+        <v>0.01813396572956723</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01624614775171106</v>
+        <v>0.01752309246401661</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01691037827176799</v>
+        <v>0.01856176779986473</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01719145640690657</v>
+        <v>0.03586395377434259</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01769151823801871</v>
+        <v>0.01809919059367132</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04609124481213128</v>
+        <v>0.05562175913154915</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01831585736084152</v>
+        <v>0.01813976726872738</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06411069116173257</v>
+        <v>0.01752309246401661</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01717361998200213</v>
+        <v>0.01856176779986473</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01604245137004071</v>
+        <v>0.01801677715914149</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01763524430868042</v>
+        <v>0.01936880118246755</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0174216733554011</v>
+        <v>0.03717779674110444</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01813396572956723</v>
+        <v>0.01888611192383094</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04767315286661275</v>
+        <v>0.05738392266604692</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01911219898522594</v>
+        <v>0.01892845280215031</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06593263896758889</v>
+        <v>0.01801677715914149</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01792029911165439</v>
+        <v>0.01936880118246755</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01609594824546014</v>
+        <v>0.01884037768624663</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01837004615487544</v>
+        <v>0.02017583456507036</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0182700038479271</v>
+        <v>0.03802772805262608</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0192299111282812</v>
+        <v>0.01967303325399057</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05026773817191055</v>
+        <v>0.05943416311534011</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01990854060961035</v>
+        <v>0.01971713833557324</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06878419046567447</v>
+        <v>0.01884037768624663</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01866697824130666</v>
+        <v>0.02017583456507036</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01934543212555011</v>
+        <v>0.01929051332511771</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01910484800107046</v>
+        <v>0.02098286794767317</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01991762899803848</v>
+        <v>0.03870951217888982</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01999910757341245</v>
+        <v>0.02045995458415019</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05204344647365514</v>
+        <v>0.06086981096044725</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02070488223399476</v>
+        <v>0.02050582386899617</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07113396441069203</v>
+        <v>0.01929051332511771</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01941365737095893</v>
+        <v>0.02098286794767317</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01973870008665482</v>
+        <v>0.02006380335554032</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01983964984726548</v>
+        <v>0.02178990133027599</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02128688103892179</v>
+        <v>0.03991891358987806</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0207683040185437</v>
+        <v>0.02124687591430981</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05386872351747693</v>
+        <v>0.06248819668238709</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02150122385837917</v>
+        <v>0.0212945094024191</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07415057955734455</v>
+        <v>0.02006380335554032</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02016033650061119</v>
+        <v>0.02178990133027599</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02222354920511849</v>
+        <v>0.02065686705730012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02057445169346049</v>
+        <v>0.0225969347128788</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02346813922588022</v>
+        <v>0.04075169675557327</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02153750046367495</v>
+        <v>0.02203379724446944</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05511201504900637</v>
+        <v>0.06388665076217825</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02229756548276359</v>
+        <v>0.02208319493584203</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07630265466033492</v>
+        <v>0.02065686705730012</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02090701563026346</v>
+        <v>0.0225969347128788</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02074777655728532</v>
+        <v>0.02156632371018265</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02130925353965551</v>
+        <v>0.02340396809548162</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02535178281421695</v>
+        <v>0.04240362614595777</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02230669690880619</v>
+        <v>0.02282071857462906</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05664176681387387</v>
+        <v>0.06586250368083935</v>
       </c>
       <c r="M94" t="n">
-        <v>0.023093907107148</v>
+        <v>0.02287188046926496</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07875880847436612</v>
+        <v>0.02156632371018265</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02165369475991573</v>
+        <v>0.02340396809548162</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02325917921949952</v>
+        <v>0.02238879259397362</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02204405538585053</v>
+        <v>0.02421100147808443</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0271281910592352</v>
+        <v>0.04337046623101398</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02307589335393744</v>
+        <v>0.02360763990478868</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0572264245577099</v>
+        <v>0.06741308591938899</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02389024873153242</v>
+        <v>0.02366056600268789</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08058765975414101</v>
+        <v>0.02238879259397362</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02240037388956799</v>
+        <v>0.02421100147808443</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02370555426810532</v>
+        <v>0.02302089298845862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02277885723204555</v>
+        <v>0.02501803486068725</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02928774321623806</v>
+        <v>0.04444798148072421</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02384508979906869</v>
+        <v>0.0243945612349483</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05853443402614489</v>
+        <v>0.06893572795884589</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02468659035591683</v>
+        <v>0.02444925153611082</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08175782725436248</v>
+        <v>0.02302089298845862</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02314705301922025</v>
+        <v>0.02501803486068725</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02703469877944689</v>
+        <v>0.02365924417342326</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02351365907824057</v>
+        <v>0.02582506824329006</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03062081854052882</v>
+        <v>0.04543193636507098</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02461428624419994</v>
+        <v>0.02518148256510792</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05883424096480924</v>
+        <v>0.07052776028022867</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02548293198030124</v>
+        <v>0.02523793706953375</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08273792972973354</v>
+        <v>0.02365924417342326</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02389373214887252</v>
+        <v>0.02582506824329006</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02819440982986846</v>
+        <v>0.02440046542865318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02424846092443558</v>
+        <v>0.02663210162589288</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03201779628741058</v>
+        <v>0.04671809535403662</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02538348268933119</v>
+        <v>0.02596840389526755</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05869456534050174</v>
+        <v>0.07208651336455596</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02627927360468566</v>
+        <v>0.02602662260295667</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08419658593495699</v>
+        <v>0.02440046542865318</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02464041127852479</v>
+        <v>0.02663210162589288</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02913248449571425</v>
+        <v>0.025341176033934</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0249832627706306</v>
+        <v>0.02743913500849569</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03276905571218655</v>
+        <v>0.04740222291760351</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02615267913446243</v>
+        <v>0.02675532522542717</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05879348909755883</v>
+        <v>0.07270931769284639</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02707561522907007</v>
+        <v>0.0268153081363796</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08430241462473581</v>
+        <v>0.025341176033934</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02538709040817706</v>
+        <v>0.02743913500849569</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02979671985332843</v>
+        <v>0.02597799526905131</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02571806461682562</v>
+        <v>0.0282461683910985</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03316520883599312</v>
+        <v>0.04868008352575404</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02692187557959368</v>
+        <v>0.02754224655558679</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05842331112079605</v>
+        <v>0.07399350374611863</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02787195685345448</v>
+        <v>0.02760399366980253</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08502403455377289</v>
+        <v>0.02597799526905131</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02613376953782932</v>
+        <v>0.0282461683910985</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03013491297905527</v>
+        <v>0.02650754241379079</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02645286646302064</v>
+        <v>0.02905320177370132</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03333931327388659</v>
+        <v>0.04974744164847061</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02769107202472493</v>
+        <v>0.02832916788574641</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05840260056209765</v>
+        <v>0.07603640200539147</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0286682984778389</v>
+        <v>0.02839267920322546</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08424846587578266</v>
+        <v>0.02650754241379079</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02688044866748159</v>
+        <v>0.02905320177370132</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0291506642251551</v>
+        <v>0.02752643674793802</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02718766830921565</v>
+        <v>0.02986023515630414</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03296695764090407</v>
+        <v>0.05090006175573566</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02846026846985618</v>
+        <v>0.02911608921590604</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05784992657334764</v>
+        <v>0.07723534295168322</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02946464010222331</v>
+        <v>0.02918136473664839</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0838156930712825</v>
+        <v>0.02752643674793802</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02762712779713386</v>
+        <v>0.02986023515630414</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02805260905038794</v>
+        <v>0.02823129755127864</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02792247015541067</v>
+        <v>0.03066726853890695</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03305197483923619</v>
+        <v>0.0514337083175315</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02922946491498743</v>
+        <v>0.02990301054606566</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05718385830643033</v>
+        <v>0.07808765706601289</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03026098172660773</v>
+        <v>0.02997005027007132</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0830719482905663</v>
+        <v>0.02823129755127864</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02837380692678612</v>
+        <v>0.03066726853890695</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02787565270739162</v>
+        <v>0.02871874410359825</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02865727200160569</v>
+        <v>0.03147430192150976</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03269819777107355</v>
+        <v>0.05274414580384057</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02999866136011867</v>
+        <v>0.03068993187622528</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05642296491322973</v>
+        <v>0.07929067482939889</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03105732335099214</v>
+        <v>0.03075873580349425</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08246344844026871</v>
+        <v>0.02871874410359825</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02912048605643839</v>
+        <v>0.03147430192150976</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02863040769330863</v>
+        <v>0.02958539568468252</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02939207384780071</v>
+        <v>0.03228133530411258</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03270945933860675</v>
+        <v>0.05392713868464521</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03076785780524992</v>
+        <v>0.0314768532063849</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05518581554563012</v>
+        <v>0.08044172672285982</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03185366497537655</v>
+        <v>0.03154742133691718</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08063641042702435</v>
+        <v>0.02958539568468252</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02986716518609065</v>
+        <v>0.03228133530411258</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02932748650528147</v>
+        <v>0.03012787157431701</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03012687569399572</v>
+        <v>0.03308836868671539</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03248959244402638</v>
+        <v>0.05477845142992785</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03153705425038117</v>
+        <v>0.03226377453654453</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05449097935551558</v>
+        <v>0.08163814322741453</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03265000659976097</v>
+        <v>0.03233610687034011</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07973705115746776</v>
+        <v>0.03012787157431701</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03061384431574292</v>
+        <v>0.03308836868671539</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02797750164045265</v>
+        <v>0.0305427910522874</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03086167754019074</v>
+        <v>0.0338954020693182</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03234242998952304</v>
+        <v>0.05589384850967094</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03230625069551242</v>
+        <v>0.03305069586670415</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05345702549477024</v>
+        <v>0.08237725482408148</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03344634822414538</v>
+        <v>0.03312479240376304</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07761158753823344</v>
+        <v>0.0305427910522874</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03136052344539519</v>
+        <v>0.0338954020693182</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02959106559596468</v>
+        <v>0.03112677339837927</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03159647938638576</v>
+        <v>0.03470243545192102</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03187180487728732</v>
+        <v>0.05626909439385674</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03307544714064366</v>
+        <v>0.03383761719686377</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05230252311527836</v>
+        <v>0.08395639199387944</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03424268984852979</v>
+        <v>0.03391347793718597</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07630623647595602</v>
+        <v>0.03112677339837927</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03210720257504746</v>
+        <v>0.03470243545192102</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02817879086896004</v>
+        <v>0.03167643789237827</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03233128123258078</v>
+        <v>0.03550946883452383</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03148155000950985</v>
+        <v>0.05759995355246772</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03384464358577492</v>
+        <v>0.03462453852702339</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05164604136892403</v>
+        <v>0.0843728852178271</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03503903147291421</v>
+        <v>0.03470216347060889</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07436721487727005</v>
+        <v>0.03167643789237827</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03285388170469972</v>
+        <v>0.03550946883452383</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02875128995658126</v>
+        <v>0.03238840381406999</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03306608307877579</v>
+        <v>0.03631650221712665</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03117549828838119</v>
+        <v>0.05818219045548628</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03461384003090616</v>
+        <v>0.03541145985718302</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05090614940759139</v>
+        <v>0.08572406497694285</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03583537309729862</v>
+        <v>0.03549084900403183</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07204073964881014</v>
+        <v>0.03238840381406999</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03360056083435198</v>
+        <v>0.03631650221712665</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02531917535597082</v>
+        <v>0.03295929044324009</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03380088492497082</v>
+        <v>0.03712353559972946</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03115748261609196</v>
+        <v>0.05881156957289474</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03538303647603741</v>
+        <v>0.03619838118734264</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05010141638316462</v>
+        <v>0.08590726175224561</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03663171472168304</v>
+        <v>0.03627953453745476</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07087302769721088</v>
+        <v>0.03295929044324009</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03434723996400425</v>
+        <v>0.03712353559972946</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02589305956427124</v>
+        <v>0.03338571705967416</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03453568677116583</v>
+        <v>0.03793056898233228</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03053133589483276</v>
+        <v>0.05928385537467556</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03615223292116866</v>
+        <v>0.03698530251750226</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04895041144752788</v>
+        <v>0.0875198060247539</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03742805634606745</v>
+        <v>0.03706822007087768</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06881029592910676</v>
+        <v>0.03338571705967416</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03509391909365652</v>
+        <v>0.03793056898233228</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.027483555078625</v>
+        <v>0.03346430294315786</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03527048861736085</v>
+        <v>0.03873760236493509</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03040089102679415</v>
+        <v>0.06019481233081117</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03692142936629991</v>
+        <v>0.03777222384766189</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0483717037525653</v>
+        <v>0.0880590282754864</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03822439797045187</v>
+        <v>0.03785690560430061</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06799876125113241</v>
+        <v>0.03346430294315786</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03584059822330878</v>
+        <v>0.03873760236493509</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02410127439617463</v>
+        <v>0.03379166737347677</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03600529046355587</v>
+        <v>0.03954463574753791</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02996998091416678</v>
+        <v>0.06074020491128382</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03769062581143116</v>
+        <v>0.0385591451778215</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04778386245016106</v>
+        <v>0.08822225898546165</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03902073959483628</v>
+        <v>0.03864559113772354</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06638464056992238</v>
+        <v>0.03379166737347677</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03658727735296105</v>
+        <v>0.03954463574753791</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02475683001406259</v>
+        <v>0.03416442963041653</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03674009230975089</v>
+        <v>0.04035166913014072</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02964243845914123</v>
+        <v>0.06121579758607604</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0384598222565624</v>
+        <v>0.03934606650798114</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04700545669219927</v>
+        <v>0.0892068286356984</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03981708121922069</v>
+        <v>0.03943427667114648</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06561415079211119</v>
+        <v>0.03416442963041653</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03733395648261332</v>
+        <v>0.04035166913014072</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02446083442943144</v>
+        <v>0.03427920899376279</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0374748941559459</v>
+        <v>0.04115870251274354</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02952209656390811</v>
+        <v>0.06151735482517015</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03922901870169365</v>
+        <v>0.04013298783814075</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04665505563056416</v>
+        <v>0.08871006770721529</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04061342284360511</v>
+        <v>0.0402229622045694</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06473350882433354</v>
+        <v>0.03427920899376279</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03808063561226558</v>
+        <v>0.04115870251274354</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02322390013942363</v>
+        <v>0.03453262474330113</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03820969600214091</v>
+        <v>0.04196573589534635</v>
       </c>
       <c r="J117" t="n">
-        <v>0.029012788130658</v>
+        <v>0.06154064109854854</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0399982151468249</v>
+        <v>0.04091990916830037</v>
       </c>
       <c r="L117" t="n">
-        <v>0.04615122841713984</v>
+        <v>0.08952930668103098</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04140976446798952</v>
+        <v>0.04101164773799233</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0643889315732239</v>
+        <v>0.03453262474330113</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03882731474191786</v>
+        <v>0.04196573589534635</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02505663964118168</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03894449784833594</v>
+        <v>0.04277276927794917</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0288183460615815</v>
+        <v>0.06238142087619364</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04076741159195615</v>
+        <v>0.04170683049846</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04601254420381046</v>
+        <v>0.08936187603816403</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04220610609237394</v>
+        <v>0.04180033327141526</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06468450380525448</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03957399387157012</v>
+        <v>0.04277276927794917</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02296966543184811</v>
+        <v>0.03464309709764596</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03967929969453095</v>
+        <v>0.04357980266055198</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02864260325886921</v>
+        <v>0.06259988669489136</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04153660803708739</v>
+        <v>0.04249375182861962</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04594566503758576</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04300244771675835</v>
+        <v>0.0425890188048382</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06526180028302159</v>
+        <v>0.03464309709764596</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04032067300122238</v>
+        <v>0.04357980266055198</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02396615662273961</v>
+        <v>0.03473488128372183</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04041410154072597</v>
+        <v>0.0443868360431548</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02838939262471174</v>
+        <v>0.06229851882421344</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04230580448221864</v>
+        <v>0.04328067315877924</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04622299626194401</v>
+        <v>0.09025632782645698</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04379878934114276</v>
+        <v>0.04337770433826112</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06479055701325864</v>
+        <v>0.03473488128372183</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04106735213087465</v>
+        <v>0.0443868360431548</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02301258399586439</v>
+        <v>0.03471536779377399</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04114890338692099</v>
+        <v>0.04519386942575761</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02796254706129966</v>
+        <v>0.06239680024938621</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04307500092734989</v>
+        <v>0.04406759448893887</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04683144584470209</v>
+        <v>0.09024074950371369</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04459513096552718</v>
+        <v>0.04416638987168405</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06565945243817056</v>
+        <v>0.03471536779377399</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04181403126052691</v>
+        <v>0.04519386942575761</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02510067149708946</v>
+        <v>0.03448498874258095</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04188370523311601</v>
+        <v>0.04600090280836042</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02776589947082361</v>
+        <v>0.06218493428546201</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04384419737248114</v>
+        <v>0.04485451581909849</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04725915511810433</v>
+        <v>0.08979142386717737</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04539147258991159</v>
+        <v>0.04495507540510698</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06595716499996218</v>
+        <v>0.03448498874258095</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04256071039017918</v>
+        <v>0.04600090280836042</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02522720594471109</v>
+        <v>0.03464417624492126</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04261850707931102</v>
+        <v>0.04680793619096323</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02770328275547417</v>
+        <v>0.06236422056212707</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04461339381761239</v>
+        <v>0.04564143714925811</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04749426541439494</v>
+        <v>0.08950958104112161</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04618781421429601</v>
+        <v>0.04574376093852991</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06717237314083813</v>
+        <v>0.03464417624492126</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04330738951983145</v>
+        <v>0.04680793619096323</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02638897415702557</v>
+        <v>0.03439336241557343</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04335330892550605</v>
+        <v>0.04761496957356606</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02767852981744193</v>
+        <v>0.06213471892940339</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04538259026274363</v>
+        <v>0.04642835847941773</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04832491806581815</v>
+        <v>0.08929638861800121</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04698415583868042</v>
+        <v>0.04653244647195284</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0677937553030033</v>
+        <v>0.03439336241557343</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04405406864948371</v>
+        <v>0.04761496957356606</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02358276295232918</v>
+        <v>0.03443297936931598</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04408811077170106</v>
+        <v>0.04842200295616887</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02739547355891747</v>
+        <v>0.06199648923731305</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04615178670787488</v>
+        <v>0.04721527980957736</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04893925440461819</v>
+        <v>0.08955301419027073</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04778049746306483</v>
+        <v>0.04732113200537577</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06880998992866255</v>
+        <v>0.03443297936931598</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04480074777913598</v>
+        <v>0.04842200295616887</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.0268053591489182</v>
+        <v>0.03446345922092747</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04482291261789608</v>
+        <v>0.04922903633877168</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02735794688209144</v>
+        <v>0.06204959133587801</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04692098315300613</v>
+        <v>0.04800220113973698</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0494254157630393</v>
+        <v>0.0891806253503849</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04857683908744925</v>
+        <v>0.0481098175387987</v>
       </c>
       <c r="N126" t="n">
-        <v>0.06930975546002072</v>
+        <v>0.03446345922092747</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04554742690878825</v>
+        <v>0.04922903633877168</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02605354956508892</v>
+        <v>0.03448523408518642</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04555771446409109</v>
+        <v>0.05003606972137449</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0275837500371776</v>
+        <v>0.06219408507512034</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04769017959813738</v>
+        <v>0.0487891224698966</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05037154347332573</v>
+        <v>0.08938038969079831</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04937318071183366</v>
+        <v>0.04889850307222163</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0711817303392826</v>
+        <v>0.03448523408518642</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04629410603844051</v>
+        <v>0.05003606972137449</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02532412101913761</v>
+        <v>0.03409873607687132</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04629251631028612</v>
+        <v>0.05084310310397731</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02740623853458493</v>
+        <v>0.06213003030506201</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04845937604326863</v>
+        <v>0.04957604380005622</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05126577886772171</v>
+        <v>0.08915347480396563</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05016952233621808</v>
+        <v>0.04968718860564456</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07231459300865301</v>
+        <v>0.03409873607687132</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04704078516809278</v>
+        <v>0.05084310310397731</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02561386032936058</v>
+        <v>0.03430439731076074</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04702731815648113</v>
+        <v>0.05165013648658012</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02781717477479925</v>
+        <v>0.06225748687572513</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04922857248839987</v>
+        <v>0.05036296513021585</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0525962632784715</v>
+        <v>0.0886010482823415</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05096586396060249</v>
+        <v>0.05047587413906749</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07289702191033665</v>
+        <v>0.03430439731076074</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04778746429774505</v>
+        <v>0.05165013648658012</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02491955431405407</v>
+        <v>0.03400264990163318</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04776212000267615</v>
+        <v>0.05245716986918294</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02800623155478991</v>
+        <v>0.06197651463713164</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04999776893353112</v>
+        <v>0.05114988646037547</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05315113803781932</v>
+        <v>0.08832427771838064</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0517622055849869</v>
+        <v>0.05126455967249042</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0747176954865385</v>
+        <v>0.03400264990163318</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04853414342739731</v>
+        <v>0.05245716986918294</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02523798979151441</v>
+        <v>0.03409392596426719</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04849692184887117</v>
+        <v>0.05326420325178575</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0285630816715263</v>
+        <v>0.06168717343930361</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05076696537866238</v>
+        <v>0.05193680779053509</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05391854447800937</v>
+        <v>0.08852433070453763</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05255854720937132</v>
+        <v>0.05205324520591335</v>
       </c>
       <c r="N131" t="n">
-        <v>0.07526529217946332</v>
+        <v>0.03409392596426719</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04928082255704958</v>
+        <v>0.05326420325178575</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02856595358003786</v>
+        <v>0.03387865761344129</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04923172369506618</v>
+        <v>0.05407123663438856</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02887739792197773</v>
+        <v>0.06138952313226306</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05153616182379362</v>
+        <v>0.05272372912069472</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05498662393128592</v>
+        <v>0.08790237483326713</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05335488883375573</v>
+        <v>0.05284193073933627</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07652849043131582</v>
+        <v>0.03387865761344129</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05002750168670184</v>
+        <v>0.05407123663438856</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02890023249792069</v>
+        <v>0.033657276963934</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0499665255412612</v>
+        <v>0.05487827001699138</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02923885310311355</v>
+        <v>0.06168362356603199</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05230535826892486</v>
+        <v>0.05351065045085434</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05584351772989321</v>
+        <v>0.08765957769702393</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05415123045814014</v>
+        <v>0.0536306162727592</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07759596868430091</v>
+        <v>0.033657276963934</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05077418081635412</v>
+        <v>0.05487827001699138</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02823761336345919</v>
+        <v>0.03373021613052385</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05070132738745622</v>
+        <v>0.05568530339959419</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02983712001190317</v>
+        <v>0.06156953459063244</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05307455471405611</v>
+        <v>0.05429757178101396</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05677736720607546</v>
+        <v>0.08709710688826239</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05494757208252456</v>
+        <v>0.05441930180618213</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07905640538062347</v>
+        <v>0.03373021613052385</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05152085994600638</v>
+        <v>0.05568530339959419</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02957488299494965</v>
+        <v>0.03339790722798938</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05143612923365124</v>
+        <v>0.05649233678219701</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0301618714453159</v>
+        <v>0.06154731605608646</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05384375115918737</v>
+        <v>0.05508449311117358</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05777631369207689</v>
+        <v>0.0863161299994375</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05574391370690897</v>
+        <v>0.05520798733960506</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08029847896248821</v>
+        <v>0.03339790722798938</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05226753907565864</v>
+        <v>0.05649233678219701</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02890882821068835</v>
+        <v>0.0334607823711091</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05217093107984625</v>
+        <v>0.05729937016479982</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0310027802003211</v>
+        <v>0.06131702781241602</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05461294760431862</v>
+        <v>0.05587141444133321</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0585284985201418</v>
+        <v>0.08621781462300371</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05654025533129339</v>
+        <v>0.05599667287302799</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08171086787209997</v>
+        <v>0.0334607823711091</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05301421820531091</v>
+        <v>0.05729937016479982</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03023623582897157</v>
+        <v>0.03311927367466155</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05290573292604128</v>
+        <v>0.05810640354740264</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03154951907388812</v>
+        <v>0.06137872970964323</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05538214404944986</v>
+        <v>0.05665833577149283</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05992206302251435</v>
+        <v>0.08630332835141574</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0573365969556778</v>
+        <v>0.05678535840645092</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08298225055166358</v>
+        <v>0.03311927367466155</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05376089733496318</v>
+        <v>0.05810640354740264</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02855389266809559</v>
+        <v>0.03297381325342524</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05364053477223629</v>
+        <v>0.05891343693000545</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03209176086298632</v>
+        <v>0.06063248159779</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05615134049458111</v>
+        <v>0.05744525710165245</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06004514853143886</v>
+        <v>0.08577383877712819</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05813293858006221</v>
+        <v>0.05757404393987386</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08370130544338378</v>
+        <v>0.03297381325342524</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05450757646461545</v>
+        <v>0.05891343693000545</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0288585855463567</v>
+        <v>0.03282483322217873</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05437533661843131</v>
+        <v>0.05972047031260827</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03251917836458504</v>
+        <v>0.06097834332687846</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05692053693971235</v>
+        <v>0.05823217843181207</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06128589637915949</v>
+        <v>0.08543051349259578</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05892928020444663</v>
+        <v>0.05836272947329679</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08545671098946556</v>
+        <v>0.03282483322217873</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05525425559426771</v>
+        <v>0.05972047031260827</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02814710128205118</v>
+        <v>0.03267276569570053</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05511013846462633</v>
+        <v>0.06052750369521108</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03282144437565365</v>
+        <v>0.06041637474693054</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0576897333848436</v>
+        <v>0.05901909976197169</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06173244789792054</v>
+        <v>0.08407452009027311</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05972562182883104</v>
+        <v>0.05915141500671971</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08573714563211349</v>
+        <v>0.03267276569570053</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05600093472391997</v>
+        <v>0.06052750369521108</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03041622669347531</v>
+        <v>0.03251804278876916</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05584494031082134</v>
+        <v>0.0613345370778139</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0335882316931615</v>
+        <v>0.06034663570796833</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05845892982997486</v>
+        <v>0.05980602109213132</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06177294441996617</v>
+        <v>0.08440702616261486</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06052196345321546</v>
+        <v>0.05994010054014264</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08653128781353264</v>
+        <v>0.03251804278876916</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05674761385357224</v>
+        <v>0.0613345370778139</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02866274859892537</v>
+        <v>0.03226109661616318</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05657974215701636</v>
+        <v>0.0621415704604167</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03400921311407794</v>
+        <v>0.06016918606001381</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0592281262751061</v>
+        <v>0.06059294242229094</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06259988669489136</v>
+        <v>0.0840291993020757</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06131830507759987</v>
+        <v>0.06072878607356557</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08822781597592766</v>
+        <v>0.03226109661616318</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0574942929832245</v>
+        <v>0.0621415704604167</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03188345381669767</v>
+        <v>0.03240235929266105</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05731454400321138</v>
+        <v>0.06294860384301952</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03417406143537231</v>
+        <v>0.0599840856530891</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05999732272023735</v>
+        <v>0.06137986375245056</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06245131548564814</v>
+        <v>0.08284220710111029</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06211464670198428</v>
+        <v>0.0615174716069885</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08871540856150339</v>
+        <v>0.03240235929266105</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05824097211287678</v>
+        <v>0.06294860384301952</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03007512916508845</v>
+        <v>0.03224226293304136</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05804934584940639</v>
+        <v>0.06375563722562233</v>
       </c>
       <c r="J144" t="n">
-        <v>0.034572449454014</v>
+        <v>0.05959139433721611</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06076651916536859</v>
+        <v>0.06216678508261018</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06290313367726461</v>
+        <v>0.08264721715217321</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0629109883263687</v>
+        <v>0.06230615714041143</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08858274401246469</v>
+        <v>0.03224226293304136</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05898765124252905</v>
+        <v>0.06375563722562233</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03223456146239402</v>
+        <v>0.0318812396520826</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05878414769560142</v>
+        <v>0.06456267060822515</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03484334671080218</v>
+        <v>0.05939117196241694</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06153571561049984</v>
+        <v>0.0629537064127698</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06305038076494432</v>
+        <v>0.08184539704771931</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06370732995075311</v>
+        <v>0.06309484267383436</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08931850077101638</v>
+        <v>0.0318812396520826</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05973433037218131</v>
+        <v>0.06456267060822515</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03235853752691065</v>
+        <v>0.03171972156456333</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05951894954179644</v>
+        <v>0.06536970399082798</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03479827456989212</v>
+        <v>0.05928347837871353</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0623049120556311</v>
+        <v>0.06374062774292943</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06309243767428793</v>
+        <v>0.08153791438020291</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06450367157513752</v>
+        <v>0.06388352820725729</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08991135727936322</v>
+        <v>0.03171972156456333</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06048100950183357</v>
+        <v>0.06536970399082798</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03044384417693462</v>
+        <v>0.03165814078526208</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06025375138799145</v>
+        <v>0.06617673737343079</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03519779462229528</v>
+        <v>0.05946837343612801</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06307410850076234</v>
+        <v>0.06452754907308905</v>
       </c>
       <c r="L147" t="n">
-        <v>0.063628685330896</v>
+        <v>0.08152593674207897</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06530001319952194</v>
+        <v>0.06467221374068022</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09035642667898047</v>
+        <v>0.03165814078526208</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06122768863148584</v>
+        <v>0.06617673737343079</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03249229550342211</v>
+        <v>0.03139692942895735</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06098855323418647</v>
+        <v>0.06698377075603359</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03529536225497458</v>
+        <v>0.0591459169846823</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06384330494589359</v>
+        <v>0.06531447040324867</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06365850466036918</v>
+        <v>0.08051063172580197</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06609635482390636</v>
+        <v>0.06546089927410315</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09008576808962476</v>
+        <v>0.03139692942895735</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06197436776113811</v>
+        <v>0.06698377075603359</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0314919062308275</v>
+        <v>0.03113651961042767</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06172335508038148</v>
+        <v>0.0677908041386364</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03569078442402361</v>
+        <v>0.05871616887439848</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06461250139102484</v>
+        <v>0.0661013917334083</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06398127658830807</v>
+        <v>0.08009316692382673</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06689269644829077</v>
+        <v>0.06624958480752607</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09001881444723092</v>
+        <v>0.03113651961042767</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06272104689079037</v>
+        <v>0.0677908041386364</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03248911271928909</v>
+        <v>0.03107734344445157</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0624581569265765</v>
+        <v>0.06859783752123923</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03588386808553592</v>
+        <v>0.05837918895529862</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06538169783615608</v>
+        <v>0.06688831306356792</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06429638204031321</v>
+        <v>0.0796747099286077</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06768903807267518</v>
+        <v>0.067038270340949</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09025072986082039</v>
+        <v>0.03107734344445157</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06346772602044264</v>
+        <v>0.06859783752123923</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03148370878504055</v>
+        <v>0.03101983304580759</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06319295877277152</v>
+        <v>0.06940487090384204</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03587442019560508</v>
+        <v>0.05863503707740467</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06615089428128733</v>
+        <v>0.06767523439372754</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06420320194198526</v>
+        <v>0.07895642833259969</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06848537969705959</v>
+        <v>0.06782695587437193</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09018150670753311</v>
+        <v>0.03101983304580759</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06421440515009491</v>
+        <v>0.06940487090384204</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02947579066067671</v>
+        <v>0.03066442052927426</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06392776061896653</v>
+        <v>0.07021190428644486</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03606224771032464</v>
+        <v>0.05818377309073869</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06692009072641858</v>
+        <v>0.06846215572388717</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06430111721892479</v>
+        <v>0.07803948972825725</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06928172132144401</v>
+        <v>0.06861564140779486</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08991113736450929</v>
+        <v>0.03066442052927426</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06496108427974717</v>
+        <v>0.07021190428644486</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03046545457879241</v>
+        <v>0.03051153800963009</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06466256246516155</v>
+        <v>0.07101893766904767</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03634715758578819</v>
+        <v>0.05762545684532266</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06768928717154983</v>
+        <v>0.06924907705404679</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06478950879673243</v>
+        <v>0.07752506170803508</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07007806294582843</v>
+        <v>0.06940432694121779</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08973961420888882</v>
+        <v>0.03051153800963009</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06570776340939943</v>
+        <v>0.07101893766904767</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02945279677198245</v>
+        <v>0.03046161760165361</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06539736431135658</v>
+        <v>0.07182597105165049</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03642895677808926</v>
+        <v>0.05756014819117869</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06845848361668108</v>
+        <v>0.0700359983842064</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06506775760100869</v>
+        <v>0.0770143118643879</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07087440457021284</v>
+        <v>0.07019301247464071</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08976692961781191</v>
+        <v>0.03046161760165361</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06645444253905171</v>
+        <v>0.07182597105165049</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03043791347284171</v>
+        <v>0.03051509142012336</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06613216615755159</v>
+        <v>0.0726330044342533</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03660745224332143</v>
+        <v>0.05718790697832871</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06922768006181232</v>
+        <v>0.07082291971436604</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06503524455735427</v>
+        <v>0.07660840778977024</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07167074619459725</v>
+        <v>0.07098169800806366</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09049307596841866</v>
+        <v>0.03051509142012336</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06720112166870397</v>
+        <v>0.0726330044342533</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02942090091396497</v>
+        <v>0.03007239157981788</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06686696800374661</v>
+        <v>0.07344003781685611</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03688245093757826</v>
+        <v>0.05730879305679482</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06999687650694357</v>
+        <v>0.07160984104452565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06519135059136974</v>
+        <v>0.07680851707663688</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07246708781898166</v>
+        <v>0.07177038354148658</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08971804563784896</v>
+        <v>0.03007239157981788</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06794780079835623</v>
+        <v>0.07344003781685611</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0294018553279471</v>
+        <v>0.02993321154292028</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06760176984994164</v>
+        <v>0.07424707119945892</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03685375981695334</v>
+        <v>0.05692286627659898</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07076607295207482</v>
+        <v>0.07239676237468527</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06543545662865571</v>
+        <v>0.07631580731744236</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07326342944336608</v>
+        <v>0.07255906907490951</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08974183100324301</v>
+        <v>0.02993321154292028</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06869447992800851</v>
+        <v>0.07424707119945892</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03238087294738291</v>
+        <v>0.02999467139711111</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06833657169613665</v>
+        <v>0.07505410458206174</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03712118583754016</v>
+        <v>0.05613018648776327</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07153526939720607</v>
+        <v>0.0731836837048449</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0657669435948128</v>
+        <v>0.07583139322262611</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0740597710677505</v>
+        <v>0.07334775460833244</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09026442444174093</v>
+        <v>0.02999467139711111</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06944115905766077</v>
+        <v>0.07505410458206174</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02935805000486724</v>
+        <v>0.02985632809573587</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06907137354233166</v>
+        <v>0.07586113796466455</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03728453595543235</v>
+        <v>0.05643081354030965</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07230446584233732</v>
+        <v>0.07397060503500452</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06568519241544152</v>
+        <v>0.07524429782993236</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07485611269213491</v>
+        <v>0.07413644014175537</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09008581833048257</v>
+        <v>0.02985632809573587</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07018783818731304</v>
+        <v>0.07586113796466455</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03233348273299491</v>
+        <v>0.02961806224189122</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06980617538852668</v>
+        <v>0.07666817134726737</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03764361712672346</v>
+        <v>0.05562480728426025</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07307366228746856</v>
+        <v>0.07475752636516414</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06558958401614257</v>
+        <v>0.0749457059773429</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07565245431651932</v>
+        <v>0.0749251256751783</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09030600504660824</v>
+        <v>0.02961806224189122</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0709345173169653</v>
+        <v>0.07666817134726737</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03130726736436076</v>
+        <v>0.02937975443867388</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07054097723472169</v>
+        <v>0.07747520472987018</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03749823630750704</v>
+        <v>0.05581222756963697</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07384285873259981</v>
+        <v>0.07554444769532377</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06607949932251653</v>
+        <v>0.07353577901309483</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07644879594090374</v>
+        <v>0.07571381120860123</v>
       </c>
       <c r="N161" t="n">
-        <v>0.09062497696725791</v>
+        <v>0.02937975443867388</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07168119644661756</v>
+        <v>0.07747520472987018</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03027950013155963</v>
+        <v>0.02954128528918049</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07127577908091672</v>
+        <v>0.07828223811247299</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03784820045387664</v>
+        <v>0.05539313424646192</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07461205517773106</v>
+        <v>0.07633136902548339</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06605431926016395</v>
+        <v>0.07341467828542503</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07724513756528816</v>
+        <v>0.07650249674202415</v>
       </c>
       <c r="N162" t="n">
-        <v>0.09064272646957167</v>
+        <v>0.02954128528918049</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07242787557626984</v>
+        <v>0.07828223811247299</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02925027726718632</v>
+        <v>0.02910253539650771</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07201058092711174</v>
+        <v>0.07908927149507582</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03789331652192586</v>
+        <v>0.0550675871647571</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07538125162286231</v>
+        <v>0.07711829035564301</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06591342475468545</v>
+        <v>0.07268256514257049</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07804147918967257</v>
+        <v>0.07729118227544708</v>
       </c>
       <c r="N163" t="n">
-        <v>0.09055924593068948</v>
+        <v>0.02910253539650771</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0731745547059221</v>
+        <v>0.07908927149507582</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02921969500383569</v>
+        <v>0.02916338536375224</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07274538277330675</v>
+        <v>0.07989630487767863</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03803339146774823</v>
+        <v>0.05433564617454448</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07615044806799356</v>
+        <v>0.07790521168580264</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06615619673168166</v>
+        <v>0.07233960093276798</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07883782081405698</v>
+        <v>0.07807986780887002</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09027452772775163</v>
+        <v>0.02916338536375224</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07392123383557438</v>
+        <v>0.07989630487767863</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02918784957410255</v>
+        <v>0.02892371579401075</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07348018461950177</v>
+        <v>0.08070333826028143</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03836823224743735</v>
+        <v>0.05389737112584619</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0769196445131248</v>
+        <v>0.07869213301596227</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06578201611675322</v>
+        <v>0.07158594700425469</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07963416243844139</v>
+        <v>0.07886855334229295</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08988856423789798</v>
+        <v>0.02892371579401075</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07466791296522664</v>
+        <v>0.08070333826028143</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03115483721058175</v>
+        <v>0.0288834072903799</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07421498646569678</v>
+        <v>0.08151037164288426</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03849764581708674</v>
+        <v>0.05365282186868417</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07768884095825605</v>
+        <v>0.07947905434612187</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06579023313261151</v>
+        <v>0.07152176470526733</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08043050406282581</v>
+        <v>0.07965723887571588</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09030134783826865</v>
+        <v>0.0288834072903799</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0754145920948789</v>
+        <v>0.08151037164288426</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03012075414586811</v>
+        <v>0.02884234045595638</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07494978831189181</v>
+        <v>0.08231740502548708</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03862143913278997</v>
+        <v>0.05320205825308053</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0784580374033873</v>
+        <v>0.08026597567628151</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06636111289286989</v>
+        <v>0.07104721538404296</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08122684568721023</v>
+        <v>0.08044592440913881</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09041287090600375</v>
+        <v>0.02884234045595638</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07616127122453116</v>
+        <v>0.08231740502548708</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03208569661255647</v>
+        <v>0.02860039589383687</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07568459015808682</v>
+        <v>0.08312443840808989</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03843941915064064</v>
+        <v>0.05324514012905715</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07922723384851856</v>
+        <v>0.08105289700644114</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0660801414346571</v>
+        <v>0.07056246038881858</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08202318731159464</v>
+        <v>0.08123460994256174</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09072312581824338</v>
+        <v>0.02860039589383687</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07690795035418344</v>
+        <v>0.08312443840808989</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03104976084324165</v>
+        <v>0.02855745420711803</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07641939200428183</v>
+        <v>0.0839314717906927</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03875139282673228</v>
+        <v>0.05298212734663621</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07999643029364981</v>
+        <v>0.08183981833660074</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06575017404220837</v>
+        <v>0.069767661067831</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08281952893597905</v>
+        <v>0.08202329547598466</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09013210495212759</v>
+        <v>0.02855745420711803</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07765462948383571</v>
+        <v>0.0839314717906927</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03201304307051848</v>
+        <v>0.02821339599889654</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07715419385047685</v>
+        <v>0.08473850517329551</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03875716711715843</v>
+        <v>0.05231307975583963</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08076562673878104</v>
+        <v>0.08262673966676037</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06577406599975905</v>
+        <v>0.06856297876931716</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08361587056036346</v>
+        <v>0.08281198100940759</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09053980068479628</v>
+        <v>0.02821339599889654</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07840130861348797</v>
+        <v>0.08473850517329551</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0299756395269818</v>
+        <v>0.02826810187226905</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07788899569667188</v>
+        <v>0.08554553855589833</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03885654897801272</v>
+        <v>0.0522380572066895</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08153482318391229</v>
+        <v>0.08341366099692001</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06555467259154427</v>
+        <v>0.06864857484151421</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08441221218474788</v>
+        <v>0.08360066654283052</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09014620539338986</v>
+        <v>0.02826810187226905</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07914798774314023</v>
+        <v>0.08554553855589833</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03193764644522644</v>
+        <v>0.02792145243033226</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07862379754286689</v>
+        <v>0.08635257193850114</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03914934536538865</v>
+        <v>0.05165711954920779</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08230401962904355</v>
+        <v>0.08420058232707961</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06509484910179938</v>
+        <v>0.06722461063265878</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08520855380913228</v>
+        <v>0.08438935207625346</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09015131145504812</v>
+        <v>0.02792145243033226</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07989466687279249</v>
+        <v>0.08635257193850114</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02989916005784721</v>
+        <v>0.02797332827618286</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07935859938906191</v>
+        <v>0.08715960532110395</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03913536323537982</v>
+        <v>0.05097032663341655</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08307321607417478</v>
+        <v>0.08498750365723924</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06499745081475958</v>
+        <v>0.06669124749098798</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08600489543351669</v>
+        <v>0.08517803760967639</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09065511124691117</v>
+        <v>0.02797332827618286</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08064134600244477</v>
+        <v>0.08715960532110395</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02986027659743898</v>
+        <v>0.02752361001291749</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08009340123525693</v>
+        <v>0.08796663870370676</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0390144095440798</v>
+        <v>0.05087773830933781</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08384241251930605</v>
+        <v>0.08577442498739887</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06436533301466013</v>
+        <v>0.06674864676473885</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0868012370579011</v>
+        <v>0.08596672314309932</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09035759714611913</v>
+        <v>0.02752361001291749</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08138802513209703</v>
+        <v>0.08796663870370676</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02882109229659653</v>
+        <v>0.02757217824363282</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08082820308145194</v>
+        <v>0.0887736720863096</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03928629124758211</v>
+        <v>0.05015443357260468</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08461160896443728</v>
+        <v>0.08656134631755848</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06440135098573629</v>
+        <v>0.06609696980214819</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08759757868228553</v>
+        <v>0.08675540867652225</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09085876152981215</v>
+        <v>0.02757217824363282</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08213470426174931</v>
+        <v>0.0887736720863096</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03078170338791475</v>
+        <v>0.02751891357142557</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08156300492764697</v>
+        <v>0.08958070546891241</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03935081530198033</v>
+        <v>0.05005220089710569</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08538080540956854</v>
+        <v>0.08734826764771811</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0639083600122233</v>
+        <v>0.06523637795145293</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08839392030666994</v>
+        <v>0.08754409420994518</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09065148519681648</v>
+        <v>0.02751891357142557</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08288138339140157</v>
+        <v>0.08958070546891241</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03174220610398842</v>
+        <v>0.02736369659939238</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08229780677384198</v>
+        <v>0.09038773885151521</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03920778866336805</v>
+        <v>0.04876716552425003</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08615000185469979</v>
+        <v>0.08813518897787774</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06328921537835638</v>
+        <v>0.06476703256089011</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08919026193105435</v>
+        <v>0.0883327797433681</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09040944662187245</v>
+        <v>0.02736369659939238</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08362806252105383</v>
+        <v>0.09038773885151521</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0287026966774124</v>
+        <v>0.02720640793062991</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08303260862003699</v>
+        <v>0.09119477223411802</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03945701828783879</v>
+        <v>0.04832404728931414</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08691919829983102</v>
+        <v>0.08892211030803736</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0627467723683709</v>
+        <v>0.06388909497869649</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08998660355543876</v>
+        <v>0.08912146527679103</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0907313254909522</v>
+        <v>0.02720640793062991</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08437474165070609</v>
+        <v>0.09119477223411802</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03066327134078149</v>
+        <v>0.02684692816823486</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08376741046623201</v>
+        <v>0.09200180561672085</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03959831113148615</v>
+        <v>0.04674756602757418</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08768839474496228</v>
+        <v>0.08970903163819698</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06218388626650201</v>
+        <v>0.06270272655310932</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09078294517982317</v>
+        <v>0.08991015081021396</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0898184277199256</v>
+        <v>0.02684692816823486</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08512142078035836</v>
+        <v>0.09200180561672085</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02862349039064167</v>
+        <v>0.0266851379153039</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08450221231242704</v>
+        <v>0.09280883899932366</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03933147415040368</v>
+        <v>0.04576244157430653</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08845759119009353</v>
+        <v>0.09049595296835659</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06230341235698494</v>
+        <v>0.06210808863236528</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0915792868042076</v>
+        <v>0.09069883634363689</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0900720592246626</v>
+        <v>0.0266851379153039</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08586809991001064</v>
+        <v>0.09280883899932366</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03158250753142113</v>
+        <v>0.02672091777493371</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08523701415862205</v>
+        <v>0.09361587238192647</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03965631430068493</v>
+        <v>0.04469339376478737</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08922678763522478</v>
+        <v>0.09128287429851623</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06170820592405502</v>
+        <v>0.06200534256470136</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09237562842859201</v>
+        <v>0.09148752187705983</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09009352592103315</v>
+        <v>0.02672091777493371</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0866147790396629</v>
+        <v>0.09361587238192647</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02954025917272482</v>
+        <v>0.02625414835022095</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08597181600481707</v>
+        <v>0.09442290576452929</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03967263853842348</v>
+        <v>0.04356514243429307</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08999598408035603</v>
+        <v>0.09206979562867584</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06080112225194745</v>
+        <v>0.06119464969835459</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09317197005297642</v>
+        <v>0.09227620741048276</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08948413372490704</v>
+        <v>0.02625414835022095</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08736145816931516</v>
+        <v>0.09442290576452929</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02849669240827239</v>
+        <v>0.02628471024426229</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08670661785101209</v>
+        <v>0.09522993914713211</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03948025381971287</v>
+        <v>0.04210240741809987</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09076518052548727</v>
+        <v>0.09285671695883546</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06018501662489753</v>
+        <v>0.06027617138156172</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09396831167736083</v>
+        <v>0.09306489294390569</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08984518855215434</v>
+        <v>0.02628471024426229</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08810813729896742</v>
+        <v>0.09522993914713211</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03145175433178342</v>
+        <v>0.02621248406015442</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0874414196972071</v>
+        <v>0.09603697252973492</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03946916138149945</v>
+        <v>0.040329908551484</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09153437697061852</v>
+        <v>0.09364363828899509</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05996274432714044</v>
+        <v>0.05955006896255999</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09476465330174526</v>
+        <v>0.09385357847732861</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08927799631864486</v>
+        <v>0.02621248406015442</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0888548164286197</v>
+        <v>0.09603697252973492</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02940539203697748</v>
+        <v>0.025837350400994</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08817622154340213</v>
+        <v>0.09684400591233773</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03930622481387991</v>
+        <v>0.0388723656697218</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09230357341574977</v>
+        <v>0.09443055961915471</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0596371606429115</v>
+        <v>0.05881650378958608</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09556099492612967</v>
+        <v>0.09464226401075154</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08898386294024851</v>
+        <v>0.025837350400994</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08960149555827196</v>
+        <v>0.09684400591233773</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03135755261757416</v>
+        <v>0.02585918986987772</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08891102338959714</v>
+        <v>0.09765103929494054</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03919200942558887</v>
+        <v>0.03795449860808953</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09307276986088102</v>
+        <v>0.09521748094931433</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05871112085644589</v>
+        <v>0.0581756372108771</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09635733655051408</v>
+        <v>0.09543094954417447</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08836409433283532</v>
+        <v>0.02585918986987772</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09034817468792423</v>
+        <v>0.09765103929494054</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02830818316729307</v>
+        <v>0.02567788306990224</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08964582523579216</v>
+        <v>0.09845807267754336</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03903020406029591</v>
+        <v>0.03640102720186347</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09384196630601227</v>
+        <v>0.09600440227947396</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05838748025197896</v>
+        <v>0.05752763057466986</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09715367817489849</v>
+        <v>0.0962196350775974</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08801999641227509</v>
+        <v>0.02567788306990224</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0910948538175765</v>
+        <v>0.09845807267754336</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03025723077985377</v>
+        <v>0.02539331060416425</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09038062708198717</v>
+        <v>0.09926510606014617</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03912449756167061</v>
+        <v>0.03573667128631994</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09461116275114351</v>
+        <v>0.09679132360963358</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05766909411374591</v>
+        <v>0.05697264522920142</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0979500197992829</v>
+        <v>0.09700832061102033</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08745287509443778</v>
+        <v>0.02539331060416425</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09184153294722876</v>
+        <v>0.09926510606014617</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03020464254897587</v>
+        <v>0.02500535307576041</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09111542892818218</v>
+        <v>0.100072139442749</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03867857877338256</v>
+        <v>0.03458615069673518</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09538035919627476</v>
+        <v>0.0975782449397932</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05735881772598198</v>
+        <v>0.05611084252270859</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09874636142366733</v>
+        <v>0.09779700614444327</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08766403629519331</v>
+        <v>0.02500535307576041</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09258821207688102</v>
+        <v>0.100072139442749</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03015036556837895</v>
+        <v>0.02491389108778738</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09185023077437721</v>
+        <v>0.1008791728253518</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03859613653910135</v>
+        <v>0.03357418526838543</v>
       </c>
       <c r="K190" t="n">
-        <v>0.096149555641406</v>
+        <v>0.09836516626995283</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0567595063729224</v>
+        <v>0.05474238380342844</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09954270304805174</v>
+        <v>0.0985856916778662</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08725478593041164</v>
+        <v>0.02491389108778738</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09333489120653329</v>
+        <v>0.1008791728253518</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03009434693178262</v>
+        <v>0.02491880524334185</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09258503262057223</v>
+        <v>0.1016862062079546</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03828085970249656</v>
+        <v>0.03302549483654701</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09691875208653726</v>
+        <v>0.09915208760011245</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05607401533880252</v>
+        <v>0.05386298061537048</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1003390446724362</v>
+        <v>0.09937437721128912</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08652642991596254</v>
+        <v>0.02491880524334185</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09408157033618557</v>
+        <v>0.1016862062079546</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02903653373290642</v>
+        <v>0.02441997614552052</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09331983446676724</v>
+        <v>0.1024932395905574</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03783643710723775</v>
+        <v>0.03206479923649624</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09768794853166851</v>
+        <v>0.09993900893027206</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05590519990785747</v>
+        <v>0.05353136149483256</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1011353862968206</v>
+        <v>0.1001630627447121</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08598027416771609</v>
+        <v>0.02441997614552052</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09482824946583783</v>
+        <v>0.1024932395905574</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03097687306546998</v>
+        <v>0.02441728439742002</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09405463631296226</v>
+        <v>0.1033002729731602</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03726655759699456</v>
+        <v>0.03189993679114497</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09845714497679975</v>
+        <v>0.1007259302604317</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05555591536432258</v>
+        <v>0.05214145675954307</v>
       </c>
       <c r="M193" t="n">
-        <v>0.101931727921205</v>
+        <v>0.100951748278135</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08581762460154202</v>
+        <v>0.02441728439742002</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09557492859549009</v>
+        <v>0.1033002729731602</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02891531202319286</v>
+        <v>0.02411061060213704</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09478943815915729</v>
+        <v>0.1041073063557631</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0370749100154365</v>
+        <v>0.03139439102161035</v>
       </c>
       <c r="K194" t="n">
-        <v>0.099226341421931</v>
+        <v>0.1015128515905913</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05482901699243309</v>
+        <v>0.05199831093009816</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1027280695455894</v>
+        <v>0.1017404338115579</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08543978713331052</v>
+        <v>0.02411061060213704</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09632160772514235</v>
+        <v>0.1041073063557631</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03085179769979469</v>
+        <v>0.02409983536276827</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0955242400053523</v>
+        <v>0.1049143397383659</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0365651832062332</v>
+        <v>0.03121159804681142</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09999553786706224</v>
+        <v>0.1022997729207509</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05462736007642424</v>
+        <v>0.05100696852709397</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1035244111699738</v>
+        <v>0.1025291193449808</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08504806767889128</v>
+        <v>0.02409983536276827</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09706828685479463</v>
+        <v>0.1049143397383659</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03078627718899501</v>
+        <v>0.02388483928241036</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09625904185154732</v>
+        <v>0.1057213731209687</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03614106601305424</v>
+        <v>0.03084988608120154</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1007647343121935</v>
+        <v>0.1030866942509106</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05435379990053124</v>
+        <v>0.04997247407112687</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1043207527943582</v>
+        <v>0.1033178048784038</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08394377215415433</v>
+        <v>0.02388483928241036</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0978149659844469</v>
+        <v>0.1057213731209687</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02971869758451344</v>
+        <v>0.02356550296416002</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09699384369774233</v>
+        <v>0.1065284065035715</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03580624727956917</v>
+        <v>0.03060758333923408</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1015339307573248</v>
+        <v>0.1038736155810702</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05421119174898945</v>
+        <v>0.04869987208279297</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1051170944187426</v>
+        <v>0.1041064904118267</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08362820647496955</v>
+        <v>0.02356550296416002</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09856164511409916</v>
+        <v>0.1065284065035715</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02964900598006956</v>
+        <v>0.0232416157863837</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09772864554393734</v>
+        <v>0.1073354398861743</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03536441584944763</v>
+        <v>0.03068301803536239</v>
       </c>
       <c r="K198" t="n">
-        <v>0.102303127202456</v>
+        <v>0.1046605369112298</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05330239090603403</v>
+        <v>0.04759420708268852</v>
       </c>
       <c r="M198" t="n">
-        <v>0.105913436043127</v>
+        <v>0.1048951759452496</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08270267655720676</v>
+        <v>0.0232416157863837</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09930832424375143</v>
+        <v>0.1073354398861743</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03057714946938296</v>
+        <v>0.02300136072858104</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09846344739013237</v>
+        <v>0.1081424732687771</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03481926056635916</v>
+        <v>0.03047451838403978</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1030723236475872</v>
+        <v>0.1054474582413894</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05313025265590027</v>
+        <v>0.0463605235914098</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1067097776675115</v>
+        <v>0.1056838614786725</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08246848831673609</v>
+        <v>0.02300136072858104</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1000550033734037</v>
+        <v>0.1081424732687771</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02750307514617321</v>
+        <v>0.02283807670733755</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09919824923632739</v>
+        <v>0.10894950665138</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03427447027397337</v>
+        <v>0.03018041259971962</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1038415200927185</v>
+        <v>0.106234379571549</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05279763228282339</v>
+        <v>0.0449038661295531</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1075061192918959</v>
+        <v>0.1064725470120955</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08182694766942727</v>
+        <v>0.02283807670733755</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1008016825030559</v>
+        <v>0.10894950665138</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02842673010415993</v>
+        <v>0.02235395650941911</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0999330510825224</v>
+        <v>0.1097565400339828</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0341337338159598</v>
+        <v>0.03019902889685538</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1046107165378497</v>
+        <v>0.1070213009017087</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05310738507103865</v>
+        <v>0.04432927921771446</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1083024609162803</v>
+        <v>0.1072612325455184</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08107936053115022</v>
+        <v>0.02235395650941911</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1015483616327082</v>
+        <v>0.1097565400339828</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0303480614370627</v>
+        <v>0.02235119292159161</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1006678529287174</v>
+        <v>0.1105635734165856</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03340074003598809</v>
+        <v>0.02992869548990035</v>
       </c>
       <c r="K202" t="n">
-        <v>0.105379912982981</v>
+        <v>0.1078082222318683</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05266236630478133</v>
+        <v>0.04224180737649025</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1090988025406647</v>
+        <v>0.1080499180789413</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08072703281777505</v>
+        <v>0.02235119292159161</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1022950407623605</v>
+        <v>0.1105635734165856</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03026701623860106</v>
+        <v>0.0218319787306209</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1014026547749124</v>
+        <v>0.1113706067991884</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03327917777772778</v>
+        <v>0.02966774059330785</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1061491094281122</v>
+        <v>0.1085951435620279</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05236543126828669</v>
+        <v>0.04194649512647664</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1098951441650491</v>
+        <v>0.1088386036123643</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08087127044517145</v>
+        <v>0.0218319787306209</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1030417198920128</v>
+        <v>0.1113706067991884</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02818354160249467</v>
+        <v>0.02139850672327293</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1021374566211075</v>
+        <v>0.1121776401817912</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03257273588484848</v>
+        <v>0.02911449242153133</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1069183058732435</v>
+        <v>0.1093820648921875</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05261943524578996</v>
+        <v>0.0404483869882698</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1106914857894335</v>
+        <v>0.1096272891457872</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08021337932920941</v>
+        <v>0.02139850672327293</v>
       </c>
       <c r="O204" t="n">
-        <v>0.103788399021665</v>
+        <v>0.1121776401817912</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02709758462246309</v>
+        <v>0.0212529696863135</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1028722584673025</v>
+        <v>0.112984673564394</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03248510320101973</v>
+        <v>0.0295672791890241</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1076875023183747</v>
+        <v>0.1101689862223472</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05261590124791612</v>
+        <v>0.03935252748246604</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1114878274138179</v>
+        <v>0.1104159746792101</v>
       </c>
       <c r="N205" t="n">
-        <v>0.079054665385759</v>
+        <v>0.0212529696863135</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1045350781513173</v>
+        <v>0.112984673564394</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03000909239222591</v>
+        <v>0.02099756040650858</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1036070603134975</v>
+        <v>0.1137917069469968</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03201996856991117</v>
+        <v>0.02932442911023958</v>
       </c>
       <c r="K206" t="n">
-        <v>0.108456698763506</v>
+        <v>0.1109559075525068</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05231597803667215</v>
+        <v>0.03806396112966154</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1122841690382023</v>
+        <v>0.111204660212633</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07899643453068989</v>
+        <v>0.02099756040650858</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1052817572809696</v>
+        <v>0.1137917069469968</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02691801200550269</v>
+        <v>0.02053447167062397</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1043418621596925</v>
+        <v>0.1145987403295996</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03178102083519235</v>
+        <v>0.02878427039963097</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1092258952086372</v>
+        <v>0.1117428288826664</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05251623703282923</v>
+        <v>0.03648773245045261</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1130805106625868</v>
+        <v>0.111993345746056</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07863999267987209</v>
+        <v>0.02053447167062397</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1060284364106218</v>
+        <v>0.1145987403295996</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02882429055601306</v>
+        <v>0.02016589626542561</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1050766640058875</v>
+        <v>0.1154057737122025</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03127194884053287</v>
+        <v>0.02864513127165186</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1099950916537685</v>
+        <v>0.112529750212826</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05261678936785966</v>
+        <v>0.03522888596543527</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1138768522869712</v>
+        <v>0.1127820312794789</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07758664574917562</v>
+        <v>0.02016589626542561</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1067751155402741</v>
+        <v>0.1154057737122025</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02872787513747659</v>
+        <v>0.01979402697767935</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1058114658520826</v>
+        <v>0.1162128070948053</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0311964414296023</v>
+        <v>0.02880533994075546</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1107642880988997</v>
+        <v>0.1133166715429857</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05231774617323548</v>
+        <v>0.03439246619520603</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1146731939113556</v>
+        <v>0.1135707168129018</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07733769965447029</v>
+        <v>0.01979402697767935</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1075217946699264</v>
+        <v>0.1162128070948053</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02762871284361286</v>
+        <v>0.01932105659415109</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1065462676982776</v>
+        <v>0.1170198404774081</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03095818744607023</v>
+        <v>0.02866322462139514</v>
       </c>
       <c r="K210" t="n">
-        <v>0.111533484544031</v>
+        <v>0.1141035928731453</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05261921858042889</v>
+        <v>0.03368351766036087</v>
       </c>
       <c r="M210" t="n">
-        <v>0.11546953553574</v>
+        <v>0.1143594023463248</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07679446031162607</v>
+        <v>0.01932105659415109</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1082684737995786</v>
+        <v>0.1170198404774081</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02952675076814149</v>
+        <v>0.01904917790160671</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1072810695444726</v>
+        <v>0.1178268738600109</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03076087573360624</v>
+        <v>0.02811711352802435</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1123026809891622</v>
+        <v>0.1148905142033049</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05262131772091205</v>
+        <v>0.03260708488149611</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1162658771601244</v>
+        <v>0.1151480878797477</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0757582336365128</v>
+        <v>0.01904917790160671</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1090151529292309</v>
+        <v>0.1178268738600109</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02942193600478202</v>
+        <v>0.01848058368681212</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1080158713906676</v>
+        <v>0.1186339072426137</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03030819513587993</v>
+        <v>0.02856533487509638</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1130718774342935</v>
+        <v>0.1156774355334645</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05242415472615711</v>
+        <v>0.03166821237920792</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1170622187845088</v>
+        <v>0.1159367734131706</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07573032554500042</v>
+        <v>0.01848058368681212</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1097618320588832</v>
+        <v>0.1186339072426137</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02731421564725406</v>
+        <v>0.01811746673653314</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1087506732368626</v>
+        <v>0.1194409406252165</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03050355999478271</v>
+        <v>0.0281062168770646</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1138410738794247</v>
+        <v>0.1164643568636241</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05262784072763624</v>
+        <v>0.03037194467409265</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1178585604088933</v>
+        <v>0.1167254589465936</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07471204195295889</v>
+        <v>0.01811746673653314</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1105085111885354</v>
+        <v>0.1194409406252165</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02820353678927723</v>
+        <v>0.01796201983753568</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1094854750830576</v>
+        <v>0.1202479740078193</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03041997710382589</v>
+        <v>0.02773808774838238</v>
       </c>
       <c r="K214" t="n">
-        <v>0.114610270324556</v>
+        <v>0.1172512781937838</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05273248685682158</v>
+        <v>0.02892332628674643</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1186549020332777</v>
+        <v>0.1175141444800165</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07459805510340989</v>
+        <v>0.01796201983753568</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1112551903181877</v>
+        <v>0.1202479740078193</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02908984652457108</v>
+        <v>0.01761643577658564</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1102202769292527</v>
+        <v>0.1210550073904222</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03033771769940817</v>
+        <v>0.02805927570350311</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1153794667696872</v>
+        <v>0.1180381995239434</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0527382042451853</v>
+        <v>0.02852740173776552</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1194512436576621</v>
+        <v>0.1183028300134394</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07397616412931179</v>
+        <v>0.01761643577658564</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1120018694478399</v>
+        <v>0.1210550073904222</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02897309194685521</v>
+        <v>0.01738290734044888</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1109550787754477</v>
+        <v>0.121862040773025</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03005679518077267</v>
+        <v>0.02786810895688008</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1161486632148185</v>
+        <v>0.118825120854103</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05284510402419956</v>
+        <v>0.02768921554774612</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1202475852820465</v>
+        <v>0.1190915155468624</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07324610499666745</v>
+        <v>0.01738290734044888</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1127485485774922</v>
+        <v>0.121862040773025</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02885322014984922</v>
+        <v>0.01696362731589129</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1116898806216427</v>
+        <v>0.1226690741556278</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02987722294716262</v>
+        <v>0.02726349916962437</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1169178596599497</v>
+        <v>0.1196120421842626</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0523532973253365</v>
+        <v>0.02671381223728442</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1210439269064309</v>
+        <v>0.1198802010802853</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07240793019977992</v>
+        <v>0.01696362731589129</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1134952277071445</v>
+        <v>0.1226690741556278</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02773017822727267</v>
+        <v>0.01676078848967875</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1124246824678377</v>
+        <v>0.1234761075382306</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02979901439782111</v>
+        <v>0.02695412208920375</v>
       </c>
       <c r="K218" t="n">
-        <v>0.117687056105081</v>
+        <v>0.1203989635144223</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05266289528006829</v>
+        <v>0.02610623632697673</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1218402685308153</v>
+        <v>0.1206688866137082</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07216169223295249</v>
+        <v>0.01676078848967875</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1142419068367967</v>
+        <v>0.1234761075382306</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02860389819568189</v>
+        <v>0.01647658364857718</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1131594843140327</v>
+        <v>0.1242831409208334</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02982218293199129</v>
+        <v>0.02684337866041342</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1184562525502122</v>
+        <v>0.1211858848445819</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05257400901986706</v>
+        <v>0.02497153233741928</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1226366101551997</v>
+        <v>0.1214575721471311</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07160744359048848</v>
+        <v>0.01647658364857718</v>
       </c>
       <c r="O219" t="n">
-        <v>0.114988585966449</v>
+        <v>0.1242831409208334</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02846642256655296</v>
+        <v>0.0161132055793524</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1138942861602277</v>
+        <v>0.1250901743034362</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02984674194891634</v>
+        <v>0.02673126217111421</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1192254489953434</v>
+        <v>0.1219728061747415</v>
       </c>
       <c r="L220" t="n">
-        <v>0.052586749676205</v>
+        <v>0.02531474478920814</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1234329517795841</v>
+        <v>0.1222462576805541</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07084523676669102</v>
+        <v>0.0161132055793524</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1157352650961013</v>
+        <v>0.1250901743034362</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0263113323546703</v>
+        <v>0.01597284706877033</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1146290880064228</v>
+        <v>0.125897207686039</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02987270484783938</v>
+        <v>0.02681776590916674</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1199946454404747</v>
+        <v>0.1227597275049011</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05280122838055426</v>
+        <v>0.02484091820293971</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1242292934039686</v>
+        <v>0.123034943213977</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07027512425586335</v>
+        <v>0.01597284706877033</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1164819442257536</v>
+        <v>0.125897207686039</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02513895482969927</v>
+        <v>0.01554768865601472</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1153638898526178</v>
+        <v>0.1267042410686419</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0297000850280036</v>
+        <v>0.0262028831624318</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1207638418856059</v>
+        <v>0.1235466488350608</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05291755626438702</v>
+        <v>0.02435427481757801</v>
       </c>
       <c r="M222" t="n">
-        <v>0.125025635028353</v>
+        <v>0.1238236287473999</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06979715855230878</v>
+        <v>0.01554768865601472</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1172286233554058</v>
+        <v>0.1267042410686419</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02794961726130515</v>
+        <v>0.015323661058186</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1160986916988128</v>
+        <v>0.1275112744512447</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02942889588865213</v>
+        <v>0.02618660721877009</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1215330383307372</v>
+        <v>0.1243335701652204</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05263584445917538</v>
+        <v>0.02400411177918516</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1258219766527374</v>
+        <v>0.1246123142808229</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0698113921503305</v>
+        <v>0.015323661058186</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1179753024850581</v>
+        <v>0.1275112744512447</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02474364691915332</v>
+        <v>0.01500075849841805</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1168334935450078</v>
+        <v>0.1283183078338475</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02965915082902813</v>
+        <v>0.02566893136604229</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1223022347758684</v>
+        <v>0.12512049149538</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05275620409639153</v>
+        <v>0.02345820123848075</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1266183182771218</v>
+        <v>0.1254009998142458</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06871787754423159</v>
+        <v>0.01500075849841805</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1187219816147104</v>
+        <v>0.1283183078338475</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02652137107290908</v>
+        <v>0.01497911961414715</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1175682953912028</v>
+        <v>0.1291253412164503</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02959086324837473</v>
+        <v>0.02554984889210921</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1230714312209997</v>
+        <v>0.1259074128255396</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05297874630750765</v>
+        <v>0.02311674988057116</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1274146599015062</v>
+        <v>0.1261896853476687</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06831666722831553</v>
+        <v>0.01497911961414715</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1194686607443626</v>
+        <v>0.1291253412164503</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02728311699223777</v>
+        <v>0.01455888304280968</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1183030972373978</v>
+        <v>0.1299323745990531</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02942404654593511</v>
+        <v>0.02522935308483151</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1238406276661309</v>
+        <v>0.1266943341556993</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05260358222399586</v>
+        <v>0.02307996439056265</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1282110015258906</v>
+        <v>0.1269783708810917</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06730781369688543</v>
+        <v>0.01455888304280968</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1202153398740149</v>
+        <v>0.1299323745990531</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02702921194680473</v>
+        <v>0.01464018742184188</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1190378990835929</v>
+        <v>0.130739407981656</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02945871412095243</v>
+        <v>0.02550743723206997</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1246098241112622</v>
+        <v>0.1274812554858589</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05293082297732832</v>
+        <v>0.02224805145356135</v>
       </c>
       <c r="M227" t="n">
-        <v>0.129007343150275</v>
+        <v>0.1277670564145146</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06659136944424449</v>
+        <v>0.01464018742184188</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1209620190036671</v>
+        <v>0.130739407981656</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02475998320627532</v>
+        <v>0.01442317138868007</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1197727009297879</v>
+        <v>0.1315464413642587</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0293948793726698</v>
+        <v>0.02488409462168525</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1253790205563934</v>
+        <v>0.1282681768160185</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05266057969897722</v>
+        <v>0.02222121775467373</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1298036847746595</v>
+        <v>0.1285557419479375</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06676738696469608</v>
+        <v>0.01442317138868007</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1217086981333194</v>
+        <v>0.1315464413642587</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02447575804031481</v>
+        <v>0.01420797358076061</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1205075027759829</v>
+        <v>0.1323534747468616</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02933255570033037</v>
+        <v>0.02455931854153814</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1261482170015247</v>
+        <v>0.1290550981461781</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05269296352041467</v>
+        <v>0.02179966997900601</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1306000263990439</v>
+        <v>0.1293444274813604</v>
       </c>
       <c r="N229" t="n">
-        <v>0.06563591875254332</v>
+        <v>0.01420797358076061</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1224553772629717</v>
+        <v>0.1323534747468616</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02617686371858857</v>
+        <v>0.01369473263551978</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1212423046221779</v>
+        <v>0.1331605081294644</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02917175650317734</v>
+        <v>0.02423310227948935</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1269174134466559</v>
+        <v>0.1298420194763377</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05272808557311287</v>
+        <v>0.02148361481166455</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1313963680234283</v>
+        <v>0.1301331130147834</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06529701730208942</v>
+        <v>0.01369473263551978</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1232020563926239</v>
+        <v>0.1331605081294644</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02486362751076193</v>
+        <v>0.0135835871903939</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1219771064683729</v>
+        <v>0.1339675415120672</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02901249518045382</v>
+        <v>0.02450543912339956</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1276866098917872</v>
+        <v>0.1306289408064973</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05326605698854395</v>
+        <v>0.02057325893775558</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1321927096478127</v>
+        <v>0.1309217985482063</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06485073510763767</v>
+        <v>0.0135835871903939</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1239487355222762</v>
+        <v>0.1339675415120672</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02553637668650022</v>
+        <v>0.01347467588281928</v>
       </c>
       <c r="G232" t="n">
-        <v>0.122711908314568</v>
+        <v>0.13477457489467</v>
       </c>
       <c r="J232" t="n">
-        <v>0.029154785131403</v>
+        <v>0.02377632236112953</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1284558063369184</v>
+        <v>0.131415862136657</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05300698889818006</v>
+        <v>0.02056880904238545</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1329890512721971</v>
+        <v>0.1317104840816292</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06429712466349119</v>
+        <v>0.01347467588281928</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1246954146519285</v>
+        <v>0.13477457489467</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02419543851546881</v>
+        <v>0.01326813735023223</v>
       </c>
       <c r="G233" t="n">
-        <v>0.123446710160763</v>
+        <v>0.1355816082772728</v>
       </c>
       <c r="J233" t="n">
-        <v>0.029098639755268</v>
+        <v>0.02374574528053994</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1292250027820497</v>
+        <v>0.1322027834668166</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05315099243349339</v>
+        <v>0.01997047181066042</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1337853928965815</v>
+        <v>0.1324991696150521</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06273623846395343</v>
+        <v>0.01326813735023223</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1254420937815807</v>
+        <v>0.1355816082772728</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02184114026733296</v>
+        <v>0.01286411023006909</v>
       </c>
       <c r="G234" t="n">
-        <v>0.124181512006958</v>
+        <v>0.1363886416598756</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02904407245129197</v>
+        <v>0.02361370116949163</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1299941992271809</v>
+        <v>0.1329897047969762</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05299817872595608</v>
+        <v>0.02037845392768672</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1345817345209659</v>
+        <v>0.1332878551484751</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06286812900332756</v>
+        <v>0.01286411023006909</v>
       </c>
       <c r="O234" t="n">
-        <v>0.126188772911233</v>
+        <v>0.1363886416598756</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02447380921175807</v>
+        <v>0.01276273315976612</v>
       </c>
       <c r="G235" t="n">
-        <v>0.124916313853153</v>
+        <v>0.1371956750424785</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02869109661871808</v>
+        <v>0.02358018331584516</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1307633956723122</v>
+        <v>0.1337766261271358</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05294865890704029</v>
+        <v>0.01999296207857071</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1353780761453504</v>
+        <v>0.134076540681898</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06139284877591655</v>
+        <v>0.01276273315976612</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1269354520408853</v>
+        <v>0.1371956750424785</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0220937726184094</v>
+        <v>0.01246414477675968</v>
       </c>
       <c r="G236" t="n">
-        <v>0.125651115699348</v>
+        <v>0.1380027084250812</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02873972565678946</v>
+        <v>0.02294518500746137</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1315325921174434</v>
+        <v>0.1345635474572955</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05310254410821816</v>
+        <v>0.01991420294841872</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1361744177697348</v>
+        <v>0.1348652262153209</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06101045027602403</v>
+        <v>0.01246414477675968</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1276821311705375</v>
+        <v>0.1380027084250812</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02070135775695235</v>
+        <v>0.01256848371848604</v>
       </c>
       <c r="G237" t="n">
-        <v>0.126385917545543</v>
+        <v>0.1388097418076841</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02868997296474929</v>
+        <v>0.02260869953220102</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1323017885625747</v>
+        <v>0.1353504687874551</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05315994546096187</v>
+        <v>0.01904238322233703</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1369707593941192</v>
+        <v>0.1356539117487439</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06002098599795291</v>
+        <v>0.01256848371848604</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1284288103001898</v>
+        <v>0.1388097418076841</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02129689189705224</v>
+        <v>0.01217588862238153</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1271207193917381</v>
+        <v>0.1396167751902869</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02874185194184069</v>
+        <v>0.02277072017792472</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1330709850077059</v>
+        <v>0.1361373901176147</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05322097409674359</v>
+        <v>0.01887770958543189</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1377671010185036</v>
+        <v>0.1364425972821668</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06002450843600665</v>
+        <v>0.01217588862238153</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1291754894298421</v>
+        <v>0.1396167751902869</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02188070230837438</v>
+        <v>0.01218649812588249</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1278555212379331</v>
+        <v>0.1404238085728897</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02869537598730684</v>
+        <v>0.02273124023249323</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1338401814528372</v>
+        <v>0.1369243114477743</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05358574114703546</v>
+        <v>0.0188203887228095</v>
       </c>
       <c r="M239" t="n">
-        <v>0.138563442642888</v>
+        <v>0.1372312828155897</v>
       </c>
       <c r="N239" t="n">
-        <v>0.05872107008448829</v>
+        <v>0.01218649812588249</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1299221685594943</v>
+        <v>0.1404238085728897</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02045311626058412</v>
+        <v>0.01170045086642521</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1285903230841281</v>
+        <v>0.1412308419554925</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02875055850039089</v>
+        <v>0.02249025298376733</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1346093778979684</v>
+        <v>0.137711232777934</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05315435774330959</v>
+        <v>0.01867062731957636</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1393597842672724</v>
+        <v>0.1380199683490126</v>
       </c>
       <c r="N240" t="n">
-        <v>0.05801072343770119</v>
+        <v>0.01170045086642521</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1306688476891466</v>
+        <v>0.1412308419554925</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02101446102334678</v>
+        <v>0.01151788548144599</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1293251249303231</v>
+        <v>0.1420378753380953</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02850741288033595</v>
+        <v>0.02194775171960772</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1353785743430997</v>
+        <v>0.1384981541080936</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0535269350170382</v>
+        <v>0.01802863206083866</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1401561258916569</v>
+        <v>0.1388086538824356</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0572935209899485</v>
+        <v>0.01151788548144599</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1314155268187989</v>
+        <v>0.1420378753380953</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0215650638663277</v>
+        <v>0.01153894060838118</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1300599267765181</v>
+        <v>0.1428449087206982</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02856595252638523</v>
+        <v>0.02150372972787509</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1361477707882309</v>
+        <v>0.1392850754382532</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05370358409969342</v>
+        <v>0.01759460963170267</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1409524675160413</v>
+        <v>0.1395973394158585</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0566695152355336</v>
+        <v>0.01153894060838118</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1321622059484512</v>
+        <v>0.1428449087206982</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02010525205919222</v>
+        <v>0.01126375488466703</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1307947286227132</v>
+        <v>0.143651942103301</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02852619083778184</v>
+        <v>0.02135818029643019</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1369169672333622</v>
+        <v>0.1400719967684128</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05368441612274744</v>
+        <v>0.01826876671727468</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1417488091404257</v>
+        <v>0.1403860249492814</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05623875866875944</v>
+        <v>0.01126375488466703</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1329088850781034</v>
+        <v>0.143651942103301</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02063535287160567</v>
+        <v>0.01099246694773992</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1315295304689082</v>
+        <v>0.1444589754859038</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02858814121376896</v>
+        <v>0.02141109671313376</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1376861636784934</v>
+        <v>0.1408589180985725</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05386954221767234</v>
+        <v>0.01795131000266104</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1425451507648101</v>
+        <v>0.1411747104827044</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05550130378392959</v>
+        <v>0.01099246694773992</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1336555642077557</v>
+        <v>0.1444589754859038</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01815569357323336</v>
+        <v>0.01082521543503612</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1322643323151032</v>
+        <v>0.1452660088685066</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02855181705358972</v>
+        <v>0.02086247226584648</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1384553601236246</v>
+        <v>0.1416458394287321</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05375907351594036</v>
+        <v>0.01694244617296803</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1433414923891945</v>
+        <v>0.1419633960161273</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05485720307534708</v>
+        <v>0.01082521543503612</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1344022433374079</v>
+        <v>0.1452660088685066</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01966660143374067</v>
+        <v>0.01066213898399196</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1329991341612982</v>
+        <v>0.1460730422511094</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02841723175648728</v>
+        <v>0.02091230024242913</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1392245565687559</v>
+        <v>0.1424327607588917</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05375312114902364</v>
+        <v>0.01714238191330197</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1441378340135789</v>
+        <v>0.1427520815495502</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05410650903731512</v>
+        <v>0.01066213898399196</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1351489224670602</v>
+        <v>0.1460730422511094</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0191684037227929</v>
+        <v>0.01060337623204374</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1337339360074932</v>
+        <v>0.1468800756337122</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02818439872170481</v>
+        <v>0.02066057393074239</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1399937530138871</v>
+        <v>0.1432196820890513</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05385179624839431</v>
+        <v>0.01725132390876905</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1449341756379633</v>
+        <v>0.1435407670829732</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05294927416413708</v>
+        <v>0.01060337623204374</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1358956015967125</v>
+        <v>0.1468800756337122</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01666142771005535</v>
+        <v>0.01044906581662779</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1344687378536882</v>
+        <v>0.147687109016315</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02845333134848539</v>
+        <v>0.02040728661864699</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1407629494590184</v>
+        <v>0.1440066034192109</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05435520994552456</v>
+        <v>0.01686947884447565</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1457305172623478</v>
+        <v>0.1443294526163961</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05278555095011617</v>
+        <v>0.01044906581662779</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1366422807263648</v>
+        <v>0.147687109016315</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01614600066519344</v>
+        <v>0.01049934637518041</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1352035396998833</v>
+        <v>0.1484941423989178</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02812404303607226</v>
+        <v>0.01975243159400367</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1415321459041496</v>
+        <v>0.1447935247493705</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0542634733718865</v>
+        <v>0.01649705340552798</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1465268588867322</v>
+        <v>0.145118138149819</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05191539188955541</v>
+        <v>0.01049934637518041</v>
       </c>
       <c r="O249" t="n">
-        <v>0.137388959856017</v>
+        <v>0.1484941423989178</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01462244985787242</v>
+        <v>0.01025435654513791</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1359383415460783</v>
+        <v>0.1493011757815207</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02839654718370853</v>
+        <v>0.01939600214467319</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1423013423492809</v>
+        <v>0.1455804460795302</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05407669765895232</v>
+        <v>0.01693425427703243</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1473232005111166</v>
+        <v>0.145906823683242</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05073884947675833</v>
+        <v>0.01025435654513791</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1381356389856693</v>
+        <v>0.1493011757815207</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01509110255775768</v>
+        <v>0.01021423496393661</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1366731433922733</v>
+        <v>0.1501082091641235</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02807085719063736</v>
+        <v>0.01973799155851619</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1430705387944121</v>
+        <v>0.1463673674096898</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05449499393819415</v>
+        <v>0.01598128814409527</v>
       </c>
       <c r="M251" t="n">
-        <v>0.148119542135501</v>
+        <v>0.1466955092166649</v>
       </c>
       <c r="N251" t="n">
-        <v>0.04995597620602793</v>
+        <v>0.01021423496393661</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1388823181153215</v>
+        <v>0.1501082091641235</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01355228603451453</v>
+        <v>0.009779120269012828</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1374079452384683</v>
+        <v>0.1509152425467263</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02834698645610188</v>
+        <v>0.01887839312339348</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1438397352395434</v>
+        <v>0.1471542887398494</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0548184733410842</v>
+        <v>0.01603836169182288</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1489158837598854</v>
+        <v>0.1474841947500878</v>
       </c>
       <c r="N252" t="n">
-        <v>0.04886682457166752</v>
+        <v>0.009779120269012828</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1396289972449738</v>
+        <v>0.1509152425467263</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01500632755780827</v>
+        <v>0.009649151097802858</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1381427470846633</v>
+        <v>0.1517222759293291</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02802494837934529</v>
+        <v>0.01901720012716568</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1446089316846746</v>
+        <v>0.147941210070009</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05504724699909458</v>
+        <v>0.01600568160532134</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1497122253842698</v>
+        <v>0.1482728802835107</v>
       </c>
       <c r="N253" t="n">
-        <v>0.04807144706798039</v>
+        <v>0.009649151097802858</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1403756763746261</v>
+        <v>0.1517222759293291</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01445355439730428</v>
+        <v>0.00952446608774303</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1388775489308584</v>
+        <v>0.1525293093119319</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02830475635961069</v>
+        <v>0.01895440585769362</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1453781281298059</v>
+        <v>0.1487281314001687</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05468142604369747</v>
+        <v>0.01598345456969713</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1505085670086542</v>
+        <v>0.1490615658169337</v>
       </c>
       <c r="N254" t="n">
-        <v>0.04806989618926977</v>
+        <v>0.00952446608774303</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1411223555042783</v>
+        <v>0.1525293093119319</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01289429382266789</v>
+        <v>0.009405203876269641</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1396123507770534</v>
+        <v>0.1533363426945347</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02808642379614125</v>
+        <v>0.01839000360283805</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1461473245749371</v>
+        <v>0.1495150527303283</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05512112160636501</v>
+        <v>0.01627188727005641</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1513049086330386</v>
+        <v>0.1498502513503566</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04656222442983876</v>
+        <v>0.009405203876269641</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1418690346339306</v>
+        <v>0.1533363426945347</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0143288731035644</v>
+        <v>0.009491503100819004</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1403471526232484</v>
+        <v>0.1541433760771376</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02806996408818013</v>
+        <v>0.01842398665045952</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1469165210200684</v>
+        <v>0.1503019740604879</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05546644481856938</v>
+        <v>0.0152711863915056</v>
       </c>
       <c r="M256" t="n">
-        <v>0.152101250257423</v>
+        <v>0.1506389368837795</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04654848428399083</v>
+        <v>0.009491503100819004</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1426157137635829</v>
+        <v>0.1541433760771376</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01275761950965919</v>
+        <v>0.009383502398827445</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1410819544694434</v>
+        <v>0.1549504094597404</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02795539063497046</v>
+        <v>0.01775634828841893</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1476857174651996</v>
+        <v>0.1510888953906475</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0554175068117827</v>
+        <v>0.01568155861915083</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1528975918818075</v>
+        <v>0.1514276224172025</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04522872824602892</v>
+        <v>0.009383502398827445</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1433623928932351</v>
+        <v>0.1549504094597404</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01318086031061753</v>
+        <v>0.009181340407731275</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1418167563156384</v>
+        <v>0.1557574428423432</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02824271683575544</v>
+        <v>0.01768708180457693</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1484549139103309</v>
+        <v>0.1518758167208072</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05527441871747718</v>
+        <v>0.01580321063809859</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1536939335061919</v>
+        <v>0.1522163079506254</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04430300881025651</v>
+        <v>0.009181340407731275</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1441090720228874</v>
+        <v>0.1557574428423432</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01259892277610482</v>
+        <v>0.008985155764966821</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1425515581618334</v>
+        <v>0.156564476224946</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02823195608977817</v>
+        <v>0.01721618048679424</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1492241103554621</v>
+        <v>0.1526627380509668</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05573729166712493</v>
+        <v>0.01523634913345501</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1544902751305763</v>
+        <v>0.1530049934840483</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04367137847097669</v>
+        <v>0.008985155764966821</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1448557511525397</v>
+        <v>0.156564476224946</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01101213417578635</v>
+        <v>0.009195087107970359</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1432863600080284</v>
+        <v>0.1573715096075488</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02822312179628184</v>
+        <v>0.01674363762293166</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1499933068005934</v>
+        <v>0.1534496593811264</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05590623679219814</v>
+        <v>0.01518118079032643</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1552866167549607</v>
+        <v>0.1537936790174712</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04313388972249271</v>
+        <v>0.009195087107970359</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1456024302821919</v>
+        <v>0.1573715096075488</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.00942082177932746</v>
+        <v>0.008811273074178214</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1440211618542235</v>
+        <v>0.1581785429901516</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02821622735450954</v>
+        <v>0.01666944650084978</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1507625032457246</v>
+        <v>0.154236580711286</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05578136522416896</v>
+        <v>0.0153379122938192</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1560829583793451</v>
+        <v>0.1545823645508942</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04209059505910778</v>
+        <v>0.008811273074178214</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1463491094118442</v>
+        <v>0.1581785429901516</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.008825312856393513</v>
+        <v>0.008933852301026696</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1447559637004185</v>
+        <v>0.1589855763727544</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02811128616370451</v>
+        <v>0.01639360040840943</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1515316996908559</v>
+        <v>0.1550235020414457</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05646278809450953</v>
+        <v>0.01580675032903961</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1568793000037295</v>
+        <v>0.1553710500843171</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04154154697512524</v>
+        <v>0.008933852301026696</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1470957885414965</v>
+        <v>0.1589855763727544</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01022593467664978</v>
+        <v>0.008962963425952139</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1454907655466135</v>
+        <v>0.1597926097553573</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02800831162310982</v>
+        <v>0.01641609263347135</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1523008961359871</v>
+        <v>0.1558104233716053</v>
       </c>
       <c r="L263" t="n">
-        <v>0.056150616534692</v>
+        <v>0.0151879015810939</v>
       </c>
       <c r="M263" t="n">
-        <v>0.157675641628114</v>
+        <v>0.15615973561774</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0406867979648482</v>
+        <v>0.008962963425952139</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1478424676711488</v>
+        <v>0.1597926097553573</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009623014509761635</v>
+        <v>0.008898745086390838</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1462255673928085</v>
+        <v>0.1605996431379601</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0279073171319687</v>
+        <v>0.01593691646389617</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1530700925811184</v>
+        <v>0.1565973447017649</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05684496167618855</v>
+        <v>0.01548157273508832</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1584719832524984</v>
+        <v>0.156948421151163</v>
       </c>
       <c r="N264" t="n">
-        <v>0.03932640052258007</v>
+        <v>0.008898745086390838</v>
       </c>
       <c r="O264" t="n">
-        <v>0.148589146800801</v>
+        <v>0.1605996431379601</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.06017091759892984</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.06017091759892984</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.09627346815828774</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1106241505593579</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174216733554011</v>
+        <v>0.04210255055935791</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01813396572956723</v>
+        <v>0.02503462169085333</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001405244801586866</v>
+        <v>0.0005913003142878209</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008070333826028144</v>
+        <v>0.0006566123403116498</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004730854254512862</v>
+        <v>0.001127189597292758</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007869213301596226</v>
+        <v>0.0008070333826028144</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004803751905972375</v>
+        <v>0.002639913948710909</v>
       </c>
       <c r="M66" s="170" t="n">
+        <v>0.0007942122429159971</v>
+      </c>
+      <c r="N66" s="171" t="n">
+        <v>0.004376993729087231</v>
+      </c>
+      <c r="O66" s="172" t="n">
         <v>0.0007886855334229295</v>
-      </c>
-      <c r="N66" s="171" t="n">
-        <v>0.001405244801586866</v>
-      </c>
-      <c r="O66" s="172" t="n">
-        <v>0.0008070333826028144</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002886923950992118</v>
+        <v>0.001220897305392744</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001614066765205629</v>
+        <v>0.0013132246806233</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008946780570986662</v>
+        <v>0.002730667706254131</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001573842660319245</v>
+        <v>0.001614066765205629</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0114784</v>
+        <v>0.005478399999999994</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00196698410185844</v>
+        <v>0.001528756941890305</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002886923950992118</v>
+        <v>0.0104784</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001614066765205629</v>
+        <v>0.001795620139820312</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00421014723291252</v>
+        <v>0.001887798631911346</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002421100147808443</v>
+        <v>0.001969837020934949</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01336383330071675</v>
+        <v>0.004130577075091332</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002360763990478868</v>
+        <v>0.002421100147808443</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01318943381083948</v>
+        <v>0.007479562445474319</v>
       </c>
       <c r="M68" s="170" t="n">
+        <v>0.002382636728747991</v>
+      </c>
+      <c r="N68" s="171" t="n">
+        <v>0.01263751888796522</v>
+      </c>
+      <c r="O68" s="172" t="n">
         <v>0.002366056600268788</v>
-      </c>
-      <c r="N68" s="171" t="n">
-        <v>0.00421014723291252</v>
-      </c>
-      <c r="O68" s="172" t="n">
-        <v>0.002421100147808443</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005740024432044952</v>
+        <v>0.002591011952440256</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003228133530411258</v>
+        <v>0.002626449361246599</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01729806679499846</v>
+        <v>0.005478400000000008</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00314768532063849</v>
+        <v>0.003421432000000005</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01574094503264439</v>
+        <v>0.009521029678429549</v>
       </c>
       <c r="M69" s="170" t="n">
+        <v>0.003176848971663988</v>
+      </c>
+      <c r="N69" s="171" t="n">
+        <v>0.01619403953755372</v>
+      </c>
+      <c r="O69" s="172" t="n">
         <v>0.003154742133691718</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.005740024432044952</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.003228133530411258</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005295025750000007</v>
+        <v>0.02254717102902399</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008478400000000011</v>
+        <v>0.0361025505593579</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006941665333086142</v>
+        <v>0.003329544925576064</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004035166913014072</v>
+        <v>0.003283061701558249</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02066553540512714</v>
+        <v>0.005972022650327813</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003934606650798113</v>
+        <v>0.004035166913014072</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01932594840735552</v>
+        <v>0.01177178224531689</v>
       </c>
       <c r="M70" s="170" t="n">
+        <v>0.003971061214579985</v>
+      </c>
+      <c r="N70" s="171" t="n">
+        <v>0.01888987320000923</v>
+      </c>
+      <c r="O70" s="172" t="n">
         <v>0.003943427667114648</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.006941665333086142</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.004035166913014072</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00788017972073296</v>
+        <v>0.00410240520991538</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004842200295616887</v>
+        <v>0.003939674041869899</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02398229348239811</v>
+        <v>0.006738275309792513</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004721527980957736</v>
+        <v>0.004842200295616887</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0221517865670664</v>
+        <v>0.01303630697701857</v>
       </c>
       <c r="M71" s="170" t="n">
+        <v>0.004765273457495982</v>
+      </c>
+      <c r="N71" s="171" t="n">
+        <v>0.02183141698842106</v>
+      </c>
+      <c r="O71" s="172" t="n">
         <v>0.004732113200537577</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.00788017972073296</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.004842200295616887</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008478400000000011</v>
+        <v>0.004908600464054821</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005295025750000007</v>
+        <v>0.004596286382181549</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02636439537810661</v>
+        <v>0.007556259321224001</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005508449311117359</v>
+        <v>0.005649233678219701</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02512580214387067</v>
+        <v>0.01481909070441692</v>
       </c>
       <c r="M72" s="170" t="n">
+        <v>0.00555948570041198</v>
+      </c>
+      <c r="N72" s="171" t="n">
+        <v>0.02462506801587844</v>
+      </c>
+      <c r="O72" s="172" t="n">
         <v>0.005520798733960506</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.008478400000000011</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.005295025750000007</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009304921063750707</v>
+        <v>0.005747138346590977</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006456267060822515</v>
+        <v>0.005252898722493199</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02792789544354807</v>
+        <v>0.008530100042379862</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006295370641276981</v>
+        <v>0.006456267060822515</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02755533776986163</v>
+        <v>0.01662462025839426</v>
       </c>
       <c r="M73" s="170" t="n">
+        <v>0.006353697943327977</v>
+      </c>
+      <c r="N73" s="171" t="n">
+        <v>0.02757722339547081</v>
+      </c>
+      <c r="O73" s="172" t="n">
         <v>0.006309484267383436</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.009304921063750707</v>
-      </c>
-      <c r="O73" s="172" t="n">
-        <v>0.006456267060822515</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01031636595633779</v>
+        <v>0.00661702651612045</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007263300443425331</v>
+        <v>0.005909511062804848</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02847840000000001</v>
+        <v>0.009163922831017635</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006758618049590051</v>
+        <v>0.007263300443425331</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02944773607713286</v>
+        <v>0.01815738246983284</v>
       </c>
       <c r="M74" s="170" t="n">
+        <v>0.007147910186243974</v>
+      </c>
+      <c r="N74" s="171" t="n">
+        <v>0.02999428024028733</v>
+      </c>
+      <c r="O74" s="172" t="n">
         <v>0.007098169800806364</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.01031636595633779</v>
-      </c>
-      <c r="O74" s="172" t="n">
-        <v>0.007263300443425331</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01067638267775579</v>
+        <v>0.007517272631239871</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008070333826028144</v>
+        <v>0.006566123403116499</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02868207968778308</v>
+        <v>0.009761853044894936</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007869213301596225</v>
+        <v>0.008070333826028144</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03221033969777792</v>
+        <v>0.02002186416961491</v>
       </c>
       <c r="M75" s="170" t="n">
+        <v>0.007942122429159971</v>
+      </c>
+      <c r="N75" s="171" t="n">
+        <v>0.03228263566341749</v>
+      </c>
+      <c r="O75" s="172" t="n">
         <v>0.007886855334229295</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.01067638267775579</v>
-      </c>
-      <c r="O75" s="172" t="n">
-        <v>0.008070333826028144</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0112912270055974</v>
+        <v>0.008446884350545802</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008877367208630959</v>
+        <v>0.007222735743428149</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02939119305700155</v>
+        <v>0.01072801604176925</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008656134631755848</v>
+        <v>0.008877367208630959</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0345504912638902</v>
+        <v>0.02172255218862285</v>
       </c>
       <c r="M76" s="170" t="n">
+        <v>0.008736334672075968</v>
+      </c>
+      <c r="N76" s="171" t="n">
+        <v>0.03444868677795049</v>
+      </c>
+      <c r="O76" s="172" t="n">
         <v>0.008675540867652223</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.0112912270055974</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.008877367208630959</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01196715471745527</v>
+        <v>0.009404869332634902</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007879348083739798</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01136653717939815</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009684400591233773</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02941929348807731</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009443055961915471</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.03617553340756324</v>
+        <v>0.02326393335773885</v>
       </c>
       <c r="M77" t="n">
+        <v>0.009530546914991965</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.03629883069697576</v>
+      </c>
+      <c r="O77" t="n">
         <v>0.009464226401075153</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.01196715471745527</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.009684400591233773</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01271042159092217</v>
+        <v>0.01039023523610373</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008535960424051447</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0117815418155392</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01049143397383659</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.02981209089674672</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01022997729207509</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.03899280876089062</v>
+        <v>0.02455049450784527</v>
       </c>
       <c r="M78" t="n">
+        <v>0.01032475915790796</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.03903946453358254</v>
+      </c>
+      <c r="O78" t="n">
         <v>0.01025291193449808</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.01271042159092217</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.01049143397383659</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01322728340359078</v>
+        <v>0.01140198971954891</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009192572764363098</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01257715530794996</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0112984673564394</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03001529519874616</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01101689862223472</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04100965995596567</v>
+        <v>0.0256867224698244</v>
       </c>
       <c r="M79" t="n">
+        <v>0.01111897140082396</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0404769854008602</v>
+      </c>
+      <c r="O79" t="n">
         <v>0.01104159746792101</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.01322728340359078</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.0112984673564394</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01362399593305379</v>
+        <v>0.01243914044156705</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009849185104674748</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01295750301438796</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01210550073904222</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03097461630981196</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01180381995239434</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04203342962488199</v>
+        <v>0.02697710407455847</v>
       </c>
       <c r="M80" t="n">
+        <v>0.01191318364373996</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.04231779041189793</v>
+      </c>
+      <c r="O80" t="n">
         <v>0.01183028300134394</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.01362399593305379</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.01210550073904222</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0140068149569039</v>
+        <v>0.01350069506075473</v>
       </c>
       <c r="G81" t="n">
+        <v>0.0105057974449864</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0136267102926108</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01291253412164503</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03129994334744568</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01238039836385894</v>
-      </c>
       <c r="L81" t="n">
+        <v>0.02822612615292983</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01270739588665595</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.04517821333949024</v>
       </c>
-      <c r="M81" t="n">
+      <c r="O81" t="n">
         <v>0.01290319605943136</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.0140068149569039</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.01291253412164503</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01468199625273384</v>
+        <v>0.01458566123570859</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01116240978529805</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01408890250037596</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01371956750424785</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03147594089471212</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01337766261271358</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.04614788619822097</v>
+        <v>0.02973827553582076</v>
       </c>
       <c r="M82" t="n">
+        <v>0.01350160812957195</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.04535271022393278</v>
+      </c>
+      <c r="O82" t="n">
         <v>0.0134076540681898</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.01468199625273384</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.01371956750424785</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0149557955981363</v>
+        <v>0.01569304662502521</v>
       </c>
       <c r="G83" t="n">
+        <v>0.0118190221256097</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0145482049954411</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01452660088685066</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03248430766254576</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01416458394287321</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.0478255283453381</v>
+        <v>0.03129994334744568</v>
       </c>
       <c r="M83" t="n">
+        <v>0.01455717170255942</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.04783725288409407</v>
+      </c>
+      <c r="O83" t="n">
         <v>0.01419633960161273</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.0149557955981363</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.01452660088685066</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01533446877070398</v>
+        <v>0.01682185888730124</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01247563446592135</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01540874313556366</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01533363426945347</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03295417595524475</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01495150527303283</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.04940726452113875</v>
+        <v>0.031778866488888</v>
       </c>
       <c r="M84" t="n">
+        <v>0.01509003261540395</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.04902513455612745</v>
+      </c>
+      <c r="O84" t="n">
         <v>0.01498502513503566</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.01533446877070398</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.01533363426945347</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01592427154802957</v>
+        <v>0.01797110568113322</v>
       </c>
       <c r="G85" t="n">
+        <v>0.013132246806233</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01587464227850129</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01614066765205629</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03378131024279152</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01573842660319245</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.05049042520664149</v>
+        <v>0.0326506612888243</v>
       </c>
       <c r="M85" t="n">
+        <v>0.01588424485831994</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.05081371698393888</v>
+      </c>
+      <c r="O85" t="n">
         <v>0.01577371066845859</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.01592427154802957</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.01614066765205629</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01653145970770581</v>
+        <v>0.0191397946651178</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01378885914654465</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01635002778201147</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.0169477010346591</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03416147499516853</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01652534793335208</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05287234088286508</v>
+        <v>0.0344331309575184</v>
       </c>
       <c r="M86" t="n">
+        <v>0.01667845710123594</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.05270036191143412</v>
+      </c>
+      <c r="O86" t="n">
         <v>0.01656239620188152</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.01653145970770581</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.0169477010346591</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>0.02032693349785156</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0144454714868563</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.0174216733554011</v>
       </c>
-      <c r="G87" t="n">
+      <c r="K87" t="n">
         <v>0.01813396572956723</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03509043468235806</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0173122692635117</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.053850342030828</v>
+        <v>0.03532369940945573</v>
       </c>
       <c r="M87" t="n">
+        <v>0.01747266934415194</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.05438243108251928</v>
+      </c>
+      <c r="O87" t="n">
         <v>0.01735108173530445</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.0174216733554011</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.01813396572956723</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01752309246401661</v>
+        <v>0.02153152983793112</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01510208382716795</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01754691137442832</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01856176779986473</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03586395377434259</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01809919059367132</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05562175913154915</v>
+        <v>0.03641979055912162</v>
       </c>
       <c r="M88" t="n">
+        <v>0.01826688158706793</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.05585728624110026</v>
+      </c>
+      <c r="O88" t="n">
         <v>0.01813976726872738</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.01752309246401661</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.01856176779986473</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01801677715914149</v>
+        <v>0.02275259134395306</v>
       </c>
       <c r="G89" t="n">
+        <v>0.0157586961674796</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01828113681608576</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01936880118246755</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03717779674110444</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01888611192383094</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05738392266604692</v>
+        <v>0.03761882832100136</v>
       </c>
       <c r="M89" t="n">
+        <v>0.01906109382998393</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.05722228913108285</v>
+      </c>
+      <c r="O89" t="n">
         <v>0.01892845280215031</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.01801677715914149</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.01936880118246755</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01884037768624663</v>
+        <v>0.02398912567451403</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01641530850779125</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0188397760110371</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.02017583456507036</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.03802772805262608</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01967303325399057</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.05943416311534011</v>
+        <v>0.03921823660958038</v>
       </c>
       <c r="M90" t="n">
+        <v>0.01985530607289993</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.05917480149637311</v>
+      </c>
+      <c r="O90" t="n">
         <v>0.01971713833557324</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.01884037768624663</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.02017583456507036</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01929051332511771</v>
+        <v>0.02524014048821062</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01707192084810289</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01951973254336235</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02098286794767317</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.03870951217888982</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02045995458415019</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.06086981096044725</v>
+        <v>0.04031543933934392</v>
       </c>
       <c r="M91" t="n">
+        <v>0.02064951831581592</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0611121850808769</v>
+      </c>
+      <c r="O91" t="n">
         <v>0.02050582386899617</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.01929051332511771</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.02098286794767317</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02006380335554032</v>
+        <v>0.02650464344363941</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01772853318841455</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02031790999714139</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02178990133027599</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.03991891358987806</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02124687591430981</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.06248819668238709</v>
+        <v>0.04130786042477735</v>
       </c>
       <c r="M92" t="n">
+        <v>0.02144373055873192</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.06223180162850017</v>
+      </c>
+      <c r="O92" t="n">
         <v>0.0212945094024191</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.02006380335554032</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.02178990133027599</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02065686705730012</v>
+        <v>0.02778164219939701</v>
       </c>
       <c r="G93" t="n">
+        <v>0.0183851455287262</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02103121195645419</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0225969347128788</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04075169675557327</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02203379724446944</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06388665076217825</v>
+        <v>0.04279292378036603</v>
       </c>
       <c r="M93" t="n">
+        <v>0.02223794280164792</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.06393101288314879</v>
+      </c>
+      <c r="O93" t="n">
         <v>0.02208319493584203</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.02065686705730012</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.0225969347128788</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02156632371018265</v>
+        <v>0.02907014441408005</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01904175786903784</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02165654200538068</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02340396809548162</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04240362614595777</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02282071857462906</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06586250368083935</v>
+        <v>0.04376805332059527</v>
       </c>
       <c r="M94" t="n">
+        <v>0.02303215504456392</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.06520718058872876</v>
+      </c>
+      <c r="O94" t="n">
         <v>0.02287188046926496</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.02156632371018265</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.02340396809548162</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02238879259397362</v>
+        <v>0.03036915774628511</v>
       </c>
       <c r="G95" t="n">
+        <v>0.0196983702093495</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02239080372800079</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02421100147808443</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04337046623101398</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02360763990478868</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06741308591938899</v>
+        <v>0.04513067295995044</v>
       </c>
       <c r="M95" t="n">
+        <v>0.02382636728747991</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06705766648914596</v>
+      </c>
+      <c r="O95" t="n">
         <v>0.02366056600268789</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.02238879259397362</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.02421100147808443</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02302089298845862</v>
+        <v>0.03167768985460882</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02035498254966114</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02313090070839446</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02501803486068725</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04444798148072421</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.0243945612349483</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06893572795884589</v>
+        <v>0.04627820661291684</v>
       </c>
       <c r="M96" t="n">
+        <v>0.02462057953039591</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.0684798323283064</v>
+      </c>
+      <c r="O96" t="n">
         <v>0.02444925153611082</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.02302089298845862</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.02501803486068725</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02365924417342326</v>
+        <v>0.03299474839764777</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02101159488997279</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02407373653064164</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02582506824329006</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.04543193636507098</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02518148256510792</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.07052776028022867</v>
+        <v>0.0471080781939798</v>
       </c>
       <c r="M97" t="n">
+        <v>0.02541479177331191</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.06997103985011588</v>
+      </c>
+      <c r="O97" t="n">
         <v>0.02523793706953375</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.02365924417342326</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.02582506824329006</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02440046542865318</v>
+        <v>0.03431934103399857</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02166820723028445</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02481621477882225</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02663210162589288</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04671809535403662</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02596840389526755</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.07208651336455596</v>
+        <v>0.04851771161762469</v>
       </c>
       <c r="M98" t="n">
+        <v>0.0262090040162279</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.07192865079848032</v>
+      </c>
+      <c r="O98" t="n">
         <v>0.02602662260295667</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.02440046542865318</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.02663210162589288</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.025341176033934</v>
+        <v>0.0361025505593579</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02254717102902399</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02535523903701623</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02743913500849569</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04740222291760351</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02675532522542717</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.07270931769284639</v>
+        <v>0.04960453079833685</v>
       </c>
       <c r="M99" t="n">
+        <v>0.0270032162591439</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.0732500269173057</v>
+      </c>
+      <c r="O99" t="n">
         <v>0.0268153081363796</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.025341176033934</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.02743913500849569</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02597799526905131</v>
+        <v>0.03706981881084459</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02298143191090775</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02628771288930352</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.0282461683910985</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04868008352575404</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02754224655558679</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.07399350374611863</v>
+        <v>0.05066595965060164</v>
       </c>
       <c r="M100" t="n">
+        <v>0.0277974285020599</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.07403252995049808</v>
+      </c>
+      <c r="O100" t="n">
         <v>0.02760399366980253</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.02597799526905131</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.0282461683910985</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02650754241379079</v>
+        <v>0.03873921357947692</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02363804425121939</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02671053991976408</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02905320177370132</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.04974744164847061</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02832916788574641</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.07603640200539147</v>
+        <v>0.0516994220889043</v>
       </c>
       <c r="M101" t="n">
+        <v>0.02859164074497589</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.07547352164196319</v>
+      </c>
+      <c r="O101" t="n">
         <v>0.02839267920322546</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.02650754241379079</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.02905320177370132</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02752643674793802</v>
+        <v>0.04044310523291385</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02429465659153104</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02742062371247782</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02986023515630414</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.05090006175573566</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02911608921590604</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.07723534295168322</v>
+        <v>0.05210234202773029</v>
       </c>
       <c r="M102" t="n">
+        <v>0.02938585298789189</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.07667036373560704</v>
+      </c>
+      <c r="O102" t="n">
         <v>0.02918136473664839</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.02752643674793802</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.02986023515630414</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02823129755127864</v>
+        <v>0.04210255055935791</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02503462169085333</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02811486785152466</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03066726853890695</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0514337083175315</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02990301054606566</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07808765706601289</v>
+        <v>0.05327214338156483</v>
       </c>
       <c r="M103" t="n">
+        <v>0.03018006523080789</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.07822041797533552</v>
+      </c>
+      <c r="O103" t="n">
         <v>0.02997005027007132</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.02823129755127864</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.03066726853890695</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02871874410359825</v>
+        <v>0.04319775293247664</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02560788127215434</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02909017592098456</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03147430192150976</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.05274414580384057</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03068993187622528</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07929067482939889</v>
+        <v>0.05410625006489334</v>
       </c>
       <c r="M104" t="n">
+        <v>0.03097427747372388</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.08002104610505456</v>
+      </c>
+      <c r="O104" t="n">
         <v>0.03075873580349425</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.02871874410359825</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.03147430192150976</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02958539568468252</v>
+        <v>0.044448050869196</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02626449361246599</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02974345150493747</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03228133530411258</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.05392713868464521</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.0314768532063849</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.08044172672285982</v>
+        <v>0.05510208599220109</v>
       </c>
       <c r="M105" t="n">
+        <v>0.03176848971663988</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.08086960986867003</v>
+      </c>
+      <c r="O105" t="n">
         <v>0.03154742133691718</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.02958539568468252</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.03228133530411258</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03012787157431701</v>
+        <v>0.04568316407859661</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02692110595277765</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03027159818746331</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03308836868671539</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05477845142992785</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03226377453654453</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.08163814322741453</v>
+        <v>0.05585707507797349</v>
       </c>
       <c r="M106" t="n">
+        <v>0.03256270195955589</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.08166347101008803</v>
+      </c>
+      <c r="O106" t="n">
         <v>0.03233610687034011</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.03012787157431701</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.03308836868671539</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0305427910522874</v>
+        <v>0.04689186219896901</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02757771829308929</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03087151955264202</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.0338954020693182</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05589384850967094</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03305069586670415</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.08237725482408148</v>
+        <v>0.05666864123669588</v>
       </c>
       <c r="M107" t="n">
+        <v>0.03335691420247187</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.0832999912732143</v>
+      </c>
+      <c r="O107" t="n">
         <v>0.03312479240376304</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.0305427910522874</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.0338954020693182</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03112677339837927</v>
+        <v>0.0480629148686038</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02823433063340094</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03124011918455354</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03470243545192102</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05626909439385674</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03383761719686377</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.08395639199387944</v>
+        <v>0.05743420838285351</v>
       </c>
       <c r="M108" t="n">
+        <v>0.03415112644538788</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.08417653240195494</v>
+      </c>
+      <c r="O108" t="n">
         <v>0.03391347793718597</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.03112677339837927</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.03470243545192102</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03167643789237827</v>
+        <v>0.04918509172579141</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0288909429737126</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0319743006672778</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03550946883452383</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05759995355246772</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03462453852702339</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.0843728852178271</v>
+        <v>0.05835120043093178</v>
       </c>
       <c r="M109" t="n">
+        <v>0.03494533868830387</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.08509045614021571</v>
+      </c>
+      <c r="O109" t="n">
         <v>0.03470216347060889</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.03167643789237827</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.03550946883452383</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03238840381406999</v>
+        <v>0.05024716240882243</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02954755531402424</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03237096758489473</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03631650221712665</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05818219045548628</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03541145985718302</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.08572406497694285</v>
+        <v>0.05881704129541604</v>
       </c>
       <c r="M110" t="n">
+        <v>0.03573955093121987</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.08603912423190263</v>
+      </c>
+      <c r="O110" t="n">
         <v>0.03549084900403183</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.03238840381406999</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.03631650221712665</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03295929044324009</v>
+        <v>0.05123789655598737</v>
       </c>
       <c r="G111" t="n">
+        <v>0.0302041676543359</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0328270235214843</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03712353559972946</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05881156957289474</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03619838118734264</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.08590726175224561</v>
+        <v>0.05972915489079156</v>
       </c>
       <c r="M111" t="n">
+        <v>0.03653376317413587</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.08671989842092154</v>
+      </c>
+      <c r="O111" t="n">
         <v>0.03627953453745476</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.03295929044324009</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.03712353559972946</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03338571705967416</v>
+        <v>0.05214606380557678</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03086077999464754</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03333937206112643</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03793056898233228</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05928385537467556</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03698530251750226</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.0875198060247539</v>
+        <v>0.06018496513154378</v>
       </c>
       <c r="M112" t="n">
+        <v>0.03732797541705186</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.08743014045117847</v>
+      </c>
+      <c r="O112" t="n">
         <v>0.03706822007087768</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.03338571705967416</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.03793056898233228</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03346430294315786</v>
+        <v>0.05296043379588114</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03151739233495919</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03350491678790105</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03873760236493509</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.06019481233081117</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03777222384766189</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.0880590282754864</v>
+        <v>0.06088189593215795</v>
       </c>
       <c r="M113" t="n">
+        <v>0.03812218765996786</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.08816721206657924</v>
+      </c>
+      <c r="O113" t="n">
         <v>0.03785690560430061</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.03346430294315786</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.03873760236493509</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03379166737347677</v>
+        <v>0.05366977616519102</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03217400467527085</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03412056128588808</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03954463574753791</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.06074020491128382</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.0385591451778215</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.08822225898546165</v>
+        <v>0.0609173712071194</v>
       </c>
       <c r="M114" t="n">
+        <v>0.03891639990288386</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.08782847501102986</v>
+      </c>
+      <c r="O114" t="n">
         <v>0.03864559113772354</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.03379166737347677</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.03954463574753791</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03416442963041653</v>
+        <v>0.05426286055179694</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03283061701558249</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03438320913916749</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.04035166913014072</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.06121579758607604</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03934606650798114</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.0892068286356984</v>
+        <v>0.06138881487091358</v>
       </c>
       <c r="M115" t="n">
+        <v>0.03971061214579986</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.08911129102843623</v>
+      </c>
+      <c r="O115" t="n">
         <v>0.03943427667114648</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.03416442963041653</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.04035166913014072</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03427920899376279</v>
+        <v>0.05472845659398944</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03348722935589415</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03458976393181921</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04115870251274354</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.06151735482517015</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04013298783814075</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.08871006770721529</v>
+        <v>0.06179365083802568</v>
       </c>
       <c r="M116" t="n">
+        <v>0.04050482438871585</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.08951302186270427</v>
+      </c>
+      <c r="O116" t="n">
         <v>0.0402229622045694</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.03427920899376279</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.04115870251274354</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03453262474330113</v>
+        <v>0.05507851826407952</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03414384169620579</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03443712924792318</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04196573589534635</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.06154064109854854</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04091990916830037</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.08952930668103098</v>
+        <v>0.06212930302294117</v>
       </c>
       <c r="M117" t="n">
+        <v>0.04129903663163185</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.08953102925773998</v>
+      </c>
+      <c r="O117" t="n">
         <v>0.04101164773799233</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.03453262474330113</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.04196573589534635</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.05540994213007541</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.03480045403651744</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.03484334671080218</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04277276927794917</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.06238142087619364</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04170683049846</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.08936187603816403</v>
+        <v>0.06249319534014527</v>
       </c>
       <c r="M118" t="n">
+        <v>0.04209324887454785</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.08966267495744912</v>
+      </c>
+      <c r="O118" t="n">
         <v>0.04180033327141526</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.03484334671080218</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.04277276927794917</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03464309709764596</v>
+        <v>0.05573479016608024</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03545706637682909</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03484318756797687</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04357980266055198</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.06259988669489136</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04249375182861962</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
+        <v>0.04288746111746384</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.09035642667898047</v>
       </c>
-      <c r="M119" t="n">
+      <c r="O119" t="n">
         <v>0.0425890188048382</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.03464309709764596</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.04357980266055198</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03473488128372183</v>
+        <v>0.05605303812652468</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03611367871714075</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03463793034254066</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.0443868360431548</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.06229851882421344</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04328067315877924</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.09025632782645698</v>
+        <v>0.06209749793594063</v>
       </c>
       <c r="M120" t="n">
+        <v>0.04368167336037984</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.09005632824651166</v>
+      </c>
+      <c r="O120" t="n">
         <v>0.04337770433826112</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03473488128372183</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.0443868360431548</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03471536779377399</v>
+        <v>0.05636466176583943</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03677029105745239</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03472538023683147</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04519386942575761</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.06239680024938621</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04406759448893887</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.09024074950371369</v>
+        <v>0.06196287614198037</v>
       </c>
       <c r="M121" t="n">
+        <v>0.04447588560329584</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.08954407261212111</v>
+      </c>
+      <c r="O121" t="n">
         <v>0.04416638987168405</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.03471536779377399</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.04519386942575761</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03448498874258095</v>
+        <v>0.05666963683845516</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03742690339776404</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03450573364311146</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04600090280836042</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.06218493428546201</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04485451581909849</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.08979142386717737</v>
+        <v>0.06248844332980347</v>
       </c>
       <c r="M122" t="n">
+        <v>0.04527009784621183</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.09020516315278432</v>
+      </c>
+      <c r="O122" t="n">
         <v>0.04495507540510698</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.03448498874258095</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0.04600090280836042</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03464417624492126</v>
+        <v>0.05696793909880253</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03808351573807569</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03447918695364274</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04680793619096323</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.06236422056212707</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04564143714925811</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.08950958104112161</v>
+        <v>0.06197596581932088</v>
       </c>
       <c r="M123" t="n">
+        <v>0.04606431008912783</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.09004052785020455</v>
+      </c>
+      <c r="O123" t="n">
         <v>0.04574376093852991</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.03464417624492126</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0.04680793619096323</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03439336241557343</v>
+        <v>0.05725954430131226</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03874012807838734</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03474593656068745</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04761496957356606</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.06213471892940339</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04642835847941773</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.08929638861800121</v>
+        <v>0.06172720993044367</v>
       </c>
       <c r="M124" t="n">
+        <v>0.04685852233204383</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.08955102485383948</v>
+      </c>
+      <c r="O124" t="n">
         <v>0.04653244647195284</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.03439336241557343</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.04761496957356606</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03443297936931598</v>
+        <v>0.05754442820041501</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03939674041869899</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03470617885650779</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04842200295616887</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.06199648923731305</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04721527980957736</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.08955301419027073</v>
+        <v>0.06174394198308267</v>
       </c>
       <c r="M125" t="n">
+        <v>0.04765273457495982</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.08923751231314669</v>
+      </c>
+      <c r="O125" t="n">
         <v>0.04732113200537577</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.03443297936931598</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.04842200295616887</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03446345922092747</v>
+        <v>0.05782256655054147</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04005335275901065</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03436011023336584</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04922903633877168</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.06204959133587801</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04800220113973698</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.0891806253503849</v>
+        <v>0.06122792829714888</v>
       </c>
       <c r="M126" t="n">
+        <v>0.04844694681787582</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.08950084837758399</v>
+      </c>
+      <c r="O126" t="n">
         <v>0.0481098175387987</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.03446345922092747</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0.04922903633877168</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03448523408518642</v>
+        <v>0.05809393510612229</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04070996509932229</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03450792708352377</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.05003606972137449</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.06219408507512034</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.0487891224698966</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.08938038969079831</v>
+        <v>0.06098093519255324</v>
       </c>
       <c r="M127" t="n">
+        <v>0.04924115906079182</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.08944189119660872</v>
+      </c>
+      <c r="O127" t="n">
         <v>0.04889850307222163</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.03448523408518642</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.05003606972137449</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03409873607687132</v>
+        <v>0.05835850962158819</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04136657743963394</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03454982579924373</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05084310310397731</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.06213003030506201</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04957604380005622</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.08915347480396563</v>
+        <v>0.06130472898920666</v>
       </c>
       <c r="M128" t="n">
+        <v>0.05003537130370781</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.08956149891967885</v>
+      </c>
+      <c r="O128" t="n">
         <v>0.04968718860564456</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.03409873607687132</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.05084310310397731</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03430439731076074</v>
+        <v>0.05861626585136982</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04202318977994559</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03448600277278788</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05165013648658012</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.06225748687572513</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05036296513021585</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.0886010482823415</v>
+        <v>0.06060107600702014</v>
       </c>
       <c r="M129" t="n">
+        <v>0.05082958354662381</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.08866052969625171</v>
+      </c>
+      <c r="O129" t="n">
         <v>0.05047587413906749</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.03430439731076074</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.05165013648658012</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03400264990163318</v>
+        <v>0.05886717954989791</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04267980212025724</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03431665439641834</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05245716986918294</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.06197651463713164</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05114988646037547</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.08832427771838064</v>
+        <v>0.06057174256590464</v>
       </c>
       <c r="M130" t="n">
+        <v>0.05162379578953982</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.08873984167578503</v>
+      </c>
+      <c r="O130" t="n">
         <v>0.05126455967249042</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.03400264990163318</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0.05245716986918294</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03409392596426719</v>
+        <v>0.05911122647160309</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04333641446056889</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03424197706239725</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05326420325178575</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.06168717343930361</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05193680779053509</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.08852433070453763</v>
+        <v>0.05981849498577105</v>
       </c>
       <c r="M131" t="n">
+        <v>0.0524180080324558</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.08860029300773647</v>
+      </c>
+      <c r="O131" t="n">
         <v>0.05205324520591335</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.03409392596426719</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0.05326420325178575</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03387865761344129</v>
+        <v>0.05934838237091604</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04399302680088054</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03426216716298679</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05407123663438856</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.06138952313226306</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05272372912069472</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.08790237483326713</v>
+        <v>0.05994309958653032</v>
       </c>
       <c r="M132" t="n">
+        <v>0.05321222027537181</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.08804274184156369</v>
+      </c>
+      <c r="O132" t="n">
         <v>0.05284193073933627</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.03387865761344129</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0.05407123663438856</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.033657276963934</v>
+        <v>0.05957862300226748</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04464963914119219</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03417742109044906</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05487827001699138</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.06168362356603199</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05351065045085434</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.08765957769702393</v>
+        <v>0.05914732268809347</v>
       </c>
       <c r="M133" t="n">
+        <v>0.0540064325182878</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.08786804632672418</v>
+      </c>
+      <c r="O133" t="n">
         <v>0.0536306162727592</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.033657276963934</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.05487827001699138</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03373021613052385</v>
+        <v>0.05980192412008803</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04530625148150384</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03378793523704625</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05568530339959419</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.06156953459063244</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05429757178101396</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.08709710688826239</v>
+        <v>0.05863293061037139</v>
       </c>
       <c r="M134" t="n">
+        <v>0.0548006447612038</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.08807706461267578</v>
+      </c>
+      <c r="O134" t="n">
         <v>0.05441930180618213</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.03373021613052385</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.05568530339959419</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03339790722798938</v>
+        <v>0.06001826147880845</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04596286382181549</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03379390599504044</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05649233678219701</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.06154731605608646</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05508449311117358</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.0863161299994375</v>
+        <v>0.05840168967327505</v>
       </c>
       <c r="M135" t="n">
+        <v>0.0555948570041198</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.08747065484887595</v>
+      </c>
+      <c r="O135" t="n">
         <v>0.05520798733960506</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.03339790722798938</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.05649233678219701</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0334607823711091</v>
+        <v>0.06022761083285938</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04661947616212715</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03379552975669385</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05729937016479982</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.06131702781241602</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05587141444133321</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.08621781462300371</v>
+        <v>0.05805536619671539</v>
       </c>
       <c r="M136" t="n">
+        <v>0.05638906924703579</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.08664967518478239</v>
+      </c>
+      <c r="O136" t="n">
         <v>0.05599667287302799</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.0334607823711091</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0.05729937016479982</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03311927367466155</v>
+        <v>0.06042994793667149</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04727608850243879</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03349300291426859</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05810640354740264</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.06137872970964323</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05665833577149283</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.08630332835141574</v>
+        <v>0.05739572650060334</v>
       </c>
       <c r="M137" t="n">
+        <v>0.05718328148995179</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.08681498376985269</v>
+      </c>
+      <c r="O137" t="n">
         <v>0.05678535840645092</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.03311927367466155</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0.05810640354740264</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03297381325342524</v>
+        <v>0.06062524854467548</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04793270084275044</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03338652186002679</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05891343693000545</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.06063248159779</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05744525710165245</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.08577383877712819</v>
+        <v>0.05692453690484992</v>
       </c>
       <c r="M138" t="n">
+        <v>0.05797749373286779</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.08676743875354453</v>
+      </c>
+      <c r="O138" t="n">
         <v>0.05757404393987386</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.03297381325342524</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.05891343693000545</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03282483322217873</v>
+        <v>0.06081348841130201</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04858931318306209</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03327628298623062</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05972047031260827</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06097834332687846</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05823217843181207</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.08543051349259578</v>
+        <v>0.05624356372936598</v>
       </c>
       <c r="M139" t="n">
+        <v>0.05877170597578379</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.08610789828531545</v>
+      </c>
+      <c r="O139" t="n">
         <v>0.05836272947329679</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.03282483322217873</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.05972047031260827</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03267276569570053</v>
+        <v>0.0609946432909818</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04924592552337374</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03326248268514219</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.06052750369521108</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.06041637474693054</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05901909976197169</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.08407452009027311</v>
+        <v>0.05585457329406252</v>
       </c>
       <c r="M140" t="n">
+        <v>0.05956591821869978</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.08543722051462321</v>
+      </c>
+      <c r="O140" t="n">
         <v>0.05915141500671971</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.03267276569570053</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.06052750369521108</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03251804278876916</v>
+        <v>0.06116868893814549</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04990253786368539</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03314531734902369</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.0613345370778139</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.06034663570796833</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05980602109213132</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.08440702616261486</v>
+        <v>0.05545933191885047</v>
       </c>
       <c r="M141" t="n">
+        <v>0.06036013046161579</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.0854562635909254</v>
+      </c>
+      <c r="O141" t="n">
         <v>0.05994010054014264</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.03251804278876916</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0.0613345370778139</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03226109661616318</v>
+        <v>0.06133560110722376</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05055915020399704</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03312498337013724</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.0621415704604167</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.06016918606001381</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06059294242229094</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.0840291993020757</v>
+        <v>0.05485960592364081</v>
       </c>
       <c r="M142" t="n">
+        <v>0.06115434270453177</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.0852658856636796</v>
+      </c>
+      <c r="O142" t="n">
         <v>0.06072878607356557</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.03226109661616318</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.0621415704604167</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03240235929266105</v>
+        <v>0.06149535555264732</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05121576254430869</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03290167714074499</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06294860384301952</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.0599840856530891</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06137986375245056</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.08284220710111029</v>
+        <v>0.05485716162834448</v>
       </c>
       <c r="M143" t="n">
+        <v>0.06194855494744777</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.08436694488234336</v>
+      </c>
+      <c r="O143" t="n">
         <v>0.0615174716069885</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.03240235929266105</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0.06294860384301952</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03224226293304136</v>
+        <v>0.06164792802884683</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05187237488462034</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03267559505310909</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06375563722562233</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.05959139433721611</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06216678508261018</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.08264721715217321</v>
+        <v>0.05395376535287238</v>
       </c>
       <c r="M144" t="n">
+        <v>0.06274276719036377</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.08376029939637453</v>
+      </c>
+      <c r="O144" t="n">
         <v>0.06230615714041143</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.03224226293304136</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0.06375563722562233</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0318812396520826</v>
+        <v>0.061793294290253</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05252898722493199</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03274693349949166</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06456267060822515</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.05939117196241694</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.0629537064127698</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.08184539704771931</v>
+        <v>0.05375118341713556</v>
       </c>
       <c r="M145" t="n">
+        <v>0.06353697943327977</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.08374680735523055</v>
+      </c>
+      <c r="O145" t="n">
         <v>0.06309484267383436</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.0318812396520826</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0.06456267060822515</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03171972156456333</v>
+        <v>0.06193143009129648</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05318559956524364</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03271588887215487</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06536970399082798</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.05928347837871353</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06374062774292943</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.08153791438020291</v>
+        <v>0.05325118214104485</v>
       </c>
       <c r="M146" t="n">
+        <v>0.06433119167619576</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.0832273269083692</v>
+      </c>
+      <c r="O146" t="n">
         <v>0.06388352820725729</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.03171972156456333</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0.06536970399082798</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03165814078526208</v>
+        <v>0.06206231118640794</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05384221190555529</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03228265756336086</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06617673737343079</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.05946837343612801</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06452754907308905</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.08152593674207897</v>
+        <v>0.05275552784451126</v>
       </c>
       <c r="M147" t="n">
+        <v>0.06512540391911177</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.08240271620524792</v>
+      </c>
+      <c r="O147" t="n">
         <v>0.06467221374068022</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.03165814078526208</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0.06617673737343079</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03139692942895735</v>
+        <v>0.06218591333001813</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05449882424586695</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03234743596537176</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06698377075603359</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.0591459169846823</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06531447040324867</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.08051063172580197</v>
+        <v>0.05186598684744576</v>
       </c>
       <c r="M148" t="n">
+        <v>0.06591961616202775</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.08247383339532455</v>
+      </c>
+      <c r="O148" t="n">
         <v>0.06546089927410315</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.03139692942895735</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.06698377075603359</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03113651961042767</v>
+        <v>0.06230221227655763</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05515543658617859</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03221042047044975</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.0677908041386364</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.05871616887439848</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.0661013917334083</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.08009316692382673</v>
+        <v>0.05168432546975923</v>
       </c>
       <c r="M149" t="n">
+        <v>0.06671382840494375</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.08164153662805662</v>
+      </c>
+      <c r="O149" t="n">
         <v>0.06624958480752607</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.03113651961042767</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.0677908041386364</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03107734344445157</v>
+        <v>0.06241118378045719</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05581204892649023</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03197180747085693</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06859783752123923</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.05837918895529862</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06688831306356792</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.0796747099286077</v>
+        <v>0.05111231003136268</v>
       </c>
       <c r="M150" t="n">
+        <v>0.06750804064785976</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.08160668405290167</v>
+      </c>
+      <c r="O150" t="n">
         <v>0.067038270340949</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.03107734344445157</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0.06859783752123923</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03101983304580759</v>
+        <v>0.06251280359614748</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05646866126680189</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03193179335885547</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06940487090384204</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.05863503707740467</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06767523439372754</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.07895642833259969</v>
+        <v>0.05055170685216703</v>
       </c>
       <c r="M151" t="n">
+        <v>0.06830225289077575</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.08107013381931744</v>
+      </c>
+      <c r="O151" t="n">
         <v>0.06782695587437193</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.03101983304580759</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.06940487090384204</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03066442052927426</v>
+        <v>0.06260704747805919</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05712527360711354</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03179057452670753</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.07021190428644486</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.05818377309073869</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06846215572388717</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.07803948972825725</v>
+        <v>0.04990428225208327</v>
       </c>
       <c r="M152" t="n">
+        <v>0.06909646513369175</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.08053274407676153</v>
+      </c>
+      <c r="O152" t="n">
         <v>0.06861564140779486</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.03066442052927426</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0.07021190428644486</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03051153800963009</v>
+        <v>0.06269389118062296</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05778188594742519</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03154834736667521</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07101893766904767</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.05762545684532266</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06924907705404679</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.07752506170803508</v>
+        <v>0.04967180255102224</v>
       </c>
       <c r="M153" t="n">
+        <v>0.06989067737660774</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.07979537297469158</v>
+      </c>
+      <c r="O153" t="n">
         <v>0.06940432694121779</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.03051153800963009</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.07101893766904767</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03046161760165361</v>
+        <v>0.06277331045826949</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05843849828773684</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03150530827102069</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07182597105165049</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.05756014819117869</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0700359983842064</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.0770143118643879</v>
+        <v>0.04905603406889503</v>
       </c>
       <c r="M154" t="n">
+        <v>0.07068488961952374</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.0793588786625653</v>
+      </c>
+      <c r="O154" t="n">
         <v>0.07019301247464071</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.03046161760165361</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0.07182597105165049</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03051509142012336</v>
+        <v>0.0628452810654295</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05909511062804849</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03116165363200613</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.0726330044342533</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.05718790697832871</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07082291971436604</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.07660840778977024</v>
+        <v>0.04905874312561245</v>
       </c>
       <c r="M155" t="n">
+        <v>0.07147910186243973</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.07922411928984019</v>
+      </c>
+      <c r="O155" t="n">
         <v>0.07098169800806366</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.03051509142012336</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.0726330044342533</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03007239157981788</v>
+        <v>0.06290977875653361</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05975172296836014</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03121757984189359</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07344003781685611</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.05730879305679482</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07160984104452565</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.07680851707663688</v>
+        <v>0.04888169604108558</v>
       </c>
       <c r="M156" t="n">
+        <v>0.07227331410535573</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.07839195300597385</v>
+      </c>
+      <c r="O156" t="n">
         <v>0.07177038354148658</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.03007239157981788</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.07344003781685611</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02993321154292028</v>
+        <v>0.06296677928601253</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06040833530867179</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03087328329294532</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07424707119945892</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.05692286627659898</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07239676237468527</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.07631580731744236</v>
+        <v>0.04852665913522528</v>
       </c>
       <c r="M157" t="n">
+        <v>0.07306752634827174</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.07866323796042413</v>
+      </c>
+      <c r="O157" t="n">
         <v>0.07255906907490951</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.02993321154292028</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.07424707119945892</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02999467139711111</v>
+        <v>0.06301625840829697</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06106494764898344</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03072172057402979</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07505410458206174</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.05613018648776327</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.0731836837048449</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.07583139322262611</v>
+        <v>0.04818988045080547</v>
       </c>
       <c r="M158" t="n">
+        <v>0.07386173859118773</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.07753144059672668</v>
+      </c>
+      <c r="O158" t="n">
         <v>0.07334775460833244</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.02999467139711111</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0.07505410458206174</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02985632809573587</v>
+        <v>0.06305819187781754</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06172155998929509</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03055146568132538</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07586113796466455</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.05643081354030965</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07397060503500452</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.07524429782993236</v>
+        <v>0.04736240970555178</v>
       </c>
       <c r="M159" t="n">
+        <v>0.07465595083410373</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.07738431546813773</v>
+      </c>
+      <c r="O159" t="n">
         <v>0.07413644014175537</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.02985632809573587</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.07586113796466455</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02961806224189122</v>
+        <v>0.06309255544900498</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06237817232960673</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03056335810849695</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07666817134726737</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.05562480728426025</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07475752636516414</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.0749457059773429</v>
+        <v>0.04704341221494213</v>
       </c>
       <c r="M160" t="n">
+        <v>0.07545016307701972</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.07722181083157281</v>
+      </c>
+      <c r="O160" t="n">
         <v>0.0749251256751783</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.02961806224189122</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0.07666817134726737</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02937975443867388</v>
+        <v>0.06311932487628993</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06303478466991838</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03045842875817674</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07747520472987018</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.05581222756963697</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07554444769532377</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.07353577901309483</v>
+        <v>0.04663219456233797</v>
       </c>
       <c r="M161" t="n">
+        <v>0.07624437531993572</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.07704409201600981</v>
+      </c>
+      <c r="O161" t="n">
         <v>0.07571381120860123</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.02937975443867388</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.07747520472987018</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02954128528918049</v>
+        <v>0.06313847591410314</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06369139701023004</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.029937708532997</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07828223811247299</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.05539313424646192</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07633136902548339</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.07341467828542503</v>
+        <v>0.04632806333110071</v>
       </c>
       <c r="M162" t="n">
+        <v>0.07703858756285172</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.07565132435042643</v>
+      </c>
+      <c r="O162" t="n">
         <v>0.07650249674202415</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.02954128528918049</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.07828223811247299</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02910253539650771</v>
+        <v>0.06314998431687521</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06434800935054169</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02990222833558992</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07908927149507582</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.0550675871647571</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07711829035564301</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.07268256514257049</v>
+        <v>0.04663032510459181</v>
       </c>
       <c r="M163" t="n">
+        <v>0.07783279980576771</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.07524367316380048</v>
+      </c>
+      <c r="O163" t="n">
         <v>0.07729118227544708</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.02910253539650771</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0.07908927149507582</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02916338536375224</v>
+        <v>0.06315382583903686</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06500462169085335</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02955301906858783</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07989630487767863</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.05433564617454448</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07790521168580264</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.07233960093276798</v>
+        <v>0.04573828646617278</v>
       </c>
       <c r="M164" t="n">
+        <v>0.07862701204868372</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.07522130378510961</v>
+      </c>
+      <c r="O164" t="n">
         <v>0.07807986780887002</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.02916338536375224</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0.07989630487767863</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02892371579401075</v>
+        <v>0.06315382583903686</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06500462169085335</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02949111163462294</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.08070333826028143</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.05389737112584619</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07869213301596227</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.07158594700425469</v>
+        <v>0.04595125399920505</v>
       </c>
       <c r="M165" t="n">
+        <v>0.07942122429159972</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.0748843815433316</v>
+      </c>
+      <c r="O165" t="n">
         <v>0.07886855334229295</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.02892371579401075</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0.08070333826028143</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0288834072903799</v>
+        <v>0.06204906503697484</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06500435316238933</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02911753693632746</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08151037164288426</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.05365282186868417</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07947905434612187</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.07152176470526733</v>
+        <v>0.04516853428705003</v>
       </c>
       <c r="M166" t="n">
+        <v>0.0802154365345157</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.07353307176744422</v>
+      </c>
+      <c r="O166" t="n">
         <v>0.07965723887571588</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.0288834072903799</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.08151037164288426</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02884234045595638</v>
+        <v>0.06095705435489808</v>
       </c>
       <c r="G167" t="n">
+        <v>0.0650040846339253</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02883332587633369</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08231740502548708</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.05320205825308053</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08026597567628151</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.07104721538404296</v>
+        <v>0.04518943391306923</v>
       </c>
       <c r="M167" t="n">
+        <v>0.08100964877743171</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.07386753978642518</v>
+      </c>
+      <c r="O167" t="n">
         <v>0.08044592440913881</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.02884234045595638</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0.08231740502548708</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02860039589383687</v>
+        <v>0.05987849707395314</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06500381610546128</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02843950935727384</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08312443840808989</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.05324514012905715</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08105289700644114</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.07056246038881858</v>
+        <v>0.04491325946062413</v>
       </c>
       <c r="M168" t="n">
+        <v>0.0818038610203477</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.07238795092925221</v>
+      </c>
+      <c r="O168" t="n">
         <v>0.08123460994256174</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.02860039589383687</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0.08312443840808989</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02855745420711803</v>
+        <v>0.05881409647542718</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06500354757699726</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02833711828178019</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.0839314717906927</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.05298212734663621</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08183981833660074</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.069767661067831</v>
+        <v>0.04463931751307612</v>
       </c>
       <c r="M169" t="n">
+        <v>0.0825980732632637</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.07179447052490306</v>
+      </c>
+      <c r="O169" t="n">
         <v>0.08202329547598466</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.02855745420711803</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0.0839314717906927</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02821339599889654</v>
+        <v>0.05776455584046619</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06500327904853326</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02782718355248494</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08473850517329551</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.05231307975583963</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08262673966676037</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.06856297876931716</v>
+        <v>0.04426691465378668</v>
       </c>
       <c r="M170" t="n">
+        <v>0.08339228550617969</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.07168726390235558</v>
+      </c>
+      <c r="O170" t="n">
         <v>0.08281198100940759</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.02821339599889654</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0.08473850517329551</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02826810187226905</v>
+        <v>0.05673057845026343</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06500301052006924</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0277107360720204</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08554553855589833</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.0522380572066895</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08341366099692001</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.06864857484151421</v>
+        <v>0.04389535746611728</v>
       </c>
       <c r="M171" t="n">
+        <v>0.0841864977490957</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.07096649639058739</v>
+      </c>
+      <c r="O171" t="n">
         <v>0.08360066654283052</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.02826810187226905</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0.08554553855589833</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02792145243033226</v>
+        <v>0.05571286758596819</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06500274199160522</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02728880674301876</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08635257193850114</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.05165711954920779</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08420058232707961</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.06722461063265878</v>
+        <v>0.04402395253342933</v>
       </c>
       <c r="M172" t="n">
+        <v>0.08498070999201168</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.07073233331857631</v>
+      </c>
+      <c r="O172" t="n">
         <v>0.08438935207625346</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.02792145243033226</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.08635257193850114</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02797332827618286</v>
+        <v>0.0547121265288623</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0650024734631412</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02696242646811224</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08715960532110395</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.05097032663341655</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08498750365723924</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.06669124749098798</v>
+        <v>0.04325200643908436</v>
       </c>
       <c r="M173" t="n">
+        <v>0.08577492223492768</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.07008494001529997</v>
+      </c>
+      <c r="O173" t="n">
         <v>0.08517803760967639</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.02797332827618286</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.08715960532110395</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02752361001291749</v>
+        <v>0.05372905856009438</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06500220493467719</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02653262614993318</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08796663870370676</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.05087773830933781</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08577442498739887</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.06674864676473885</v>
+        <v>0.04347882576644377</v>
       </c>
       <c r="M174" t="n">
+        <v>0.08656913447784369</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.06922448180973617</v>
+      </c>
+      <c r="O174" t="n">
         <v>0.08596672314309932</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.02752361001291749</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.08796663870370676</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02757217824363282</v>
+        <v>0.05276436696085765</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06500193640621317</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02640043669111378</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.0887736720863096</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.05015443357260468</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08656134631755848</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.06609696980214819</v>
+        <v>0.04280371709886904</v>
       </c>
       <c r="M175" t="n">
+        <v>0.08736334672075968</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.06815112403086282</v>
+      </c>
+      <c r="O175" t="n">
         <v>0.08675540867652225</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.02757217824363282</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.0887736720863096</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02751891357142557</v>
+        <v>0.0518187550123046</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06500166787774915</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02586688899428626</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08958070546891241</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.05005220089710569</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08734826764771811</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.06523637795145293</v>
+        <v>0.04292598701972161</v>
       </c>
       <c r="M176" t="n">
+        <v>0.08815755896367568</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.06736503200765737</v>
+      </c>
+      <c r="O176" t="n">
         <v>0.08754409420994518</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0.02751891357142557</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0.08958070546891241</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02736369659939238</v>
+        <v>0.0508929259957108</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06500139934928513</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0254330139620829</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.09038773885151521</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04876716552425003</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08813518897787774</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.06476703256089011</v>
+        <v>0.04234494211236292</v>
       </c>
       <c r="M177" t="n">
+        <v>0.08895177120659167</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.06736637106909776</v>
+      </c>
+      <c r="O177" t="n">
         <v>0.0883327797433681</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0.02736369659939238</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0.09038773885151521</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02720640793062991</v>
+        <v>0.04998758319222793</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06500113082082111</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02539984249713591</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09119477223411802</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04832404728931414</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08892211030803736</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.06388909497869649</v>
+        <v>0.04245988896015448</v>
       </c>
       <c r="M178" t="n">
+        <v>0.08974598344950767</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.06615530654416168</v>
+      </c>
+      <c r="O178" t="n">
         <v>0.08912146527679103</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.02720640793062991</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0.09119477223411802</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02684692816823486</v>
+        <v>0.04910342988304919</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0650008622923571</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02476840550207757</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09200180561672085</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04674756602757418</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08970903163819698</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.06270272655310932</v>
+        <v>0.04207013414645774</v>
       </c>
       <c r="M179" t="n">
+        <v>0.09054019569242366</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.0654320037618269</v>
+      </c>
+      <c r="O179" t="n">
         <v>0.08991015081021396</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.02684692816823486</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0.09200180561672085</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0266851379153039</v>
+        <v>0.04824116934933084</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06500059376389307</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02473973387954012</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09280883899932366</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.04576244157430653</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09049595296835659</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.06210808863236528</v>
+        <v>0.04187498425463407</v>
       </c>
       <c r="M180" t="n">
+        <v>0.09133440793533966</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.06519662805107113</v>
+      </c>
+      <c r="O180" t="n">
         <v>0.09069883634363689</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.0266851379153039</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0.09280883899932366</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02672091777493371</v>
+        <v>0.04740150487234114</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06500032523542906</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0242148585321558</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09361587238192647</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.04469339376478737</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09128287429851623</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.06200534256470136</v>
+        <v>0.04137374586804501</v>
       </c>
       <c r="M181" t="n">
+        <v>0.09212862017825567</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.06424934474087207</v>
+      </c>
+      <c r="O181" t="n">
         <v>0.09148752187705983</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.02672091777493371</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0.09361587238192647</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02625414835022095</v>
+        <v>0.04658513973323533</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06500005670696504</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02389481036255685</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09442290576452929</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.04356514243429307</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09206979562867584</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.06119464969835459</v>
+        <v>0.04096572557005204</v>
       </c>
       <c r="M182" t="n">
+        <v>0.09292283242117166</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.06319031916020762</v>
+      </c>
+      <c r="O182" t="n">
         <v>0.09227620741048276</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0.02625414835022095</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.09442290576452929</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02628471024426229</v>
+        <v>0.04579277721320665</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06499978817850104</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02348062027337554</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09522993914713211</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.04210240741809987</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09285671695883546</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.06027617138156172</v>
+        <v>0.04095022994401651</v>
       </c>
       <c r="M183" t="n">
+        <v>0.09371704466408766</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.06271971663805537</v>
+      </c>
+      <c r="O183" t="n">
         <v>0.09306489294390569</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.02628471024426229</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.09522993914713211</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02621248406015442</v>
+        <v>0.04502512059341549</v>
       </c>
       <c r="G184" t="n">
+        <v>0.064999519650037</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02347331916724409</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09603697252973492</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.040329908551484</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09364363828899509</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05955006896255999</v>
+        <v>0.04032656557329997</v>
       </c>
       <c r="M184" t="n">
+        <v>0.09451125690700364</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.06143770250339309</v>
+      </c>
+      <c r="O184" t="n">
         <v>0.09385357847732861</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.02621248406015442</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0.09603697252973492</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.025837350400994</v>
+        <v>0.04428287315512187</v>
       </c>
       <c r="G185" t="n">
+        <v>0.064999251121573</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02317393794679475</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09684400591233773</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.0388723656697218</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09443055961915471</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05881650378958608</v>
+        <v>0.0397940390412638</v>
       </c>
       <c r="M185" t="n">
+        <v>0.09530546914991965</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.06094444208519861</v>
+      </c>
+      <c r="O185" t="n">
         <v>0.09464226401075154</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.025837350400994</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0.09684400591233773</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02585918986987772</v>
+        <v>0.04356673817948516</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06499898259310898</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02258350751465978</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09765103929494054</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03795449860808953</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09521748094931433</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.0581756372108771</v>
+        <v>0.03945195693126952</v>
       </c>
       <c r="M186" t="n">
+        <v>0.09609968139283565</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.06054010071244958</v>
+      </c>
+      <c r="O186" t="n">
         <v>0.09543094954417447</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.02585918986987772</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0.09765103929494054</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02567788306990224</v>
+        <v>0.04287741894769853</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06499871406464497</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0224030587734714</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09845807267754336</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03640102720186347</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09600440227947396</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.05752763057466986</v>
+        <v>0.03949962582667857</v>
       </c>
       <c r="M187" t="n">
+        <v>0.09689389363575164</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.0591248437141238</v>
+      </c>
+      <c r="O187" t="n">
         <v>0.0962196350775974</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0.02567788306990224</v>
-      </c>
-      <c r="O187" t="n">
-        <v>0.09845807267754336</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02539331060416425</v>
+        <v>0.04221561874092704</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06499844553618093</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02223362262586188</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09926510606014617</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03573667128631994</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09679132360963358</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.05697264522920142</v>
+        <v>0.03893635231085238</v>
       </c>
       <c r="M188" t="n">
+        <v>0.09768810587866765</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.05859883641919894</v>
+      </c>
+      <c r="O188" t="n">
         <v>0.09700832061102033</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.02539331060416425</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0.09926510606014617</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02500535307576041</v>
+        <v>0.04158204084042157</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06499817700771693</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02197622997446347</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.100072139442749</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03458615069673518</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.0975782449397932</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.05611084252270859</v>
+        <v>0.03826144296715245</v>
       </c>
       <c r="M189" t="n">
+        <v>0.09848231812158365</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.05726224415665282</v>
+      </c>
+      <c r="O189" t="n">
         <v>0.09779700614444327</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0.02500535307576041</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0.100072139442749</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02491389108778738</v>
+        <v>0.04097451679580708</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06499790847925291</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02153191172190841</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.1008791728253518</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03357418526838543</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09836516626995283</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.05474238380342844</v>
+        <v>0.03817420437894017</v>
       </c>
       <c r="M190" t="n">
+        <v>0.09927653036449963</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.05691523225546319</v>
+      </c>
+      <c r="O190" t="n">
         <v>0.0985856916778662</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.02491389108778738</v>
-      </c>
-      <c r="O190" t="n">
-        <v>0.1008791728253518</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02491880524334185</v>
+        <v>0.04037651949904238</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06499763995078889</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02150169877082891</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1016862062079546</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03302549483654701</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09915208760011245</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.05386298061537048</v>
+        <v>0.03757394312957704</v>
       </c>
       <c r="M191" t="n">
+        <v>0.1000707426074156</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.05625796604460775</v>
+      </c>
+      <c r="O191" t="n">
         <v>0.09937437721128912</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0.02491880524334185</v>
-      </c>
-      <c r="O191" t="n">
-        <v>0.1016862062079546</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02441997614552052</v>
+        <v>0.0397858804997558</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06499737142232487</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02118662202385727</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1024932395905574</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03206479923649624</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09993900893027206</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.05353136149483256</v>
+        <v>0.03705996580242454</v>
       </c>
       <c r="M192" t="n">
+        <v>0.1008649548503316</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.05509061085306427</v>
+      </c>
+      <c r="O192" t="n">
         <v>0.1001630627447121</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.02441997614552052</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0.1024932395905574</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02441728439742002</v>
+        <v>0.03920330307919204</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06499710289386085</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02098019499149392</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1033002729731602</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.03189993679114497</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1007259302604317</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.05214145675954307</v>
+        <v>0.03681677752184453</v>
       </c>
       <c r="M193" t="n">
+        <v>0.1016591670932476</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.05376894785610281</v>
+      </c>
+      <c r="O193" t="n">
         <v>0.100951748278135</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0.02441728439742002</v>
-      </c>
-      <c r="O193" t="n">
-        <v>0.1033002729731602</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02411061060213704</v>
+        <v>0.03862949051851847</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06499683436539684</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02077358320453428</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1041073063557631</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03139439102161035</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1015128515905913</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.05199831093009816</v>
+        <v>0.03672792240032355</v>
       </c>
       <c r="M194" t="n">
+        <v>0.1024533793361636</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.05274326640603477</v>
+      </c>
+      <c r="O194" t="n">
         <v>0.1017404338115579</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0.02411061060213704</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0.1041073063557631</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02409983536276827</v>
+        <v>0.03806514609892829</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06499656583693282</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02056697713545862</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1049143397383659</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.03121159804681142</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1022997729207509</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.05100696852709397</v>
+        <v>0.03579616266670027</v>
       </c>
       <c r="M195" t="n">
+        <v>0.1032475915790796</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.05212051229878772</v>
+      </c>
+      <c r="O195" t="n">
         <v>0.1025291193449808</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0.02409983536276827</v>
-      </c>
-      <c r="O195" t="n">
-        <v>0.1049143397383659</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02388483928241036</v>
+        <v>0.03751097310159088</v>
       </c>
       <c r="G196" t="n">
+        <v>0.0649962973084688</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02046059401804395</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1057213731209687</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03084988608120154</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1030866942509106</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.04997247407112687</v>
+        <v>0.03522430355370479</v>
       </c>
       <c r="M196" t="n">
+        <v>0.1040418038219956</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.05130776784642177</v>
+      </c>
+      <c r="O196" t="n">
         <v>0.1033178048784038</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0.02388483928241036</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0.1057213731209687</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02356550296416002</v>
+        <v>0.03696767480774775</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06499602878000478</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02015465108606727</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1065284065035715</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03060758333923408</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1038736155810702</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.04869987208279297</v>
+        <v>0.03461515029406717</v>
       </c>
       <c r="M197" t="n">
+        <v>0.1048360160649116</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.04971211536099679</v>
+      </c>
+      <c r="O197" t="n">
         <v>0.1041064904118267</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0.02356550296416002</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0.1065284065035715</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0232416157863837</v>
+        <v>0.03643595449856779</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06499576025154077</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.01994936557330555</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1073354398861743</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03068301803536239</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1046605369112298</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.04759420708268852</v>
+        <v>0.03377150812051741</v>
       </c>
       <c r="M198" t="n">
+        <v>0.1056302283078276</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.04804063715457296</v>
+      </c>
+      <c r="O198" t="n">
         <v>0.1048951759452496</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0.0232416157863837</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0.1073354398861743</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02300136072858104</v>
+        <v>0.03591651545524421</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06499549172307675</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01994495471353581</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1081424732687771</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03047451838403978</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1054474582413894</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.0463605235914098</v>
+        <v>0.03329618226578551</v>
       </c>
       <c r="M199" t="n">
+        <v>0.1064244405507436</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.04710041553921018</v>
+      </c>
+      <c r="O199" t="n">
         <v>0.1056838614786725</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0.02300136072858104</v>
-      </c>
-      <c r="O199" t="n">
-        <v>0.1081424732687771</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02283807670733755</v>
+        <v>0.03541006095894852</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06499522319461273</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01944163574053501</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.10894950665138</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03018041259971962</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.106234379571549</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.0449038661295531</v>
+        <v>0.03249197796260159</v>
       </c>
       <c r="M200" t="n">
+        <v>0.1072186527936596</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.04559853282696863</v>
+      </c>
+      <c r="O200" t="n">
         <v>0.1064725470120955</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.02283807670733755</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0.10894950665138</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02235395650941911</v>
+        <v>0.03491729429091807</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06499495466614871</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01933962588808016</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1097565400339828</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03019902889685538</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1070213009017087</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.04432927921771446</v>
+        <v>0.03186170044369566</v>
       </c>
       <c r="M201" t="n">
+        <v>0.1080128650365756</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.04364207132990816</v>
+      </c>
+      <c r="O201" t="n">
         <v>0.1072612325455184</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0.02235395650941911</v>
-      </c>
-      <c r="O201" t="n">
-        <v>0.1097565400339828</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02235119292159161</v>
+        <v>0.03443891873232376</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06499468613768471</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01923914238994828</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1105635734165856</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.02992869548990035</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1078082222318683</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.04224180737649025</v>
+        <v>0.03140815494179777</v>
       </c>
       <c r="M202" t="n">
+        <v>0.1088070772794916</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.04183811336008897</v>
+      </c>
+      <c r="O202" t="n">
         <v>0.1080499180789413</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0.02235119292159161</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0.1105635734165856</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0218319787306209</v>
+        <v>0.03397563756435883</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06499441760922069</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01894040247991631</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1113706067991884</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.02966774059330785</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1085951435620279</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.04194649512647664</v>
+        <v>0.03063414668963799</v>
       </c>
       <c r="M203" t="n">
+        <v>0.1096012895224076</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.0403937412295709</v>
+      </c>
+      <c r="O203" t="n">
         <v>0.1088386036123643</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0.0218319787306209</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.1113706067991884</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02139850672327293</v>
+        <v>0.03352815406819738</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06499414908075667</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01884362339176127</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1121776401817912</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.02911449242153133</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1093820648921875</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.0404483869882698</v>
+        <v>0.02964248091994631</v>
       </c>
       <c r="M204" t="n">
+        <v>0.1103955017653236</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.03831603725041405</v>
+      </c>
+      <c r="O204" t="n">
         <v>0.1096272891457872</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0.02139850672327293</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0.1121776401817912</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0212529696863135</v>
+        <v>0.03309717152507169</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06499388055229265</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01864902235926016</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.112984673564394</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.0295672791890241</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1101689862223472</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.03935252748246604</v>
+        <v>0.02883596286545279</v>
       </c>
       <c r="M205" t="n">
+        <v>0.1111897140082396</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.03691208373467858</v>
+      </c>
+      <c r="O205" t="n">
         <v>0.1104159746792101</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0.0212529696863135</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0.112984673564394</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02099756040650858</v>
+        <v>0.03268339321615507</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06499361202382863</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01835681661618996</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1137917069469968</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.02932442911023958</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1109559075525068</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.03806396112966154</v>
+        <v>0.02771739775888751</v>
       </c>
       <c r="M206" t="n">
+        <v>0.1119839262511556</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.03488896299442434</v>
+      </c>
+      <c r="O206" t="n">
         <v>0.111204660212633</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0.02099756040650858</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0.1137917069469968</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02053447167062397</v>
+        <v>0.03228752242264084</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06499334349536462</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01806722339632769</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1145987403295996</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.02878427039963097</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1117428288826664</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.03648773245045261</v>
+        <v>0.02738959083298048</v>
       </c>
       <c r="M207" t="n">
+        <v>0.1127781384940716</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.03355375734171134</v>
+      </c>
+      <c r="O207" t="n">
         <v>0.111993345746056</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0.02053447167062397</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0.1145987403295996</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02016589626542561</v>
+        <v>0.03191026242570617</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06499307496690059</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.0178804599334503</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1154057737122025</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.02864513127165186</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.112529750212826</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.03522888596543527</v>
+        <v>0.02655534732046172</v>
       </c>
       <c r="M208" t="n">
+        <v>0.1135723507369876</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.03181354908859979</v>
+      </c>
+      <c r="O208" t="n">
         <v>0.1127820312794789</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0.02016589626542561</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0.1154057737122025</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01979402697767935</v>
+        <v>0.03155231650657724</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06499280643843658</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01779674346133481</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1162128070948053</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.02880533994075546</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1133166715429857</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.03439246619520603</v>
+        <v>0.02541747245406131</v>
       </c>
       <c r="M209" t="n">
+        <v>0.1143665629799036</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.03047542054714947</v>
+      </c>
+      <c r="O209" t="n">
         <v>0.1135707168129018</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0.01979402697767935</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0.1162128070948053</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01932105659415109</v>
+        <v>0.0312143879464304</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06499253790997256</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01761629121375823</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1170198404774081</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02866322462139514</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1141035928731453</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.03368351766036087</v>
+        <v>0.02467877146650926</v>
       </c>
       <c r="M210" t="n">
+        <v>0.1151607752228196</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.02814645402942068</v>
+      </c>
+      <c r="O210" t="n">
         <v>0.1143594023463248</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0.01932105659415109</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0.1170198404774081</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01904917790160671</v>
+        <v>0.03089718002645889</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06499226938150855</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01753932042449752</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1178268738600109</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02811711352802435</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1148905142033049</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.03260708488149611</v>
+        <v>0.02354204959053571</v>
       </c>
       <c r="M211" t="n">
+        <v>0.1159549874657356</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.02713373184747309</v>
+      </c>
+      <c r="O211" t="n">
         <v>0.1151480878797477</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0.01904917790160671</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0.1178268738600109</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01848058368681212</v>
+        <v>0.03060139602784358</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06499200085304452</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01746604832732969</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1186339072426137</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.02856533487509638</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1156774355334645</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.03166821237920792</v>
+        <v>0.02321011205887061</v>
       </c>
       <c r="M212" t="n">
+        <v>0.1167491997086516</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.02524433631336703</v>
+      </c>
+      <c r="O212" t="n">
         <v>0.1159367734131706</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0.01848058368681212</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0.1186339072426137</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01811746673653314</v>
+        <v>0.03032773923180347</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06499173232458051</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0170966921560317</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1194409406252165</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.0281062168770646</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1164643568636241</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03037194467409265</v>
+        <v>0.02248576410424397</v>
       </c>
       <c r="M213" t="n">
+        <v>0.1175434119515676</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.02368534973916242</v>
+      </c>
+      <c r="O213" t="n">
         <v>0.1167254589465936</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0.01811746673653314</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0.1194409406252165</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01796201983753568</v>
+        <v>0.03007691291951843</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06499146379611649</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.0170314691443806</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1202479740078193</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02773808774838238</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1172512781937838</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.02892332628674643</v>
+        <v>0.02167181095938586</v>
       </c>
       <c r="M214" t="n">
+        <v>0.1183376241944836</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.02126385443691936</v>
+      </c>
+      <c r="O214" t="n">
         <v>0.1175141444800165</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0.01796201983753568</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0.1202479740078193</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01761643577658564</v>
+        <v>0.03007691291951843</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06499146379611649</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01697059652615336</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1210550073904222</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02805927570350311</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1180381995239434</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.02852740173776552</v>
+        <v>0.02087105785702642</v>
       </c>
       <c r="M215" t="n">
+        <v>0.1191318364373996</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.01998693271869778</v>
+      </c>
+      <c r="O215" t="n">
         <v>0.1183028300134394</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0.01761643577658564</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0.1210550073904222</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01738290734044888</v>
+        <v>0.02925250711959264</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06486393300380164</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01671429153512695</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.121862040773025</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02786810895688008</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.118825120854103</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.02768921554774612</v>
+        <v>0.01998631002989559</v>
       </c>
       <c r="M216" t="n">
+        <v>0.1199260486803156</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.01826166689655762</v>
+      </c>
+      <c r="O216" t="n">
         <v>0.1190915155468624</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0.01738290734044888</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0.121862040773025</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01696362731589129</v>
+        <v>0.0284375269179951</v>
       </c>
       <c r="G217" t="n">
+        <v>0.0647364022114868</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.01666277140507839</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1226690741556278</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02726349916962437</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1196120421842626</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.02671381223728442</v>
+        <v>0.01892037271072344</v>
       </c>
       <c r="M217" t="n">
+        <v>0.1207202609232316</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.01719513928255911</v>
+      </c>
+      <c r="O217" t="n">
         <v>0.1198802010802853</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0.01696362731589129</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0.1226690741556278</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01676078848967875</v>
+        <v>0.02763246355702031</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06460887141917196</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01621625336978468</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1234761075382306</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02695412208920375</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1203989635144223</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.02610623632697673</v>
+        <v>0.01817605113224005</v>
       </c>
       <c r="M218" t="n">
+        <v>0.1215144731661475</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.01559443218876222</v>
+      </c>
+      <c r="O218" t="n">
         <v>0.1206688866137082</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0.01676078848967875</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0.1234761075382306</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01647658364857718</v>
+        <v>0.02683780827896304</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06448134062685712</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01637495466302279</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1242831409208334</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02684337866041342</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1211858848445819</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.02497153233741928</v>
+        <v>0.01725615052717544</v>
       </c>
       <c r="M219" t="n">
+        <v>0.1223086854090635</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.01456662792722679</v>
+      </c>
+      <c r="O219" t="n">
         <v>0.1214575721471311</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0.01647658364857718</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0.1242831409208334</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0161132055793524</v>
+        <v>0.02605405232611778</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06435380983454227</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.0162390925185697</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1250901743034362</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02673126217111421</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1219728061747415</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.02531474478920814</v>
+        <v>0.01706347612825959</v>
       </c>
       <c r="M220" t="n">
+        <v>0.1231028976519795</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.01301880881001316</v>
+      </c>
+      <c r="O220" t="n">
         <v>0.1222462576805541</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0.0161132055793524</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0.1250901743034362</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01597284706877033</v>
+        <v>0.02528168694077931</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06422627904222743</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01590888417020245</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.125897207686039</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.02681776590916674</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1227597275049011</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.02484091820293971</v>
+        <v>0.01610083316822258</v>
       </c>
       <c r="M221" t="n">
+        <v>0.1238971098948955</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.01155805714918107</v>
+      </c>
+      <c r="O221" t="n">
         <v>0.123034943213977</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.01597284706877033</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.125897207686039</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01554768865601472</v>
+        <v>0.02452120336524212</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06409874824991257</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01588454685169799</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1267042410686419</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.0262028831624318</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1235466488350608</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.02435427481757801</v>
+        <v>0.01567102687979449</v>
       </c>
       <c r="M222" t="n">
+        <v>0.1246913221378115</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.01069145525679077</v>
+      </c>
+      <c r="O222" t="n">
         <v>0.1238236287473999</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.01554768865601472</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.1267042410686419</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.015323661058186</v>
+        <v>0.02377309284180101</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06397121745759775</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01556629779683336</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1275112744512447</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02618660721877009</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1243335701652204</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.02400411177918516</v>
+        <v>0.01507686249570536</v>
       </c>
       <c r="M223" t="n">
+        <v>0.1254855343807275</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.009926085444902033</v>
+      </c>
+      <c r="O223" t="n">
         <v>0.1246123142808229</v>
-      </c>
-      <c r="N223" t="n">
-        <v>0.015323661058186</v>
-      </c>
-      <c r="O223" t="n">
-        <v>0.1275112744512447</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01500075849841805</v>
+        <v>0.02303784661275046</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06384368666528289</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.0154543542393855</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1283183078338475</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02566893136604229</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.12512049149538</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.02345820123848075</v>
+        <v>0.01462114524868521</v>
       </c>
       <c r="M224" t="n">
+        <v>0.1262797466236435</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.008969030025575087</v>
+      </c>
+      <c r="O224" t="n">
         <v>0.1254009998142458</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0.01500075849841805</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0.1283183078338475</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01497911961414715</v>
+        <v>0.02231595592038522</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06371615587296806</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01554893341313143</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1291253412164503</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02554984889210921</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1259074128255396</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.02311674988057116</v>
+        <v>0.0140066803714641</v>
       </c>
       <c r="M225" t="n">
+        <v>0.1270739588665595</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.00812737131086988</v>
+      </c>
+      <c r="O225" t="n">
         <v>0.1261896853476687</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.01497911961414715</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0.1291253412164503</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01455888304280968</v>
+        <v>0.02160791200699985</v>
       </c>
       <c r="G226" t="n">
+        <v>0.0635886250806532</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01555025255184814</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1299323745990531</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.02522935308483151</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1266943341556993</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.02307996439056265</v>
+        <v>0.01363627309677204</v>
       </c>
       <c r="M226" t="n">
+        <v>0.1278681711094755</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.007808191612846349</v>
+      </c>
+      <c r="O226" t="n">
         <v>0.1269783708810917</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0.01455888304280968</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0.1299323745990531</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01464018742184188</v>
+        <v>0.02091420611488908</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06346109428833836</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01545852888931264</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.130739407981656</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02550743723206997</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1274812554858589</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.02224805145356135</v>
+        <v>0.01321272865733911</v>
       </c>
       <c r="M227" t="n">
+        <v>0.1286623833523915</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.007218573243564785</v>
+      </c>
+      <c r="O227" t="n">
         <v>0.1277670564145146</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0.01464018742184188</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0.130739407981656</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01442317138868007</v>
+        <v>0.0202353294863474</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06333356349602352</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01507397965930191</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1315464413642587</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02488409462168525</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1282681768160185</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.02222121775467373</v>
+        <v>0.01263885228589529</v>
       </c>
       <c r="M228" t="n">
+        <v>0.1294565955953075</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.006665598515084969</v>
+      </c>
+      <c r="O228" t="n">
         <v>0.1285557419479375</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0.01442317138868007</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0.1315464413642587</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01420797358076061</v>
+        <v>0.01957177336366961</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06320603270370868</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01499682209559292</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1323534747468616</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02455931854153814</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1290550981461781</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.02179966997900601</v>
+        <v>0.0120174492151707</v>
       </c>
       <c r="M229" t="n">
+        <v>0.1302508078382235</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.006956349739467016</v>
+      </c>
+      <c r="O229" t="n">
         <v>0.1293444274813604</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0.01420797358076061</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0.1323534747468616</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01369473263551978</v>
+        <v>0.0189240289891502</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06307850191139383</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01502722230889594</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1331605081294644</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.02423310227948935</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1298420194763377</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.02148361481166455</v>
+        <v>0.01205100209522048</v>
       </c>
       <c r="M230" t="n">
+        <v>0.1310450200811395</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.006696724651424346</v>
+      </c>
+      <c r="O230" t="n">
         <v>0.1301331130147834</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0.01369473263551978</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0.1331605081294644</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0135835871903939</v>
+        <v>0.01829258760508391</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06295097111907898</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.0150608718335387</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1339675415120672</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.02450543912339956</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1306289408064973</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02057325893775558</v>
+        <v>0.01190851326010961</v>
       </c>
       <c r="M231" t="n">
+        <v>0.1318392323240555</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.007096848486690899</v>
+      </c>
+      <c r="O231" t="n">
         <v>0.1309217985482063</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.0135835871903939</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0.1339675415120672</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01347467588281928</v>
+        <v>0.01767794045376538</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06282344032676414</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01489497377656858</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.13477457489467</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.02377632236112953</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.131415862136657</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02056880904238545</v>
+        <v>0.01186836481402917</v>
       </c>
       <c r="M232" t="n">
+        <v>0.1326334445669715</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.006997562541348812</v>
+      </c>
+      <c r="O232" t="n">
         <v>0.1317104840816292</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0.01347467588281928</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0.13477457489467</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01326813735023223</v>
+        <v>0.0170805787774892</v>
       </c>
       <c r="G233" t="n">
+        <v>0.0626959095344493</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01482962218781912</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1355816082772728</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.02374574528053994</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1322027834668166</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.01997047181066042</v>
+        <v>0.01123085820058453</v>
       </c>
       <c r="M233" t="n">
+        <v>0.1334276568098875</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.006699392516136549</v>
+      </c>
+      <c r="O233" t="n">
         <v>0.1324991696150521</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0.01326813735023223</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0.1355816082772728</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01286411023006909</v>
+        <v>0.01650099381854998</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06256837874213446</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01486491111712387</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1363886416598756</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.02361370116949163</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1329897047969762</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02037845392768672</v>
+        <v>0.0112962948633813</v>
       </c>
       <c r="M234" t="n">
+        <v>0.1342218690528035</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.006502864111792628</v>
+      </c>
+      <c r="O234" t="n">
         <v>0.1332878551484751</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0.01286411023006909</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0.1363886416598756</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01276273315976612</v>
+        <v>0.01593967681924238</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06244084794981961</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01490093461431637</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1371956750424785</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.02358018331584516</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1337766261271358</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.01999296207857071</v>
+        <v>0.01066497624602489</v>
       </c>
       <c r="M235" t="n">
+        <v>0.1350160812957195</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.006308503029055501</v>
+      </c>
+      <c r="O235" t="n">
         <v>0.134076540681898</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0.01276273315976612</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0.1371956750424785</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01246414477675968</v>
+        <v>0.01539711902186112</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06231331715750477</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01463778672923012</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1380027084250812</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.02294518500746137</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1345635474572955</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.01991420294841872</v>
+        <v>0.01083720379212086</v>
       </c>
       <c r="M236" t="n">
+        <v>0.1358102935386355</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.006316834968663809</v>
+      </c>
+      <c r="O236" t="n">
         <v>0.1348652262153209</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0.01246414477675968</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0.1380027084250812</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01256848371848604</v>
+        <v>0.01487381166870071</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06218578636518992</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01467556151169869</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1388097418076841</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.02260869953220102</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1353504687874551</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.01904238322233703</v>
+        <v>0.01071327894527468</v>
       </c>
       <c r="M237" t="n">
+        <v>0.1366045057815515</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.006728385631355971</v>
+      </c>
+      <c r="O237" t="n">
         <v>0.1356539117487439</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0.01256848371848604</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0.1388097418076841</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01217588862238153</v>
+        <v>0.01437024600205589</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06205825557287508</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01451435301155561</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1396167751902869</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.02277072017792472</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1361373901176147</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.01887770958543189</v>
+        <v>0.009993503149091865</v>
       </c>
       <c r="M238" t="n">
+        <v>0.1373987180244675</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.00664368071787047</v>
+      </c>
+      <c r="O238" t="n">
         <v>0.1364425972821668</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0.01217588862238153</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0.1396167751902869</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01218649812588249</v>
+        <v>0.01388691326422119</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06193072478056023</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01445425527863441</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1404238085728897</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.02273124023249323</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1369243114477743</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0188203887228095</v>
+        <v>0.009878177847177899</v>
       </c>
       <c r="M239" t="n">
+        <v>0.1381929302673835</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.006663245928945849</v>
+      </c>
+      <c r="O239" t="n">
         <v>0.1372312828155897</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0.01218649812588249</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0.1404238085728897</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01170045086642521</v>
+        <v>0.01342229879145493</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06180319398824539</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01459536236276864</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1412308419554925</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.02249025298376733</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.137711232777934</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.01867062731957636</v>
+        <v>0.00976760448313832</v>
       </c>
       <c r="M240" t="n">
+        <v>0.1389871425102995</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.006787606965320658</v>
+      </c>
+      <c r="O240" t="n">
         <v>0.1380199683490126</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0.01170045086642521</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0.1412308419554925</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01151788548144599</v>
+        <v>0.01296485838983305</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06167566319593054</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01423776831379182</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1420378753380953</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.02194775171960772</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1384981541080936</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.01802863206083866</v>
+        <v>0.009762084500578611</v>
       </c>
       <c r="M241" t="n">
+        <v>0.1397813547532155</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.006317289527733305</v>
+      </c>
+      <c r="O241" t="n">
         <v>0.1388086538824356</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0.01151788548144599</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0.1420378753380953</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01153894060838118</v>
+        <v>0.01251307739561386</v>
       </c>
       <c r="G242" t="n">
+        <v>0.0615481324036157</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01418156718153751</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1428449087206982</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.02150372972787509</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1392850754382532</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.01759460963170267</v>
+        <v>0.009661919343104231</v>
       </c>
       <c r="M242" t="n">
+        <v>0.1405755669961315</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.007052819316922365</v>
+      </c>
+      <c r="O242" t="n">
         <v>0.1395973394158585</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0.01153894060838118</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0.1428449087206982</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01126375488466703</v>
+        <v>0.01206744705109185</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06142060161130086</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01442685301583921</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.143651942103301</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.02135818029643019</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1400719967684128</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.01826876671727468</v>
+        <v>0.009467410454320674</v>
       </c>
       <c r="M243" t="n">
+        <v>0.1413697792390475</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.006394722033626288</v>
+      </c>
+      <c r="O243" t="n">
         <v>0.1403860249492814</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.01126375488466703</v>
-      </c>
-      <c r="O243" t="n">
-        <v>0.143651942103301</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01099246694773992</v>
+        <v>0.01162845859856182</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06129307081898602</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01437371986653049</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1444589754859038</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.02141109671313376</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1408589180985725</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.01795131000266104</v>
+        <v>0.008878859277833495</v>
       </c>
       <c r="M244" t="n">
+        <v>0.1421639914819635</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.007043523378583605</v>
+      </c>
+      <c r="O244" t="n">
         <v>0.1411747104827044</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0.01099246694773992</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0.1444589754859038</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01082521543503612</v>
+        <v>0.01119660328031827</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06116554002667116</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01412226178344488</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1452660088685066</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.02086247226584648</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1416458394287321</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.01694244617296803</v>
+        <v>0.008496567257248233</v>
       </c>
       <c r="M245" t="n">
+        <v>0.1429582037248795</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.006999749052532867</v>
+      </c>
+      <c r="O245" t="n">
         <v>0.1419633960161273</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0.01082521543503612</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0.1452660088685066</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01066213898399196</v>
+        <v>0.01077237233865593</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06103800923435633</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.0141725728164159</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1460730422511094</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.02091230024242913</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1424327607588917</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01714238191330197</v>
+        <v>0.008320835836170271</v>
       </c>
       <c r="M246" t="n">
+        <v>0.1437524159677955</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.006663924756212525</v>
+      </c>
+      <c r="O246" t="n">
         <v>0.1427520815495502</v>
-      </c>
-      <c r="N246" t="n">
-        <v>0.01066213898399196</v>
-      </c>
-      <c r="O246" t="n">
-        <v>0.1460730422511094</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01060337623204374</v>
+        <v>0.01035625701586936</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06091047844204148</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01412474701527709</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1468800756337122</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.02066057393074239</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1432196820890513</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01725132390876905</v>
+        <v>0.008151966458205206</v>
       </c>
       <c r="M247" t="n">
+        <v>0.1445466282107115</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.007236576190361055</v>
+      </c>
+      <c r="O247" t="n">
         <v>0.1435407670829732</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0.01060337623204374</v>
-      </c>
-      <c r="O247" t="n">
-        <v>0.1468800756337122</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01044906581662779</v>
+        <v>0.009948748554253276</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06078294764972664</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01397887842986201</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.147687109016315</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.02040728661864699</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1440066034192109</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01686947884447565</v>
+        <v>0.008490260566958424</v>
       </c>
       <c r="M248" t="n">
+        <v>0.1453408404536275</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.007218229055717118</v>
+      </c>
+      <c r="O248" t="n">
         <v>0.1443294526163961</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0.01044906581662779</v>
-      </c>
-      <c r="O248" t="n">
-        <v>0.147687109016315</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01049934637518041</v>
+        <v>0.009550338196102251</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06065541685741179</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01413506111000418</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1484941423989178</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01975243159400367</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1447935247493705</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01649705340552798</v>
+        <v>0.008436019606035544</v>
       </c>
       <c r="M249" t="n">
+        <v>0.1461350526965435</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.007209409053019034</v>
+      </c>
+      <c r="O249" t="n">
         <v>0.145118138149819</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0.01049934637518041</v>
-      </c>
-      <c r="O249" t="n">
-        <v>0.1484941423989178</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01025435654513791</v>
+        <v>0.009161517183710943</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06052788606509694</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01399338910553713</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1493011757815207</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01939600214467319</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1455804460795302</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01693425427703243</v>
+        <v>0.008189545019042066</v>
       </c>
       <c r="M250" t="n">
+        <v>0.1469292649394595</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.007410641883005387</v>
+      </c>
+      <c r="O250" t="n">
         <v>0.145906823683242</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0.01025435654513791</v>
-      </c>
-      <c r="O250" t="n">
-        <v>0.1493011757815207</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01021423496393661</v>
+        <v>0.008782776759374028</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06040035527278211</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01405395646629441</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1501082091641235</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.01973799155851619</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1463673674096898</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01598128814409527</v>
+        <v>0.007851138249583389</v>
       </c>
       <c r="M251" t="n">
+        <v>0.1477234771823755</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.007622453246414695</v>
+      </c>
+      <c r="O251" t="n">
         <v>0.1466955092166649</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0.01021423496393661</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0.1501082091641235</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.009779120269012828</v>
+        <v>0.00841460816538607</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06027282448046725</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01401685724210955</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1509152425467263</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01887839312339348</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1471542887398494</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01603836169182288</v>
+        <v>0.007521100741265108</v>
       </c>
       <c r="M252" t="n">
+        <v>0.1485176894252914</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.007645368843985423</v>
+      </c>
+      <c r="O252" t="n">
         <v>0.1474841947500878</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0.009779120269012828</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0.1509152425467263</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.009649151097802858</v>
+        <v>0.008057502644041786</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06014529368815241</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.0139821854828161</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1517222759293291</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01901720012716568</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.147941210070009</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01600568160532134</v>
+        <v>0.00769973393769266</v>
       </c>
       <c r="M253" t="n">
+        <v>0.1493119016682075</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.008179914376456154</v>
+      </c>
+      <c r="O253" t="n">
         <v>0.1482728802835107</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0.009649151097802858</v>
-      </c>
-      <c r="O253" t="n">
-        <v>0.1517222759293291</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.00952446608774303</v>
+        <v>0.007711951437635714</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06001776289583757</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01385003523824756</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1525293093119319</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01895440585769362</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1487281314001687</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01598345456969713</v>
+        <v>0.007787339282471578</v>
       </c>
       <c r="M254" t="n">
+        <v>0.1501061139111234</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.007926615544565252</v>
+      </c>
+      <c r="O254" t="n">
         <v>0.1490615658169337</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0.00952446608774303</v>
-      </c>
-      <c r="O254" t="n">
-        <v>0.1525293093119319</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.009405203876269641</v>
+        <v>0.007378445788462598</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05989023210352273</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01372050055823751</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1533363426945347</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01839000360283805</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1495150527303283</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.01627188727005641</v>
+        <v>0.007684218219207339</v>
       </c>
       <c r="M255" t="n">
+        <v>0.1509003261540394</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.008485998049051424</v>
+      </c>
+      <c r="O255" t="n">
         <v>0.1498502513503566</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0.009405203876269641</v>
-      </c>
-      <c r="O255" t="n">
-        <v>0.1533363426945347</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.009491503100819004</v>
+        <v>0.007057476938816962</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05976270131120788</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01359367549261946</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1541433760771376</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01842398665045952</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1503019740604879</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.0152711863915056</v>
+        <v>0.007090672191505498</v>
       </c>
       <c r="M256" t="n">
+        <v>0.1516945383969554</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.008158587590652966</v>
+      </c>
+      <c r="O256" t="n">
         <v>0.1506389368837795</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0.009491503100819004</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0.1541433760771376</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009383502398827445</v>
+        <v>0.006749536130993564</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05963517051889304</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01376965409122696</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1549504094597404</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01775634828841893</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1510888953906475</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01568155861915083</v>
+        <v>0.006907002642971449</v>
       </c>
       <c r="M257" t="n">
+        <v>0.1524887506398714</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.007944909870108541</v>
+      </c>
+      <c r="O257" t="n">
         <v>0.1514276224172025</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0.009383502398827445</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0.1549504094597404</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.009181340407731275</v>
+        <v>0.006455114607286941</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05950763972657819</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01354853040389355</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1557574428423432</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01768708180457693</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1518758167208072</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.01580321063809859</v>
+        <v>0.007333511017210803</v>
       </c>
       <c r="M258" t="n">
+        <v>0.1532829628827874</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.008745490588156546</v>
+      </c>
+      <c r="O258" t="n">
         <v>0.1522163079506254</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0.009181340407731275</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0.1557574428423432</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.008985155764966821</v>
+        <v>0.006174703609991797</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05938010893426336</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01363039848045274</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.156564476224946</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.01721618048679424</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1526627380509668</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.01523634913345501</v>
+        <v>0.006770498757829035</v>
       </c>
       <c r="M259" t="n">
+        <v>0.1540771751257034</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.008660855445535576</v>
+      </c>
+      <c r="O259" t="n">
         <v>0.1530049934840483</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0.008985155764966821</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0.156564476224946</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.009195087107970359</v>
+        <v>0.00590879438140271</v>
       </c>
       <c r="G260" t="n">
+        <v>0.0592525781419485</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01371535237073809</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1573715096075488</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01674363762293166</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1534496593811264</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.01518118079032643</v>
+        <v>0.00711826730843157</v>
       </c>
       <c r="M260" t="n">
+        <v>0.1548713873686194</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.009191530142984072</v>
+      </c>
+      <c r="O260" t="n">
         <v>0.1537936790174712</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0.009195087107970359</v>
-      </c>
-      <c r="O260" t="n">
-        <v>0.1573715096075488</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.008811273074178214</v>
+        <v>0.00565787816381437</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05912504734963366</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01360348612458312</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1581785429901516</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01666944650084978</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.154236580711286</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.0153379122938192</v>
+        <v>0.006777118112623992</v>
       </c>
       <c r="M261" t="n">
+        <v>0.1556655996115354</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.009138040381240553</v>
+      </c>
+      <c r="O261" t="n">
         <v>0.1545823645508942</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0.008811273074178214</v>
-      </c>
-      <c r="O261" t="n">
-        <v>0.1581785429901516</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.008933852301026696</v>
+        <v>0.005422446199521369</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05899751655731882</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01379489379182139</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1589855763727544</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01639360040840943</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1550235020414457</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.01580675032903961</v>
+        <v>0.007247352614011771</v>
       </c>
       <c r="M262" t="n">
+        <v>0.1564598118544514</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.009200911861043548</v>
+      </c>
+      <c r="O262" t="n">
         <v>0.1553710500843171</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0.008933852301026696</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0.1589855763727544</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.008962963425952139</v>
+        <v>0.005202989730818383</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05886998576500398</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01378966942228643</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1597926097553573</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01641609263347135</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1558104233716053</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.0151879015810939</v>
+        <v>0.006729272256200375</v>
       </c>
       <c r="M263" t="n">
+        <v>0.1572540240973674</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.009780670283131565</v>
+      </c>
+      <c r="O263" t="n">
         <v>0.15615973561774</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0.008962963425952139</v>
-      </c>
-      <c r="O263" t="n">
-        <v>0.1597926097553573</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.008898745086390838</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05874245497268913</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01378790706581177</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1605996431379601</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01593691646389617</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1565973447017649</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.01548157273508832</v>
+        <v>0.006923178482795389</v>
       </c>
       <c r="M264" t="n">
+        <v>0.1580482363402834</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.009777841348243055</v>
+      </c>
+      <c r="O264" t="n">
         <v>0.156948421151163</v>
       </c>
-      <c r="N264" t="n">
-        <v>0.008898745086390838</v>
-      </c>
-      <c r="O264" t="n">
-        <v>0.1605996431379601</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05872929707795228</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005805977622296177</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0587295656064163</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006606982370652978</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05872983413488031</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007402948363862391</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05873010266334434</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008193809720612608</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05873037119180835</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008979500559695819</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05873063972027236</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009759954999869508</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05873090824873638</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01053510715992474</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0587311767772004</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01130489115855153</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05873144530566442</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01206924111454118</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05873171383412843</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01282809114665116</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05873198236259245</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01358137537367159</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05873225089105647</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01432902791429436</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05873251941952049</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01507098288730985</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0587327879479845</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01580717441147549</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05873305647644852</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01653753660558047</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05873332500491255</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0172620035883186</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05873359353337656</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0179805094784793</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05873386206184057</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01869298839482003</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05873413059030459</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01939937445612885</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05873439911876861</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02009960178110176</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05873466764723263</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02079360448852707</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05873493617569664</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02148131669716227</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05873520470416066</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02216267252579433</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05873547323262468</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02283760609312141</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0587357417610887</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0235063205330044</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05873601028955271</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02417036405464297</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05873627881801673</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02482993979189689</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05873654734648075</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02548498186346621</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05873681587494477</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02613542438813719</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05873708440340878</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02678120148466731</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05873735293187279</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02742224727184181</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05873762146033682</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02805849586836236</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05873788998880083</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02868988139301444</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05873815851726485</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02931633796455549</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05873842704572887</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02993779970176993</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05873869557419289</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.03055420072336112</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05873896410265691</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03116547514811369</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05873923263112092</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03177155709478507</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05873950115958494</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03237238068215878</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05873976968804896</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03296788002893999</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05874003821651298</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03355798925391242</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05874030674497699</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03414264247583353</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.058740575273441</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03472177381348585</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05874084380190503</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03529531738557648</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05874111233036904</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03586320731088817</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05874138085883306</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03642537770817839</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05874164938729707</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03698176269622869</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0587419179157611</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03753229639374811</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05874218644422511</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03807691291951844</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05874245497268913</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03807691291951844</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05872929707795228</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03874530886052829</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05885736492719516</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03940753713153143</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05898543277643804</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0400634328459846</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05911350062568092</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0407128311173446</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0592415684749238</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04135556705906819</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05936963632416668</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04199147578461217</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05949770417340955</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04262039240743329</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05962577202265243</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04324215204098834</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05975383987189531</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04385658979873408</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05988190772113819</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0444635407941273</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06000997557038107</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04506284014062477</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06013804341962394</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04565432295168326</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06026611126886682</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04623782434075954</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0603941791181097</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.0468131794213104</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06052224696735258</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0473802233067926</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06065031481659546</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04793879111066295</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06077838266583833</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04848871794637817</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06090645051508121</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04902983892739508</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06103451836432409</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04956198916717044</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06116258621356697</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05008500377916103</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06129065406280985</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0505987178768236</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06141872191205273</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.05110296657361493</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06154678976129561</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05159758498299183</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06167485761053849</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05208240821841106</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06180292545978137</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0525579446800476</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06193099330902425</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0530280692016671</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06205906115826712</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05349329018344468</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06218712900751001</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.053953442738837</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06231519685675289</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.05440836198130086</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06244326470599577</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05485788302429305</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06257133255523865</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05530184098127033</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06269940040448152</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0557400709656895</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0628274682537244</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05617240809100731</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06295553610296728</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05659868747068053</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06308360395221016</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05701874421816597</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06321167180145304</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05743241344692038</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06333973965069592</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05783953027040054</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0634678074999388</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0582399298020632</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06359587534918168</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05863344715536517</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06372394319842456</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05901991744376324</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06385201104766743</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05939917578071412</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06398007889691031</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05977105727967465</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06410814674615319</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.06013539705410158</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06423621459539607</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.06049203021745167</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06436428244463895</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.06084079188318171</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06449235029388183</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.06118151716474847</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06462041814312471</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.06151404117560874</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06474848599236759</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.06183819902921928</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06487655384161047</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.06215382583903686</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06500462169085335</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04810255055935792</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06500462169085335</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06226346152094936</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06679407331357795</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06236477593348361</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06858352493630256</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.06245809749306763</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07037297655902718</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06254375461612953</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07216242818175178</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.06262207571909731</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07395187980447639</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.06269338921839905</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07574133142720101</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06275802353046281</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07753078304992561</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06281630707171662</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07932023467265022</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06286856825858855</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08110968629537482</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06291513550750663</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08289913791809944</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.06295633723489892</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08468858954082406</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06299250185719352</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08647804116354867</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0630239577908184</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08826749278627327</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0630510334522017</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09005694440899789</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0630740572577714</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0918463960317225</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06309335762395558</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0936358476544471</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06310926296718231</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09542529927717172</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06312210170387961</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09721475089989633</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06313220225047557</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09900420252262095</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0631398930233982</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1007936541453455</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06314550243907557</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1025831057680702</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06314935891393578</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1043725573907948</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06315179086440681</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1061620090135194</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06315312670691674</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.107951460636244</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06315369485789361</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1097409122589686</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06315382373376553</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1115303638816932</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06313732386020661</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1133198155044178</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0630521688376315</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1151092671271424</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06289891194459452</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1168987187498671</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06268248272723251</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1186881703725916</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06240781073168229</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1204776219953163</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0620798255040807</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1222670736180409</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06170345659056455</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1240565252407655</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06128363353727068</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1258459768634901</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06082528589033587</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1276354284862147</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.060333343195897</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1294248801089393</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05981273500009086</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1312143317316639</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05926839084905429</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1330037833543885</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05870524028892411</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1347932349771132</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05812821286583714</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1365826865998377</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05754223812593021</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1383721382225624</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05695224561534012</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.140161589845287</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.05636316488020374</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1419510414680116</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05577992546665787</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1437404930907362</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05520745692083934</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1455299447134608</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05465068878888493</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1473193963361854</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05411455061693153</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05360397195111594</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1508982995816346</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05312388233757495</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1526877512043593</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05267921132244546</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1544772028270839</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05225460966436576</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1562666544498085</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05182528712043273</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1580561060725331</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0513919350859465</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1598455576952577</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.05095538225476233</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1616350093179823</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05051645732073554</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1634244609407069</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05007598897772139</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1652139125634315</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04963480591957524</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1670033641861561</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0491937368401523</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1687928158088808</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04875361043330791</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1705822674316054</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04831525539289733</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.17237171905433</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04787950041277586</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1741611706770546</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04744717418679881</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1759506222997792</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04701910540882143</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1777400739225038</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04659612277269905</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1795295255452284</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04617905497228693</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.181318977167953</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04576873070144039</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1831084287906777</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04536597865401468</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1848978804134022</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04497162752386512</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1866873320361269</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.044586506004847</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1884767836588515</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04421144279081558</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1902662352815761</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0438472665756262</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1920556869043007</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04349480605313409</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1938451385270253</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.04315488991719461</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1956345901497499</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04282834686166299</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1974240417724745</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.04251600558039453</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1992134933951991</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04221846700210045</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2010029450179237</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.04192841790409678</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2027923966406484</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04164218067122936</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2045818482633729</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04135998036324293</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2063712998860976</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.04108204203988226</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2081607515088222</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.04080859076089209</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2099502031315468</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.04053985158601718</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2117396547542715</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.04027604957500226</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.213529106376996</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.04001740978759209</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2153185579997206</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03976415728353139</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2171080096224453</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03951651712256495</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2188974612451698</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03927471436443751</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2206869128678944</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03903897406889377</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2224763644906191</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03880952129567856</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2242658161133437</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03858658110453655</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2260552677360683</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03837037855521255</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2278447193587929</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03816113870745126</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2296341709815175</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03795908662099746</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2314236226042421</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03776444735559588</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2332130742269667</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03757744597099129</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2350025258496914</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0373983075269284</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.236791977472416</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03722725708315199</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2385814290951405</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03706451969940677</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2403708807178652</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03691032043543756</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2421603323405898</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1106241505593579</v>
+        <v>0.08476774775171105</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04210255055935791</v>
+        <v>0.01624614775171106</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02503462169085333</v>
+        <v>0.01691037827176799</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0005913003142878209</v>
+        <v>0.003156718373792722</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006566123403116498</v>
+        <v>0.001667198928588032</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001127189597292758</v>
+        <v>0.002943458912541011</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008070333826028144</v>
+        <v>0.00167899223488568</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.002639913948710909</v>
+        <v>0.007176917230186541</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007942122429159971</v>
+        <v>0.00168856290229001</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.004376993729087231</v>
+        <v>0.01151327930977186</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007886855334229295</v>
+        <v>0.001683024321616208</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001220897305392744</v>
+        <v>0.004033199922706898</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0013132246806233</v>
+        <v>0.003334397857176065</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002730667706254131</v>
+        <v>0.006252919934697926</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001614066765205629</v>
+        <v>0.003357984469771361</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.005478399999999994</v>
+        <v>0.01385256384224071</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001528756941890305</v>
+        <v>0.00337712580458002</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0104784</v>
+        <v>0.02394445306992982</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001795620139820312</v>
+        <v>0.003974990836058574</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001887798631911346</v>
+        <v>0.009025637639839476</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001969837020934949</v>
+        <v>0.005636792757255998</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004130577075091332</v>
+        <v>0.008566397263928105</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002421100147808443</v>
+        <v>0.005036976704657042</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.007479562445474319</v>
+        <v>0.0187799660084674</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002382636728747991</v>
+        <v>0.005240581812921388</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01263751888796522</v>
+        <v>0.02634280844821396</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002366056600268788</v>
+        <v>0.005049072964848625</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.002591011952440256</v>
+        <v>0.007960734478373602</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002626449361246599</v>
+        <v>0.006668795714352129</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005478400000000008</v>
+        <v>0.01027823999999999</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003421432000000005</v>
+        <v>0.006419082074999996</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.009521029678429549</v>
+        <v>0.02036824006852414</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003176848971663988</v>
+        <v>0.00675425160916004</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01619403953755372</v>
+        <v>0.0292314674580505</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003154742133691718</v>
+        <v>0.006732097286464833</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.02254717102902399</v>
+        <v>0.005636792757255998</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0361025505593579</v>
+        <v>0.009025637639839476</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.003329544925576064</v>
+        <v>0.008262284319755633</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003283061701558249</v>
+        <v>0.008335994642940162</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.005972022650327813</v>
+        <v>0.01161505634632862</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004035166913014072</v>
+        <v>0.008394961174428402</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01177178224531689</v>
+        <v>0.0222702380736369</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003971061214579985</v>
+        <v>0.008442814511450051</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01888987320000923</v>
+        <v>0.03238390720929174</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003943427667114648</v>
+        <v>0.008415121608081041</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00410240520991538</v>
+        <v>0.01036364801209808</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003939674041869899</v>
+        <v>0.01000319357152819</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006738275309792513</v>
+        <v>0.01287424631690813</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004842200295616887</v>
+        <v>0.01007395340931408</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01303630697701857</v>
+        <v>0.02362197807501473</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004765273457495982</v>
+        <v>0.01013137741374006</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02183141698842106</v>
+        <v>0.03444589362390821</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004732113200537577</v>
+        <v>0.01009814592969725</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.004908600464054821</v>
+        <v>0.01133139774939594</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004596286382181549</v>
+        <v>0.01167039250011623</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007556259321224001</v>
+        <v>0.01347168470692736</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005649233678219701</v>
+        <v>0.01175294564419976</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01481909070441692</v>
+        <v>0.02501509235879371</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00555948570041198</v>
+        <v>0.01181994031603007</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02462506801587844</v>
+        <v>0.03556319262387042</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005520798733960506</v>
+        <v>0.01178117025131346</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.005747138346590977</v>
+        <v>0.01123210572564418</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005252898722493199</v>
+        <v>0.01333759142870426</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008530100042379862</v>
+        <v>0.01456867717209871</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006456267060822515</v>
+        <v>0.01343193787908544</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.01662462025839426</v>
+        <v>0.02624121321110992</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006353697943327977</v>
+        <v>0.01350850321832008</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.02757722339547081</v>
+        <v>0.03788157013114868</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006309484267383436</v>
+        <v>0.01346419457292967</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.00661702651612045</v>
+        <v>0.01413234413483776</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005909511062804848</v>
+        <v>0.01500479035729229</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009163922831017635</v>
+        <v>0.01512652936813468</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007263300443425331</v>
+        <v>0.01511093011397112</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.01815738246983284</v>
+        <v>0.02679197291809948</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007147910186243974</v>
+        <v>0.01519706612061009</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.02999428024028733</v>
+        <v>0.03924679206771348</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007098169800806364</v>
+        <v>0.01514721889454587</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007517272631239871</v>
+        <v>0.01624614775171106</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006566123403116499</v>
+        <v>0.01691037827176799</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.009761853044894936</v>
+        <v>0.01600654695074767</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008070333826028144</v>
+        <v>0.0167899223488568</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02002186416961491</v>
+        <v>0.02765900376589853</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007942122429159971</v>
+        <v>0.0168856290229001</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03228263566341749</v>
+        <v>0.04070462435553523</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007886855334229295</v>
+        <v>0.01683024321616208</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008446884350545802</v>
+        <v>0.01616816918525812</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007222735743428149</v>
+        <v>0.01833918821446836</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01072801604176925</v>
+        <v>0.0174216733554011</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008877367208630959</v>
+        <v>0.01925724622499999</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02172255218862285</v>
+        <v>0.02903393804064308</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008736334672075968</v>
+        <v>0.01857419192519011</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03444868677795049</v>
+        <v>0.04270083291658433</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008675540867652223</v>
+        <v>0.01851326753777829</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.009404869332634902</v>
+        <v>0.01730647935076432</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007879348083739798</v>
+        <v>0.02000638714305639</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01136653717939815</v>
+        <v>0.01767053574311966</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009684400591233773</v>
+        <v>0.02014790681862817</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02326393335773885</v>
+        <v>0.02990840802846931</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009530546914991965</v>
+        <v>0.02026275482748012</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03629883069697576</v>
+        <v>0.04517821333949024</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009464226401075153</v>
+        <v>0.02005963148437498</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01039023523610373</v>
+        <v>0.018491235135074</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008535960424051447</v>
+        <v>0.02167358607164442</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0117815418155392</v>
+        <v>0.01879288009731984</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01049143397383659</v>
+        <v>0.02182689905351385</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02455049450784527</v>
+        <v>0.03129994334744568</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01032475915790796</v>
+        <v>0.02116180903846152</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03903946453358254</v>
+        <v>0.04716849927999783</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01025291193449808</v>
+        <v>0.02187931618101071</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01140198971954891</v>
+        <v>0.01970057674638448</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009192572764363098</v>
+        <v>0.02334078500023245</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01257715530794996</v>
+        <v>0.02010560459088798</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0112984673564394</v>
+        <v>0.02350589128839953</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0256867224698244</v>
+        <v>0.03351968708700823</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01111897140082396</v>
+        <v>0.02363988063206014</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0404769854008602</v>
+        <v>0.05055913776176879</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01104159746792101</v>
+        <v>0.02356234050262691</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01243914044156705</v>
+        <v>0.01991264439289296</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009849185104674748</v>
+        <v>0.02500798392882049</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01295750301438796</v>
+        <v>0.02148002196852075</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01210550073904222</v>
+        <v>0.02518488352328521</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02697710407455847</v>
+        <v>0.0359993294470502</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01191318364373996</v>
+        <v>0.02532844353435015</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04231779041189793</v>
+        <v>0.05337303588382636</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01183028300134394</v>
+        <v>0.02524536482424312</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01350069506075473</v>
+        <v>0.02210557828279676</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0105057974449864</v>
+        <v>0.02667518285740852</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0136267102926108</v>
+        <v>0.02288744497491477</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01291253412164503</v>
+        <v>0.02686387575817089</v>
       </c>
       <c r="L81" t="n">
-        <v>0.02822612615292983</v>
+        <v>0.03774661237660401</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01270739588665595</v>
+        <v>0.02701700643664016</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04517821333949024</v>
+        <v>0.05763057616297373</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01290319605943136</v>
+        <v>0.02692838914585933</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01458566123570859</v>
+        <v>0.02425751862429307</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01116240978529805</v>
+        <v>0.02834238178599655</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01408890250037596</v>
+        <v>0.02399918635476669</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01371956750424785</v>
+        <v>0.02854286799305657</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02973827553582076</v>
+        <v>0.0401000298407331</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01350160812957195</v>
+        <v>0.02870556933893017</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04535271022393278</v>
+        <v>0.0604521411160141</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0134076540681898</v>
+        <v>0.02861141346747554</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01569304662502521</v>
+        <v>0.02534660562557917</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0118190221256097</v>
+        <v>0.03000958071458458</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0145482049954411</v>
+        <v>0.02548655885277319</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01452660088685066</v>
+        <v>0.03022186022794225</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03129994334744568</v>
+        <v>0.04279807580450076</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01455717170255942</v>
+        <v>0.03039413224122018</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04783725288409407</v>
+        <v>0.06445811325975054</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01419633960161273</v>
+        <v>0.03029443778909175</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01682185888730124</v>
+        <v>0.02635097949485231</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01247563446592135</v>
+        <v>0.03167677964317261</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01540874313556366</v>
+        <v>0.02672087521363092</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01533363426945347</v>
+        <v>0.03190085246282793</v>
       </c>
       <c r="L84" t="n">
-        <v>0.031778866488888</v>
+        <v>0.04487924423297052</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01509003261540395</v>
+        <v>0.03208269514351019</v>
       </c>
       <c r="N84" t="n">
-        <v>0.04902513455612745</v>
+        <v>0.06686887511098627</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01498502513503566</v>
+        <v>0.03197746211070795</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01797110568113322</v>
+        <v>0.02624878044030976</v>
       </c>
       <c r="G85" t="n">
-        <v>0.013132246806233</v>
+        <v>0.03334397857176065</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01587464227850129</v>
+        <v>0.02777344818203649</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01614066765205629</v>
+        <v>0.03357984469771361</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0326506612888243</v>
+        <v>0.0472820290912056</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01588424485831994</v>
+        <v>0.0337712580458002</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05081371698393888</v>
+        <v>0.07020480918652455</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01577371066845859</v>
+        <v>0.03366048643232417</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0191397946651178</v>
+        <v>0.02601814867014876</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01378885914654465</v>
+        <v>0.03501117750034868</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01635002778201147</v>
+        <v>0.02891559050268659</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0169477010346591</v>
+        <v>0.03525883693259929</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0344331309575184</v>
+        <v>0.04944492434426942</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01667845710123594</v>
+        <v>0.03545982094809021</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05270036191143412</v>
+        <v>0.07318629800316834</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01656239620188152</v>
+        <v>0.03534351075394037</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02032693349785156</v>
+        <v>0.0256372243925666</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0144454714868563</v>
+        <v>0.03667837642893671</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0174216733554011</v>
+        <v>0.02971861492027784</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01813396572956723</v>
+        <v>0.03693782916748497</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03532369940945573</v>
+        <v>0.05150642395722541</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01747266934415194</v>
+        <v>0.03714838385038022</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05438243108251928</v>
+        <v>0.07583372407772088</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01735108173530445</v>
+        <v>0.03702653507555658</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02153152983793112</v>
+        <v>0.02808946726933495</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01510208382716795</v>
+        <v>0.03834557535752475</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01754691137442832</v>
+        <v>0.03035383417950692</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01856176779986473</v>
+        <v>0.03861682140237065</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03641979055912162</v>
+        <v>0.0532050218951369</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01826688158706793</v>
+        <v>0.03883694675267023</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05585728624110026</v>
+        <v>0.07786746992698534</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01813976726872738</v>
+        <v>0.03870955939717279</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02275259134395306</v>
+        <v>0.02648191423388868</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0157586961674796</v>
+        <v>0.04001277428611277</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01828113681608576</v>
+        <v>0.03079256299025664</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01936880118246755</v>
+        <v>0.04029581363725634</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03761882832100136</v>
+        <v>0.05427921212306727</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01906109382998393</v>
+        <v>0.04052550965496024</v>
       </c>
       <c r="N89" t="n">
-        <v>0.05722228913108285</v>
+        <v>0.07970791806776478</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01892845280215031</v>
+        <v>0.040392583718789</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02398912567451403</v>
+        <v>0.02786211796394222</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01641530850779125</v>
+        <v>0.04167997321470081</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0188397760110371</v>
+        <v>0.03141906089562357</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02017583456507036</v>
+        <v>0.04197480587214202</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03921823660958038</v>
+        <v>0.05536752138888035</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01985530607289993</v>
+        <v>0.04221407255725025</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05917480149637311</v>
+        <v>0.08047722077177122</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01971713833557324</v>
+        <v>0.0420756080404052</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02524014048821062</v>
+        <v>0.02922739356747589</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01707192084810289</v>
+        <v>0.04334717214328884</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01951973254336235</v>
+        <v>0.03173291730725296</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02098286794767317</v>
+        <v>0.04365379810702769</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04031543933934392</v>
+        <v>0.05613791434466442</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02064951831581592</v>
+        <v>0.04390263545954026</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0611121850808769</v>
+        <v>0.08226763761230782</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02050582386899617</v>
+        <v>0.04375863236202141</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02650464344363941</v>
+        <v>0.02957505615246998</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01772853318841455</v>
+        <v>0.04501437107187687</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02031790999714139</v>
+        <v>0.03233119152943909</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02178990133027599</v>
+        <v>0.04533279034191338</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04130786042477735</v>
+        <v>0.0570852617585712</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02144373055873192</v>
+        <v>0.04559119836183027</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06223180162850017</v>
+        <v>0.08282063557599895</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0212945094024191</v>
+        <v>0.04544165668363762</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02778164219939701</v>
+        <v>0.02990242082690481</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0183851455287262</v>
+        <v>0.0466815700004649</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02103121195645419</v>
+        <v>0.03251094286647621</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0225969347128788</v>
+        <v>0.04701178257679905</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04279292378036603</v>
+        <v>0.05800418948485653</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02223794280164792</v>
+        <v>0.04727976126412028</v>
       </c>
       <c r="N93" t="n">
-        <v>0.06393101288314879</v>
+        <v>0.08432853372260879</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02208319493584203</v>
+        <v>0.04712468100525383</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02907014441408005</v>
+        <v>0.03020680269876067</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01904175786903784</v>
+        <v>0.04834876892905294</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02165654200538068</v>
+        <v>0.03286923062265869</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02340396809548162</v>
+        <v>0.04869077481168473</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04376805332059527</v>
+        <v>0.05858932337777631</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02303215504456392</v>
+        <v>0.0489683241664103</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06520718058872876</v>
+        <v>0.08538365111190138</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02287188046926496</v>
+        <v>0.04880770532687004</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03036915774628511</v>
+        <v>0.02948551687601783</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0196983702093495</v>
+        <v>0.05001596785764097</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02239080372800079</v>
+        <v>0.03310311410228078</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02421100147808443</v>
+        <v>0.05036976704657042</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04513067295995044</v>
+        <v>0.05913528929158646</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02382636728747991</v>
+        <v>0.0506568870687003</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06705766648914596</v>
+        <v>0.08617830680364108</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02366056600268789</v>
+        <v>0.05049072964848624</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03167768985460882</v>
+        <v>0.02873587846665662</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02035498254966114</v>
+        <v>0.051683166786229</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02313090070839446</v>
+        <v>0.03340965260963681</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02501803486068725</v>
+        <v>0.05204875928145609</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04627820661291684</v>
+        <v>0.06003671308054287</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02462057953039591</v>
+        <v>0.05234544997099031</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0684798323283064</v>
+        <v>0.08700481985759201</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02444925153611082</v>
+        <v>0.05217375397010245</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03299474839764777</v>
+        <v>0.03195520257865736</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02101159488997279</v>
+        <v>0.05335036571481704</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02407373653064164</v>
+        <v>0.03398590544902107</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02582506824329006</v>
+        <v>0.05372775151634177</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0471080781939798</v>
+        <v>0.06048822059890138</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02541479177331191</v>
+        <v>0.05403401287328032</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06997103985011588</v>
+        <v>0.08735550933351832</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02523793706953375</v>
+        <v>0.05385677829171866</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03431934103399857</v>
+        <v>0.03214080432000031</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02166820723028445</v>
+        <v>0.05501756464340507</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02481621477882225</v>
+        <v>0.03422893192472784</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02663210162589288</v>
+        <v>0.05540674375122746</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04851771161762469</v>
+        <v>0.06068443770091797</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0262090040162279</v>
+        <v>0.05572257577557033</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07192865079848032</v>
+        <v>0.08782269429118422</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02602662260295667</v>
+        <v>0.05553980261333486</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0361025505593579</v>
+        <v>0.0322899987986658</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02254717102902399</v>
+        <v>0.0566847635719931</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02535523903701623</v>
+        <v>0.03423579134105144</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02743913500849569</v>
+        <v>0.05708573598611313</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04960453079833685</v>
+        <v>0.06101999024084848</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0270032162591439</v>
+        <v>0.05741113867786034</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0732500269173057</v>
+        <v>0.0884986937903538</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0268153081363796</v>
+        <v>0.05722282693495108</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03706981881084459</v>
+        <v>0.02940010112263411</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02298143191090775</v>
+        <v>0.05835196250058113</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02628771288930352</v>
+        <v>0.03430354300228616</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0282461683910985</v>
+        <v>0.05876472822099882</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05066595965060164</v>
+        <v>0.06168950407294885</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0277974285020599</v>
+        <v>0.05909970158015035</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07403252995049808</v>
+        <v>0.08887582689079138</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02760399366980253</v>
+        <v>0.05890585125656729</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03873921357947692</v>
+        <v>0.03249229550342211</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02363804425121939</v>
+        <v>0.06001916142916917</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02671053991976408</v>
+        <v>0.03472924621272633</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02905320177370132</v>
+        <v>0.0604437204558845</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0516994220889043</v>
+        <v>0.06168760505147491</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02859164074497589</v>
+        <v>0.06078826448244037</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07547352164196319</v>
+        <v>0.089946412652261</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02839267920322546</v>
+        <v>0.06058887557818349</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04044310523291385</v>
+        <v>0.03049228973840042</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02429465659153104</v>
+        <v>0.0616863603577572</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02742062371247782</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02986023515630414</v>
+        <v>0.06212271269077017</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05210234202773029</v>
+        <v>0.06210891903068261</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02938585298789189</v>
+        <v>0.06247682738473038</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07667036373560704</v>
+        <v>0.0895027701345269</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02918136473664839</v>
+        <v>0.0622718998997997</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04210255055935791</v>
+        <v>0.03148131483201115</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02503462169085333</v>
+        <v>0.06335355928634523</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02811486785152466</v>
+        <v>0.03474274449840008</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03066726853890695</v>
+        <v>0.06380170492565586</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05327214338156483</v>
+        <v>0.06259988669489136</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03018006523080789</v>
+        <v>0.06416539028702038</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07822041797533552</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02997005027007132</v>
+        <v>0.06395492422141591</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04319775293247664</v>
+        <v>0.03044860112391488</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02560788127215434</v>
+        <v>0.06502075821493325</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02909017592098456</v>
+        <v>0.03483448933853164</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03147430192150976</v>
+        <v>0.06548069716054154</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05410625006489334</v>
+        <v>0.06229968940816646</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03097427747372388</v>
+        <v>0.06585395318931039</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08002104610505456</v>
+        <v>0.08944952096070569</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03075873580349425</v>
+        <v>0.06563794854303212</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.044448050869196</v>
+        <v>0.03139556656729318</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02626449361246599</v>
+        <v>0.0666879571435213</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02974345150493747</v>
+        <v>0.03450208656963465</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03228133530411258</v>
+        <v>0.06715968939542721</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05510208599220109</v>
+        <v>0.06228029600394258</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03176848971663988</v>
+        <v>0.0675425160916004</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08086960986867003</v>
+        <v>0.08978855599505858</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03154742133691718</v>
+        <v>0.06732097286464833</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04568316407859661</v>
+        <v>0.03232362617766839</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02692110595277765</v>
+        <v>0.06835515607210933</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03027159818746331</v>
+        <v>0.03454739127161356</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03308836868671539</v>
+        <v>0.0688386816303129</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05585707507797349</v>
+        <v>0.06191774088875904</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03256270195955589</v>
+        <v>0.0692310789938904</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08166347101008803</v>
+        <v>0.08986796162603372</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03233610687034011</v>
+        <v>0.06900399718626453</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04689186219896901</v>
+        <v>0.03223419497056289</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02757771829308929</v>
+        <v>0.07002235500069735</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03087151955264202</v>
+        <v>0.03437195327591029</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0338954020693182</v>
+        <v>0.07051767386519858</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05666864123669588</v>
+        <v>0.06211495673133502</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03335691420247187</v>
+        <v>0.07091964189618043</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0832999912732143</v>
+        <v>0.0899917859306415</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03312479240376304</v>
+        <v>0.07068702150788074</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0480629148686038</v>
+        <v>0.03012868796149905</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02823433063340094</v>
+        <v>0.07168955392928539</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03124011918455354</v>
+        <v>0.03457732241396666</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03470243545192102</v>
+        <v>0.07219666610008425</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05743420838285351</v>
+        <v>0.06207477586145935</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03415112644538788</v>
+        <v>0.07260820479847044</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08417653240195494</v>
+        <v>0.08906407698589219</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03391347793718597</v>
+        <v>0.07237004582949695</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04918509172579141</v>
+        <v>0.03200852016599927</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0288909429737126</v>
+        <v>0.07335675285787342</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0319743006672778</v>
+        <v>0.03416504851722457</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03550946883452383</v>
+        <v>0.07387565833496994</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05835120043093178</v>
+        <v>0.06180003060892106</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03494533868830387</v>
+        <v>0.07429676770076045</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08509045614021571</v>
+        <v>0.0892888828687961</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03470216347060889</v>
+        <v>0.07405307015111316</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.05024716240882243</v>
+        <v>0.02887510659958588</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02954755531402424</v>
+        <v>0.07502395178646146</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03237096758489473</v>
+        <v>0.03403668141712587</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03631650221712665</v>
+        <v>0.07555465056985562</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05881704129541604</v>
+        <v>0.06179355330350902</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03573955093121987</v>
+        <v>0.07598533060305045</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08603912423190263</v>
+        <v>0.08827025165636354</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03549084900403183</v>
+        <v>0.07573609447272936</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.05123789655598737</v>
+        <v>0.0317298622777813</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0302041676543359</v>
+        <v>0.07669115071504949</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0328270235214843</v>
+        <v>0.03419377094511243</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03712353559972946</v>
+        <v>0.07723364280474129</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05972915489079156</v>
+        <v>0.06155817627501212</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03653376317413587</v>
+        <v>0.07767389350534046</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08671989842092154</v>
+        <v>0.08811223142560487</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03627953453745476</v>
+        <v>0.07741911879434557</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05214606380557678</v>
+        <v>0.03057420221610789</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03086077999464754</v>
+        <v>0.07835834964363751</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03333937206112643</v>
+        <v>0.03403786693262613</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03793056898233228</v>
+        <v>0.07891263503962698</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06018496513154378</v>
+        <v>0.06139673185321931</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03732797541705186</v>
+        <v>0.07936245640763047</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08743014045117847</v>
+        <v>0.08751887025353028</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03706822007087768</v>
+        <v>0.0791021431159618</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.05296043379588114</v>
+        <v>0.03040954143008801</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03151739233495919</v>
+        <v>0.08002554857222555</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03350491678790105</v>
+        <v>0.0335705192111088</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03873760236493509</v>
+        <v>0.08059162727451268</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06088189593215795</v>
+        <v>0.06071205236791943</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03812218765996786</v>
+        <v>0.08105101930992048</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08816721206657924</v>
+        <v>0.08769421621715034</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03785690560430061</v>
+        <v>0.08078516743757799</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05366977616519102</v>
+        <v>0.02823729493524404</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03217400467527085</v>
+        <v>0.0816927475008136</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03412056128588808</v>
+        <v>0.03339327761200235</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03954463574753791</v>
+        <v>0.08227061950939835</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0609173712071194</v>
+        <v>0.06070697014890153</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03891639990288386</v>
+        <v>0.08273958221221049</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08782847501102986</v>
+        <v>0.0868423173934752</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03864559113772354</v>
+        <v>0.08246819175919419</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05426286055179694</v>
+        <v>0.03005887774709838</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03283061701558249</v>
+        <v>0.08335994642940162</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03438320913916749</v>
+        <v>0.03340769196674861</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04035166913014072</v>
+        <v>0.08394961174428403</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06138881487091358</v>
+        <v>0.06038431752595441</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03971061214579986</v>
+        <v>0.0844281451145005</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08911129102843623</v>
+        <v>0.08696722185951505</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03943427667114648</v>
+        <v>0.0841512160808104</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05472845659398944</v>
+        <v>0.02787570488117339</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03348722935589415</v>
+        <v>0.08502714535798965</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03458976393181921</v>
+        <v>0.03301531210678947</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04115870251274354</v>
+        <v>0.08562860397916972</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06179365083802568</v>
+        <v>0.060046926828867</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04050482438871585</v>
+        <v>0.08611670801679051</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08951302186270427</v>
+        <v>0.08587297769228042</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0402229622045694</v>
+        <v>0.08583424040242663</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05507851826407952</v>
+        <v>0.02868919135299142</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03414384169620579</v>
+        <v>0.08669434428657768</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03443712924792318</v>
+        <v>0.03291768786356677</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04196573589534635</v>
+        <v>0.08730759621405539</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06212930302294117</v>
+        <v>0.05969763038742823</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04129903663163185</v>
+        <v>0.08780527091908052</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08953102925773998</v>
+        <v>0.08576363296878148</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04101164773799233</v>
+        <v>0.08751726472404282</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05540994213007541</v>
+        <v>0.02850075217807486</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03480045403651744</v>
+        <v>0.08836154321516572</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03484334671080218</v>
+        <v>0.03261636906852243</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04277276927794917</v>
+        <v>0.08898658844894107</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06249319534014527</v>
+        <v>0.05913926053142704</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04209324887454785</v>
+        <v>0.08949383382137054</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08966267495744912</v>
+        <v>0.08514323576602867</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04180033327141526</v>
+        <v>0.08920028904565902</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05573479016608024</v>
+        <v>0.02931180237194611</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03545706637682909</v>
+        <v>0.09002874214375374</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03484318756797687</v>
+        <v>0.03251290555309826</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04357980266055198</v>
+        <v>0.09066558068382675</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06259988669489136</v>
+        <v>0.05887464959065228</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04288746111746384</v>
+        <v>0.09118239672366055</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09035642667898047</v>
+        <v>0.08461583416103219</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0425890188048382</v>
+        <v>0.09088331336727525</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05605303812652468</v>
+        <v>0.02812375695012753</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03611367871714075</v>
+        <v>0.09169594107234177</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03463793034254066</v>
+        <v>0.03250884714873616</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0443868360431548</v>
+        <v>0.09234457291871243</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06209749793594063</v>
+        <v>0.05820662989489295</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04368167336037984</v>
+        <v>0.09287095962595056</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09005632824651166</v>
+        <v>0.08398547623080249</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04337770433826112</v>
+        <v>0.09256633768889146</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05636466176583943</v>
+        <v>0.02993782413227086</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03677029105745239</v>
+        <v>0.09336314000092981</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03472538023683147</v>
+        <v>0.03200574368687797</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04519386942575761</v>
+        <v>0.09402356515359811</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06196287614198037</v>
+        <v>0.05823803377393788</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04447588560329584</v>
+        <v>0.09455952252824056</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08954407261212111</v>
+        <v>0.08395621005234977</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04416638987168405</v>
+        <v>0.09424936201050765</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05666963683845516</v>
+        <v>0.02873485161190922</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03742690339776404</v>
+        <v>0.09503033892951784</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03450573364311146</v>
+        <v>0.03200494121901015</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04600090280836042</v>
+        <v>0.09570255738848379</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06248844332980347</v>
+        <v>0.05787169355757604</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04527009784621183</v>
+        <v>0.09624808543053058</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09020516315278432</v>
+        <v>0.08263208370268432</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04495507540510698</v>
+        <v>0.09593238633212386</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05696793909880253</v>
+        <v>0.02650485831229249</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03808351573807569</v>
+        <v>0.09669753785810588</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03447918695364274</v>
+        <v>0.03188577498300772</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04680793619096323</v>
+        <v>0.09738154962336946</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06197596581932088</v>
+        <v>0.05720735337933094</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04606431008912783</v>
+        <v>0.09793664833282059</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09004052785020455</v>
+        <v>0.08248842748964108</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04574376093852991</v>
+        <v>0.09761541065374008</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05725954430131226</v>
+        <v>0.02725245452313679</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03874012807838734</v>
+        <v>0.0983647367866939</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03474593656068745</v>
+        <v>0.03153723449544468</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04761496957356606</v>
+        <v>0.09906054185825515</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06172720993044367</v>
+        <v>0.05660006157297939</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04685852233204383</v>
+        <v>0.09962521123511059</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08955102485383948</v>
+        <v>0.08186665867723136</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04653244647195284</v>
+        <v>0.09929843497535629</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05754442820041501</v>
+        <v>0.02898225053415816</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03939674041869899</v>
+        <v>0.1000319357152819</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03470617885650779</v>
+        <v>0.03126436929241809</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04842200295616887</v>
+        <v>0.1007395340931408</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06174394198308267</v>
+        <v>0.05674124553269663</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04765273457495982</v>
+        <v>0.1013137741374006</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08923751231314669</v>
+        <v>0.08107708354341575</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04732113200537577</v>
+        <v>0.1009814592969725</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05782256655054147</v>
+        <v>0.02769885663507275</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04005335275901065</v>
+        <v>0.10169913464387</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03436011023336584</v>
+        <v>0.030872228910025</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04922903633877168</v>
+        <v>0.1024185263280265</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06122792829714888</v>
+        <v>0.05594013332749809</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04844694681787582</v>
+        <v>0.1030023370396906</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08950084837758399</v>
+        <v>0.08013289120698175</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0481098175387987</v>
+        <v>0.1026644836185887</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05809393510612229</v>
+        <v>0.02840688311559664</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04070996509932229</v>
+        <v>0.103366333572458</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03450792708352377</v>
+        <v>0.03056586288436244</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05003606972137449</v>
+        <v>0.1040975185629122</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06098093519255324</v>
+        <v>0.05550595302639919</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04924115906079182</v>
+        <v>0.1046908999419806</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08944189119660872</v>
+        <v>0.07934727078671666</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04889850307222163</v>
+        <v>0.1043475079402049</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05835850962158819</v>
+        <v>0.0281109402654459</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04136657743963394</v>
+        <v>0.105033532501046</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03454982579924373</v>
+        <v>0.03015032075152753</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05084310310397731</v>
+        <v>0.1057765107977979</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06130472898920666</v>
+        <v>0.05454793269841554</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05003537130370781</v>
+        <v>0.1063794628442706</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08956149891967885</v>
+        <v>0.07843341140140786</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04968718860564456</v>
+        <v>0.1060305322618211</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05861626585136982</v>
+        <v>0.02581563837433665</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04202318977994559</v>
+        <v>0.1067007314296341</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03448600277278788</v>
+        <v>0.03003065204761722</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05165013648658012</v>
+        <v>0.1074555030326835</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06060107600702014</v>
+        <v>0.05437530041256239</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05082958354662381</v>
+        <v>0.1080680257465606</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08866052969625171</v>
+        <v>0.07760450216984283</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05047587413906749</v>
+        <v>0.1077135565834373</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05886717954989791</v>
+        <v>0.02552558773198497</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04267980212025724</v>
+        <v>0.1083679303582221</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03431665439641834</v>
+        <v>0.02971190630872861</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05245716986918294</v>
+        <v>0.1091344952675692</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06057174256590464</v>
+        <v>0.05379728423785535</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05162379578953982</v>
+        <v>0.1097565886488507</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08873984167578503</v>
+        <v>0.07717373221080892</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05126455967249042</v>
+        <v>0.1093965809050535</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05911122647160309</v>
+        <v>0.02524539862810697</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04333641446056889</v>
+        <v>0.1100351292868101</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03424197706239725</v>
+        <v>0.0291991330709588</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05326420325178575</v>
+        <v>0.1108134875024549</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05981849498577105</v>
+        <v>0.05332311224330982</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0524180080324558</v>
+        <v>0.1114451515511407</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08860029300773647</v>
+        <v>0.0759542906430935</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05205324520591335</v>
+        <v>0.1110796052266697</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05934838237091604</v>
+        <v>0.02697818007824766</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04399302680088054</v>
+        <v>0.1117023282153982</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03426216716298679</v>
+        <v>0.02919738187040473</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05407123663438856</v>
+        <v>0.1124924797373406</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05994309958653032</v>
+        <v>0.05266201249794128</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05321222027537181</v>
+        <v>0.1131337144534307</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08804274184156369</v>
+        <v>0.07505936658548412</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05284193073933627</v>
+        <v>0.1127626295482859</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05957862300226748</v>
+        <v>0.02669493211125466</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04464963914119219</v>
+        <v>0.1133695271439862</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03417742109044906</v>
+        <v>0.02880898965369168</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05487827001699138</v>
+        <v>0.1141714719722263</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05914732268809347</v>
+        <v>0.05172321307076519</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0540064325182878</v>
+        <v>0.1148222773557207</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08786804632672418</v>
+        <v>0.07430214885925895</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0536306162727592</v>
+        <v>0.1144456538699022</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05980192412008803</v>
+        <v>0.02538789304927222</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04530625148150384</v>
+        <v>0.1150367260725742</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03378793523704625</v>
+        <v>0.02860087412542056</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05568530339959419</v>
+        <v>0.115850464207112</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05863293061037139</v>
+        <v>0.05169989351647494</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0548006447612038</v>
+        <v>0.1165108402580107</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08807706461267578</v>
+        <v>0.07432569857772892</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05441930180618213</v>
+        <v>0.1161286781915184</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06001826147880845</v>
+        <v>0.02306366252337951</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04596286382181549</v>
+        <v>0.1167039250011623</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03379390599504044</v>
+        <v>0.02826746102678246</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05649233678219701</v>
+        <v>0.1175294564419976</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05840168967327505</v>
+        <v>0.05122995147028106</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0555948570041198</v>
+        <v>0.1181994031603007</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08747065484887595</v>
+        <v>0.07307745052093562</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05520798733960506</v>
+        <v>0.1178117025131346</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06022761083285938</v>
+        <v>0.02372884016465573</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04661947616212715</v>
+        <v>0.1183711239297503</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03379552975669385</v>
+        <v>0.02761597877017954</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05729937016479982</v>
+        <v>0.1192084486768833</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05805536619671539</v>
+        <v>0.05031751639036264</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05638906924703579</v>
+        <v>0.1198879660625907</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08664967518478239</v>
+        <v>0.07187628491628706</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05599667287302799</v>
+        <v>0.1194947268347508</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06042994793667149</v>
+        <v>0.02339002560418005</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04727608850243879</v>
+        <v>0.1200383228583383</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03349300291426859</v>
+        <v>0.02755365576801405</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05810640354740264</v>
+        <v>0.120887440911769</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05739572650060334</v>
+        <v>0.04967579826021856</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05718328148995179</v>
+        <v>0.1215765289648807</v>
       </c>
       <c r="N137" t="n">
-        <v>0.08681498376985269</v>
+        <v>0.07134108199119127</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05678535840645092</v>
+        <v>0.121177751156367</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06062524854467548</v>
+        <v>0.02305381847303163</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04793270084275044</v>
+        <v>0.1217055217869264</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03338652186002679</v>
+        <v>0.02698772043268813</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05891343693000545</v>
+        <v>0.1225664331466547</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05692453690484992</v>
+        <v>0.04931800706334794</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05797749373286779</v>
+        <v>0.1232650918671707</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08676743875354453</v>
+        <v>0.07049072197305606</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05757404393987386</v>
+        <v>0.1228607754779832</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06081348841130201</v>
+        <v>0.0237268184022897</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04858931318306209</v>
+        <v>0.1233727207155144</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03327628298623062</v>
+        <v>0.02672540117660401</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05972047031260827</v>
+        <v>0.1242454253815403</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05624356372936598</v>
+        <v>0.04825735278324966</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05877170597578379</v>
+        <v>0.1249536547694608</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08610789828531545</v>
+        <v>0.06974408508928942</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05836272947329679</v>
+        <v>0.1245437997995994</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0609946432909818</v>
+        <v>0.02441562502303339</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04924592552337374</v>
+        <v>0.1250399196441024</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03326248268514219</v>
+        <v>0.02617392641216389</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06052750369521108</v>
+        <v>0.125924417616426</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05585457329406252</v>
+        <v>0.04800704540342288</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05956591821869978</v>
+        <v>0.1266422176717507</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08543722051462321</v>
+        <v>0.06852005156729923</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05915141500671971</v>
+        <v>0.1262268241212156</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06116868893814549</v>
+        <v>0.02112683796634192</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04990253786368539</v>
+        <v>0.1267071185726905</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03314531734902369</v>
+        <v>0.02594052455176993</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0613345370778139</v>
+        <v>0.1276034098513117</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05545933191885047</v>
+        <v>0.04688029490736642</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06036013046161579</v>
+        <v>0.1283307805740408</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0854562635909254</v>
+        <v>0.06753750163449351</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05994010054014264</v>
+        <v>0.1279098484428318</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06133560110722376</v>
+        <v>0.02286705686329443</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05055915020399704</v>
+        <v>0.1283743175012785</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03312498337013724</v>
+        <v>0.02553242400782436</v>
       </c>
       <c r="K142" t="n">
-        <v>0.0621415704604167</v>
+        <v>0.1292824020861974</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05485960592364081</v>
+        <v>0.04619031127857945</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06115434270453177</v>
+        <v>0.1300193434763308</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0852658856636796</v>
+        <v>0.06681531551828013</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06072878607356557</v>
+        <v>0.129592872764448</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06149535555264732</v>
+        <v>0.02064288134497012</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05121576254430869</v>
+        <v>0.1300415164298665</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03290167714074499</v>
+        <v>0.02555685319272935</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06294860384301952</v>
+        <v>0.1309613943210831</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05485716162834448</v>
+        <v>0.04595030450056081</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06194855494744777</v>
+        <v>0.1317079063786208</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08436694488234336</v>
+        <v>0.06587237344606706</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0615174716069885</v>
+        <v>0.1312758970860642</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06164792802884683</v>
+        <v>0.02146091104244817</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05187237488462034</v>
+        <v>0.1317087153584545</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03267559505310909</v>
+        <v>0.02512104051888714</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06375563722562233</v>
+        <v>0.1326403865559688</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05395376535287238</v>
+        <v>0.04517348455680964</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06274276719036377</v>
+        <v>0.1333964692809108</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08376029939637453</v>
+        <v>0.06542755564526215</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06230615714041143</v>
+        <v>0.1329589214076805</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.061793294290253</v>
+        <v>0.02332774558680777</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05252898722493199</v>
+        <v>0.1333759142870426</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03274693349949166</v>
+        <v>0.02513221439869988</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06456267060822515</v>
+        <v>0.1343193787908544</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05375118341713556</v>
+        <v>0.04487306143082484</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06353697943327977</v>
+        <v>0.1350850321832008</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08374680735523055</v>
+        <v>0.06459974234327337</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06309484267383436</v>
+        <v>0.1346419457292967</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06193143009129648</v>
+        <v>0.02224998460912808</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05318559956524364</v>
+        <v>0.1350431132156306</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03271588887215487</v>
+        <v>0.02499760324456977</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06536970399082798</v>
+        <v>0.1359983710257401</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05325118214104485</v>
+        <v>0.04506224510610551</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06433119167619576</v>
+        <v>0.1367735950854908</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0832273269083692</v>
+        <v>0.06450781376750864</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06388352820725729</v>
+        <v>0.1363249700509128</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06206231118640794</v>
+        <v>0.02123231328627224</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05384221190555529</v>
+        <v>0.1367103121442187</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03228265756336086</v>
+        <v>0.02482443546889902</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06617673737343079</v>
+        <v>0.1376773632606258</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05275552784451126</v>
+        <v>0.0447542455661506</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06512540391911177</v>
+        <v>0.1384621579877808</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08240271620524792</v>
+        <v>0.06387065014537596</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06467221374068022</v>
+        <v>0.1380079943725291</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06218591333001813</v>
+        <v>0.02223954387608987</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05449882424586695</v>
+        <v>0.1383775110728067</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03234743596537176</v>
+        <v>0.02481398426979255</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06698377075603359</v>
+        <v>0.1393563554955115</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05186598684744576</v>
+        <v>0.0442622727944591</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06591961616202775</v>
+        <v>0.1401507208900708</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08247383339532455</v>
+        <v>0.06370517594511055</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06546089927410315</v>
+        <v>0.1396910186941453</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06230221227655763</v>
+        <v>0.02025592064193289</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05515543658617859</v>
+        <v>0.1400447100013947</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03221042047044975</v>
+        <v>0.02462363913460781</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0677908041386364</v>
+        <v>0.1410353477303972</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05168432546975923</v>
+        <v>0.04456461804505954</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06671382840494375</v>
+        <v>0.1418392837923609</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08164153662805662</v>
+        <v>0.06432292722257582</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06624958480752607</v>
+        <v>0.1413740430157615</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06241118378045719</v>
+        <v>0.02028095864531364</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05581204892649023</v>
+        <v>0.1417119089299828</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03197180747085693</v>
+        <v>0.02494314284208804</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06859783752123923</v>
+        <v>0.1427143399652828</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05111231003136268</v>
+        <v>0.04438835199024113</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06750804064785976</v>
+        <v>0.1435278466946509</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08160668405290167</v>
+        <v>0.06446672374024054</v>
       </c>
       <c r="O150" t="n">
-        <v>0.067038270340949</v>
+        <v>0.1430570673373777</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06251280359614748</v>
+        <v>0.02331417294774446</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05646866126680189</v>
+        <v>0.1433791078585708</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03193179335885547</v>
+        <v>0.02467196425112299</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06940487090384204</v>
+        <v>0.1443933322001685</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05055170685216703</v>
+        <v>0.04442964478748276</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06830225289077575</v>
+        <v>0.1452164095969409</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08107013381931744</v>
+        <v>0.06413517818587233</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06782695587437193</v>
+        <v>0.1447400916589939</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06260704747805919</v>
+        <v>0.02235507861073771</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05712527360711354</v>
+        <v>0.1450463067871588</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03179057452670753</v>
+        <v>0.02490957222060237</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07021190428644486</v>
+        <v>0.1460723244350542</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04990428225208327</v>
+        <v>0.04438752577200886</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06909646513369175</v>
+        <v>0.1469049724992309</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08053274407676153</v>
+        <v>0.06392690324723865</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06861564140779486</v>
+        <v>0.1464231159806101</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06269389118062296</v>
+        <v>0.02240319069580569</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05778188594742519</v>
+        <v>0.1467135057157468</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03154834736667521</v>
+        <v>0.02485543560941601</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07101893766904767</v>
+        <v>0.1477513166699399</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04967180255102224</v>
+        <v>0.04476102427904391</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06989067737660774</v>
+        <v>0.1485935354015209</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07979537297469158</v>
+        <v>0.06464051161210704</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06940432694121779</v>
+        <v>0.1481061403022263</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06277331045826949</v>
+        <v>0.02245802426446075</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05843849828773684</v>
+        <v>0.1483807046443349</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03150530827102069</v>
+        <v>0.02510902327645367</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07182597105165049</v>
+        <v>0.1494303089048256</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04905603406889503</v>
+        <v>0.04504916964381239</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07068488961952374</v>
+        <v>0.1502820983038109</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0793588786625653</v>
+        <v>0.0650746159682451</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07019301247464071</v>
+        <v>0.1497891646238425</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0628452810654295</v>
+        <v>0.02351909437821526</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05909511062804849</v>
+        <v>0.1500479035729229</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03116165363200613</v>
+        <v>0.0249698040806051</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0726330044342533</v>
+        <v>0.1511093011397112</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04905874312561245</v>
+        <v>0.04475099120153872</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07147910186243973</v>
+        <v>0.1519706612061009</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07922411928984019</v>
+        <v>0.06452782900342025</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07098169800806366</v>
+        <v>0.1514721889454587</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06290977875653361</v>
+        <v>0.02358591609858149</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05975172296836014</v>
+        <v>0.1517151025015109</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03121757984189359</v>
+        <v>0.02523724688076008</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07344003781685611</v>
+        <v>0.1527882933745969</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04888169604108558</v>
+        <v>0.04506551828744743</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07227331410535573</v>
+        <v>0.1536592241083909</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07839195300597385</v>
+        <v>0.06539876340540013</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07177038354148658</v>
+        <v>0.153155213267075</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06296677928601253</v>
+        <v>0.02165800448707184</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06040833530867179</v>
+        <v>0.153382301430099</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03087328329294532</v>
+        <v>0.02531082053580835</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07424707119945892</v>
+        <v>0.1544672856094826</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04852665913522528</v>
+        <v>0.04539178023676296</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07306752634827174</v>
+        <v>0.1553477870106809</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07866323796042413</v>
+        <v>0.06478603186195214</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07255906907490951</v>
+        <v>0.1548382375886911</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06301625840829697</v>
+        <v>0.0237348746051986</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06106494764898344</v>
+        <v>0.155049500358687</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03072172057402979</v>
+        <v>0.02528999390463971</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07505410458206174</v>
+        <v>0.1561462778443683</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04818988045080547</v>
+        <v>0.04512880638470976</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07386173859118773</v>
+        <v>0.1570363499129709</v>
       </c>
       <c r="N158" t="n">
-        <v>0.07753144059672668</v>
+        <v>0.06508824706084398</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07334775460833244</v>
+        <v>0.1565212619103074</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06305819187781754</v>
+        <v>0.0208249548546923</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06172155998929509</v>
+        <v>0.156716699287275</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03055146568132538</v>
+        <v>0.0254742358461439</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07586113796466455</v>
+        <v>0.157825270079254</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04736240970555178</v>
+        <v>0.04537562606651235</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07465595083410373</v>
+        <v>0.1587249128152609</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07738431546813773</v>
+        <v>0.06550402168984304</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07413644014175537</v>
+        <v>0.1582042862319236</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06309255544900498</v>
+        <v>0.02298464877917483</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06237817232960673</v>
+        <v>0.1583838982158631</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03056335810849695</v>
+        <v>0.02548620431616766</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07666817134726737</v>
+        <v>0.1595042623141396</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04704341221494213</v>
+        <v>0.04573267285480395</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07545016307701972</v>
+        <v>0.160413475717551</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07722181083157281</v>
+        <v>0.0661581230748029</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0749251256751783</v>
+        <v>0.1598873105535398</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06311932487628993</v>
+        <v>0.02221187133739209</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06303478466991838</v>
+        <v>0.1600510971444511</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03045842875817674</v>
+        <v>0.0257797404288055</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07747520472987018</v>
+        <v>0.1611832545490254</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04663219456233797</v>
+        <v>0.04589507826124209</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07624437531993572</v>
+        <v>0.162102038619841</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07704409201600981</v>
+        <v>0.06601007440454304</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07571381120860123</v>
+        <v>0.161570334875156</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06313847591410314</v>
+        <v>0.02449198340684225</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06369139701023004</v>
+        <v>0.1617182960730391</v>
       </c>
       <c r="J162" t="n">
-        <v>0.029937708532997</v>
+        <v>0.02584239833857928</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07828223811247299</v>
+        <v>0.162862246783911</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04632806333110071</v>
+        <v>0.04620019479561632</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07703858756285172</v>
+        <v>0.163790601522131</v>
       </c>
       <c r="N162" t="n">
-        <v>0.07565132435042643</v>
+        <v>0.06725246990488626</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07650249674202415</v>
+        <v>0.1632533591967722</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06314998431687521</v>
+        <v>0.02381034586502356</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06434800935054169</v>
+        <v>0.1633854950016272</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02990222833558992</v>
+        <v>0.02615814417732584</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07908927149507582</v>
+        <v>0.1645412390187967</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04663032510459181</v>
+        <v>0.04671872043113631</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07783279980576771</v>
+        <v>0.165479164424421</v>
       </c>
       <c r="N163" t="n">
-        <v>0.07524367316380048</v>
+        <v>0.06764342996793138</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07729118227544708</v>
+        <v>0.1649363835183884</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06315382583903686</v>
+        <v>0.02215231958943419</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06500462169085335</v>
+        <v>0.1650526939302152</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02955301906858783</v>
+        <v>0.026710944076882</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07989630487767863</v>
+        <v>0.1662202312536824</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04573828646617278</v>
+        <v>0.04712135314101173</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07862701204868372</v>
+        <v>0.167167727326711</v>
       </c>
       <c r="N164" t="n">
-        <v>0.07522130378510961</v>
+        <v>0.06874107498577792</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07807986780887002</v>
+        <v>0.1666194078400046</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06315382583903686</v>
+        <v>0.02450326545757242</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06500462169085335</v>
+        <v>0.1667198928588032</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02949111163462294</v>
+        <v>0.02708476416908458</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08070333826028143</v>
+        <v>0.1678992234885681</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04595125399920505</v>
+        <v>0.04827879089845225</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07942122429159972</v>
+        <v>0.168856290229001</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0748843815433316</v>
+        <v>0.06950352535052484</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07886855334229295</v>
+        <v>0.1683024321616208</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.06204906503697484</v>
+        <v>0.02284854434693642</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06500435316238933</v>
+        <v>0.1683870917873913</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02911753693632746</v>
+        <v>0.02736357058577039</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08151037164288426</v>
+        <v>0.1695782157234537</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04516853428705003</v>
+        <v>0.04836173167666749</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0802154365345157</v>
+        <v>0.170544853131291</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07353307176744422</v>
+        <v>0.07068890145427137</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07965723887571588</v>
+        <v>0.169985456483237</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.06095705435489808</v>
+        <v>0.02317351713502441</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0650040846339253</v>
+        <v>0.1700542907159793</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02883332587633369</v>
+        <v>0.02783132945877632</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08231740502548708</v>
+        <v>0.1712572079583394</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04518943391306923</v>
+        <v>0.04914087344886719</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08100964877743171</v>
+        <v>0.172233416033581</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07386753978642518</v>
+        <v>0.07195532368911672</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08044592440913881</v>
+        <v>0.1716684808048533</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05987849707395314</v>
+        <v>0.02546354469933466</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06500381610546128</v>
+        <v>0.1717214896445673</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02843950935727384</v>
+        <v>0.02817200691993914</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08312443840808989</v>
+        <v>0.1729362001932251</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04491325946062413</v>
+        <v>0.04988691418826102</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0818038610203477</v>
+        <v>0.1739219789358711</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07238795092925221</v>
+        <v>0.07196091244715996</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08123460994256174</v>
+        <v>0.1733515051264694</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05881409647542718</v>
+        <v>0.02371458880736005</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06500354757699726</v>
+        <v>0.1733886885731554</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02833711828178019</v>
+        <v>0.0284695691010957</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0839314717906927</v>
+        <v>0.1746151924281108</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04463931751307612</v>
+        <v>0.05057055186805867</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0825980732632637</v>
+        <v>0.175610541838161</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07179447052490306</v>
+        <v>0.07276378812050038</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08202329547598466</v>
+        <v>0.1750345294480856</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05776455584046619</v>
+        <v>0.02595627588600957</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06500327904853326</v>
+        <v>0.1750558875017434</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02782718355248494</v>
+        <v>0.02873516261094992</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08473850517329551</v>
+        <v>0.1762941846629965</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04426691465378668</v>
+        <v>0.0511717841475382</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08339228550617969</v>
+        <v>0.177299104740451</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07168726390235558</v>
+        <v>0.07396268971918141</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08281198100940759</v>
+        <v>0.1767175537697019</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05673057845026343</v>
+        <v>0.02419203010216939</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06500301052006924</v>
+        <v>0.1767230864303314</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0277107360720204</v>
+        <v>0.02869394545266506</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08554553855589833</v>
+        <v>0.1779731768978821</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04389535746611728</v>
+        <v>0.05144578929331309</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0841864977490957</v>
+        <v>0.1789876676427411</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07096649639058739</v>
+        <v>0.07413922922561106</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08360066654283052</v>
+        <v>0.178400578091318</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05571286758596819</v>
+        <v>0.02742231585286584</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06500274199160522</v>
+        <v>0.1783902853589195</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02728880674301876</v>
+        <v>0.0292464486265306</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08635257193850114</v>
+        <v>0.1796521691327678</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04402395253342933</v>
+        <v>0.05170789335834397</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08498070999201168</v>
+        <v>0.1806762305450311</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07073233331857631</v>
+        <v>0.07479910986480415</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08438935207625346</v>
+        <v>0.1800836024129343</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0547121265288623</v>
+        <v>0.02664759753512522</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0650024734631412</v>
+        <v>0.1800574842875075</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02696242646811224</v>
+        <v>0.02949318077510318</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08715960532110395</v>
+        <v>0.1813311613676535</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04325200643908436</v>
+        <v>0.05265902589111346</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08577492223492768</v>
+        <v>0.1823647934473211</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07008494001529997</v>
+        <v>0.07604366018397168</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08517803760967639</v>
+        <v>0.1817666267345505</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05372905856009438</v>
+        <v>0.02486833954597394</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06500220493467719</v>
+        <v>0.1817246832160955</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02653262614993318</v>
+        <v>0.02973465054093938</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08796663870370676</v>
+        <v>0.1830101536025392</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04347882576644377</v>
+        <v>0.05310011644010401</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08656913447784369</v>
+        <v>0.1840533563496111</v>
       </c>
       <c r="N174" t="n">
-        <v>0.06922448180973617</v>
+        <v>0.07677420873032509</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08596672314309932</v>
+        <v>0.1834496510561667</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05276436696085765</v>
+        <v>0.02708500628243833</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06500193640621317</v>
+        <v>0.1833918821446835</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02640043669111378</v>
+        <v>0.02987136656659585</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0887736720863096</v>
+        <v>0.1846891458374249</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04280371709886904</v>
+        <v>0.05313209455379819</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08736334672075968</v>
+        <v>0.1857419192519011</v>
       </c>
       <c r="N175" t="n">
-        <v>0.06815112403086282</v>
+        <v>0.07669208405107525</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08675540867652225</v>
+        <v>0.1851326753777829</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0518187550123046</v>
+        <v>0.02729806214154473</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06500166787774915</v>
+        <v>0.1850590810732716</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02586688899428626</v>
+        <v>0.03020383749462915</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08958070546891241</v>
+        <v>0.1863681380723105</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04292598701972161</v>
+        <v>0.05365588978067856</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08815755896367568</v>
+        <v>0.1874304821541911</v>
       </c>
       <c r="N176" t="n">
-        <v>0.06736503200765737</v>
+        <v>0.07729861469343352</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08754409420994518</v>
+        <v>0.1868156996993991</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0508929259957108</v>
+        <v>0.02750797152031947</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06500139934928513</v>
+        <v>0.1867262800018596</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0254330139620829</v>
+        <v>0.03033257196759594</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09038773885151521</v>
+        <v>0.1880471303071962</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04234494211236292</v>
+        <v>0.05437243166922776</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08895177120659167</v>
+        <v>0.1891190450564811</v>
       </c>
       <c r="N177" t="n">
-        <v>0.06736637106909776</v>
+        <v>0.07859512920461115</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0883327797433681</v>
+        <v>0.1884987240210153</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04998758319222793</v>
+        <v>0.02771519881578895</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06500113082082111</v>
+        <v>0.1883934789304477</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02539984249713591</v>
+        <v>0.03035807862805281</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09119477223411802</v>
+        <v>0.1897261225420819</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04245988896015448</v>
+        <v>0.05428264976792826</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08974598344950767</v>
+        <v>0.1908076079587711</v>
       </c>
       <c r="N178" t="n">
-        <v>0.06615530654416168</v>
+        <v>0.07908295613181904</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08912146527679103</v>
+        <v>0.1901817483426315</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04910342988304919</v>
+        <v>0.02792020842497947</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0650008622923571</v>
+        <v>0.1900606778590357</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02476840550207757</v>
+        <v>0.03088086611855635</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09200180561672085</v>
+        <v>0.1914051147769676</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04207013414645774</v>
+        <v>0.05508747362526262</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09054019569242366</v>
+        <v>0.1924961708610612</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0654320037618269</v>
+        <v>0.0792634240222686</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08991015081021396</v>
+        <v>0.1918647726642477</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04824116934933084</v>
+        <v>0.02912661044292784</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06500059376389307</v>
+        <v>0.1917278767876237</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02473973387954012</v>
+        <v>0.0308014430816632</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09280883899932366</v>
+        <v>0.1930841070118532</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04187498425463407</v>
+        <v>0.0553878327897134</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09133440793533966</v>
+        <v>0.1941847337633512</v>
       </c>
       <c r="N180" t="n">
-        <v>0.06519662805107113</v>
+        <v>0.08053786142317093</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09069883634363689</v>
+        <v>0.1935477969858639</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04740150487234114</v>
+        <v>0.02934529358441086</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06500032523542906</v>
+        <v>0.1933950757162118</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0242148585321558</v>
+        <v>0.03102959775368679</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09361587238192647</v>
+        <v>0.1947630992467389</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04137374586804501</v>
+        <v>0.05558950610090246</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09212862017825567</v>
+        <v>0.1958732966656412</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06424934474087207</v>
+        <v>0.08022340225634983</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09148752187705983</v>
+        <v>0.1952308213074802</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04658513973323533</v>
+        <v>0.0285701859799454</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06500005670696504</v>
+        <v>0.1950622746447998</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02389481036255685</v>
+        <v>0.03146959709240138</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09442290576452929</v>
+        <v>0.1964420914816246</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04096572557005204</v>
+        <v>0.05621504146086417</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09292283242117166</v>
+        <v>0.1975618595679312</v>
       </c>
       <c r="N182" t="n">
-        <v>0.06319031916020762</v>
+        <v>0.08144296600693829</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09227620741048276</v>
+        <v>0.1969138456290963</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04579277721320665</v>
+        <v>0.02679331010768896</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06499978817850104</v>
+        <v>0.1967294735733878</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02348062027337554</v>
+        <v>0.0318127058902602</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09522993914713211</v>
+        <v>0.1981210837165103</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04095022994401651</v>
+        <v>0.05635364863645434</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09371704466408766</v>
+        <v>0.1992504224702212</v>
       </c>
       <c r="N183" t="n">
-        <v>0.06271971663805537</v>
+        <v>0.08167511545575878</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09306489294390569</v>
+        <v>0.1985968699507126</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04502512059341549</v>
+        <v>0.02900668844579912</v>
       </c>
       <c r="G184" t="n">
-        <v>0.064999519650037</v>
+        <v>0.1983966725019758</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02347331916724409</v>
+        <v>0.03175018656524793</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09603697252973492</v>
+        <v>0.199800075951396</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04032656557329997</v>
+        <v>0.05688935962421374</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09451125690700364</v>
+        <v>0.2009389853725112</v>
       </c>
       <c r="N184" t="n">
-        <v>0.06143770250339309</v>
+        <v>0.0827970285049196</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09385357847732861</v>
+        <v>0.2002798942723288</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04428287315512187</v>
+        <v>0.02820234347243336</v>
       </c>
       <c r="G185" t="n">
-        <v>0.064999251121573</v>
+        <v>0.2000638714305639</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02317393794679475</v>
+        <v>0.03227330153534928</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09684400591233773</v>
+        <v>0.2014790681862817</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0397940390412638</v>
+        <v>0.05730620642068307</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09530546914991965</v>
+        <v>0.2026275482748012</v>
       </c>
       <c r="N185" t="n">
-        <v>0.06094444208519861</v>
+        <v>0.08358588305652898</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09464226401075154</v>
+        <v>0.201962918593945</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04356673817948516</v>
+        <v>0.02737229766574917</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06499898259310898</v>
+        <v>0.2017310703591519</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02258350751465978</v>
+        <v>0.03217331321854898</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09765103929494054</v>
+        <v>0.2031580604211673</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03945195693126952</v>
+        <v>0.05768822102240317</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09609968139283565</v>
+        <v>0.2043161111770912</v>
       </c>
       <c r="N186" t="n">
-        <v>0.06054010071244958</v>
+        <v>0.08321885701269549</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09543094954417447</v>
+        <v>0.2036459429155612</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04287741894769853</v>
+        <v>0.02850857350390411</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06499871406464497</v>
+        <v>0.20339826928774</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0224030587734714</v>
+        <v>0.0323414840328317</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09845807267754336</v>
+        <v>0.204837052656053</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03949962582667857</v>
+        <v>0.05791943542591468</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09689389363575164</v>
+        <v>0.2060046740793812</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0591248437141238</v>
+        <v>0.08377312827552735</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0962196350775974</v>
+        <v>0.2053289672371774</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04221561874092704</v>
+        <v>0.03060449687794951</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06499844553618093</v>
+        <v>0.205065468216328</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02223362262586188</v>
+        <v>0.03276907639618219</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09926510606014617</v>
+        <v>0.2065160448909387</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03893635231085238</v>
+        <v>0.05848388162775842</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09768810587866765</v>
+        <v>0.2076932369816712</v>
       </c>
       <c r="N188" t="n">
-        <v>0.05859883641919894</v>
+        <v>0.08472587474713295</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09700832061102033</v>
+        <v>0.2070119915587936</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04158204084042157</v>
+        <v>0.02968582799451948</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06499817700771693</v>
+        <v>0.206732667144916</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02197622997446347</v>
+        <v>0.03286013784346951</v>
       </c>
       <c r="K189" t="n">
-        <v>0.100072139442749</v>
+        <v>0.2081950371258244</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03826144296715245</v>
+        <v>0.05886900492885586</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09848231812158365</v>
+        <v>0.2093817998839612</v>
       </c>
       <c r="N189" t="n">
-        <v>0.05726224415665282</v>
+        <v>0.08497239728739975</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09779700614444327</v>
+        <v>0.2086950158804098</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04097451679580708</v>
+        <v>0.02776534543426384</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06499790847925291</v>
+        <v>0.2083998660735041</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02153191172190841</v>
+        <v>0.03284704826174667</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1008791728253518</v>
+        <v>0.2098740293607101</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03817420437894017</v>
+        <v>0.05902754668118274</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09927653036449963</v>
+        <v>0.2110703627862513</v>
       </c>
       <c r="N190" t="n">
-        <v>0.05691523225546319</v>
+        <v>0.08539923187877985</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0985856916778662</v>
+        <v>0.210378040202026</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04037651949904238</v>
+        <v>0.03084301983882277</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06499763995078889</v>
+        <v>0.2100670650020921</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02150169877082891</v>
+        <v>0.03293197094193136</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1016862062079546</v>
+        <v>0.2115530215955957</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03757394312957704</v>
+        <v>0.05888250106248205</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1000707426074156</v>
+        <v>0.2127589256885413</v>
       </c>
       <c r="N191" t="n">
-        <v>0.05625796604460775</v>
+        <v>0.08532090193256175</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09937437721128912</v>
+        <v>0.2120610645236422</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0397858804997558</v>
+        <v>0.02791882184983635</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06499737142232487</v>
+        <v>0.2117342639306801</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02118662202385727</v>
+        <v>0.03311487372853943</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1024932395905574</v>
+        <v>0.2132320138304814</v>
       </c>
       <c r="L192" t="n">
-        <v>0.03705996580242454</v>
+        <v>0.05883380930834053</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1008649548503316</v>
+        <v>0.2144474885908313</v>
       </c>
       <c r="N192" t="n">
-        <v>0.05509061085306427</v>
+        <v>0.08563732346033726</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1001630627447121</v>
+        <v>0.2137440888452584</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03920330307919204</v>
+        <v>0.02999272210894471</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06499710289386085</v>
+        <v>0.2134014628592681</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02098019499149392</v>
+        <v>0.03299572446608665</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1033002729731602</v>
+        <v>0.2149110060653671</v>
       </c>
       <c r="L193" t="n">
-        <v>0.03681677752184453</v>
+        <v>0.05948141265434451</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1016591670932476</v>
+        <v>0.2161360514931213</v>
       </c>
       <c r="N193" t="n">
-        <v>0.05376894785610281</v>
+        <v>0.08534841247369768</v>
       </c>
       <c r="O193" t="n">
-        <v>0.100951748278135</v>
+        <v>0.2154271131668747</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03862949051851847</v>
+        <v>0.03006469125778798</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06499683436539684</v>
+        <v>0.2150686617878562</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02077358320453428</v>
+        <v>0.03317449099908892</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1041073063557631</v>
+        <v>0.2165899983002528</v>
       </c>
       <c r="L194" t="n">
-        <v>0.03672792240032355</v>
+        <v>0.05932525233608058</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1024533793361636</v>
+        <v>0.2178246143954113</v>
       </c>
       <c r="N194" t="n">
-        <v>0.05274326640603477</v>
+        <v>0.08565408498423455</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1017404338115579</v>
+        <v>0.2171101374884909</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03806514609892829</v>
+        <v>0.0311346999380063</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06499656583693282</v>
+        <v>0.2167358607164442</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02056697713545862</v>
+        <v>0.03325114117206207</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1049143397383659</v>
+        <v>0.2182689905351385</v>
       </c>
       <c r="L195" t="n">
-        <v>0.03579616266670027</v>
+        <v>0.05966526958913526</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1032475915790796</v>
+        <v>0.2195131772977013</v>
       </c>
       <c r="N195" t="n">
-        <v>0.05212051229878772</v>
+        <v>0.08605425700353952</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1025291193449808</v>
+        <v>0.2187931618101071</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03751097310159088</v>
+        <v>0.02820271879123977</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0649962973084688</v>
+        <v>0.2184030596450322</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02046059401804395</v>
+        <v>0.03312564282952198</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1057213731209687</v>
+        <v>0.2199479827700241</v>
       </c>
       <c r="L196" t="n">
-        <v>0.03522430355370479</v>
+        <v>0.06000140564909512</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1040418038219956</v>
+        <v>0.2212017401999913</v>
       </c>
       <c r="N196" t="n">
-        <v>0.05130776784642177</v>
+        <v>0.08624884454320408</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1033178048784038</v>
+        <v>0.2204761861317233</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03696767480774775</v>
+        <v>0.03126871845912853</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06499602878000478</v>
+        <v>0.2200702585736203</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02015465108606727</v>
+        <v>0.03329796381598439</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1065284065035715</v>
+        <v>0.2216269750049098</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03461515029406717</v>
+        <v>0.06003360175154662</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1048360160649116</v>
+        <v>0.2228903031022813</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04971211536099679</v>
+        <v>0.08673776361481983</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1041064904118267</v>
+        <v>0.2221592104533394</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03643595449856779</v>
+        <v>0.0303326695833127</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06499576025154077</v>
+        <v>0.2217374575022083</v>
       </c>
       <c r="J198" t="n">
-        <v>0.01994936557330555</v>
+        <v>0.03336807197596525</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1073354398861743</v>
+        <v>0.2233059672397955</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03377150812051741</v>
+        <v>0.06016179913207634</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1056302283078276</v>
+        <v>0.2245788660045713</v>
       </c>
       <c r="N198" t="n">
-        <v>0.04804063715457296</v>
+        <v>0.08662093022997824</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1048951759452496</v>
+        <v>0.2238422347749557</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03591651545524421</v>
+        <v>0.03139454280543241</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06499549172307675</v>
+        <v>0.2234046564307963</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01994495471353581</v>
+        <v>0.03353593515398033</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1081424732687771</v>
+        <v>0.2249849594746812</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03329618226578551</v>
+        <v>0.05998593902627075</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1064244405507436</v>
+        <v>0.2262674289068614</v>
       </c>
       <c r="N199" t="n">
-        <v>0.04710041553921018</v>
+        <v>0.08639826040027088</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1056838614786725</v>
+        <v>0.2255252590965719</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03541006095894852</v>
+        <v>0.03045430876712779</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06499522319461273</v>
+        <v>0.2250718553593844</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01944163574053501</v>
+        <v>0.03370152119454549</v>
       </c>
       <c r="K200" t="n">
-        <v>0.10894950665138</v>
+        <v>0.2266639517095669</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03249197796260159</v>
+        <v>0.06030596266971647</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1072186527936596</v>
+        <v>0.2279559918091514</v>
       </c>
       <c r="N200" t="n">
-        <v>0.04559853282696863</v>
+        <v>0.08706967013728922</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1064725470120955</v>
+        <v>0.2272082834181881</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03491729429091807</v>
+        <v>0.03051193811003895</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06499495466614871</v>
+        <v>0.2267390542879724</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01933962588808016</v>
+        <v>0.03356479794217655</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1097565400339828</v>
+        <v>0.2283429439444525</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03186170044369566</v>
+        <v>0.06062181129799993</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1080128650365756</v>
+        <v>0.2296445547114414</v>
       </c>
       <c r="N201" t="n">
-        <v>0.04364207132990816</v>
+        <v>0.08743507545262502</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1072612325455184</v>
+        <v>0.2288913077398043</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03443891873232376</v>
+        <v>0.03056740147580603</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06499468613768471</v>
+        <v>0.2284062532165604</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01923914238994828</v>
+        <v>0.03352573324138941</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1105635734165856</v>
+        <v>0.2300219361793382</v>
       </c>
       <c r="L202" t="n">
-        <v>0.03140815494179777</v>
+        <v>0.06073342614670774</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1088070772794916</v>
+        <v>0.2313331176137314</v>
       </c>
       <c r="N202" t="n">
-        <v>0.04183811336008897</v>
+        <v>0.0874943923578696</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1080499180789413</v>
+        <v>0.2305743320614205</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03397563756435883</v>
+        <v>0.02962066950606915</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06499441760922069</v>
+        <v>0.2300734521451485</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01894040247991631</v>
+        <v>0.03378429493669984</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1113706067991884</v>
+        <v>0.2317009284142239</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03063414668963799</v>
+        <v>0.06074074845142632</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1096012895224076</v>
+        <v>0.2330216805160214</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0403937412295709</v>
+        <v>0.08694753686461443</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1088386036123643</v>
+        <v>0.2322573563830367</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03352815406819738</v>
+        <v>0.0296717128424684</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06499414908075667</v>
+        <v>0.2317406510737365</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01884362339176127</v>
+        <v>0.03394045087262373</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1121776401817912</v>
+        <v>0.2333799206491096</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02964248091994631</v>
+        <v>0.06044371944774227</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1103955017653236</v>
+        <v>0.2347102434183114</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03831603725041405</v>
+        <v>0.08789442498445127</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1096272891457872</v>
+        <v>0.233940380704653</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03309717152507169</v>
+        <v>0.02872050212664398</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06499388055229265</v>
+        <v>0.2334078500023245</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01864902235926016</v>
+        <v>0.03369416889367689</v>
       </c>
       <c r="K205" t="n">
-        <v>0.112984673564394</v>
+        <v>0.2350589128839953</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02883596286545279</v>
+        <v>0.06064228037124214</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1111897140082396</v>
+        <v>0.2363988063206014</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03691208373467858</v>
+        <v>0.08753497272897165</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1104159746792101</v>
+        <v>0.2356234050262692</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03268339321615507</v>
+        <v>0.03076700800023596</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06499361202382863</v>
+        <v>0.2350750489309126</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01835681661618996</v>
+        <v>0.03404541684437518</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1137917069469968</v>
+        <v>0.2367379051188809</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02771739775888751</v>
+        <v>0.06063637245751241</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1119839262511556</v>
+        <v>0.2380873692228914</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03488896299442434</v>
+        <v>0.08756909610976699</v>
       </c>
       <c r="O206" t="n">
-        <v>0.111204660212633</v>
+        <v>0.2373064293478853</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03228752242264084</v>
+        <v>0.03081120110488449</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06499334349536462</v>
+        <v>0.2367422478595006</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01806722339632769</v>
+        <v>0.0338941625692344</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1145987403295996</v>
+        <v>0.2384168973537666</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02738959083298048</v>
+        <v>0.06102593694213967</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1127781384940716</v>
+        <v>0.2397759321251814</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03355375734171134</v>
+        <v>0.08749671113842883</v>
       </c>
       <c r="O207" t="n">
-        <v>0.111993345746056</v>
+        <v>0.2389894536695016</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03191026242570617</v>
+        <v>0.03185305208222966</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06499307496690059</v>
+        <v>0.2384094467880886</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0178804599334503</v>
+        <v>0.03394037391277047</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1154057737122025</v>
+        <v>0.2400958895886523</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02655534732046172</v>
+        <v>0.06131091506071035</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1135723507369876</v>
+        <v>0.2414644950274714</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03181354908859979</v>
+        <v>0.08771773382654868</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1127820312794789</v>
+        <v>0.2406724779911177</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03155231650657724</v>
+        <v>0.03089253157391164</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06499280643843658</v>
+        <v>0.2400766457166767</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01779674346133481</v>
+        <v>0.03418401871949915</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1162128070948053</v>
+        <v>0.241774881823538</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02541747245406131</v>
+        <v>0.06109124804881105</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1143665629799036</v>
+        <v>0.2431530579297615</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03047542054714947</v>
+        <v>0.08793208018571835</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1135707168129018</v>
+        <v>0.242355502312734</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0312143879464304</v>
+        <v>0.03092961022157054</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06499253790997256</v>
+        <v>0.2417438446452647</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01761629121375823</v>
+        <v>0.03402506483393632</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1170198404774081</v>
+        <v>0.2434538740584236</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02467877146650926</v>
+        <v>0.06086687714202826</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1151607752228196</v>
+        <v>0.2448416208320514</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02814645402942068</v>
+        <v>0.08863966622752911</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1143594023463248</v>
+        <v>0.2440385266343502</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03089718002645889</v>
+        <v>0.03096425866684645</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06499226938150855</v>
+        <v>0.2434110435738527</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01753932042449752</v>
+        <v>0.03406348010059781</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1178268738600109</v>
+        <v>0.2451328662933094</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02354204959053571</v>
+        <v>0.06103774357594854</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1159549874657356</v>
+        <v>0.2465301837343415</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02713373184747309</v>
+        <v>0.08834040796357256</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1151480878797477</v>
+        <v>0.2457215509559664</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03060139602784358</v>
+        <v>0.03199644755137952</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06499200085304452</v>
+        <v>0.2450782425024408</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01746604832732969</v>
+        <v>0.03399923236399947</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1186339072426137</v>
+        <v>0.246811858528195</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02321011205887061</v>
+        <v>0.06150378858615838</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1167491997086516</v>
+        <v>0.2482187466366315</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02524433631336703</v>
+        <v>0.08883422140544028</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1159367734131706</v>
+        <v>0.2474045752775826</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03032773923180347</v>
+        <v>0.02902614751680992</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06499173232458051</v>
+        <v>0.2467454414310288</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0170966921560317</v>
+        <v>0.03423228946865711</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1194409406252165</v>
+        <v>0.2484908507630807</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02248576410424397</v>
+        <v>0.06106495340824436</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1175434119515676</v>
+        <v>0.2499073095389215</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02368534973916242</v>
+        <v>0.08892102256472378</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1167254589465936</v>
+        <v>0.2490875995991988</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03007691291951843</v>
+        <v>0.03005332920477771</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06499146379611649</v>
+        <v>0.2484126403596168</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0170314691443806</v>
+        <v>0.03426261925908661</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1202479740078193</v>
+        <v>0.2501698429979664</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02167181095938586</v>
+        <v>0.06122117927779294</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1183376241944836</v>
+        <v>0.2515958724412115</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02126385443691936</v>
+        <v>0.08860072745301456</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1175141444800165</v>
+        <v>0.250770623920815</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03007691291951843</v>
+        <v>0.02907796325692304</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06499146379611649</v>
+        <v>0.2500798392882048</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01697059652615336</v>
+        <v>0.0342901895798038</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1210550073904222</v>
+        <v>0.2518488352328521</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02087105785702642</v>
+        <v>0.06137240743039066</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1191318364373996</v>
+        <v>0.2532844353435015</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01998693271869778</v>
+        <v>0.08857325208190425</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1183028300134394</v>
+        <v>0.2524536482424312</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02925250711959264</v>
+        <v>0.02910002031488604</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06486393300380164</v>
+        <v>0.2517470382167929</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01671429153512695</v>
+        <v>0.03411496827532451</v>
       </c>
       <c r="K216" t="n">
-        <v>0.121862040773025</v>
+        <v>0.2535278274677378</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01998631002989559</v>
+        <v>0.06151857910162414</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1199260486803156</v>
+        <v>0.2549729982457915</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01826166689655762</v>
+        <v>0.08913851246298438</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1190915155468624</v>
+        <v>0.2541366725640474</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0284375269179951</v>
+        <v>0.03011947102030682</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0647364022114868</v>
+        <v>0.2534142371453809</v>
       </c>
       <c r="J217" t="n">
-        <v>0.01666277140507839</v>
+        <v>0.03433692319016456</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1226690741556278</v>
+        <v>0.2552068197026234</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01892037271072344</v>
+        <v>0.0615596355270798</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1207202609232316</v>
+        <v>0.2566615611480815</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01719513928255911</v>
+        <v>0.08889642460784641</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1198802010802853</v>
+        <v>0.2558196968856636</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02763246355702031</v>
+        <v>0.03013628601482554</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06460887141917196</v>
+        <v>0.2550814360739689</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01621625336978468</v>
+        <v>0.03425602216883983</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1234761075382306</v>
+        <v>0.2568858119375091</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01817605113224005</v>
+        <v>0.06169551794234421</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1215144731661475</v>
+        <v>0.2583501240503716</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01559443218876222</v>
+        <v>0.08844690452808196</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1206688866137082</v>
+        <v>0.2575027212072798</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02683780827896304</v>
+        <v>0.03215043594008228</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06448134062685712</v>
+        <v>0.256748635002557</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01637495466302279</v>
+        <v>0.03417223305586616</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1242831409208334</v>
+        <v>0.2585648041723948</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01725615052717544</v>
+        <v>0.06152616758300386</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1223086854090635</v>
+        <v>0.2600386869526615</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01456662792722679</v>
+        <v>0.08918986823528252</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1214575721471311</v>
+        <v>0.2591857455288961</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02605405232611778</v>
+        <v>0.02916189143771719</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06435380983454227</v>
+        <v>0.258415833931145</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0162390925185697</v>
+        <v>0.03418552369575933</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1250901743034362</v>
+        <v>0.2602437964072805</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01706347612825959</v>
+        <v>0.06135152568464536</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1231028976519795</v>
+        <v>0.2617272498549516</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01301880881001316</v>
+        <v>0.08892523174103956</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1222462576805541</v>
+        <v>0.2608687698505123</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02528168694077931</v>
+        <v>0.0321706231493704</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06422627904222743</v>
+        <v>0.260083032859733</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01590888417020245</v>
+        <v>0.03439586193303525</v>
       </c>
       <c r="K221" t="n">
-        <v>0.125897207686039</v>
+        <v>0.2619227886421662</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01610083316822258</v>
+        <v>0.06177153348285516</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1238971098948955</v>
+        <v>0.2634158127572416</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01155805714918107</v>
+        <v>0.08905291105694485</v>
       </c>
       <c r="O221" t="n">
-        <v>0.123034943213977</v>
+        <v>0.2625517941721285</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02452120336524212</v>
+        <v>0.02917660171668202</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06409874824991257</v>
+        <v>0.2617502317883211</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01588454685169799</v>
+        <v>0.03450321561220972</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1267042410686419</v>
+        <v>0.2636017808770518</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01567102687979449</v>
+        <v>0.06148613221321983</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1246913221378115</v>
+        <v>0.2651043756595315</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01069145525679077</v>
+        <v>0.08877282219458976</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1238236287473999</v>
+        <v>0.2642348184937447</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02377309284180101</v>
+        <v>0.03217979778129217</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06397121745759775</v>
+        <v>0.2634174307169091</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01556629779683336</v>
+        <v>0.03450755257779861</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1275112744512447</v>
+        <v>0.2652807731119375</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01507686249570536</v>
+        <v>0.06139526311132584</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1254855343807275</v>
+        <v>0.2667929385618216</v>
       </c>
       <c r="N223" t="n">
-        <v>0.009926085444902033</v>
+        <v>0.08858488116556584</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1246123142808229</v>
+        <v>0.2659178428153609</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02303784661275046</v>
+        <v>0.0291745175172748</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06384368666528289</v>
+        <v>0.2650846296454972</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0154543542393855</v>
+        <v>0.03420853799457416</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1283183078338475</v>
+        <v>0.2669597653468232</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01462114524868521</v>
+        <v>0.06149886741275978</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1262797466236435</v>
+        <v>0.2684815014641116</v>
       </c>
       <c r="N224" t="n">
-        <v>0.008969030025575087</v>
+        <v>0.08888900398146471</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1254009998142458</v>
+        <v>0.2676008671369771</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02231595592038522</v>
+        <v>0.02910094652028532</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06371615587296806</v>
+        <v>0.2667518285740852</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01554893341313143</v>
+        <v>0.03415412000148098</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1291253412164503</v>
+        <v>0.2686387575817089</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0140066803714641</v>
+        <v>0.06133641501437834</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1270739588665595</v>
+        <v>0.2701700643664016</v>
       </c>
       <c r="N225" t="n">
-        <v>0.00812737131086988</v>
+        <v>0.08857022592931035</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1261896853476687</v>
+        <v>0.2692838914585933</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02160791200699985</v>
+        <v>0.0319502851376717</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0635886250806532</v>
+        <v>0.2684190275026732</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01555025255184814</v>
+        <v>0.03401311387448977</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1299323745990531</v>
+        <v>0.2703177498165946</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01363627309677204</v>
+        <v>0.06111443017378115</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1278681711094755</v>
+        <v>0.2718586272686916</v>
       </c>
       <c r="N226" t="n">
-        <v>0.007808191612846349</v>
+        <v>0.08892341046636315</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1269783708810917</v>
+        <v>0.2709669157802095</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02091420611488908</v>
+        <v>0.03173168564384622</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06346109428833836</v>
+        <v>0.2700862264312612</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01545852888931264</v>
+        <v>0.03399554387299869</v>
       </c>
       <c r="K227" t="n">
-        <v>0.130739407981656</v>
+        <v>0.2719967420514802</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01321272865733911</v>
+        <v>0.06134937161761655</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1286623833523915</v>
+        <v>0.2735471901709817</v>
       </c>
       <c r="N227" t="n">
-        <v>0.007218573243564785</v>
+        <v>0.0878747097166494</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1277670564145146</v>
+        <v>0.2726499401018257</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0202353294863474</v>
+        <v>0.02845430031322113</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06333356349602352</v>
+        <v>0.2717534253598493</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01507397965930191</v>
+        <v>0.03371143425640594</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1315464413642587</v>
+        <v>0.2736757342863659</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01263885228589529</v>
+        <v>0.06045955876291154</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1294565955953075</v>
+        <v>0.2752357530732716</v>
       </c>
       <c r="N228" t="n">
-        <v>0.006665598515084969</v>
+        <v>0.08745030651071356</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1285557419479375</v>
+        <v>0.274332964423442</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01957177336366961</v>
+        <v>0.03112728142020868</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06320603270370868</v>
+        <v>0.2734206242884373</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01499682209559292</v>
+        <v>0.03317080928410963</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1323534747468616</v>
+        <v>0.2753547265212516</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0120174492151707</v>
+        <v>0.06006331102669324</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1302508078382235</v>
+        <v>0.2769243159755616</v>
       </c>
       <c r="N229" t="n">
-        <v>0.006956349739467016</v>
+        <v>0.08627638367910051</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1293444274813604</v>
+        <v>0.2760159887450581</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0189240289891502</v>
+        <v>0.03075978123922112</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06307850191139383</v>
+        <v>0.2750878232170254</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01502722230889594</v>
+        <v>0.03288369321550789</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1331605081294644</v>
+        <v>0.2770337187561373</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01205100209522048</v>
+        <v>0.05907894782598863</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1310450200811395</v>
+        <v>0.2786128788778517</v>
       </c>
       <c r="N230" t="n">
-        <v>0.006696724651424346</v>
+        <v>0.08517912405235467</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1301331130147834</v>
+        <v>0.2776990130666743</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01829258760508391</v>
+        <v>0.02836095204467068</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06295097111907898</v>
+        <v>0.2767550221456134</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0150608718335387</v>
+        <v>0.03266011030999896</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1339675415120672</v>
+        <v>0.278712710991023</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01190851326010961</v>
+        <v>0.0586247885778248</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1318392323240555</v>
+        <v>0.2803014417801417</v>
       </c>
       <c r="N231" t="n">
-        <v>0.007096848486690899</v>
+        <v>0.08398471046102063</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1309217985482063</v>
+        <v>0.2793820373882905</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01767794045376538</v>
+        <v>0.02793994611096963</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06282344032676414</v>
+        <v>0.2784222210742014</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01489497377656858</v>
+        <v>0.03211008482698091</v>
       </c>
       <c r="K232" t="n">
-        <v>0.13477457489467</v>
+        <v>0.2803917032259086</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01186836481402917</v>
+        <v>0.05791915269922879</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1326334445669715</v>
+        <v>0.2819900046824317</v>
       </c>
       <c r="N232" t="n">
-        <v>0.006997562541348812</v>
+        <v>0.0829193257356432</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1317104840816292</v>
+        <v>0.2810650617099067</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0170805787774892</v>
+        <v>0.02650591571253023</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0626959095344493</v>
+        <v>0.2800894200027894</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01482962218781912</v>
+        <v>0.03144364102585197</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1355816082772728</v>
+        <v>0.2820706954607943</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01123085820058453</v>
+        <v>0.05658035960722765</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1334276568098875</v>
+        <v>0.2836785675847217</v>
       </c>
       <c r="N233" t="n">
-        <v>0.006699392516136549</v>
+        <v>0.08230915270676675</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1324991696150521</v>
+        <v>0.282748086031523</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01650099381854998</v>
+        <v>0.02606801312376472</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06256837874213446</v>
+        <v>0.2817566189313774</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01486491111712387</v>
+        <v>0.03127080316601019</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1363886416598756</v>
+        <v>0.28374968769568</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0112962948633813</v>
+        <v>0.05612672871884841</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1342218690528035</v>
+        <v>0.2853671304870117</v>
       </c>
       <c r="N234" t="n">
-        <v>0.006502864111792628</v>
+        <v>0.08088037420493605</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1332878551484751</v>
+        <v>0.2844311103531392</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01593967681924238</v>
+        <v>0.02663539061908536</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06244084794981961</v>
+        <v>0.2834238178599655</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01490093461431637</v>
+        <v>0.03070159550685381</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1371956750424785</v>
+        <v>0.2854286799305657</v>
       </c>
       <c r="L235" t="n">
-        <v>0.01066497624602489</v>
+        <v>0.05527657945111819</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1350160812957195</v>
+        <v>0.2870556933893017</v>
       </c>
       <c r="N235" t="n">
-        <v>0.006308503029055501</v>
+        <v>0.07945917306069566</v>
       </c>
       <c r="O235" t="n">
-        <v>0.134076540681898</v>
+        <v>0.2861141346747554</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01539711902186112</v>
+        <v>0.02521720047290439</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06231331715750477</v>
+        <v>0.2850910167885535</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01463778672923012</v>
+        <v>0.03014604230778095</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1380027084250812</v>
+        <v>0.2871076721654514</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01083720379212086</v>
+        <v>0.05454823122106398</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1358102935386355</v>
+        <v>0.2887442562915917</v>
       </c>
       <c r="N236" t="n">
-        <v>0.006316834968663809</v>
+        <v>0.07837173210459009</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1348652262153209</v>
+        <v>0.2877971589963716</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01487381166870071</v>
+        <v>0.02482259495963408</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06218578636518992</v>
+        <v>0.2867582157171416</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01467556151169869</v>
+        <v>0.02971416782818979</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1388097418076841</v>
+        <v>0.288786664400337</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01071327894527468</v>
+        <v>0.05376000344571283</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1366045057815515</v>
+        <v>0.2904328191938818</v>
       </c>
       <c r="N237" t="n">
-        <v>0.006728385631355971</v>
+        <v>0.07744423416716417</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1356539117487439</v>
+        <v>0.2894801833179878</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01437024600205589</v>
+        <v>0.02446072174720813</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06205825557287508</v>
+        <v>0.2884254146457296</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01451435301155561</v>
+        <v>0.02931599632747844</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1396167751902869</v>
+        <v>0.2904656566352227</v>
       </c>
       <c r="L238" t="n">
-        <v>0.009993503149091865</v>
+        <v>0.05293021554209182</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1373987180244675</v>
+        <v>0.2921213820961717</v>
       </c>
       <c r="N238" t="n">
-        <v>0.00664368071787047</v>
+        <v>0.07610286207896233</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1364425972821668</v>
+        <v>0.291163207639604</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01388691326422119</v>
+        <v>0.02611698638542476</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06193072478056023</v>
+        <v>0.2900926135743176</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01445425527863441</v>
+        <v>0.02914438374049712</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1404238085728897</v>
+        <v>0.2921446488701084</v>
       </c>
       <c r="L239" t="n">
-        <v>0.009878177847177899</v>
+        <v>0.05185620842771102</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1381929302673835</v>
+        <v>0.2938099449984617</v>
       </c>
       <c r="N239" t="n">
-        <v>0.006663245928945849</v>
+        <v>0.0754356270471675</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1372312828155897</v>
+        <v>0.2928462319612202</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01342229879145493</v>
+        <v>0.02577192562147076</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06180319398824539</v>
+        <v>0.2917598125029057</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01459536236276864</v>
+        <v>0.02857198759711552</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1412308419554925</v>
+        <v>0.2938236411049941</v>
       </c>
       <c r="L240" t="n">
-        <v>0.00976760448313832</v>
+        <v>0.05128370948355129</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1389871425102995</v>
+        <v>0.2954985079007518</v>
       </c>
       <c r="N240" t="n">
-        <v>0.006787606965320658</v>
+        <v>0.07386782470509584</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1380199683490126</v>
+        <v>0.2945292562828364</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01296485838983305</v>
+        <v>0.02442551777326873</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06167566319593054</v>
+        <v>0.2934270114314937</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01423776831379182</v>
+        <v>0.02809813039253521</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1420378753380953</v>
+        <v>0.2955026333398798</v>
       </c>
       <c r="L241" t="n">
-        <v>0.009762084500578611</v>
+        <v>0.05050856147556049</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1397813547532155</v>
+        <v>0.2971870708030418</v>
       </c>
       <c r="N241" t="n">
-        <v>0.006317289527733305</v>
+        <v>0.07279621885827775</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1388086538824356</v>
+        <v>0.2962122806044526</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01251307739561386</v>
+        <v>0.02407774115874116</v>
       </c>
       <c r="G242" t="n">
-        <v>0.0615481324036157</v>
+        <v>0.2950942103600817</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01418156718153751</v>
+        <v>0.02772278837891391</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1428449087206982</v>
+        <v>0.2971816255747655</v>
       </c>
       <c r="L242" t="n">
-        <v>0.009661919343104231</v>
+        <v>0.05043072100436025</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1405755669961315</v>
+        <v>0.2988756337053318</v>
       </c>
       <c r="N242" t="n">
-        <v>0.007052819316922365</v>
+        <v>0.07182074747861689</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1395973394158585</v>
+        <v>0.2978953049260689</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01206744705109185</v>
+        <v>0.02572857409581053</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06142060161130086</v>
+        <v>0.2967614092886698</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01442685301583921</v>
+        <v>0.02754593780840936</v>
       </c>
       <c r="K243" t="n">
-        <v>0.143651942103301</v>
+        <v>0.2988606178096511</v>
       </c>
       <c r="L243" t="n">
-        <v>0.009467410454320674</v>
+        <v>0.04965014467057241</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1413697792390475</v>
+        <v>0.3005641966076218</v>
       </c>
       <c r="N243" t="n">
-        <v>0.006394722033626288</v>
+        <v>0.07134134853801666</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1403860249492814</v>
+        <v>0.299578329247685</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01162845859856182</v>
+        <v>0.02237799490239942</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06129307081898602</v>
+        <v>0.2984286082172578</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01437371986653049</v>
+        <v>0.02706755493317935</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1444589754859038</v>
+        <v>0.3005396100445368</v>
       </c>
       <c r="L244" t="n">
-        <v>0.008878859277833495</v>
+        <v>0.04846678907481852</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1421639914819635</v>
+        <v>0.3022527595099118</v>
       </c>
       <c r="N244" t="n">
-        <v>0.007043523378583605</v>
+        <v>0.07065796000838059</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1411747104827044</v>
+        <v>0.3012613535693013</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01119660328031827</v>
+        <v>0.02302598189643031</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06116554002667116</v>
+        <v>0.3000958071458458</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01412226178344488</v>
+        <v>0.02678761600538163</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1452660088685066</v>
+        <v>0.3022186022794225</v>
       </c>
       <c r="L245" t="n">
-        <v>0.008496567257248233</v>
+        <v>0.0482806108177205</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1429582037248795</v>
+        <v>0.3039413224122018</v>
       </c>
       <c r="N245" t="n">
-        <v>0.006999749052532867</v>
+        <v>0.06907051986161217</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1419633960161273</v>
+        <v>0.3029443778909174</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01077237233865593</v>
+        <v>0.02367251339582573</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06103800923435633</v>
+        <v>0.3017630060744338</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0141725728164159</v>
+        <v>0.02650609727717393</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1460730422511094</v>
+        <v>0.3038975945143082</v>
       </c>
       <c r="L246" t="n">
-        <v>0.008320835836170271</v>
+        <v>0.04769156649989989</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1437524159677955</v>
+        <v>0.3056298853144918</v>
       </c>
       <c r="N246" t="n">
-        <v>0.006663924756212525</v>
+        <v>0.06867896606961482</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1427520815495502</v>
+        <v>0.3046274022125336</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01035625701586936</v>
+        <v>0.02231756771850819</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06091047844204148</v>
+        <v>0.3034302050030219</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01412474701527709</v>
+        <v>0.026122975000714</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1468800756337122</v>
+        <v>0.3055765867491939</v>
       </c>
       <c r="L247" t="n">
-        <v>0.008151966458205206</v>
+        <v>0.04669961272197853</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1445466282107115</v>
+        <v>0.3073184482167818</v>
       </c>
       <c r="N247" t="n">
-        <v>0.007236576190361055</v>
+        <v>0.06698323660429206</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1435407670829732</v>
+        <v>0.3063104265341499</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009948748554253276</v>
+        <v>0.02296112318240022</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06078294764972664</v>
+        <v>0.3050974039316099</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01397887842986201</v>
+        <v>0.02553822542815959</v>
       </c>
       <c r="K248" t="n">
-        <v>0.147687109016315</v>
+        <v>0.3072555789840795</v>
       </c>
       <c r="L248" t="n">
-        <v>0.008490260566958424</v>
+        <v>0.04620470608457805</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1453408404536275</v>
+        <v>0.3090070111190719</v>
       </c>
       <c r="N248" t="n">
-        <v>0.007218229055717118</v>
+        <v>0.06648326943754745</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1443294526163961</v>
+        <v>0.3079934508557661</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009550338196102251</v>
+        <v>0.02360315810542436</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06065541685741179</v>
+        <v>0.306764602860198</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01413506111000418</v>
+        <v>0.02505182481166848</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1484941423989178</v>
+        <v>0.3089345712189652</v>
       </c>
       <c r="L249" t="n">
-        <v>0.008436019606035544</v>
+        <v>0.04520680318832021</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1461350526965435</v>
+        <v>0.3106955740213618</v>
       </c>
       <c r="N249" t="n">
-        <v>0.007209409053019034</v>
+        <v>0.06537900254128443</v>
       </c>
       <c r="O249" t="n">
-        <v>0.145118138149819</v>
+        <v>0.3096764751773823</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009161517183710943</v>
+        <v>0.02324365080550307</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06052788606509694</v>
+        <v>0.308431801788786</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01399338910553713</v>
+        <v>0.02496374940339839</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1493011757815207</v>
+        <v>0.3106135634538509</v>
       </c>
       <c r="L250" t="n">
-        <v>0.008189545019042066</v>
+        <v>0.04430586063382674</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1469292649394595</v>
+        <v>0.3123841369236519</v>
       </c>
       <c r="N250" t="n">
-        <v>0.007410641883005387</v>
+        <v>0.0644703738874064</v>
       </c>
       <c r="O250" t="n">
-        <v>0.145906823683242</v>
+        <v>0.3113594994989985</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008782776759374028</v>
+        <v>0.02288257960055894</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06040035527278211</v>
+        <v>0.310099000717374</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01405395646629441</v>
+        <v>0.02427397545550709</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1501082091641235</v>
+        <v>0.3122925556887366</v>
       </c>
       <c r="L251" t="n">
-        <v>0.007851138249583389</v>
+        <v>0.04390183502171929</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1477234771823755</v>
+        <v>0.3140726998259419</v>
       </c>
       <c r="N251" t="n">
-        <v>0.007622453246414695</v>
+        <v>0.06365732144781705</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1466955092166649</v>
+        <v>0.3130425238206147</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00841460816538607</v>
+        <v>0.02051992280851443</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06027282448046725</v>
+        <v>0.311766199645962</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01401685724210955</v>
+        <v>0.02398247922015233</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1509152425467263</v>
+        <v>0.3139715479236223</v>
       </c>
       <c r="L252" t="n">
-        <v>0.007521100741265108</v>
+        <v>0.04319468295261961</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1485176894252914</v>
+        <v>0.3157612627282319</v>
       </c>
       <c r="N252" t="n">
-        <v>0.007645368843985423</v>
+        <v>0.06243978319441967</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1474841947500878</v>
+        <v>0.3147255481422309</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008057502644041786</v>
+        <v>0.0221556587472921</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06014529368815241</v>
+        <v>0.31343339857455</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0139821854828161</v>
+        <v>0.02378923694949185</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1517222759293291</v>
+        <v>0.3156505401585079</v>
       </c>
       <c r="L253" t="n">
-        <v>0.00769973393769266</v>
+        <v>0.04218436102714945</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1493119016682075</v>
+        <v>0.3174498256305219</v>
       </c>
       <c r="N253" t="n">
-        <v>0.008179914376456154</v>
+        <v>0.06171769709911795</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1482728802835107</v>
+        <v>0.3164085724638472</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007711951437635714</v>
+        <v>0.01878976573481443</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06001776289583757</v>
+        <v>0.3151005975031381</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01385003523824756</v>
+        <v>0.02329422489568339</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1525293093119319</v>
+        <v>0.3173295323933936</v>
       </c>
       <c r="L254" t="n">
-        <v>0.007787339282471578</v>
+        <v>0.04157082584593047</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1501061139111234</v>
+        <v>0.3191383885328119</v>
       </c>
       <c r="N254" t="n">
-        <v>0.007926615544565252</v>
+        <v>0.05999100113381517</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1490615658169337</v>
+        <v>0.3180915967854633</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007378445788462598</v>
+        <v>0.01842222208900397</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05989023210352273</v>
+        <v>0.3167677964317261</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01372050055823751</v>
+        <v>0.02299741931088474</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1533363426945347</v>
+        <v>0.3190085246282793</v>
       </c>
       <c r="L255" t="n">
-        <v>0.007684218219207339</v>
+        <v>0.04125403400958441</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1509003261540394</v>
+        <v>0.3208269514351019</v>
       </c>
       <c r="N255" t="n">
-        <v>0.008485998049051424</v>
+        <v>0.05925963327041495</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1498502513503566</v>
+        <v>0.3197746211070795</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.007057476938816962</v>
+        <v>0.01805300612778322</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05976270131120788</v>
+        <v>0.3184349953603142</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01359367549261946</v>
+        <v>0.02259879644725364</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1541433760771376</v>
+        <v>0.3206875168631649</v>
       </c>
       <c r="L256" t="n">
-        <v>0.007090672191505498</v>
+        <v>0.04003394211873296</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1516945383969554</v>
+        <v>0.3225155143373919</v>
       </c>
       <c r="N256" t="n">
-        <v>0.008158587590652966</v>
+        <v>0.05822353148082071</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1506389368837795</v>
+        <v>0.3214576454286958</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006749536130993564</v>
+        <v>0.01768209616907475</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05963517051889304</v>
+        <v>0.3201021942889022</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01376965409122696</v>
+        <v>0.02219833255694779</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1549504094597404</v>
+        <v>0.3223665090980507</v>
       </c>
       <c r="L257" t="n">
-        <v>0.006907002642971449</v>
+        <v>0.03991050677399791</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1524887506398714</v>
+        <v>0.3242040772396819</v>
       </c>
       <c r="N257" t="n">
-        <v>0.007944909870108541</v>
+        <v>0.05728263373693593</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1514276224172025</v>
+        <v>0.323140669750312</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006455114607286941</v>
+        <v>0.02030947053080101</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05950763972657819</v>
+        <v>0.3217693932174902</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01354853040389355</v>
+        <v>0.02169600389212502</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1557574428423432</v>
+        <v>0.3240455013329364</v>
       </c>
       <c r="L258" t="n">
-        <v>0.007333511017210803</v>
+        <v>0.03878368457600087</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1532829628827874</v>
+        <v>0.3258926401419719</v>
       </c>
       <c r="N258" t="n">
-        <v>0.008745490588156546</v>
+        <v>0.05563687801066425</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1522163079506254</v>
+        <v>0.3248236940719282</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006174703609991797</v>
+        <v>0.01793510753088455</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05938010893426336</v>
+        <v>0.3234365921460783</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01363039848045274</v>
+        <v>0.02129178670494303</v>
       </c>
       <c r="K259" t="n">
-        <v>0.156564476224946</v>
+        <v>0.325724493567822</v>
       </c>
       <c r="L259" t="n">
-        <v>0.006770498757829035</v>
+        <v>0.03825343212536367</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1540771751257034</v>
+        <v>0.3275812030442619</v>
       </c>
       <c r="N259" t="n">
-        <v>0.008660855445535576</v>
+        <v>0.05458620227390898</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1530049934840483</v>
+        <v>0.3265067183935444</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.00590879438140271</v>
+        <v>0.01755898548724789</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0592525781419485</v>
+        <v>0.3251037910746663</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01371535237073809</v>
+        <v>0.0207856572475596</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1573715096075488</v>
+        <v>0.3274034858027077</v>
       </c>
       <c r="L260" t="n">
-        <v>0.00711826730843157</v>
+        <v>0.03751970602270788</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1548713873686194</v>
+        <v>0.329269765946552</v>
       </c>
       <c r="N260" t="n">
-        <v>0.009191530142984072</v>
+        <v>0.05423054449857373</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1537936790174712</v>
+        <v>0.3281897427151606</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.00565787816381437</v>
+        <v>0.01818108271781356</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05912504734963366</v>
+        <v>0.3267709900032544</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01360348612458312</v>
+        <v>0.02057759177213243</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1581785429901516</v>
+        <v>0.3290824780375934</v>
       </c>
       <c r="L261" t="n">
-        <v>0.006777118112623992</v>
+        <v>0.03658246286865535</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1556655996115354</v>
+        <v>0.330958328848842</v>
       </c>
       <c r="N261" t="n">
-        <v>0.009138040381240553</v>
+        <v>0.05326984265656193</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1545823645508942</v>
+        <v>0.3298727670367768</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005422446199521369</v>
+        <v>0.01880137754050404</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05899751655731882</v>
+        <v>0.3284381889318424</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01379489379182139</v>
+        <v>0.01986756653081935</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1589855763727544</v>
+        <v>0.330761470272479</v>
       </c>
       <c r="L262" t="n">
-        <v>0.007247352614011771</v>
+        <v>0.03604165926382774</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1564598118544514</v>
+        <v>0.332646891751132</v>
       </c>
       <c r="N262" t="n">
-        <v>0.009200911861043548</v>
+        <v>0.05210403471977704</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1553710500843171</v>
+        <v>0.331555791358393</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005202989730818383</v>
+        <v>0.0184198482732419</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05886998576500398</v>
+        <v>0.3301053878604304</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01378966942228643</v>
+        <v>0.01975555777577805</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1597926097553573</v>
+        <v>0.3324404625073648</v>
       </c>
       <c r="L263" t="n">
-        <v>0.006729272256200375</v>
+        <v>0.03489725180884681</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1572540240973674</v>
+        <v>0.334335454653422</v>
       </c>
       <c r="N263" t="n">
-        <v>0.009780670283131565</v>
+        <v>0.05033305866012261</v>
       </c>
       <c r="O263" t="n">
-        <v>0.15615973561774</v>
+        <v>0.3332388156800092</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.005000000000000004</v>
+        <v>0.01703647323394962</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05874245497268913</v>
+        <v>0.3317725867890184</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01378790706581177</v>
+        <v>0.01924154175916629</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1605996431379601</v>
+        <v>0.3341194547422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.006923178482795389</v>
+        <v>0.03424919710433416</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1580482363402834</v>
+        <v>0.336024017555712</v>
       </c>
       <c r="N264" t="n">
-        <v>0.009777841348243055</v>
+        <v>0.04935685244950205</v>
       </c>
       <c r="O264" t="n">
-        <v>0.156948421151163</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.005000000000000004</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05872929707795228</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005805977622296177</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0587295656064163</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006606982370652978</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05872983413488031</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007402948363862391</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05873010266334434</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008193809720612608</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05873037119180835</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008979500559695819</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05873063972027236</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009759954999869508</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05873090824873638</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01053510715992474</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.0587311767772004</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01130489115855153</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05873144530566442</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01206924111454118</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05873171383412843</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01282809114665116</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05873198236259245</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01358137537367159</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05873225089105647</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01432902791429436</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05873251941952049</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01507098288730985</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0587327879479845</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01580717441147549</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05873305647644852</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01653753660558047</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05873332500491255</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.0172620035883186</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05873359353337656</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.0179805094784793</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05873386206184057</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01869298839482003</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05873413059030459</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01939937445612885</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05873439911876861</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.02009960178110176</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05873466764723263</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02079360448852707</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05873493617569664</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02148131669716227</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05873520470416066</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02216267252579433</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05873547323262468</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02283760609312141</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0587357417610887</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.0235063205330044</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05873601028955271</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02417036405464297</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05873627881801673</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02482993979189689</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05873654734648075</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02548498186346621</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05873681587494477</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02613542438813719</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05873708440340878</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02678120148466731</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05873735293187279</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02742224727184181</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05873762146033682</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02805849586836236</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05873788998880083</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02868988139301444</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05873815851726485</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02931633796455549</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05873842704572887</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02993779970176993</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05873869557419289</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.03055420072336112</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05873896410265691</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03116547514811369</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05873923263112092</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03177155709478507</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05873950115958494</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03237238068215878</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05873976968804896</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03296788002893999</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05874003821651298</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03355798925391242</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05874030674497699</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03414264247583353</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.058740575273441</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03472177381348585</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05874084380190503</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03529531738557648</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05874111233036904</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03586320731088817</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05874138085883306</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03642537770817839</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05874164938729707</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03698176269622869</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0587419179157611</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03753229639374811</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05874218644422511</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03807691291951844</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05874245497268913</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03807691291951844</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05872929707795228</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03874530886052829</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05885736492719516</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03940753713153143</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05898543277643804</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.0400634328459846</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05911350062568092</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.0407128311173446</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.0592415684749238</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04135556705906819</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05936963632416668</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04199147578461217</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05949770417340955</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04262039240743329</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05962577202265243</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04324215204098834</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05975383987189531</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.04385658979873408</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05988190772113819</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.0444635407941273</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06000997557038107</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04506284014062477</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06013804341962394</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04565432295168326</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06026611126886682</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04623782434075954</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.0603941791181097</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.0468131794213104</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06052224696735258</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.0473802233067926</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06065031481659546</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04793879111066295</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06077838266583833</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04848871794637817</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06090645051508121</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04902983892739508</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06103451836432409</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04956198916717044</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06116258621356697</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.05008500377916103</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06129065406280985</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.0505987178768236</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06141872191205273</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.05110296657361493</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06154678976129561</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.05159758498299183</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06167485761053849</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.05208240821841106</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06180292545978137</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.0525579446800476</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06193099330902425</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.0530280692016671</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06205906115826712</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05349329018344468</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06218712900751001</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.053953442738837</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06231519685675289</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.05440836198130086</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06244326470599577</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05485788302429305</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06257133255523865</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05530184098127033</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06269940040448152</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.0557400709656895</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.0628274682537244</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05617240809100731</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06295553610296728</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05659868747068053</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06308360395221016</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05701874421816597</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06321167180145304</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05743241344692038</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06333973965069592</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05783953027040054</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.0634678074999388</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.0582399298020632</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06359587534918168</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05863344715536517</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06372394319842456</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05901991744376324</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06385201104766743</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05939917578071412</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06398007889691031</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05977105727967465</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06410814674615319</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.06013539705410158</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06423621459539607</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.06049203021745167</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06436428244463895</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.06084079188318171</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06449235029388183</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.06118151716474847</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06462041814312471</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.06151404117560874</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06474848599236759</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.06183819902921928</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06487655384161047</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.06215382583903686</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06500462169085335</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04810255055935792</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06500462169085335</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.06226346152094936</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06679407331357795</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.06236477593348361</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06858352493630256</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.06245809749306763</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07037297655902718</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.06254375461612953</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07216242818175178</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.06262207571909731</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07395187980447639</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.06269338921839905</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07574133142720101</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.06275802353046281</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07753078304992561</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.06281630707171662</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07932023467265022</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.06286856825858855</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08110968629537482</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.06291513550750663</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08289913791809944</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.06295633723489892</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08468858954082406</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.06299250185719352</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08647804116354867</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.0630239577908184</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08826749278627327</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.0630510334522017</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09005694440899789</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.0630740572577714</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.0918463960317225</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.06309335762395558</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.0936358476544471</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.06310926296718231</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09542529927717172</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.06312210170387961</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09721475089989633</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.06313220225047557</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09900420252262095</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.0631398930233982</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1007936541453455</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.06314550243907557</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1025831057680702</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.06314935891393578</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1043725573907948</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.06315179086440681</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1061620090135194</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.06315312670691674</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.107951460636244</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.06315369485789361</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1097409122589686</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.06315382373376553</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1115303638816932</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.06313732386020661</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1133198155044178</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0630521688376315</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1151092671271424</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.06289891194459452</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1168987187498671</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.06268248272723251</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1186881703725916</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.06240781073168229</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1204776219953163</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.0620798255040807</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1222670736180409</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.06170345659056455</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1240565252407655</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.06128363353727068</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1258459768634901</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.06082528589033587</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1276354284862147</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.060333343195897</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1294248801089393</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05981273500009086</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1312143317316639</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05926839084905429</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1330037833543885</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05870524028892411</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1347932349771132</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05812821286583714</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1365826865998377</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05754223812593021</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1383721382225624</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05695224561534012</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.140161589845287</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.05636316488020374</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1419510414680116</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.05577992546665787</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1437404930907362</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.05520745692083934</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1455299447134608</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05465068878888493</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1473193963361854</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05411455061693153</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05360397195111594</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1508982995816346</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.05312388233757495</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1526877512043593</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.05267921132244546</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1544772028270839</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.05225460966436576</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1562666544498085</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.05182528712043273</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1580561060725331</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.0513919350859465</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1598455576952577</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.05095538225476233</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1616350093179823</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.05051645732073554</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1634244609407069</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.05007598897772139</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1652139125634315</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04963480591957524</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1670033641861561</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.0491937368401523</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1687928158088808</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04875361043330791</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1705822674316054</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04831525539289733</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.17237171905433</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04787950041277586</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1741611706770546</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04744717418679881</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1759506222997792</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04701910540882143</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1777400739225038</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04659612277269905</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1795295255452284</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04617905497228693</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.181318977167953</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04576873070144039</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1831084287906777</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04536597865401468</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1848978804134022</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04497162752386512</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1866873320361269</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.044586506004847</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1884767836588515</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04421144279081558</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1902662352815761</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.0438472665756262</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1920556869043007</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04349480605313409</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1938451385270253</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.04315488991719461</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1956345901497499</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04282834686166299</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1974240417724745</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.04251600558039453</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1992134933951991</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04221846700210045</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2010029450179237</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.04192841790409678</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2027923966406484</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04164218067122936</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2045818482633729</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04135998036324293</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2063712998860976</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.04108204203988226</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2081607515088222</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.04080859076089209</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2099502031315468</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.04053985158601718</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2117396547542715</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.04027604957500226</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.213529106376996</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.04001740978759209</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2153185579997206</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03976415728353139</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2171080096224453</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03951651712256495</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2188974612451698</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03927471436443751</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2206869128678944</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03903897406889377</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2224763644906191</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03880952129567856</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2242658161133437</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03858658110453655</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2260552677360683</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03837037855521255</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2278447193587929</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03816113870745126</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2296341709815175</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03795908662099746</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2314236226042421</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03776444735559588</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2332130742269667</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03757744597099129</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2350025258496914</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.0373983075269284</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.236791977472416</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03722725708315199</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2385814290951405</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03706451969940677</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2403708807178652</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03691032043543756</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2421603323405898</v>
-      </c>
-    </row>
+        <v>0.3349218400016254</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1121.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003156718373792722</v>
+        <v>0.001102050996213529</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001667198928588032</v>
+        <v>0.0005745492754724039</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002943458912541011</v>
+        <v>0.00160633149726444</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.00167899223488568</v>
+        <v>0.0008783219665934154</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007176917230186541</v>
+        <v>0.003522401155007904</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.00168856290229001</v>
+        <v>0.0008580135012001506</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01151327930977186</v>
+        <v>0.005066219580184439</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001683024321616208</v>
+        <v>0.0008527414764474099</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004033199922706898</v>
+        <v>0.002192632484652388</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003334397857176065</v>
+        <v>0.001149098550944808</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006252919934697926</v>
+        <v>0.003074606393365015</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003357984469771361</v>
+        <v>0.001756643933186831</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01385256384224071</v>
+        <v>0.006519481397188637</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00337712580458002</v>
+        <v>0.001716027002400301</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02394445306992982</v>
+        <v>0.01040627802635441</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003974990836058574</v>
+        <v>0.00170548295289482</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.009025637639839476</v>
+        <v>0.003260274957541873</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.005636792757255998</v>
+        <v>0.001723647826417212</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008566397263928105</v>
+        <v>0.004872586808286367</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.005036976704657042</v>
+        <v>0.002634965899780246</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0187799660084674</v>
+        <v>0.009989628535559264</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.005240581812921388</v>
+        <v>0.002574040503600452</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02634280844821396</v>
+        <v>0.01590228270958821</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.005049072964848625</v>
+        <v>0.00255822442934223</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007960734478373602</v>
+        <v>0.004293508907107307</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006668795714352129</v>
+        <v>0.002298197101889616</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01027823999999999</v>
+        <v>0.006468034862013264</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006419082074999996</v>
+        <v>0.003513287866373662</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02036824006852414</v>
+        <v>0.01345897563940165</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00675425160916004</v>
+        <v>0.003635885928007344</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0292314674580505</v>
+        <v>0.0207819781361655</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006732097286464833</v>
+        <v>0.003599991700581349</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.009025637639839476</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008262284319755633</v>
+        <v>0.005280864825574022</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008335994642940162</v>
+        <v>0.00287274637736202</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01161505634632862</v>
+        <v>0.007728712674530319</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008394961174428402</v>
+        <v>0.004391609832967078</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0222702380736369</v>
+        <v>0.01472607979794607</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008442814511450051</v>
+        <v>0.004290067506000752</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03238390720929174</v>
+        <v>0.02299521189297404</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008415121608081041</v>
+        <v>0.00426370738223705</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01036364801209808</v>
+        <v>0.006210873205167319</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.01000319357152819</v>
+        <v>0.003447295652834424</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01287424631690813</v>
+        <v>0.009022382365822285</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.01007395340931408</v>
+        <v>0.005269931799560492</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02362197807501473</v>
+        <v>0.01681880723103429</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01013137741374006</v>
+        <v>0.005148081007200904</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03444589362390821</v>
+        <v>0.02592677298103135</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.01009814592969725</v>
+        <v>0.005116448858684459</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01133139774939594</v>
+        <v>0.007072064538112516</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01167039250011623</v>
+        <v>0.004021844928306828</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01347168470692736</v>
+        <v>0.01027823999999999</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01175294564419976</v>
+        <v>0.006419082074999996</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02501509235879371</v>
+        <v>0.01864842523994711</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01181994031603007</v>
+        <v>0.006006094508401054</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03556319262387042</v>
+        <v>0.02799414492852825</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01178117025131346</v>
+        <v>0.005969190335131869</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01123210572564418</v>
+        <v>0.007852969316634956</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01333759142870426</v>
+        <v>0.004596394203779232</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01456867717209871</v>
+        <v>0.01061754982929365</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01343193787908544</v>
+        <v>0.007026575732747323</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02624121321110992</v>
+        <v>0.01963825642055309</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01350850321832008</v>
+        <v>0.006864108009601205</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03788157013114868</v>
+        <v>0.03083867992867462</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01346419457292967</v>
+        <v>0.006821931811579279</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01413234413483776</v>
+        <v>0.0085421180329599</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01500479035729229</v>
+        <v>0.005170943479251636</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01512652936813468</v>
+        <v>0.01142608215966102</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01511093011397112</v>
+        <v>0.007904897699340739</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02679197291809948</v>
+        <v>0.02151162336872051</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01519706612061009</v>
+        <v>0.007722121510801355</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03924679206771348</v>
+        <v>0.03290173017468068</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01514721889454587</v>
+        <v>0.007674673288026689</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01624614775171106</v>
+        <v>0.009025637639839476</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01691037827176799</v>
+        <v>0.005636792757255998</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01600654695074767</v>
+        <v>0.01216095923698904</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0167899223488568</v>
+        <v>0.008783219665934155</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02765900376589853</v>
+        <v>0.02309184868031786</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0168856290229001</v>
+        <v>0.008580135012001505</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04070462435553523</v>
+        <v>0.03512464785975644</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01683024321616208</v>
+        <v>0.008527414764474099</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01616816918525812</v>
+        <v>0.009667957543986888</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01833918821446836</v>
+        <v>0.006320042030196443</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0174216733554011</v>
+        <v>0.01273392063929119</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01925724622499999</v>
+        <v>0.009661541632527569</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02903393804064308</v>
+        <v>0.02440225495121356</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01857419192519011</v>
+        <v>0.009438148513201657</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04270083291658433</v>
+        <v>0.03644878517711192</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01851326753777829</v>
+        <v>0.009380156240921509</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01730647935076432</v>
+        <v>0.01018642735424961</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02000638714305639</v>
+        <v>0.006894591305668848</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01767053574311966</v>
+        <v>0.01295670594458086</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02014790681862817</v>
+        <v>0.01053986359912098</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02990840802846931</v>
+        <v>0.0256661647772761</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02026275482748012</v>
+        <v>0.01029616201440181</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04517821333949024</v>
+        <v>0.03831549431995712</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02005963148437498</v>
+        <v>0.01023289771736892</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.018491235135074</v>
+        <v>0.01068531082208955</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02167358607164442</v>
+        <v>0.007469140581141252</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01879288009731984</v>
+        <v>0.01374105473087152</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02182689905351385</v>
+        <v>0.0114181855657144</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03129994334744568</v>
+        <v>0.02680690075437389</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02116180903846152</v>
+        <v>0.01115417551560196</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04716849927999783</v>
+        <v>0.04046612748150225</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02187931618101071</v>
+        <v>0.01108563919381633</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01970057674638448</v>
+        <v>0.01116479918764764</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02334078500023245</v>
+        <v>0.008043689856613656</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02010560459088798</v>
+        <v>0.01419870657617658</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02350589128839953</v>
+        <v>0.01229650753230782</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03351968708700823</v>
+        <v>0.02784778547837524</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02363988063206014</v>
+        <v>0.01201218901680211</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05055913776176879</v>
+        <v>0.04264203685495727</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02356234050262691</v>
+        <v>0.01193838067026374</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01991264439289296</v>
+        <v>0.01162508369106481</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02500798392882049</v>
+        <v>0.008618239132086059</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02148002196852075</v>
+        <v>0.01464140105850954</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02518488352328521</v>
+        <v>0.01317482949890123</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0359993294470502</v>
+        <v>0.02921214154514867</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02532844353435015</v>
+        <v>0.01287020251800226</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05337303588382636</v>
+        <v>0.04517821333949024</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02524536482424312</v>
+        <v>0.01304344819051214</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02210557828279676</v>
+        <v>0.01206635557248205</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02667518285740852</v>
+        <v>0.009192788407558463</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02288744497491477</v>
+        <v>0.01508087775588378</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02686387575817089</v>
+        <v>0.01405315146549465</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03774661237660401</v>
+        <v>0.03129994334744568</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02701700643664016</v>
+        <v>0.01409258111630752</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05763057616297373</v>
+        <v>0.04623099179980888</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02692838914585933</v>
+        <v>0.01364386362315856</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02425751862429307</v>
+        <v>0.01248880607204024</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02834238178599655</v>
+        <v>0.009767337683030867</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02399918635476669</v>
+        <v>0.01532887624631279</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02854286799305657</v>
+        <v>0.01493147343208806</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0401000298407331</v>
+        <v>0.0318047819609957</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02870556933893017</v>
+        <v>0.01458622952040256</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0604521411160141</v>
+        <v>0.04838309420283243</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02861141346747554</v>
+        <v>0.01449660509960597</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02534660562557917</v>
+        <v>0.01289262642988036</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03000958071458458</v>
+        <v>0.01034188695850327</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02548655885277319</v>
+        <v>0.01589713610780995</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03022186022794225</v>
+        <v>0.01580979539868148</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04279807580450076</v>
+        <v>0.03356643397881726</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03039413224122018</v>
+        <v>0.01544424302160271</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06445811325975054</v>
+        <v>0.05102485481784824</v>
       </c>
       <c r="O83" t="n">
-        <v>0.03029443778909175</v>
+        <v>0.01534934657605338</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02635097949485231</v>
+        <v>0.01327800788614336</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03167677964317261</v>
+        <v>0.01091643623397568</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02672087521363092</v>
+        <v>0.01649739691838878</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03190085246282793</v>
+        <v>0.01668811736527489</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04487924423297052</v>
+        <v>0.03509766990522156</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03208269514351019</v>
+        <v>0.01630225652280286</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06686887511098627</v>
+        <v>0.05254013194765705</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03197746211070795</v>
+        <v>0.01620208805250079</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02624878044030976</v>
+        <v>0.01364514168097014</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03334397857176065</v>
+        <v>0.01149098550944808</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02777344818203649</v>
+        <v>0.01674139825606266</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03357984469771361</v>
+        <v>0.01756643933186831</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0472820290912056</v>
+        <v>0.03648673580944675</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0337712580458002</v>
+        <v>0.01716027002400301</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07020480918652455</v>
+        <v>0.05541278389505971</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03366048643232417</v>
+        <v>0.0170548295289482</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02601814867014876</v>
+        <v>0.01399421905450168</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03501117750034868</v>
+        <v>0.01206553478492048</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02891559050268659</v>
+        <v>0.0174216733554011</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03525883693259929</v>
+        <v>0.01813396572956723</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04944492434426942</v>
+        <v>0.03782187776073101</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03545982094809021</v>
+        <v>0.01801828352520316</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07318629800316834</v>
+        <v>0.05762666896285701</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03534351075394037</v>
+        <v>0.01790757100539561</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0256372243925666</v>
+        <v>0.01432543124687893</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03667837642893671</v>
+        <v>0.01264008406039289</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02971861492027784</v>
+        <v>0.01811512525837744</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03693782916748497</v>
+        <v>0.01932308326505514</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05150642395722541</v>
+        <v>0.03959134182831248</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03714838385038022</v>
+        <v>0.01887629702640331</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07583372407772088</v>
+        <v>0.06006564545384957</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03702653507555658</v>
+        <v>0.01876031248184302</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02808946726933495</v>
+        <v>0.01463896949824281</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03834557535752475</v>
+        <v>0.01321463333586529</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03035383417950692</v>
+        <v>0.01895703717891872</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03861682140237065</v>
+        <v>0.02020140523164855</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0532050218951369</v>
+        <v>0.04128337408142937</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03883694675267023</v>
+        <v>0.01973431052760347</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07786746992698534</v>
+        <v>0.06251357167083837</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03870955939717279</v>
+        <v>0.01961305395829043</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02648191423388868</v>
+        <v>0.01493502504873427</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04001277428611277</v>
+        <v>0.0137891826113377</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03079256299025664</v>
+        <v>0.01975871418730087</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04029581363725634</v>
+        <v>0.02107972719824197</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05427921212306727</v>
+        <v>0.0431862205893199</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04052550965496024</v>
+        <v>0.02059232402880361</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07970791806776478</v>
+        <v>0.06505430591662403</v>
       </c>
       <c r="O89" t="n">
-        <v>0.040392583718789</v>
+        <v>0.02046579543473784</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02786211796394222</v>
+        <v>0.01521378913849425</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04167997321470081</v>
+        <v>0.0143637318868101</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03141906089562357</v>
+        <v>0.02071131003640496</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04197480587214202</v>
+        <v>0.02195804916483539</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05536752138888035</v>
+        <v>0.04508812742122215</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04221407255725025</v>
+        <v>0.02145033753000376</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08047722077177122</v>
+        <v>0.06747170649400747</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0420756080404052</v>
+        <v>0.02131853691118525</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02922739356747589</v>
+        <v>0.0154754530076637</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04334717214328884</v>
+        <v>0.0149382811622825</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03173291730725296</v>
+        <v>0.02130597847911203</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04365379810702769</v>
+        <v>0.0228363711314288</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05613791434466442</v>
+        <v>0.04677734064637437</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04390263545954026</v>
+        <v>0.02230835103120392</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08226763761230782</v>
+        <v>0.06964963170578936</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04375863236202141</v>
+        <v>0.02217127838763266</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02957505615246998</v>
+        <v>0.01572020789638355</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04501437107187687</v>
+        <v>0.01551283043775491</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03233119152943909</v>
+        <v>0.02233387326830309</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04533279034191338</v>
+        <v>0.02371469309802222</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0570852617585712</v>
+        <v>0.04844210633401469</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04559119836183027</v>
+        <v>0.02316636453240407</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08282063557599895</v>
+        <v>0.07187193985477053</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04544165668363762</v>
+        <v>0.02302401986408007</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02990242082690481</v>
+        <v>0.01594824504479478</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0466815700004649</v>
+        <v>0.01608737971322731</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03251094286647621</v>
+        <v>0.02318614815685925</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04701178257679905</v>
+        <v>0.02459301506461563</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05800418948485653</v>
+        <v>0.04987067055338129</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04727976126412028</v>
+        <v>0.02402437803360422</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08432853372260879</v>
+        <v>0.0741224892437517</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04712468100525383</v>
+        <v>0.02387676134052748</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03020680269876067</v>
+        <v>0.01624614775171106</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04834876892905294</v>
+        <v>0.01691037827176799</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03286923062265869</v>
+        <v>0.02445395689766147</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04869077481168473</v>
+        <v>0.02547133703120905</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05858932337777631</v>
+        <v>0.05145127937371236</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0489683241664103</v>
+        <v>0.02488239153480437</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08538365111190138</v>
+        <v>0.07668513817553368</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04880770532687004</v>
+        <v>0.02472950281697489</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02948551687601783</v>
+        <v>0.01635734608636816</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05001596785764097</v>
+        <v>0.01723647826417212</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03310311410228078</v>
+        <v>0.02512845324359086</v>
       </c>
       <c r="K95" t="n">
-        <v>0.05036976704657042</v>
+        <v>0.02634965899780246</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05913528929158646</v>
+        <v>0.05287217886424611</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0506568870687003</v>
+        <v>0.02574040503600452</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08617830680364108</v>
+        <v>0.07844374495291734</v>
       </c>
       <c r="O95" t="n">
-        <v>0.05049072964848624</v>
+        <v>0.0255822442934223</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02873587846665662</v>
+        <v>0.01655228682879607</v>
       </c>
       <c r="G96" t="n">
-        <v>0.051683166786229</v>
+        <v>0.01781102753964452</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03340965260963681</v>
+        <v>0.02630079094752844</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05204875928145609</v>
+        <v>0.02722798096439588</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06003671308054287</v>
+        <v>0.05412161509422064</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05234544997099031</v>
+        <v>0.02659841853720467</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08700481985759201</v>
+        <v>0.08008216787870331</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05217375397010245</v>
+        <v>0.02643498576986971</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03195520257865736</v>
+        <v>0.01674594093938721</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05335036571481704</v>
+        <v>0.01838557681511693</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03398590544902107</v>
+        <v>0.02716212376235523</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05372775151634177</v>
+        <v>0.02810630293098929</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06048822059890138</v>
+        <v>0.05568783413287418</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05403401287328032</v>
+        <v>0.02745643203840482</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08735550933351832</v>
+        <v>0.08208426525569251</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05385677829171866</v>
+        <v>0.02728772724631712</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03214080432000031</v>
+        <v>0.01693826221824467</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05501756464340507</v>
+        <v>0.01896012609058933</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03422893192472784</v>
+        <v>0.02830360544095233</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05540674375122746</v>
+        <v>0.02898462489758271</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06068443770091797</v>
+        <v>0.05665908204944486</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05572257577557033</v>
+        <v>0.02831444553960497</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08782269429118422</v>
+        <v>0.08443389538668555</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05553980261333486</v>
+        <v>0.02814046872276453</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0322899987986658</v>
+        <v>0.01712920446547157</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0566847635719931</v>
+        <v>0.01953467536606173</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03423579134105144</v>
+        <v>0.02891638973620073</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05708573598611313</v>
+        <v>0.02986294686417612</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06101999024084848</v>
+        <v>0.05842360491317089</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05741113867786034</v>
+        <v>0.02917245904080512</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0884986937903538</v>
+        <v>0.08511491657448339</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05722282693495108</v>
+        <v>0.02899321019921194</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02940010112263411</v>
+        <v>0.01731872148117106</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05835196250058113</v>
+        <v>0.02010922464153414</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03430354300228616</v>
+        <v>0.02999163040098149</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05876472822099882</v>
+        <v>0.03074126883076954</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06168950407294885</v>
+        <v>0.05896964879329042</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05909970158015035</v>
+        <v>0.03003047254200527</v>
       </c>
       <c r="N100" t="n">
-        <v>0.08887582689079138</v>
+        <v>0.08641118712188661</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05890585125656729</v>
+        <v>0.02984595167565935</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03249229550342211</v>
+        <v>0.01750676706544624</v>
       </c>
       <c r="G101" t="n">
-        <v>0.06001916142916917</v>
+        <v>0.02068377391700654</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03472924621272633</v>
+        <v>0.03092048118817568</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0604437204558845</v>
+        <v>0.03161959079736296</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06168760505147491</v>
+        <v>0.06018545975904163</v>
       </c>
       <c r="M101" t="n">
-        <v>0.06078826448244037</v>
+        <v>0.03088848604320542</v>
       </c>
       <c r="N101" t="n">
-        <v>0.089946412652261</v>
+        <v>0.08750656533169626</v>
       </c>
       <c r="O101" t="n">
-        <v>0.06058887557818349</v>
+        <v>0.03069869315210676</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03049228973840042</v>
+        <v>0.01769329501840021</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0616863603577572</v>
+        <v>0.02125832319247895</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03484334671080218</v>
+        <v>0.03159409585066431</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06212271269077017</v>
+        <v>0.03249791276395637</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06210891903068261</v>
+        <v>0.06055928387966278</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06247682738473038</v>
+        <v>0.03174649954440557</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0895027701345269</v>
+        <v>0.08838490950671296</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0622718998997997</v>
+        <v>0.03155143462855416</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03148131483201115</v>
+        <v>0.01787825914013612</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06335355928634523</v>
+        <v>0.02183287246795135</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03474274449840008</v>
+        <v>0.03230362814132845</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06380170492565586</v>
+        <v>0.03337623473054979</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06259988669489136</v>
+        <v>0.06147936722439187</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06416539028702038</v>
+        <v>0.03260451304560572</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09035642667898047</v>
+        <v>0.08973007794973742</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06395492422141591</v>
+        <v>0.03240417610500158</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03044860112391488</v>
+        <v>0.01806161323075707</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06502075821493325</v>
+        <v>0.02240742174342376</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03483448933853164</v>
+        <v>0.03284023181304911</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06548069716054154</v>
+        <v>0.0342545566971432</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06229968940816646</v>
+        <v>0.06163395586246723</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06585395318931039</v>
+        <v>0.03346252654680587</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08944952096070569</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06563794854303212</v>
+        <v>0.03325691758144898</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03139556656729318</v>
+        <v>0.01824331109036617</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0666879571435213</v>
+        <v>0.02298197101889616</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03450208656963465</v>
+        <v>0.03339506061870737</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06715968939542721</v>
+        <v>0.03513287866373662</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06228029600394258</v>
+        <v>0.06259988669489136</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0675425160916004</v>
+        <v>0.03432054004800602</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08978855599505858</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06732097286464833</v>
+        <v>0.0341096590578964</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03232362617766839</v>
+        <v>0.01842330651906654</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06835515607210933</v>
+        <v>0.02355652029436857</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03454739127161356</v>
+        <v>0.03405926831118426</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0688386816303129</v>
+        <v>0.03601120063033003</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06191774088875904</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0692310789938904</v>
+        <v>0.03517855354920617</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08986796162603372</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06900399718626453</v>
+        <v>0.0349624005343438</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03223419497056289</v>
+        <v>0.01860155331696134</v>
       </c>
       <c r="G107" t="n">
-        <v>0.07002235500069735</v>
+        <v>0.02413106956984097</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03437195327591029</v>
+        <v>0.03422400864336078</v>
       </c>
       <c r="K107" t="n">
-        <v>0.07051767386519858</v>
+        <v>0.03688952259692344</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06211495673133502</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M107" t="n">
-        <v>0.07091964189618043</v>
+        <v>0.03603656705040632</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0899917859306415</v>
+        <v>0.09015642667898049</v>
       </c>
       <c r="O107" t="n">
-        <v>0.07068702150788074</v>
+        <v>0.03581514201079122</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03012868796149905</v>
+        <v>0.01877800528415362</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07168955392928539</v>
+        <v>0.02470561884531337</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03457732241396666</v>
+        <v>0.03438043536811808</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07219666610008425</v>
+        <v>0.03776784456351686</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06207477586145935</v>
+        <v>0.06239988669489135</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07260820479847044</v>
+        <v>0.03689458055160647</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08906407698589219</v>
+        <v>0.08955642667898045</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07237004582949695</v>
+        <v>0.03666788348723862</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03200852016599927</v>
+        <v>0.01895261622074654</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07335675285787342</v>
+        <v>0.02528016812078577</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03416504851722457</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07387565833496994</v>
+        <v>0.03864616653011028</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06180003060892106</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07429676770076045</v>
+        <v>0.03775259405280663</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0892888828687961</v>
+        <v>0.08945642667898046</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07405307015111316</v>
+        <v>0.03752062496368604</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02887510659958588</v>
+        <v>0.01912533992684322</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07502395178646146</v>
+        <v>0.02585471739625818</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03403668141712587</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07555465056985562</v>
+        <v>0.0395244884967037</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06179355330350902</v>
+        <v>0.06229988669489137</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07598533060305045</v>
+        <v>0.03861060755400678</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08827025165636354</v>
+        <v>0.08965642667898049</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07573609447272936</v>
+        <v>0.03837336644013344</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0317298622777813</v>
+        <v>0.01929613020254677</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07669115071504949</v>
+        <v>0.02642926667173058</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03419377094511243</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07723364280474129</v>
+        <v>0.04040281046329711</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06155817627501212</v>
+        <v>0.06249988669489137</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07767389350534046</v>
+        <v>0.03946862105520693</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08811223142560487</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07741911879434557</v>
+        <v>0.03922610791658086</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03057420221610789</v>
+        <v>0.01946494084796031</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07835834964363751</v>
+        <v>0.02700381594720298</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03403786693262613</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07891263503962698</v>
+        <v>0.04128113242989052</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06139673185321931</v>
+        <v>0.06249988669489137</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07936245640763047</v>
+        <v>0.04032663455640708</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08751887025353028</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0791021431159618</v>
+        <v>0.04007884939302826</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03040954143008801</v>
+        <v>0.01963172566318694</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08002554857222555</v>
+        <v>0.02757836522267539</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0335705192111088</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K113" t="n">
-        <v>0.08059162727451268</v>
+        <v>0.04215945439648393</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06071205236791943</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M113" t="n">
-        <v>0.08105101930992048</v>
+        <v>0.04118464805760723</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08769421621715034</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O113" t="n">
-        <v>0.08078516743757799</v>
+        <v>0.04093159086947568</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02823729493524404</v>
+        <v>0.01979643844832979</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0816927475008136</v>
+        <v>0.02815291449814779</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03339327761200235</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08227061950939835</v>
+        <v>0.04303777636307735</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06070697014890153</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08273958221221049</v>
+        <v>0.04204266155880738</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0868423173934752</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08246819175919419</v>
+        <v>0.04178433234592309</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03005887774709838</v>
+        <v>0.01995903300349199</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08335994642940162</v>
+        <v>0.0287274637736202</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03340769196674861</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08394961174428403</v>
+        <v>0.04391609832967077</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06038431752595441</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0844281451145005</v>
+        <v>0.04290067506000753</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08696722185951505</v>
+        <v>0.08945642667898046</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0841512160808104</v>
+        <v>0.0426370738223705</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02787570488117339</v>
+        <v>0.02011946312877666</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08502714535798965</v>
+        <v>0.02930201304909261</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03301531210678947</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08562860397916972</v>
+        <v>0.04479442029626418</v>
       </c>
       <c r="L116" t="n">
-        <v>0.060046926828867</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08611670801679051</v>
+        <v>0.04375868856120768</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08587297769228042</v>
+        <v>0.09025642667898048</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08583424040242663</v>
+        <v>0.04348981529881791</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02868919135299142</v>
+        <v>0.02027768262428689</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08669434428657768</v>
+        <v>0.02987656232456501</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03291768786356677</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08730759621405539</v>
+        <v>0.0456727422628576</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05969763038742823</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08780527091908052</v>
+        <v>0.04461670206240783</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08576363296878148</v>
+        <v>0.09025642667898048</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08751726472404282</v>
+        <v>0.04434255677526532</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02850075217807486</v>
+        <v>0.02043364529012581</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08836154321516572</v>
+        <v>0.03045111160003741</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03261636906852243</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08898658844894107</v>
+        <v>0.04655106422945102</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05913926053142704</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08949383382137054</v>
+        <v>0.04547471556360799</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08514323576602867</v>
+        <v>0.08995642667898046</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08920028904565902</v>
+        <v>0.04519529825171273</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02931180237194611</v>
+        <v>0.02058730492639654</v>
       </c>
       <c r="G119" t="n">
-        <v>0.09002874214375374</v>
+        <v>0.03102566087550981</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03251290555309826</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K119" t="n">
-        <v>0.09066558068382675</v>
+        <v>0.04742938619604443</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05887464959065228</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M119" t="n">
-        <v>0.09118239672366055</v>
+        <v>0.04633272906480813</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08461583416103219</v>
+        <v>0.09015642667898049</v>
       </c>
       <c r="O119" t="n">
-        <v>0.09088331336727525</v>
+        <v>0.04604803972816014</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02812375695012753</v>
+        <v>0.02073861533320225</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09169594107234177</v>
+        <v>0.03160021015098222</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03250884714873616</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09234457291871243</v>
+        <v>0.04830770816263785</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05820662989489295</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09287095962595056</v>
+        <v>0.04719074256600828</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08398547623080249</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09256633768889146</v>
+        <v>0.04690078120460755</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02993782413227086</v>
+        <v>0.02088753031064595</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09336314000092981</v>
+        <v>0.03217475942645463</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03200574368687797</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09402356515359811</v>
+        <v>0.04918603012923126</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05823803377393788</v>
+        <v>0.06229988669489137</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09455952252824056</v>
+        <v>0.04804875606720843</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08395621005234977</v>
+        <v>0.08975642667898048</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09424936201050765</v>
+        <v>0.04775352268105496</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02873485161190922</v>
+        <v>0.02103400365883085</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09503033892951784</v>
+        <v>0.03274930870192703</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03200494121901015</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09570255738848379</v>
+        <v>0.05006435209582467</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05787169355757604</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09624808543053058</v>
+        <v>0.04890676956840858</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08263208370268432</v>
+        <v>0.09025642667898048</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09593238633212386</v>
+        <v>0.04860626415750237</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02650485831229249</v>
+        <v>0.02117798917786003</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09669753785810588</v>
+        <v>0.03332385797739943</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03188577498300772</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09738154962336946</v>
+        <v>0.05094267406241809</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05720735337933094</v>
+        <v>0.06239988669489135</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09793664833282059</v>
+        <v>0.04976478306960874</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08248842748964108</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09761541065374008</v>
+        <v>0.04945900563394977</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02725245452313679</v>
+        <v>0.0213194406678366</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0983647367866939</v>
+        <v>0.03389840725287183</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03153723449544468</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09906054185825515</v>
+        <v>0.05182099602901151</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05660006157297939</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09962521123511059</v>
+        <v>0.05062279657080888</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08186665867723136</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09929843497535629</v>
+        <v>0.05031174711039719</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02898225053415816</v>
+        <v>0.02145831192886372</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1000319357152819</v>
+        <v>0.03447295652834424</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03126436929241809</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1007395340931408</v>
+        <v>0.05269931799560493</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05674124553269663</v>
+        <v>0.06249988669489137</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1013137741374006</v>
+        <v>0.05148081007200903</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08107708354341575</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1009814592969725</v>
+        <v>0.05116448858684459</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02769885663507275</v>
+        <v>0.02159455676104445</v>
       </c>
       <c r="G126" t="n">
-        <v>0.10169913464387</v>
+        <v>0.03504750580381664</v>
       </c>
       <c r="J126" t="n">
-        <v>0.030872228910025</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1024185263280265</v>
+        <v>0.05357763996219835</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05594013332749809</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1030023370396906</v>
+        <v>0.05233882357320919</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08013289120698175</v>
+        <v>0.08945642667898046</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1026644836185887</v>
+        <v>0.05201723006329201</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02840688311559664</v>
+        <v>0.02172812896448197</v>
       </c>
       <c r="G127" t="n">
-        <v>0.103366333572458</v>
+        <v>0.03562205507928904</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03056586288436244</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1040975185629122</v>
+        <v>0.05445596192879176</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05550595302639919</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1046908999419806</v>
+        <v>0.05319683707440934</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07934727078671666</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1043475079402049</v>
+        <v>0.05286997153973941</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0281109402654459</v>
+        <v>0.02185898233927933</v>
       </c>
       <c r="G128" t="n">
-        <v>0.105033532501046</v>
+        <v>0.03619660435476145</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03015032075152753</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1057765107977979</v>
+        <v>0.05533428389538517</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05454793269841554</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1063794628442706</v>
+        <v>0.05405485057560949</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07843341140140786</v>
+        <v>0.09015642667898049</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1060305322618211</v>
+        <v>0.05372271301618682</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02581563837433665</v>
+        <v>0.02198707068553972</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1067007314296341</v>
+        <v>0.03677115363023385</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03003065204761722</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1074555030326835</v>
+        <v>0.05621260586197858</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05437530041256239</v>
+        <v>0.06229988669489137</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1080680257465606</v>
+        <v>0.05491286407680964</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07760450216984283</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1077135565834373</v>
+        <v>0.05457545449263423</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02552558773198497</v>
+        <v>0.02211234780336618</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1083679303582221</v>
+        <v>0.03734570290570625</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02971190630872861</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1091344952675692</v>
+        <v>0.057090927828572</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05379728423785535</v>
+        <v>0.06239988669489135</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1097565886488507</v>
+        <v>0.05577087757800978</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07717373221080892</v>
+        <v>0.08995642667898046</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1093965809050535</v>
+        <v>0.05542819596908165</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02524539862810697</v>
+        <v>0.02223476749286191</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1100351292868101</v>
+        <v>0.03792025218117866</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0291991330709588</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1108134875024549</v>
+        <v>0.05796924979516541</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05332311224330982</v>
+        <v>0.06239988669489135</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1114451515511407</v>
+        <v>0.05662889107920993</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0759542906430935</v>
+        <v>0.08945642667898046</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1110796052266697</v>
+        <v>0.05628093744552905</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02697818007824766</v>
+        <v>0.02235428355412995</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1117023282153982</v>
+        <v>0.03849480145665107</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02919738187040473</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1124924797373406</v>
+        <v>0.05884757176175883</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05266201249794128</v>
+        <v>0.06229988669489137</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1131337144534307</v>
+        <v>0.05748690458041009</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07505936658548412</v>
+        <v>0.08955642667898045</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1127626295482859</v>
+        <v>0.05713367892197647</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02669493211125466</v>
+        <v>0.0224708497872735</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1133695271439862</v>
+        <v>0.03906935073212347</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02880898965369168</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1141714719722263</v>
+        <v>0.05972589372835224</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05172321307076519</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1148222773557207</v>
+        <v>0.05834491808161024</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07430214885925895</v>
+        <v>0.09015642667898049</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1144456538699022</v>
+        <v>0.05798642039842387</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02538789304927222</v>
+        <v>0.02258441999239562</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1150367260725742</v>
+        <v>0.03964390000759587</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02860087412542056</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K134" t="n">
-        <v>0.115850464207112</v>
+        <v>0.06060421569494567</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05169989351647494</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1165108402580107</v>
+        <v>0.05920293158281039</v>
       </c>
       <c r="N134" t="n">
-        <v>0.07432569857772892</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1161286781915184</v>
+        <v>0.05883916187487129</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02306366252337951</v>
+        <v>0.02269494796959942</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1167039250011623</v>
+        <v>0.04021844928306828</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02826746102678246</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1175294564419976</v>
+        <v>0.06148253766153908</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05122995147028106</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1181994031603007</v>
+        <v>0.06006094508401054</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07307745052093562</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1178117025131346</v>
+        <v>0.05969190335131869</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02372884016465573</v>
+        <v>0.02280238751898805</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1183711239297503</v>
+        <v>0.04079299855854068</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02761597877017954</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1192084486768833</v>
+        <v>0.0623608596281325</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05031751639036264</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1198879660625907</v>
+        <v>0.06091895858521069</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07187628491628706</v>
+        <v>0.08995642667898046</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1194947268347508</v>
+        <v>0.06054464482776611</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02339002560418005</v>
+        <v>0.02290669244066464</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1200383228583383</v>
+        <v>0.04136754783401309</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02755365576801405</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K137" t="n">
-        <v>0.120887440911769</v>
+        <v>0.06323918159472591</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04967579826021856</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1215765289648807</v>
+        <v>0.06177697208641084</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07134108199119127</v>
+        <v>0.09015642667898049</v>
       </c>
       <c r="O137" t="n">
-        <v>0.121177751156367</v>
+        <v>0.06139738630421351</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02305381847303163</v>
+        <v>0.02300781653473227</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1217055217869264</v>
+        <v>0.04194209710948549</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02698772043268813</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1225664331466547</v>
+        <v>0.06411750356131933</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04931800706334794</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1232650918671707</v>
+        <v>0.06263498558761099</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07049072197305606</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1228607754779832</v>
+        <v>0.06225012778066093</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0237268184022897</v>
+        <v>0.02310571360129407</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1233727207155144</v>
+        <v>0.0425166463849579</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02672540117660401</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1242454253815403</v>
+        <v>0.06499582552791273</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04825735278324966</v>
+        <v>0.06249988669489137</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1249536547694608</v>
+        <v>0.06349299908881115</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06974408508928942</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1245437997995994</v>
+        <v>0.06310286925710833</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02441562502303339</v>
+        <v>0.02320033744045318</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1250399196441024</v>
+        <v>0.0430911956604303</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02617392641216389</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K140" t="n">
-        <v>0.125924417616426</v>
+        <v>0.06587414749450615</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04800704540342288</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1266422176717507</v>
+        <v>0.06435101259001129</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06852005156729923</v>
+        <v>0.09025642667898048</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1262268241212156</v>
+        <v>0.06395561073355575</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02112683796634192</v>
+        <v>0.02329164185231269</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1267071185726905</v>
+        <v>0.0436657449359027</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02594052455176993</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1276034098513117</v>
+        <v>0.06675246946109957</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04688029490736642</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1283307805740408</v>
+        <v>0.06520902609121144</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06753750163449351</v>
+        <v>0.08965642667898049</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1279098484428318</v>
+        <v>0.06480835221000315</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02286705686329443</v>
+        <v>0.02337958063697573</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1283743175012785</v>
+        <v>0.0442402942113751</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02553242400782436</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1292824020861974</v>
+        <v>0.06763079142769297</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04619031127857945</v>
+        <v>0.06239988669489135</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1300193434763308</v>
+        <v>0.0660670395924116</v>
       </c>
       <c r="N142" t="n">
-        <v>0.06681531551828013</v>
+        <v>0.08945642667898046</v>
       </c>
       <c r="O142" t="n">
-        <v>0.129592872764448</v>
+        <v>0.06566109368645057</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02064288134497012</v>
+        <v>0.02346410759454542</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1300415164298665</v>
+        <v>0.04481484348684751</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02555685319272935</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1309613943210831</v>
+        <v>0.06850911339428641</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04595030450056081</v>
+        <v>0.06229988669489137</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1317079063786208</v>
+        <v>0.06692505309361174</v>
       </c>
       <c r="N143" t="n">
-        <v>0.06587237344606706</v>
+        <v>0.09015642667898049</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1312758970860642</v>
+        <v>0.06651383516289797</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02146091104244817</v>
+        <v>0.02354517652512488</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1317087153584545</v>
+        <v>0.04538939276231992</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02512104051888714</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1326403865559688</v>
+        <v>0.06938743536087982</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04517348455680964</v>
+        <v>0.06229988669489137</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1333964692809108</v>
+        <v>0.0677830665948119</v>
       </c>
       <c r="N144" t="n">
-        <v>0.06542755564526215</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1329589214076805</v>
+        <v>0.06736657663934538</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02332774558680777</v>
+        <v>0.0236227412288172</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1333759142870426</v>
+        <v>0.04596394203779232</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02513221439869988</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1343193787908544</v>
+        <v>0.07026575732747324</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04487306143082484</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1350850321832008</v>
+        <v>0.06864108009601204</v>
       </c>
       <c r="N145" t="n">
-        <v>0.06459974234327337</v>
+        <v>0.09035642667898047</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1346419457292967</v>
+        <v>0.06821931811579279</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02224998460912808</v>
+        <v>0.02369675550572556</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1350431132156306</v>
+        <v>0.04653849131326473</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02499760324456977</v>
+        <v>0.03484334671080218</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1359983710257401</v>
+        <v>0.07114407929406664</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04506224510610551</v>
+        <v>0.06209988669489136</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1367735950854908</v>
+        <v>0.06949909359721219</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06450781376750864</v>
+        <v>0.08985642667898047</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1363249700509128</v>
+        <v>0.06907205959224021</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02123231328627224</v>
+        <v>0.02376717315595302</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1367103121442187</v>
+        <v>0.04711304058873713</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02482443546889902</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1376773632606258</v>
+        <v>0.07202240126066006</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0447542455661506</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1384621579877808</v>
+        <v>0.07035710709841235</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06387065014537596</v>
+        <v>0.08945642667898046</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1380079943725291</v>
+        <v>0.06992480106868761</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02223954387608987</v>
+        <v>0.02383394797960271</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1383775110728067</v>
+        <v>0.04768758986420953</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02481398426979255</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1393563554955115</v>
+        <v>0.07290072322725348</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0442622727944591</v>
+        <v>0.06219988669489135</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1401507208900708</v>
+        <v>0.07121512059961251</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06370517594511055</v>
+        <v>0.09005642667898045</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1396910186941453</v>
+        <v>0.07077754254513502</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02025592064193289</v>
+        <v>0.02389703377677777</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1400447100013947</v>
+        <v>0.04826213913968194</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02462363913460781</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1410353477303972</v>
+        <v>0.07377904519384688</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04456461804505954</v>
+        <v>0.06199988669489137</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1418392837923609</v>
+        <v>0.07207313410081265</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06432292722257582</v>
+        <v>0.09025631577342441</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1413740430157615</v>
+        <v>0.07163028402158243</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02028095864531364</v>
+        <v>0.02395638434758129</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1417119089299828</v>
+        <v>0.04883668841515434</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02494314284208804</v>
+        <v>0.03454334671080218</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1427143399652828</v>
+        <v>0.0746573671604403</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04438835199024113</v>
+        <v>0.06239939400385652</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1435278466946509</v>
+        <v>0.0729311476020128</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06446672374024054</v>
+        <v>0.09005220851926521</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1430570673373777</v>
+        <v>0.07248302549802985</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02331417294774446</v>
+        <v>0.02401195349211642</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1433791078585708</v>
+        <v>0.04941123769062674</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02467196425112299</v>
+        <v>0.03464334671080217</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1443933322001685</v>
+        <v>0.07553568912703372</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04442964478748276</v>
+        <v>0.06239531750599864</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1452164095969409</v>
+        <v>0.07378916110321294</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06413517818587233</v>
+        <v>0.09034234569281735</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1447400916589939</v>
+        <v>0.07333576697447725</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02235507861073771</v>
+        <v>0.02406369501048625</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1450463067871588</v>
+        <v>0.04998578696609914</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02490957222060237</v>
+        <v>0.03474334671080218</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1460723244350542</v>
+        <v>0.07641401109362715</v>
       </c>
       <c r="L152" t="n">
-        <v>0.04438752577200886</v>
+        <v>0.06228725223200315</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1469049724992309</v>
+        <v>0.0746471746044131</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06392690324723865</v>
+        <v>0.08942695531982237</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1464231159806101</v>
+        <v>0.07418850845092466</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02240319069580569</v>
+        <v>0.0241115627027939</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1467135057157468</v>
+        <v>0.05056033624157154</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02485543560941601</v>
+        <v>0.03474249198971743</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1477513166699399</v>
+        <v>0.07729233306022056</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04476102427904391</v>
+        <v>0.0622753591087459</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1485935354015209</v>
+        <v>0.07550518810561326</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06464051161210704</v>
+        <v>0.09020626542602195</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1481061403022263</v>
+        <v>0.07504124992737207</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02245802426446075</v>
+        <v>0.02415551036914251</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1483807046443349</v>
+        <v>0.05113488551704395</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02510902327645367</v>
+        <v>0.0347392846322751</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1494303089048256</v>
+        <v>0.07817065502681397</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04504916964381239</v>
+        <v>0.06245979906310273</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1502820983038109</v>
+        <v>0.0763632016068134</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0650746159682451</v>
+        <v>0.08938050403715764</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1497891646238425</v>
+        <v>0.07589399140381949</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02351909437821526</v>
+        <v>0.02419549180963516</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1500479035729229</v>
+        <v>0.05170943479251636</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0249698040806051</v>
+        <v>0.03463378796970043</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1511093011397112</v>
+        <v>0.07904897699340739</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04475099120153872</v>
+        <v>0.06204073302194948</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1519706612061009</v>
+        <v>0.07722121510801355</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06452782900342025</v>
+        <v>0.09004989917897122</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1514721889454587</v>
+        <v>0.07674673288026689</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02358591609858149</v>
+        <v>0.02423146082437502</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1517151025015109</v>
+        <v>0.05228398406798876</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02523724688076008</v>
+        <v>0.0347260980865884</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1527882933745969</v>
+        <v>0.07992729896000079</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04506551828744743</v>
+        <v>0.06231832191216208</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1536592241083909</v>
+        <v>0.07807922860921369</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06539876340540013</v>
+        <v>0.08961467887720415</v>
       </c>
       <c r="O156" t="n">
-        <v>0.153155213267075</v>
+        <v>0.0775994743567143</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02165800448707184</v>
+        <v>0.02426337121346517</v>
       </c>
       <c r="G157" t="n">
-        <v>0.153382301430099</v>
+        <v>0.05285853334346116</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02531082053580835</v>
+        <v>0.03471631106753396</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1544672856094826</v>
+        <v>0.08080562092659421</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04539178023676296</v>
+        <v>0.0620927266606163</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1553477870106809</v>
+        <v>0.07893724211041386</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06478603186195214</v>
+        <v>0.08937507115759807</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1548382375886911</v>
+        <v>0.07845221583316171</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0237348746051986</v>
+        <v>0.02429117677700873</v>
       </c>
       <c r="G158" t="n">
-        <v>0.155049500358687</v>
+        <v>0.05343308261893357</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02528999390463971</v>
+        <v>0.03480452299713212</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1561462778443683</v>
+        <v>0.08168394289318763</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04512880638470976</v>
+        <v>0.06186410819418808</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1570363499129709</v>
+        <v>0.079795255611614</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06508824706084398</v>
+        <v>0.08923130404589474</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1565212619103074</v>
+        <v>0.07930495730960913</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0208249548546923</v>
+        <v>0.02431483131510885</v>
       </c>
       <c r="G159" t="n">
-        <v>0.156716699287275</v>
+        <v>0.05400763189440597</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0254742358461439</v>
+        <v>0.03449082995997782</v>
       </c>
       <c r="K159" t="n">
-        <v>0.157825270079254</v>
+        <v>0.08256226485978105</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04537562606651235</v>
+        <v>0.0619326274397532</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1587249128152609</v>
+        <v>0.08065326911281416</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06550402168984304</v>
+        <v>0.08988360556783576</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1582042862319236</v>
+        <v>0.08015769878605652</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02298464877917483</v>
+        <v>0.02433428862786863</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1583838982158631</v>
+        <v>0.05458218116987838</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02548620431616766</v>
+        <v>0.03477532804066605</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1595042623141396</v>
+        <v>0.08344058682637445</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04573267285480395</v>
+        <v>0.06239844532418756</v>
       </c>
       <c r="M160" t="n">
-        <v>0.160413475717551</v>
+        <v>0.0815112826140143</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0661581230748029</v>
+        <v>0.0900322037491626</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1598873105535398</v>
+        <v>0.08101044026250394</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02221187133739209</v>
+        <v>0.02434950251539116</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1600510971444511</v>
+        <v>0.05515673044535079</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0257797404288055</v>
+        <v>0.03445811332379178</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1611832545490254</v>
+        <v>0.08431890879296787</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04589507826124209</v>
+        <v>0.06186172277436702</v>
       </c>
       <c r="M161" t="n">
-        <v>0.162102038619841</v>
+        <v>0.08236929611521446</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06601007440454304</v>
+        <v>0.089677326615617</v>
       </c>
       <c r="O161" t="n">
-        <v>0.161570334875156</v>
+        <v>0.08186318173895135</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02449198340684225</v>
+        <v>0.02436042677777958</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1617182960730391</v>
+        <v>0.05573127972082318</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02584239833857928</v>
+        <v>0.03443928189394999</v>
       </c>
       <c r="K162" t="n">
-        <v>0.162862246783911</v>
+        <v>0.0851972307595613</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04620019479561632</v>
+        <v>0.06232262071716743</v>
       </c>
       <c r="M162" t="n">
-        <v>0.163790601522131</v>
+        <v>0.08322730961641461</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06725246990488626</v>
+        <v>0.08941920219294064</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1632533591967722</v>
+        <v>0.08271592321539877</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02381034586502356</v>
+        <v>0.02436701521513701</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1633854950016272</v>
+        <v>0.05630582899629559</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02615814417732584</v>
+        <v>0.03441892983573563</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1645412390187967</v>
+        <v>0.08607555272615471</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04671872043113631</v>
+        <v>0.06178130007946464</v>
       </c>
       <c r="M163" t="n">
-        <v>0.165479164424421</v>
+        <v>0.08408532311761475</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06764342996793138</v>
+        <v>0.08905805850687504</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1649363835183884</v>
+        <v>0.08356866469184618</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02215231958943419</v>
+        <v>0.02436922162756659</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1650526939302152</v>
+        <v>0.056880378271768</v>
       </c>
       <c r="J164" t="n">
-        <v>0.026710944076882</v>
+        <v>0.0346971532337437</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1662202312536824</v>
+        <v>0.08695387469274812</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04712135314101173</v>
+        <v>0.06223792178813453</v>
       </c>
       <c r="M164" t="n">
-        <v>0.167167727326711</v>
+        <v>0.08494333661881491</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06874107498577792</v>
+        <v>0.08969412358316187</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1666194078400046</v>
+        <v>0.08442140616829358</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02450326545757242</v>
+        <v>0.02436922162756659</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1667198928588032</v>
+        <v>0.056880378271768</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02708476416908458</v>
+        <v>0.03467404817256915</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1678992234885681</v>
+        <v>0.08783219665934154</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04827879089845225</v>
+        <v>0.06189264677005293</v>
       </c>
       <c r="M165" t="n">
-        <v>0.168856290229001</v>
+        <v>0.08580135012001505</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06950352535052484</v>
+        <v>0.08892762544754274</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1683024321616208</v>
+        <v>0.08527414764474099</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02284854434693642</v>
+        <v>0.02377575724010093</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1683870917873913</v>
+        <v>0.05688010974330399</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02736357058577039</v>
+        <v>0.03444971073680698</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1695782157234537</v>
+        <v>0.08871051862593496</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04836173167666749</v>
+        <v>0.06154563595209572</v>
       </c>
       <c r="M166" t="n">
-        <v>0.170544853131291</v>
+        <v>0.08665936362121522</v>
       </c>
       <c r="N166" t="n">
-        <v>0.07068890145427137</v>
+        <v>0.08885879212575931</v>
       </c>
       <c r="O166" t="n">
-        <v>0.169985456483237</v>
+        <v>0.0861268891211884</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02317351713502441</v>
+        <v>0.02318878760513304</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1700542907159793</v>
+        <v>0.05687984121483997</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02783132945877632</v>
+        <v>0.03452423701105216</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1712572079583394</v>
+        <v>0.08958884059252836</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04914087344886719</v>
+        <v>0.06169705026113873</v>
       </c>
       <c r="M167" t="n">
-        <v>0.172233416033581</v>
+        <v>0.08751737712241536</v>
       </c>
       <c r="N167" t="n">
-        <v>0.07195532368911672</v>
+        <v>0.08958785164355326</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1716684808048533</v>
+        <v>0.08697963059763582</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02546354469933466</v>
+        <v>0.02260921265189873</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1717214896445673</v>
+        <v>0.05687957268637595</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02817200691993914</v>
+        <v>0.03429772307989967</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1729362001932251</v>
+        <v>0.09046716255912178</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04988691418826102</v>
+        <v>0.06184705062405785</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1739219789358711</v>
+        <v>0.0883753906236155</v>
       </c>
       <c r="N168" t="n">
-        <v>0.07196091244715996</v>
+        <v>0.08951503202666611</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1733515051264694</v>
+        <v>0.08783237207408322</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02371458880736005</v>
+        <v>0.02203793230970932</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1733886885731554</v>
+        <v>0.05687930415791193</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0284695691010957</v>
+        <v>0.03437026502794445</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1746151924281108</v>
+        <v>0.0913454845257152</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05057055186805867</v>
+        <v>0.06179579796772891</v>
       </c>
       <c r="M169" t="n">
-        <v>0.175610541838161</v>
+        <v>0.08923340412481566</v>
       </c>
       <c r="N169" t="n">
-        <v>0.07276378812050038</v>
+        <v>0.08874056130083946</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1750345294480856</v>
+        <v>0.08868511355053063</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02595627588600957</v>
+        <v>0.02147584650780031</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1750558875017434</v>
+        <v>0.05687903562944791</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02873516261094992</v>
+        <v>0.0344419589397815</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1762941846629965</v>
+        <v>0.09222380649230862</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0511717841475382</v>
+        <v>0.06154345321902779</v>
       </c>
       <c r="M170" t="n">
-        <v>0.177299104740451</v>
+        <v>0.0900914176260158</v>
       </c>
       <c r="N170" t="n">
-        <v>0.07396268971918141</v>
+        <v>0.08846466749181497</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1767175537697019</v>
+        <v>0.08953785502697804</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02419203010216939</v>
+        <v>0.02092385517543256</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1767230864303314</v>
+        <v>0.0568787671009839</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02869394545266506</v>
+        <v>0.03451290090000579</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1779731768978821</v>
+        <v>0.09310212845890203</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05144578929331309</v>
+        <v>0.06129017730483033</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1789876676427411</v>
+        <v>0.09094943112721597</v>
       </c>
       <c r="N171" t="n">
-        <v>0.07413922922561106</v>
+        <v>0.0885875786253344</v>
       </c>
       <c r="O171" t="n">
-        <v>0.178400578091318</v>
+        <v>0.09039059650342546</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02742231585286584</v>
+        <v>0.02038285824184365</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1783902853589195</v>
+        <v>0.05687849857251987</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0292464486265306</v>
+        <v>0.03438318699321229</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1796521691327678</v>
+        <v>0.09398045042549545</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05170789335834397</v>
+        <v>0.0612361311520124</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1806762305450311</v>
+        <v>0.09180744462841611</v>
       </c>
       <c r="N172" t="n">
-        <v>0.07479910986480415</v>
+        <v>0.08870952272713917</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1800836024129343</v>
+        <v>0.09124333797987286</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02664759753512522</v>
+        <v>0.01985375563634155</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1800574842875075</v>
+        <v>0.05687823004405586</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02949318077510318</v>
+        <v>0.03425291330399598</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1813311613676535</v>
+        <v>0.09485877239208887</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05265902589111346</v>
+        <v>0.06148147568744985</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1823647934473211</v>
+        <v>0.09266545812961627</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07604366018397168</v>
+        <v>0.08853072782297106</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1817666267345505</v>
+        <v>0.09209607945632027</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02486833954597394</v>
+        <v>0.01933744728816336</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1817246832160955</v>
+        <v>0.05687796151559184</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02973465054093938</v>
+        <v>0.03442217591695182</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1830101536025392</v>
+        <v>0.09573709435868227</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05310011644010401</v>
+        <v>0.06122637183801852</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1840533563496111</v>
+        <v>0.09352347163081641</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07677420873032509</v>
+        <v>0.08845142193857158</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1834496510561667</v>
+        <v>0.09294882093276768</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02708500628243833</v>
+        <v>0.01883483312656993</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1833918821446835</v>
+        <v>0.05687769298712783</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02987136656659585</v>
+        <v>0.03419107091667478</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1846891458374249</v>
+        <v>0.09661541632527569</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05313209455379819</v>
+        <v>0.06127098053059427</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1857419192519011</v>
+        <v>0.09438148513201657</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07669208405107525</v>
+        <v>0.08817035006959689</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1851326753777829</v>
+        <v>0.0938015624092151</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02729806214154473</v>
+        <v>0.01834681308080123</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1850590810732716</v>
+        <v>0.0568774244586638</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03020383749462915</v>
+        <v>0.03415969438775987</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1863681380723105</v>
+        <v>0.09749373829186911</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05365588978067856</v>
+        <v>0.06101037678414645</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1874304821541911</v>
+        <v>0.09523949863321672</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07729861469343352</v>
+        <v>0.08827230176015644</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1868156996993991</v>
+        <v>0.0946543038856625</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02750797152031947</v>
+        <v>0.01787428708016064</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1867262800018596</v>
+        <v>0.05687715593019979</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03033257196759594</v>
+        <v>0.03432814241480205</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1880471303071962</v>
+        <v>0.09837206025846253</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05437243166922776</v>
+        <v>0.06153569558897562</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1891190450564811</v>
+        <v>0.09609751213441686</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07859512920461115</v>
+        <v>0.08815510328320103</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1884987240210153</v>
+        <v>0.09550704536210991</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02771519881578895</v>
+        <v>0.01741815505388747</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1883934789304477</v>
+        <v>0.05687688740173578</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03035807862805281</v>
+        <v>0.03419391784878002</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1897261225420819</v>
+        <v>0.09925038222505593</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05428264976792826</v>
+        <v>0.06144835121275938</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1908076079587711</v>
+        <v>0.09695552563561702</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07908295613181904</v>
+        <v>0.08792112651409845</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1901817483426315</v>
+        <v>0.09635978683855732</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02792020842497947</v>
+        <v>0.01697931693124255</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1900606778590357</v>
+        <v>0.05687661887327176</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03088086611855635</v>
+        <v>0.03415155070174289</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1914051147769676</v>
+        <v>0.1001287041916493</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05508747362526262</v>
+        <v>0.06115001758270491</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1924961708610612</v>
+        <v>0.09781353913681716</v>
       </c>
       <c r="N179" t="n">
-        <v>0.0792634240222686</v>
+        <v>0.08847274332821647</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1918647726642477</v>
+        <v>0.09721252831500474</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02912661044292784</v>
+        <v>0.0165586726414689</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1917278767876237</v>
+        <v>0.05687635034480774</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0308014430816632</v>
+        <v>0.03410178597224842</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1930841070118532</v>
+        <v>0.1010070261582428</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0553878327897134</v>
+        <v>0.06124236862601953</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1941847337633512</v>
+        <v>0.09867155263801732</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08053786142317093</v>
+        <v>0.08761232560092302</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1935477969858639</v>
+        <v>0.09806526979145214</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02934529358441086</v>
+        <v>0.01615712211386401</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1933950757162118</v>
+        <v>0.05687608181634372</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03102959775368679</v>
+        <v>0.03394562311186032</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1947630992467389</v>
+        <v>0.1018853481248362</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05558950610090246</v>
+        <v>0.06082707826991049</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1958732966656412</v>
+        <v>0.09952956613921747</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08022340225634983</v>
+        <v>0.08794224520758581</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1952308213074802</v>
+        <v>0.09891801126789955</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0285701859799454</v>
+        <v>0.01577556527767003</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1950622746447998</v>
+        <v>0.0568758132878797</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03146959709240138</v>
+        <v>0.03378406157214242</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1964420914816246</v>
+        <v>0.1027636700914296</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05621504146086417</v>
+        <v>0.06040582044158507</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1975618595679312</v>
+        <v>0.1003875796404176</v>
       </c>
       <c r="N182" t="n">
-        <v>0.08144296600693829</v>
+        <v>0.08756487402357255</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1969138456290963</v>
+        <v>0.09977075274434695</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02679331010768896</v>
+        <v>0.01541490206214785</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1967294735733878</v>
+        <v>0.05687554475941569</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0318127058902602</v>
+        <v>0.03401810080465836</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1981210837165103</v>
+        <v>0.103641992058023</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05635364863645434</v>
+        <v>0.06078026906825046</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1992504224702212</v>
+        <v>0.1012455931416178</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08167511545575878</v>
+        <v>0.08688258392425119</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1985968699507126</v>
+        <v>0.1006234942207944</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02900668844579912</v>
+        <v>0.01507603239654405</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1983966725019758</v>
+        <v>0.05687527623095166</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03175018656524793</v>
+        <v>0.03374874026097198</v>
       </c>
       <c r="K184" t="n">
-        <v>0.199800075951396</v>
+        <v>0.1045203140246164</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05688935962421374</v>
+        <v>0.06035209807711392</v>
       </c>
       <c r="M184" t="n">
-        <v>0.2009389853725112</v>
+        <v>0.1021036066428179</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0827970285049196</v>
+        <v>0.08709774678498949</v>
       </c>
       <c r="O184" t="n">
-        <v>0.2002798942723288</v>
+        <v>0.1014762356972418</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02820234347243336</v>
+        <v>0.01475985621014904</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2000638714305639</v>
+        <v>0.05687500770248765</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03227330153534928</v>
+        <v>0.03367697939264697</v>
       </c>
       <c r="K185" t="n">
-        <v>0.2014790681862817</v>
+        <v>0.1053986359912099</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05730620642068307</v>
+        <v>0.06062298139538283</v>
       </c>
       <c r="M185" t="n">
-        <v>0.2026275482748012</v>
+        <v>0.1029616201440181</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08358588305652898</v>
+        <v>0.08711273448115525</v>
       </c>
       <c r="O185" t="n">
-        <v>0.201962918593945</v>
+        <v>0.1023289771736892</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02737229766574917</v>
+        <v>0.01446727343220845</v>
       </c>
       <c r="G186" t="n">
-        <v>0.2017310703591519</v>
+        <v>0.05687473917402364</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03217331321854898</v>
+        <v>0.03380381765124713</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2031580604211673</v>
+        <v>0.1062769579578033</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05768822102240317</v>
+        <v>0.0601945929502643</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2043161111770912</v>
+        <v>0.1038196336452182</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08321885701269549</v>
+        <v>0.08652991888811618</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2036459429155612</v>
+        <v>0.1031817186501366</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02850857350390411</v>
+        <v>0.01419918399198317</v>
       </c>
       <c r="G187" t="n">
-        <v>0.20339826928774</v>
+        <v>0.05687447064555962</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0323414840328317</v>
+        <v>0.03343025448833614</v>
       </c>
       <c r="K187" t="n">
-        <v>0.204837052656053</v>
+        <v>0.1071552799243967</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05791943542591468</v>
+        <v>0.05986860666896568</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2060046740793812</v>
+        <v>0.1046776471464184</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08377312827552735</v>
+        <v>0.08675167188124011</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2053289672371774</v>
+        <v>0.104034460126584</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03060449687794951</v>
+        <v>0.01395648781872404</v>
       </c>
       <c r="G188" t="n">
-        <v>0.205065468216328</v>
+        <v>0.0568742021170956</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03276907639618219</v>
+        <v>0.03335728935547783</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2065160448909387</v>
+        <v>0.1080336018909901</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05848388162775842</v>
+        <v>0.05964669647869419</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2076932369816712</v>
+        <v>0.1055356606476185</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08472587474713295</v>
+        <v>0.086780365335895</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2070119915587936</v>
+        <v>0.1048872016030314</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02968582799451948</v>
+        <v>0.01374008484171312</v>
       </c>
       <c r="G189" t="n">
-        <v>0.206732667144916</v>
+        <v>0.05687393358863158</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03286013784346951</v>
+        <v>0.03328592170423586</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2081950371258244</v>
+        <v>0.1089119238575835</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05886900492885586</v>
+        <v>0.05983053630665708</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2093817998839612</v>
+        <v>0.1063936741488187</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08497239728739975</v>
+        <v>0.08611837112744847</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2086950158804098</v>
+        <v>0.1057399430794788</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02776534543426384</v>
+        <v>0.01354757868382139</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2083998660735041</v>
+        <v>0.05687366506016757</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03284704826174667</v>
+        <v>0.03341715098617404</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2098740293607101</v>
+        <v>0.1097902458241769</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05902754668118274</v>
+        <v>0.05942180008006162</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2110703627862513</v>
+        <v>0.1072516876500188</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08539923187877985</v>
+        <v>0.08596806113126831</v>
       </c>
       <c r="O190" t="n">
-        <v>0.210378040202026</v>
+        <v>0.1065926845559262</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03084301983882277</v>
+        <v>0.01335994953425038</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2100670650020921</v>
+        <v>0.05687339653170356</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03293197094193136</v>
+        <v>0.03325197665285611</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2115530215955957</v>
+        <v>0.1106685677907703</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05888250106248205</v>
+        <v>0.05982216172611507</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2127589256885413</v>
+        <v>0.108109701151219</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08532090193256175</v>
+        <v>0.08563180722272246</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2120610645236422</v>
+        <v>0.1074454260323736</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02791882184983635</v>
+        <v>0.01317443837797007</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2117342639306801</v>
+        <v>0.05687312800323953</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03311487372853943</v>
+        <v>0.03339139815584581</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2132320138304814</v>
+        <v>0.1115468897573638</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05883380930834053</v>
+        <v>0.05933329517202465</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2144474885908313</v>
+        <v>0.1089677146524191</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08563732346033726</v>
+        <v>0.08601198127717868</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2137440888452584</v>
+        <v>0.1082981675088211</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02999272210894471</v>
+        <v>0.01299156673948733</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2134014628592681</v>
+        <v>0.05687285947477552</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03299572446608665</v>
+        <v>0.03323641494670687</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2149110060653671</v>
+        <v>0.1124252117239572</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05948141265434451</v>
+        <v>0.05935687434499773</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2161360514931213</v>
+        <v>0.1098257281536193</v>
       </c>
       <c r="N193" t="n">
-        <v>0.08534841247369768</v>
+        <v>0.08621095517000471</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2154271131668747</v>
+        <v>0.1091509089852685</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03006469125778798</v>
+        <v>0.01281185614328476</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2150686617878562</v>
+        <v>0.0568725909463115</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03317449099908892</v>
+        <v>0.03318802647700309</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2165899983002528</v>
+        <v>0.1133035336905506</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05932525233608058</v>
+        <v>0.05919457317224144</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2178246143954113</v>
+        <v>0.1106837416548194</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08565408498423455</v>
+        <v>0.08572999177342094</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2171101374884909</v>
+        <v>0.1100036504617159</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0311346999380063</v>
+        <v>0.0126358281138531</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2167358607164442</v>
+        <v>0.05687232241784748</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03325114117206207</v>
+        <v>0.03294723219829816</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2182689905351385</v>
+        <v>0.114181855657144</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05966526958913526</v>
+        <v>0.05904214228443497</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2195131772977013</v>
+        <v>0.1115417551560196</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08605425700353952</v>
+        <v>0.08525593292103811</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2187931618101071</v>
+        <v>0.1108563919381633</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02820271879123977</v>
+        <v>0.01246400417567567</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2184030596450322</v>
+        <v>0.05687205388938345</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03312564282952198</v>
+        <v>0.03311470191346445</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2199479827700241</v>
+        <v>0.1150601776237374</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06000140564909512</v>
+        <v>0.05929147879578214</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2212017401999913</v>
+        <v>0.1123997686572197</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08624884454320408</v>
+        <v>0.08568425300735422</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2204761861317233</v>
+        <v>0.1117091334146107</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03126871845912853</v>
+        <v>0.01229690585325818</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2200702585736203</v>
+        <v>0.05687178536091944</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03329796381598439</v>
+        <v>0.03298526260248065</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2216269750049098</v>
+        <v>0.1159384995903308</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06003360175154662</v>
+        <v>0.05914245300531482</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2228903031022813</v>
+        <v>0.1132577821584199</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08673776361481983</v>
+        <v>0.08501487602824992</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2221592104533394</v>
+        <v>0.1125618748910581</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0303326695833127</v>
+        <v>0.01213505467108379</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2217374575022083</v>
+        <v>0.05687151683245543</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03336807197596525</v>
+        <v>0.0330567968310448</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2233059672397955</v>
+        <v>0.1168168215569243</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06016179913207634</v>
+        <v>0.05889501127388955</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2245788660045713</v>
+        <v>0.11411579565962</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08662093022997824</v>
+        <v>0.08584772597960588</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2238422347749557</v>
+        <v>0.1134146163675055</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03139454280543241</v>
+        <v>0.01197897215364321</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2234046564307963</v>
+        <v>0.05687124830399141</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03353593515398033</v>
+        <v>0.0331292725728385</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2249849594746812</v>
+        <v>0.1176951435235177</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05998593902627075</v>
+        <v>0.05894909996236283</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2262674289068614</v>
+        <v>0.1149738091608202</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08639826040027088</v>
+        <v>0.08488272685730275</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2255252590965719</v>
+        <v>0.1142673578439529</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03045430876712779</v>
+        <v>0.01182917982542078</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2250718553593844</v>
+        <v>0.05687097977552739</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03370152119454549</v>
+        <v>0.03290265780154319</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2266639517095669</v>
+        <v>0.1185734654901111</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06030596266971647</v>
+        <v>0.05880466543159113</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2279559918091514</v>
+        <v>0.1158318226620203</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08706967013728922</v>
+        <v>0.08571980265722129</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2272082834181881</v>
+        <v>0.1151200993204003</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03051193811003895</v>
+        <v>0.0116861992109203</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2267390542879724</v>
+        <v>0.05687071124706337</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03356479794217655</v>
+        <v>0.03277692049084048</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2283429439444525</v>
+        <v>0.1194517874567045</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06062181129799993</v>
+        <v>0.05906165404243105</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2296445547114414</v>
+        <v>0.1166898361632205</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08743507545262502</v>
+        <v>0.08515887737524214</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2288913077398043</v>
+        <v>0.1159728407968477</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03056740147580603</v>
+        <v>0.01155055183462583</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2284062532165604</v>
+        <v>0.05687044271859936</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03352573324138941</v>
+        <v>0.03305202861441184</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2300219361793382</v>
+        <v>0.1203301094232979</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06073342614670774</v>
+        <v>0.05902001215573899</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2313331176137314</v>
+        <v>0.1175478496644206</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0874943923578696</v>
+        <v>0.08559987500724608</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2305743320614205</v>
+        <v>0.1168255822732951</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02962066950606915</v>
+        <v>0.01142275922102806</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2300734521451485</v>
+        <v>0.05687017419013535</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03378429493669984</v>
+        <v>0.03282795014593883</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2317009284142239</v>
+        <v>0.1212084313898913</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06074074845142632</v>
+        <v>0.05877968613237153</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2330216805160214</v>
+        <v>0.1184058631656208</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08694753686461443</v>
+        <v>0.08524271954911361</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2322573563830367</v>
+        <v>0.1176783237497426</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0296717128424684</v>
+        <v>0.01130334289461275</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2317406510737365</v>
+        <v>0.05686990566167132</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03394045087262373</v>
+        <v>0.03290465305910298</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2333799206491096</v>
+        <v>0.1220867533564847</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06044371944774227</v>
+        <v>0.05914062233318521</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2347102434183114</v>
+        <v>0.1192638766668209</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08789442498445127</v>
+        <v>0.08508733499672549</v>
       </c>
       <c r="O204" t="n">
-        <v>0.233940380704653</v>
+        <v>0.11853106522619</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02872050212664398</v>
+        <v>0.01119282437988102</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2334078500023245</v>
+        <v>0.05686963713320731</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03369416889367689</v>
+        <v>0.0329821053275858</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2350589128839953</v>
+        <v>0.1229650753230782</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06064228037124214</v>
+        <v>0.05860276711903642</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2363988063206014</v>
+        <v>0.1201218901680211</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08753497272897165</v>
+        <v>0.08493364534596248</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2356234050262692</v>
+        <v>0.1193838067026374</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03076700800023596</v>
+        <v>0.01109172520131819</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2350750489309126</v>
+        <v>0.05686936860474329</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03404541684437518</v>
+        <v>0.03276027492506886</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2367379051188809</v>
+        <v>0.1238433972896716</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06063637245751241</v>
+        <v>0.05906606685078183</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2380873692228914</v>
+        <v>0.1209799036692212</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08756909610976699</v>
+        <v>0.08448157459270511</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2373064293478853</v>
+        <v>0.1202365481790848</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03081120110488449</v>
+        <v>0.01100056688341501</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2367422478595006</v>
+        <v>0.05686910007627927</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0338941625692344</v>
+        <v>0.03273912982523362</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2384168973537666</v>
+        <v>0.124721719256265</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06102593694213967</v>
+        <v>0.05863046788927784</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2397759321251814</v>
+        <v>0.1218379171704214</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08749671113842883</v>
+        <v>0.08493104673283425</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2389894536695016</v>
+        <v>0.1210892896555322</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03185305208222966</v>
+        <v>0.01091987095065891</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2384094467880886</v>
+        <v>0.05686883154781525</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03394037391277047</v>
+        <v>0.03271863800176167</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2400958895886523</v>
+        <v>0.1256000412228584</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06131091506071035</v>
+        <v>0.05869591659538101</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2414644950274714</v>
+        <v>0.1226959306716215</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08771773382654868</v>
+        <v>0.08458198576223047</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2406724779911177</v>
+        <v>0.1219420311319796</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03089253157391164</v>
+        <v>0.01085015892754766</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2400766457166767</v>
+        <v>0.05686856301935123</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03418401871949915</v>
+        <v>0.03259876742833451</v>
       </c>
       <c r="K209" t="n">
-        <v>0.241774881823538</v>
+        <v>0.1264783631894518</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06109124804881105</v>
+        <v>0.05886235932994785</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2431530579297615</v>
+        <v>0.1235539441728217</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08793208018571835</v>
+        <v>0.08473431567677442</v>
       </c>
       <c r="O209" t="n">
-        <v>0.242355502312734</v>
+        <v>0.122794772608427</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03092961022157054</v>
+        <v>0.01079195233856824</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2417438446452647</v>
+        <v>0.05686829449088722</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03402506483393632</v>
+        <v>0.03277948607863367</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2434538740584236</v>
+        <v>0.1273566851560452</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06086687714202826</v>
+        <v>0.05892974245383487</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2448416208320514</v>
+        <v>0.1244119576740218</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08863966622752911</v>
+        <v>0.08428796047234688</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2440385266343502</v>
+        <v>0.1236475140848744</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03096425866684645</v>
+        <v>0.01074577270821137</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2434110435738527</v>
+        <v>0.05686802596242321</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03406348010059781</v>
+        <v>0.0327607619263407</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2451328662933094</v>
+        <v>0.1282350071226387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06103774357594854</v>
+        <v>0.0588980123278986</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2465301837343415</v>
+        <v>0.125269971175222</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08834040796357256</v>
+        <v>0.08514284414482848</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2457215509559664</v>
+        <v>0.1245002555613219</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03199644755137952</v>
+        <v>0.01071214156096659</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2450782425024408</v>
+        <v>0.05686775743395918</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03399923236399947</v>
+        <v>0.03284256294513709</v>
       </c>
       <c r="K212" t="n">
-        <v>0.246811858528195</v>
+        <v>0.1291133290892321</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06150378858615838</v>
+        <v>0.05836711531299549</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2482187466366315</v>
+        <v>0.1261279846764221</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08883422140544028</v>
+        <v>0.08419889069009989</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2474045752775826</v>
+        <v>0.1253529970377693</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02902614751680992</v>
+        <v>0.01069158042132756</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2467454414310288</v>
+        <v>0.05686748890549517</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03423228946865711</v>
+        <v>0.03282485710870441</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2484908507630807</v>
+        <v>0.1299916510558255</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06106495340824436</v>
+        <v>0.05843699776998207</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2499073095389215</v>
+        <v>0.1269859981776223</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08892102256472378</v>
+        <v>0.08505602410404178</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2490875995991988</v>
+        <v>0.1262057385142167</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03005332920477771</v>
+        <v>0.01068461081378329</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2484126403596168</v>
+        <v>0.05686722037703115</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03426261925908661</v>
+        <v>0.03250761239072418</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2501698429979664</v>
+        <v>0.1308699730224189</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06122117927779294</v>
+        <v>0.0584076060597149</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2515958724412115</v>
+        <v>0.1278440116788225</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08860072745301456</v>
+        <v>0.08481416838253497</v>
       </c>
       <c r="O214" t="n">
-        <v>0.250770623920815</v>
+        <v>0.1270584799906641</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02907796325692304</v>
+        <v>0.01068461081378329</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2500798392882048</v>
+        <v>0.05686722037703115</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0342901895798038</v>
+        <v>0.03269079676487789</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2518488352328521</v>
+        <v>0.1317482949890123</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06137240743039066</v>
+        <v>0.05857888654305046</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2532844353435015</v>
+        <v>0.1287020251800226</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08857325208190425</v>
+        <v>0.08477324752145998</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2524536482424312</v>
+        <v>0.1279112214671115</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02910002031488604</v>
+        <v>0.01029211683523415</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2517470382167929</v>
+        <v>0.05682158193092698</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03411496827532451</v>
+        <v>0.03267437820484712</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2535278274677378</v>
+        <v>0.1326266169556057</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06151857910162414</v>
+        <v>0.05875078558084534</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2549729982457915</v>
+        <v>0.1295600386812227</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08913851246298438</v>
+        <v>0.08453318551669753</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2541366725640474</v>
+        <v>0.1287639629435589</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03011947102030682</v>
+        <v>0.009902642908797193</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2534142371453809</v>
+        <v>0.0567759434848228</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03433692319016456</v>
+        <v>0.03245832468431338</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2552068197026234</v>
+        <v>0.1335049389221991</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0615596355270798</v>
+        <v>0.05822324953395588</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2566615611480815</v>
+        <v>0.1304180521824229</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08889642460784641</v>
+        <v>0.08489390636412836</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2558196968856636</v>
+        <v>0.1296167044200063</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03013628601482554</v>
+        <v>0.009517348675944295</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2550814360739689</v>
+        <v>0.05673030503871863</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03425602216883983</v>
+        <v>0.03274260417695818</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2568858119375091</v>
+        <v>0.1343832608887926</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06169551794234421</v>
+        <v>0.0587962247632387</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2583501240503716</v>
+        <v>0.131276065683623</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08844690452808196</v>
+        <v>0.08475533405963309</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2575027212072798</v>
+        <v>0.1304694458964537</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03215043594008228</v>
+        <v>0.009137393778147429</v>
       </c>
       <c r="G219" t="n">
-        <v>0.256748635002557</v>
+        <v>0.05668466659261445</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03417223305586616</v>
+        <v>0.03242718465646309</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2585648041723948</v>
+        <v>0.1352615828553859</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06152616758300386</v>
+        <v>0.05876965762955036</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2600386869526615</v>
+        <v>0.1321340791848232</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08918986823528252</v>
+        <v>0.08481739259909243</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2591857455288961</v>
+        <v>0.1313221873729011</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02916189143771719</v>
+        <v>0.008763937856878484</v>
       </c>
       <c r="G220" t="n">
-        <v>0.258415833931145</v>
+        <v>0.05663902814651028</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03418552369575933</v>
+        <v>0.0325120340965096</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2602437964072805</v>
+        <v>0.1361399048219794</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06135152568464536</v>
+        <v>0.05844349449374728</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2617272498549516</v>
+        <v>0.1329920926860233</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08892523174103956</v>
+        <v>0.08438000597838707</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2608687698505123</v>
+        <v>0.1321749288493485</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0321706231493704</v>
+        <v>0.008398140553609434</v>
       </c>
       <c r="G221" t="n">
-        <v>0.260083032859733</v>
+        <v>0.05659338970040611</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03439586193303525</v>
+        <v>0.03249712047077924</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2619227886421662</v>
+        <v>0.1370182267885728</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06177153348285516</v>
+        <v>0.05861768171668602</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2634158127572416</v>
+        <v>0.1338501061872235</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08905291105694485</v>
+        <v>0.08384309819339764</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2625517941721285</v>
+        <v>0.1330276703257959</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02917660171668202</v>
+        <v>0.008041161509812073</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2617502317883211</v>
+        <v>0.05654775125430192</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03450321561220972</v>
+        <v>0.03268241175295357</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2636017808770518</v>
+        <v>0.1378965487551662</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06148613221321983</v>
+        <v>0.05859216565922307</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2651043756595315</v>
+        <v>0.1347081196884236</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08877282219458976</v>
+        <v>0.08380659324000495</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2642348184937447</v>
+        <v>0.1338804118022433</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03217979778129217</v>
+        <v>0.007694160366958525</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2634174307169091</v>
+        <v>0.05650211280819775</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03450755257779861</v>
+        <v>0.0324678759167141</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2652807731119375</v>
+        <v>0.1387748707217596</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06139526311132584</v>
+        <v>0.05806689268221493</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2667929385618216</v>
+        <v>0.1355661331896238</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08858488116556584</v>
+        <v>0.08397041511408954</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2659178428153609</v>
+        <v>0.1347331532786908</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0291745175172748</v>
+        <v>0.007358296766520639</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2650846296454972</v>
+        <v>0.05645647436209358</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03420853799457416</v>
+        <v>0.03245348093574235</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2669597653468232</v>
+        <v>0.1396531926883531</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06149886741275978</v>
+        <v>0.0581418091465182</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2684815014641116</v>
+        <v>0.1364241466908239</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08888900398146471</v>
+        <v>0.08433448781153213</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2676008671369771</v>
+        <v>0.1355858947551382</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02910094652028532</v>
+        <v>0.00703473034997032</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2667518285740852</v>
+        <v>0.0564108359159894</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03415412000148098</v>
+        <v>0.03243919478371987</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2686387575817089</v>
+        <v>0.1405315146549465</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06133641501437834</v>
+        <v>0.05821686141298926</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2701700643664016</v>
+        <v>0.1372821601920241</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08857022592931035</v>
+        <v>0.08459873532821355</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2692838914585933</v>
+        <v>0.1364386362315856</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0319502851376717</v>
+        <v>0.006724620758779512</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2684190275026732</v>
+        <v>0.05636519746988523</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03401311387448977</v>
+        <v>0.03252498543432819</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2703177498165946</v>
+        <v>0.1414098366215399</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06111443017378115</v>
+        <v>0.05819199584248472</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2718586272686916</v>
+        <v>0.1381401736932243</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08892341046636315</v>
+        <v>0.08396308166001426</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2709669157802095</v>
+        <v>0.137291377708033</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03173168564384622</v>
+        <v>0.006429127634420148</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2700862264312612</v>
+        <v>0.05631955902378105</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03399554387299869</v>
+        <v>0.03231082086124883</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2719967420514802</v>
+        <v>0.1422881585881333</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06134937161761655</v>
+        <v>0.05836715879586105</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2735471901709817</v>
+        <v>0.1389981871944244</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0878747097166494</v>
+        <v>0.08412745080281508</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2726499401018257</v>
+        <v>0.1381441191844804</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02845430031322113</v>
+        <v>0.006149410618364132</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2717534253598493</v>
+        <v>0.05627392057767688</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03371143425640594</v>
+        <v>0.03239666903816328</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2736757342863659</v>
+        <v>0.1431664805547267</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06045955876291154</v>
+        <v>0.05794229663397479</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2752357530732716</v>
+        <v>0.1398562006956245</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08745030651071356</v>
+        <v>0.08359176675249658</v>
       </c>
       <c r="O228" t="n">
-        <v>0.274332964423442</v>
+        <v>0.1389968606609278</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03112728142020868</v>
+        <v>0.005886629352083408</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2734206242884373</v>
+        <v>0.0562282821315727</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03317080928410963</v>
+        <v>0.03228249793875314</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2753547265212516</v>
+        <v>0.1440448025213201</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06006331102669324</v>
+        <v>0.05811735571768242</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2769243159755616</v>
+        <v>0.1407142141968247</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08627638367910051</v>
+        <v>0.08405595350493955</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2760159887450581</v>
+        <v>0.1398496021373752</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03075978123922112</v>
+        <v>0.005641943477049896</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2750878232170254</v>
+        <v>0.05618264368546853</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03288369321550789</v>
+        <v>0.03246827553669987</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2770337187561373</v>
+        <v>0.1449231244879136</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05907894782598863</v>
+        <v>0.05819228240784047</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2786128788778517</v>
+        <v>0.1415722276980248</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08517912405235467</v>
+        <v>0.08351993505602467</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2776990130666743</v>
+        <v>0.1407023436138226</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02836095204467068</v>
+        <v>0.005416512634735526</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2767550221456134</v>
+        <v>0.05613700523936436</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03266011030999896</v>
+        <v>0.03225396980568508</v>
       </c>
       <c r="K231" t="n">
-        <v>0.278712710991023</v>
+        <v>0.145801446454507</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0586247885778248</v>
+        <v>0.05816702306530547</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2803014417801417</v>
+        <v>0.142430241199225</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08398471046102063</v>
+        <v>0.08398363540163262</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2793820373882905</v>
+        <v>0.14155508509027</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02793994611096963</v>
+        <v>0.005211496466612245</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2784222210742014</v>
+        <v>0.05609136679326018</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03211008482698091</v>
+        <v>0.03223954871939022</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2803917032259086</v>
+        <v>0.1466797684211004</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05791915269922879</v>
+        <v>0.05844152405093386</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2819900046824317</v>
+        <v>0.1432882547004251</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0829193257356432</v>
+        <v>0.08434697853764406</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2810650617099067</v>
+        <v>0.1424078265667175</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02650591571253023</v>
+        <v>0.005028054614151942</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2800894200027894</v>
+        <v>0.05604572834715601</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03144364102585197</v>
+        <v>0.03252498025149685</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2820706954607943</v>
+        <v>0.1475580903876938</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05658035960722765</v>
+        <v>0.05811576358555551</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2836785675847217</v>
+        <v>0.1441462682016253</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08230915270676675</v>
+        <v>0.08351000173287115</v>
       </c>
       <c r="O233" t="n">
-        <v>0.282748086031523</v>
+        <v>0.1432605680431649</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02606801312376472</v>
+        <v>0.004867346718826535</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2817566189313774</v>
+        <v>0.05600008990105182</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03127080316601019</v>
+        <v>0.03221029427016452</v>
       </c>
       <c r="K234" t="n">
-        <v>0.28374968769568</v>
+        <v>0.1484364123542872</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05612672871884841</v>
+        <v>0.05839011006645559</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2853671304870117</v>
+        <v>0.1450042817028254</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08088037420493605</v>
+        <v>0.08357326239488699</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2844311103531392</v>
+        <v>0.1441133095196123</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02663539061908536</v>
+        <v>0.004730532422108011</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2834238178599655</v>
+        <v>0.05595445145494765</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03070159550685381</v>
+        <v>0.03239571672815679</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2854286799305657</v>
+        <v>0.1493147343208806</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05527657945111819</v>
+        <v>0.05826468658475031</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2870556933893017</v>
+        <v>0.1458622952040256</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07945917306069566</v>
+        <v>0.08343685224747632</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2861141346747554</v>
+        <v>0.1449660509960597</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02521720047290439</v>
+        <v>0.004618771365468288</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2850910167885535</v>
+        <v>0.05590881300884348</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03014604230778095</v>
+        <v>0.03248127421021278</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2871076721654514</v>
+        <v>0.150193056287474</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05454823122106398</v>
+        <v>0.05823949779529924</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2887442562915917</v>
+        <v>0.1467203087052258</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07837173210459009</v>
+        <v>0.08360077788635434</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2877971589963716</v>
+        <v>0.1458187924725071</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02482259495963408</v>
+        <v>0.004533223190379271</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2867582157171416</v>
+        <v>0.0558631745627393</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02971416782818979</v>
+        <v>0.03216696949560909</v>
       </c>
       <c r="K237" t="n">
-        <v>0.288786664400337</v>
+        <v>0.1510713782540674</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05376000344571283</v>
+        <v>0.05791454835296203</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2904328191938818</v>
+        <v>0.1475783222064259</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07744423416716417</v>
+        <v>0.08346504590723614</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2894801833179878</v>
+        <v>0.1466715339489545</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02446072174720813</v>
+        <v>0.004475047538312862</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2884254146457296</v>
+        <v>0.05581753611663513</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02931599632747844</v>
+        <v>0.03215280536362233</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2904656566352227</v>
+        <v>0.1519497002206609</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05293021554209182</v>
+        <v>0.05818984291259835</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2921213820961717</v>
+        <v>0.148436335707626</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07610286207896233</v>
+        <v>0.08412966290583668</v>
       </c>
       <c r="O238" t="n">
-        <v>0.291163207639604</v>
+        <v>0.1475242754254019</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02611698638542476</v>
+        <v>0.004445404050741036</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2900926135743176</v>
+        <v>0.05577189767053095</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02914438374049712</v>
+        <v>0.03243878459352913</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2921446488701084</v>
+        <v>0.1528280221872543</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05185620842771102</v>
+        <v>0.0578653861290678</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2938099449984617</v>
+        <v>0.1492943492088262</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0754356270471675</v>
+        <v>0.08379463547787103</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2928462319612202</v>
+        <v>0.1483770169018493</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02577192562147076</v>
+        <v>0.00444164900254608</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2917598125029057</v>
+        <v>0.05572625922442678</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02857198759711552</v>
+        <v>0.03212490996460608</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2938236411049941</v>
+        <v>0.1537063441538477</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05128370948355129</v>
+        <v>0.05824118265723011</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2954985079007518</v>
+        <v>0.1501523627100264</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07386782470509584</v>
+        <v>0.08405997021905448</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2945292562828364</v>
+        <v>0.1492297583782967</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02442551777326873</v>
+        <v>0.004441772397129368</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2934270114314937</v>
+        <v>0.05568062077832261</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02809813039253521</v>
+        <v>0.03221118425612983</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2955026333398798</v>
+        <v>0.1545846661204411</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05050856147556049</v>
+        <v>0.05811723715194483</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2971870708030418</v>
+        <v>0.1510103762112265</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07279621885827775</v>
+        <v>0.08402567372510189</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2962122806044526</v>
+        <v>0.1500824998547441</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02407774115874116</v>
+        <v>0.00444223749978942</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2950942103600817</v>
+        <v>0.05563498233221843</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02772278837891391</v>
+        <v>0.032397610247377</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2971816255747655</v>
+        <v>0.1554629880870345</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05043072100436025</v>
+        <v>0.05779355426807159</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2988756337053318</v>
+        <v>0.1518683897124266</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07182074747861689</v>
+        <v>0.08329175259172839</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2978953049260689</v>
+        <v>0.1509352413311916</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02572857409581053</v>
+        <v>0.004443272115910779</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2967614092886698</v>
+        <v>0.05558934388611426</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02754593780840936</v>
+        <v>0.03208419071762421</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2988606178096511</v>
+        <v>0.1563413100536279</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04965014467057241</v>
+        <v>0.05797013866047016</v>
       </c>
       <c r="M243" t="n">
-        <v>0.3005641966076218</v>
+        <v>0.1527264032136268</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07134134853801666</v>
+        <v>0.08315821341464918</v>
       </c>
       <c r="O243" t="n">
-        <v>0.299578329247685</v>
+        <v>0.151787982807639</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02237799490239942</v>
+        <v>0.004445104050877946</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2984286082172578</v>
+        <v>0.05554370544001008</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02706755493317935</v>
+        <v>0.03217092844614804</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3005396100445368</v>
+        <v>0.1572196320202214</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04846678907481852</v>
+        <v>0.05794699498400008</v>
       </c>
       <c r="M244" t="n">
-        <v>0.3022527595099118</v>
+        <v>0.1535844167148269</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07065796000838059</v>
+        <v>0.08372506278957925</v>
       </c>
       <c r="O244" t="n">
-        <v>0.3012613535693013</v>
+        <v>0.1526407242840864</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02302598189643031</v>
+        <v>0.004447961110075435</v>
       </c>
       <c r="G245" t="n">
-        <v>0.3000958071458458</v>
+        <v>0.05549806699390591</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02678761600538163</v>
+        <v>0.03205782621222517</v>
       </c>
       <c r="K245" t="n">
-        <v>0.3022186022794225</v>
+        <v>0.1580979539868148</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0482806108177205</v>
+        <v>0.05792412789352097</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3039413224122018</v>
+        <v>0.1544424302160271</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06907051986161217</v>
+        <v>0.0835923073122336</v>
       </c>
       <c r="O245" t="n">
-        <v>0.3029443778909174</v>
+        <v>0.1534934657605338</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02367251339582573</v>
+        <v>0.004452071098887789</v>
       </c>
       <c r="G246" t="n">
-        <v>0.3017630060744338</v>
+        <v>0.05545242854780173</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02650609727717393</v>
+        <v>0.03214488679513217</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3038975945143082</v>
+        <v>0.1589762759534082</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04769156649989989</v>
+        <v>0.0580015420438926</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3056298853144918</v>
+        <v>0.1553004437172273</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06867896606961482</v>
+        <v>0.08315995357832756</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3046274022125336</v>
+        <v>0.1543462072369812</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02231756771850819</v>
+        <v>0.004457661822699494</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3034302050030219</v>
+        <v>0.05540679010169755</v>
       </c>
       <c r="J247" t="n">
-        <v>0.026122975000714</v>
+        <v>0.03213211297414567</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3055765867491939</v>
+        <v>0.1598545979200016</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04669961272197853</v>
+        <v>0.0578792420899745</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3073184482167818</v>
+        <v>0.1561584572184274</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06698323660429206</v>
+        <v>0.08352800818357597</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3063104265341499</v>
+        <v>0.1551989487134286</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02296112318240022</v>
+        <v>0.004464961086895092</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3050974039316099</v>
+        <v>0.05536115165559338</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02553822542815959</v>
+        <v>0.03211950752854231</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3072555789840795</v>
+        <v>0.160732919886595</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04620470608457805</v>
+        <v>0.05745723268662634</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3090070111190719</v>
+        <v>0.1570164707196275</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06648326943754745</v>
+        <v>0.08289647772369402</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3079934508557661</v>
+        <v>0.156051690189876</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02360315810542436</v>
+        <v>0.004474196696859112</v>
       </c>
       <c r="G249" t="n">
-        <v>0.306764602860198</v>
+        <v>0.0553155132094892</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02505182481166848</v>
+        <v>0.0321070732375987</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3089345712189652</v>
+        <v>0.1616112418531884</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04520680318832021</v>
+        <v>0.05743551848870776</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3106955740213618</v>
+        <v>0.1578744842208277</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06537900254128443</v>
+        <v>0.08346536879439681</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3096764751773823</v>
+        <v>0.1569044316663234</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02324365080550307</v>
+        <v>0.00448559645797604</v>
       </c>
       <c r="G250" t="n">
-        <v>0.308431801788786</v>
+        <v>0.05526987476338503</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02496374940339839</v>
+        <v>0.03229481288059147</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3106135634538509</v>
+        <v>0.1624895638197819</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04430586063382674</v>
+        <v>0.05801410415107841</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3123841369236519</v>
+        <v>0.1587324977220279</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0644703738874064</v>
+        <v>0.08353468799139946</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3113594994989985</v>
+        <v>0.1577571731427709</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02288257960055894</v>
+        <v>0.004499388175630406</v>
       </c>
       <c r="G251" t="n">
-        <v>0.310099000717374</v>
+        <v>0.05522423631728085</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02427397545550709</v>
+        <v>0.03208272923679718</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3122925556887366</v>
+        <v>0.1633678857863753</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04390183502171929</v>
+        <v>0.05799299432859795</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3140726998259419</v>
+        <v>0.159590511223228</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06365732144781705</v>
+        <v>0.08370444191041682</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3130425238206147</v>
+        <v>0.1586099146192183</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02051992280851443</v>
+        <v>0.004515799655206737</v>
       </c>
       <c r="G252" t="n">
-        <v>0.311766199645962</v>
+        <v>0.05517859787117668</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02398247922015233</v>
+        <v>0.03227082508549255</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3139715479236223</v>
+        <v>0.1642462077529687</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04319468295261961</v>
+        <v>0.05737219367612603</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3157612627282319</v>
+        <v>0.1604485247244281</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06243978319441967</v>
+        <v>0.08347463714716424</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3147255481422309</v>
+        <v>0.1594626560956657</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0221556587472921</v>
+        <v>0.004535058702089534</v>
       </c>
       <c r="G253" t="n">
-        <v>0.31343339857455</v>
+        <v>0.05513295942507251</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02378923694949185</v>
+        <v>0.0322591032059541</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3156505401585079</v>
+        <v>0.1651245297195621</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04218436102714945</v>
+        <v>0.05745170684852222</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3174498256305219</v>
+        <v>0.1613065382256283</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06171769709911795</v>
+        <v>0.08284528029735666</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3164085724638472</v>
+        <v>0.160315397572113</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01878976573481443</v>
+        <v>0.004557393121663325</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3151005975031381</v>
+        <v>0.05508732097896833</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02329422489568339</v>
+        <v>0.03204756637745848</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3173295323933936</v>
+        <v>0.1660028516861555</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04157082584593047</v>
+        <v>0.05793153850064628</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3191383885328119</v>
+        <v>0.1621645517268285</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05999100113381517</v>
+        <v>0.08361637795670923</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3180915967854633</v>
+        <v>0.1611681390485605</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01842222208900397</v>
+        <v>0.004583030719312653</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3167677964317261</v>
+        <v>0.05504168253286416</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02299741931088474</v>
+        <v>0.03223621737928237</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3190085246282793</v>
+        <v>0.1668811736527489</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04125403400958441</v>
+        <v>0.05791169328735774</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3208269514351019</v>
+        <v>0.1630225652280286</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05925963327041495</v>
+        <v>0.08298793672093702</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3197746211070795</v>
+        <v>0.1620208805250079</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01805300612778322</v>
+        <v>0.00461219930042199</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3184349953603142</v>
+        <v>0.05499604408675998</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02259879644725364</v>
+        <v>0.03202505899070231</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3206875168631649</v>
+        <v>0.1677594956193423</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04003394211873296</v>
+        <v>0.05749217586351629</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3225155143373919</v>
+        <v>0.1638805787292288</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05822353148082071</v>
+        <v>0.08265996318575497</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3214576454286958</v>
+        <v>0.1628736220014553</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01768209616907475</v>
+        <v>0.004645126670375865</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3201021942889022</v>
+        <v>0.05495040564065581</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02219833255694779</v>
+        <v>0.03191409399099494</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3223665090980507</v>
+        <v>0.1686378175859357</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03991050677399791</v>
+        <v>0.05787299088398162</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3242040772396819</v>
+        <v>0.1647385922304289</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05728263373693593</v>
+        <v>0.0831324639468784</v>
       </c>
       <c r="O257" t="n">
-        <v>0.323140669750312</v>
+        <v>0.1637263634779027</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02030947053080101</v>
+        <v>0.004682040634558848</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3217693932174902</v>
+        <v>0.05490476719455162</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02169600389212502</v>
+        <v>0.0319033251594369</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3240455013329364</v>
+        <v>0.1695161395525292</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03878368457600087</v>
+        <v>0.05765414300361327</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3258926401419719</v>
+        <v>0.1655966057316291</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05563687801066425</v>
+        <v>0.0831054456000222</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3248236940719282</v>
+        <v>0.1645791049543501</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01793510753088455</v>
+        <v>0.004723168998355384</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3234365921460783</v>
+        <v>0.05485912874844745</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02129178670494303</v>
+        <v>0.03219275527530481</v>
       </c>
       <c r="K259" t="n">
-        <v>0.325724493567822</v>
+        <v>0.1703944615191226</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03825343212536367</v>
+        <v>0.05783563687727095</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3275812030442619</v>
+        <v>0.1664546192328292</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05458620227390898</v>
+        <v>0.0833789147409017</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3265067183935444</v>
+        <v>0.1654318464307975</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01755898548724789</v>
+        <v>0.004768739567150015</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3251037910746663</v>
+        <v>0.05481349030234327</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0207856572475596</v>
+        <v>0.03208238711787524</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3274034858027077</v>
+        <v>0.171272783485716</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03751970602270788</v>
+        <v>0.05751747715981434</v>
       </c>
       <c r="M260" t="n">
-        <v>0.329269765946552</v>
+        <v>0.1673126327340294</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05423054449857373</v>
+        <v>0.08305287796523164</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3281897427151606</v>
+        <v>0.1662845879072449</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01818108271781356</v>
+        <v>0.004818980146327284</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3267709900032544</v>
+        <v>0.0547678518562391</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02057759177213243</v>
+        <v>0.03217222346642488</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3290824780375934</v>
+        <v>0.1721511054523094</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03658246286865535</v>
+        <v>0.057699668506103</v>
       </c>
       <c r="M261" t="n">
-        <v>0.330958328848842</v>
+        <v>0.1681706462352295</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05326984265656193</v>
+        <v>0.08252734186872734</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3298727670367768</v>
+        <v>0.1671373293836924</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01880137754050404</v>
+        <v>0.004874118541271705</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3284381889318424</v>
+        <v>0.05472221341013492</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01986756653081935</v>
+        <v>0.0319622671002303</v>
       </c>
       <c r="K262" t="n">
-        <v>0.330761470272479</v>
+        <v>0.1730294274189028</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03604165926382774</v>
+        <v>0.05768221557099662</v>
       </c>
       <c r="M262" t="n">
-        <v>0.332646891751132</v>
+        <v>0.1690286597364297</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05210403471977704</v>
+        <v>0.08280231304710378</v>
       </c>
       <c r="O262" t="n">
-        <v>0.331555791358393</v>
+        <v>0.1679900708601398</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0184198482732419</v>
+        <v>0.00493438255736775</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3301053878604304</v>
+        <v>0.05467657496403076</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01975555777577805</v>
+        <v>0.03185252079856814</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3324404625073648</v>
+        <v>0.1739077493854962</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03489725180884681</v>
+        <v>0.05716512300935486</v>
       </c>
       <c r="M263" t="n">
-        <v>0.334335454653422</v>
+        <v>0.1698866732376298</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05033305866012261</v>
+        <v>0.08297779809607614</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3332388156800092</v>
+        <v>0.1688428123365872</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01703647323394962</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3317725867890184</v>
+        <v>0.05463093651792658</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01924154175916629</v>
+        <v>0.03204298734071501</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3341194547422505</v>
+        <v>0.1747860713520897</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03424919710433416</v>
+        <v>0.05754839547603727</v>
       </c>
       <c r="M264" t="n">
-        <v>0.336024017555712</v>
+        <v>0.1707446867388299</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04935685244950205</v>
+        <v>0.08285380361135952</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3349218400016254</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1696955538130346</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05461777862318973</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005394935392687539</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05461804715165375</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005785958349275949</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05461831568011776</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006172945179656344</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05461858420858179</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006555772193669429</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0546188527370458</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006934315701206464</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05461912126550982</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007308452012141892</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05461938979397383</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007678057436366001</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05461965832243786</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.008043008283721023</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05461992685090187</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.008403180864097526</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05462019537936589</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008758451487369853</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0546204639078299</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.009108696463427518</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05462073243629393</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.009453792102114403</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05462100096475794</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009793614713320228</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05462126949322196</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01012804060691941</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05462153802168597</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01045694609280044</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05462180655015</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0107802074808091</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05462207507861401</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0110977010808342</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05462234360707802</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0114093032027501</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05462261213554204</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01171489015644436</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05462288066400606</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01201433825176472</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05462314919247008</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01230752379859899</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0546234177209341</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01259432310682156</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05462368624939811</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01287461248631883</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05462395477786214</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01314826824694079</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05462422330632615</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01341567176658717</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05462449183479016</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01367972976321027</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05462476036325418</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01394082361470868</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05462502889171821</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01419882963093404</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05462529742018222</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01445362412177217</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05462556594864623</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01470508339709743</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05462583447711025</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01495308376679491</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05462610300557427</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0151975015407174</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05462637153403829</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01543821302875012</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05462664006250231</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01567509454076746</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05462690859096632</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01590802238665384</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05462717711943035</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01613687287626338</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05462744564789436</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01636152231948061</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05462771417635837</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01658184702617996</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05462798270482239</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01679772330624509</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05462825123328641</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01700902746953155</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05462851976175043</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01721563582592324</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05462878829021444</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01741742468529452</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05462905681867845</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01761427035752819</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05462932534714248</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01780604915248156</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05462959387560649</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0179926373800376</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05462986240407051</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01817391135007072</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05463013093253453</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01834974737246282</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05463039946099855</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01852002175707297</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05463066798946257</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0186846108137833</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05463093651792658</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0186846108137833</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05461777862318973</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01891187672232962</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05466395412622195</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01913702381577131</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05471012962925415</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01935959272863029</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05475630513228637</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01957912409542818</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05480248063531857</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01979515855068681</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05484865613835078</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.02000723672892786</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05489483164138299</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.02021489926467318</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0549410071444152</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.02041768679244446</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05498718264744742</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.02061513994676342</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05503335815047962</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.02080679936215191</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05507953365351183</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.02099220567313155</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05512570915654404</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.02117089951422423</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05517188465957625</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0213424215199516</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05521806016260845</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02150631232483546</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05526423566564067</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.02166211256339759</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05531041116867288</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02180936287015965</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05535658667170509</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02194760387964351</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0554027621747373</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.02207637622637081</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0554489376777695</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.02219522054486339</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05549511318080171</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.02230367746964293</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05554128868383392</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02240128763523123</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05558746418686613</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02248759167615007</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05563363968989835</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02256213022692112</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05567981519293055</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.0226244439220662</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05572599069596276</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.02267557965653104</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05577216619899496</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02272425418311126</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05581834170202718</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.02277186848361698</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05586451720505938</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02281833267451548</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0559106927080916</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02286355687227398</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05595686821112381</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.02290745119335967</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05600304371415601</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.02294992575423982</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05604921921718823</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0229908906713816</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05609539472022043</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02303025606125228</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05614157022325265</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.02306793204031907</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05618774572628485</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.02310382872504921</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05623392122931706</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.02313785623190988</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05628009673234928</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02316992467736834</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05632627223538148</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0231999441778918</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0563724477384137</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.0232278248499475</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0564186232414459</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02325347681000266</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05646479874447811</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02327681017452449</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05651097424751032</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02329773505998023</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05655714975054253</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0233161615828371</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05660332525357475</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0233319998595623</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05664950075660695</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.02334516000662311</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05669567625963916</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02335555214048672</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05674185176267137</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02336308637762034</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05678802726570358</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.02336767283449122</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05683420276873578</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.02336922162756658</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.056880378271768</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.02336922162756658</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.056880378271768</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.02381675968146428</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.0584627227730056</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.02425530009777094</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06004506727424321</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02468465710359358</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06162741177548079</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02510464492603919</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06320975627671839</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02551507779221478</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.064792100777956</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02591576992922735</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0663744452791936</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02630653556418391</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0679567897804312</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0266871889241915</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0695391342816688</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02705754423635709</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07112147878290639</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02741741572778769</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.072703823284144</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02776661762559034</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07428616778538161</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.028104964156872</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0758685122866192</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02843226954873974</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07745085678785679</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02874834802830052</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0790332012890944</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02905301382266134</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.080615545790332</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02934608115892924</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08219789029156961</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02962736426421123</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.0837802347928072</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0298966773656143</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.0853625792940448</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.03015383469024546</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0869449237952824</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.03039865046521172</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08852726829652</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.03063093891762009</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0901096127977576</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.03085051427457758</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09169195729899519</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.03105719076319119</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.0932743018002328</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.03125078261056792</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09485664630147041</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0314311040438148</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.096438990802708</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.03159796929003883</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09802133530394561</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.03175119257634702</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.0996036798051832</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0318905881298464</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1011860243064208</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0320159701776439</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1027683688076584</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.03212715294684662</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.104350713308896</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.0322239506645615</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1059330578101336</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0323061775578956</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1075154023113712</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0323736478539559</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1090977468126088</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.03242617577984939</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1106800913138464</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.03246357556268312</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.112262435815084</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.03249229550342211</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1138447803163216</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.03249227274240922</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1154271248175592</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.03248806719597709</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1170094693187968</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03247696343097814</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1185918138200344</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03245948535681015</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.120174158321272</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0324361568828709</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1217565028225096</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03240750191855818</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1233388473237472</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03237404437326977</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1249211918249848</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03233630815640344</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1265035363262224</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03229481717735698</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.12808588082746</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03225009534552815</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1296682253286976</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03220266657031477</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1312505698299352</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03215305476111457</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1328329143311728</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03210178382732538</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1344152588324104</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03204937767834494</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.135997603333648</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03199600689423161</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1375799478348856</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03192597137571294</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1391622923361232</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03183453536175174</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1407446368373608</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03172714844670824</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1423269813385984</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0316092602249427</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.143909325839836</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0314863202908153</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1454916703410736</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03136377823868629</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1470740148423112</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03124708366291591</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1486563593435488</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03114168615786436</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03105303531789189</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.151821048346024</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03098658073735872</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1534033928472616</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03093689805551433</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1549857373484992</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03089025148711604</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1565680818497368</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03084634360915402</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1581504263509744</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03080499979541242</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.159732770852212</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03076604541967534</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1613151153534496</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03072930585572696</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1628974598546872</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03069460647735139</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1644798043559248</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03066177265833277</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1660621488571624</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03063062977245523</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1676444933584</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03060100319350291</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1692268378596376</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03057271829525993</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1708091823608752</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03054560045151043</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1723915268621128</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03051947503603855</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1739738713633504</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03049416742262842</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.175556215864588</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03046950298506419</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1771385603658256</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03044530709712995</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1787209048670632</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03042140513260989</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1803032493683008</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0303976224652881</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1818855938695384</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03037378446894871</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.183467938370776</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03034971651737592</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1850502828720136</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03032524398435378</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1866326273732512</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0303007037208045</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1882149718744888</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03027657356722122</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1897973163757264</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.0302528687049987</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.191379660876964</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03022960428837829</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1929620053782016</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03020679547160132</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1945443498794392</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.0301844574089091</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1961266943806768</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03016260525454295</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1977090388819144</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03014125416274417</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.199291383383152</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03012041928775414</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2008737278843896</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03010011578381416</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2024560723856272</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03008035880516555</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2040384168868648</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03006116350604963</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2056207613881024</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03004254504070775</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.20720310588934</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0300245185633812</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2087854503905776</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03000709922831132</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2103677948918152</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02999030218973944</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2119501393930528</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02997414260190689</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2135324838942904</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
